--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C92CCB-4C58-224A-8AB0-726FF7C7CA78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D700F27-4841-1349-934C-597871CB865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="620" windowWidth="37820" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3311,9 +3311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3351,7 +3351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3457,7 +3457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3599,7 +3599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3610,8 +3610,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -30640,7 +30640,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <sortState ref="A76:W462">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:W462">
       <sortCondition ref="A1:A462"/>
     </sortState>
   </autoFilter>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D700F27-4841-1349-934C-597871CB865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C0A32-C1A7-EB40-904A-D3C2175A6AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38340" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Done!$A$1:$W$462</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Working!$A$1:$Q$144</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3231,7 +3244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3250,6 +3263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3263,7 +3282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3293,6 +3312,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3607,11 +3627,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3712,7 +3733,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="21" t="s">
         <v>910</v>
       </c>
@@ -3774,7 +3795,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="21" t="s">
         <v>910</v>
       </c>
@@ -3836,7 +3857,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="21" t="s">
         <v>910</v>
       </c>
@@ -3898,7 +3919,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="21" t="s">
         <v>910</v>
       </c>
@@ -3960,7 +3981,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="21" t="s">
         <v>911</v>
       </c>
@@ -4019,7 +4040,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="21" t="s">
         <v>911</v>
       </c>
@@ -4078,7 +4099,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="21" t="s">
         <v>911</v>
       </c>
@@ -4137,7 +4158,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="21" t="s">
         <v>911</v>
       </c>
@@ -4196,7 +4217,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="21" t="s">
         <v>912</v>
       </c>
@@ -4258,7 +4279,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="21" t="s">
         <v>912</v>
       </c>
@@ -4320,7 +4341,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="21" t="s">
         <v>912</v>
       </c>
@@ -4382,7 +4403,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="21" t="s">
         <v>913</v>
       </c>
@@ -4441,7 +4462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="21" t="s">
         <v>913</v>
       </c>
@@ -4500,7 +4521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="21" t="s">
         <v>913</v>
       </c>
@@ -4559,7 +4580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="21" t="s">
         <v>913</v>
       </c>
@@ -4618,7 +4639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" hidden="1">
       <c r="A17" s="21" t="s">
         <v>913</v>
       </c>
@@ -4677,7 +4698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" hidden="1">
       <c r="A18" s="21" t="s">
         <v>914</v>
       </c>
@@ -4736,7 +4757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" hidden="1">
       <c r="A19" s="21" t="s">
         <v>914</v>
       </c>
@@ -4795,7 +4816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" hidden="1">
       <c r="A20" s="21" t="s">
         <v>914</v>
       </c>
@@ -4854,7 +4875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" hidden="1">
       <c r="A21" s="21" t="s">
         <v>914</v>
       </c>
@@ -4913,7 +4934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" hidden="1">
       <c r="A22" s="21" t="s">
         <v>914</v>
       </c>
@@ -4972,7 +4993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" hidden="1">
       <c r="A23" s="21" t="s">
         <v>914</v>
       </c>
@@ -5031,7 +5052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" hidden="1">
       <c r="A24" s="21" t="s">
         <v>914</v>
       </c>
@@ -5090,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" hidden="1">
       <c r="A25" s="21" t="s">
         <v>914</v>
       </c>
@@ -5149,7 +5170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" hidden="1">
       <c r="A26" s="21" t="s">
         <v>915</v>
       </c>
@@ -5208,7 +5229,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" hidden="1">
       <c r="A27" s="21" t="s">
         <v>915</v>
       </c>
@@ -5267,7 +5288,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" hidden="1">
       <c r="A28" s="21" t="s">
         <v>915</v>
       </c>
@@ -5326,7 +5347,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" hidden="1">
       <c r="A29" s="21" t="s">
         <v>915</v>
       </c>
@@ -5385,7 +5406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" hidden="1">
       <c r="A30" s="21" t="s">
         <v>915</v>
       </c>
@@ -5444,7 +5465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" hidden="1">
       <c r="A31" s="21" t="s">
         <v>916</v>
       </c>
@@ -5503,7 +5524,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" hidden="1">
       <c r="A32" s="21" t="s">
         <v>916</v>
       </c>
@@ -5562,7 +5583,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="21" t="s">
         <v>916</v>
       </c>
@@ -5621,7 +5642,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" hidden="1">
       <c r="A34" s="21" t="s">
         <v>916</v>
       </c>
@@ -5680,7 +5701,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" hidden="1">
       <c r="A35" s="21" t="s">
         <v>917</v>
       </c>
@@ -5739,7 +5760,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" hidden="1">
       <c r="A36" s="21" t="s">
         <v>917</v>
       </c>
@@ -5798,7 +5819,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" hidden="1">
       <c r="A37" s="21" t="s">
         <v>918</v>
       </c>
@@ -5863,7 +5884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" hidden="1">
       <c r="A38" s="21" t="s">
         <v>918</v>
       </c>
@@ -5925,7 +5946,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" s="21" t="s">
         <v>918</v>
       </c>
@@ -5987,7 +6008,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" s="21" t="s">
         <v>918</v>
       </c>
@@ -6049,7 +6070,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" hidden="1">
       <c r="A41" s="21" t="s">
         <v>919</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" hidden="1">
       <c r="A42" s="21" t="s">
         <v>919</v>
       </c>
@@ -6173,7 +6194,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" hidden="1">
       <c r="A43" s="21" t="s">
         <v>920</v>
       </c>
@@ -6232,7 +6253,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" hidden="1">
       <c r="A44" s="21" t="s">
         <v>920</v>
       </c>
@@ -6291,7 +6312,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" hidden="1">
       <c r="A45" s="21" t="s">
         <v>920</v>
       </c>
@@ -6350,7 +6371,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" hidden="1">
       <c r="A46" s="21" t="s">
         <v>920</v>
       </c>
@@ -6409,7 +6430,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" hidden="1">
       <c r="A47" s="21" t="s">
         <v>921</v>
       </c>
@@ -6468,7 +6489,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" hidden="1">
       <c r="A48" s="21" t="s">
         <v>921</v>
       </c>
@@ -6527,7 +6548,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" hidden="1">
       <c r="A49" s="21" t="s">
         <v>921</v>
       </c>
@@ -6586,7 +6607,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" hidden="1">
       <c r="A50" s="21" t="s">
         <v>921</v>
       </c>
@@ -6645,7 +6666,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" hidden="1">
       <c r="A51" s="21" t="s">
         <v>921</v>
       </c>
@@ -6704,7 +6725,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="21" t="s">
         <v>921</v>
       </c>
@@ -6763,7 +6784,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="21" t="s">
         <v>921</v>
       </c>
@@ -6822,7 +6843,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="21" t="s">
         <v>922</v>
       </c>
@@ -6884,7 +6905,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="21" t="s">
         <v>922</v>
       </c>
@@ -6946,7 +6967,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="21" t="s">
         <v>922</v>
       </c>
@@ -7008,7 +7029,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" hidden="1">
       <c r="A57" s="21" t="s">
         <v>923</v>
       </c>
@@ -7067,7 +7088,7 @@
         <v>4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" hidden="1">
       <c r="A58" s="21" t="s">
         <v>923</v>
       </c>
@@ -7126,7 +7147,7 @@
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" hidden="1">
       <c r="A59" s="21" t="s">
         <v>924</v>
       </c>
@@ -7185,7 +7206,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" hidden="1">
       <c r="A60" s="21" t="s">
         <v>924</v>
       </c>
@@ -7244,7 +7265,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" hidden="1">
       <c r="A61" s="21" t="s">
         <v>924</v>
       </c>
@@ -7303,7 +7324,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" hidden="1">
       <c r="A62" s="21" t="s">
         <v>924</v>
       </c>
@@ -7362,7 +7383,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" hidden="1">
       <c r="A63" s="21" t="s">
         <v>924</v>
       </c>
@@ -7421,7 +7442,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" hidden="1">
       <c r="A64" s="21" t="s">
         <v>924</v>
       </c>
@@ -7480,7 +7501,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" hidden="1">
       <c r="A65" s="21" t="s">
         <v>924</v>
       </c>
@@ -7539,7 +7560,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" hidden="1">
       <c r="A66" s="21" t="s">
         <v>924</v>
       </c>
@@ -7598,7 +7619,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" hidden="1">
       <c r="A67" s="21" t="s">
         <v>924</v>
       </c>
@@ -7657,7 +7678,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" hidden="1">
       <c r="A68" s="21" t="s">
         <v>924</v>
       </c>
@@ -7716,7 +7737,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" hidden="1">
       <c r="A69" s="21" t="s">
         <v>924</v>
       </c>
@@ -7775,7 +7796,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" hidden="1">
       <c r="A70" s="21" t="s">
         <v>924</v>
       </c>
@@ -7834,7 +7855,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" hidden="1">
       <c r="A71" s="21" t="s">
         <v>924</v>
       </c>
@@ -7893,7 +7914,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" hidden="1">
       <c r="A72" s="21" t="s">
         <v>925</v>
       </c>
@@ -7952,7 +7973,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" hidden="1">
       <c r="A73" s="21" t="s">
         <v>925</v>
       </c>
@@ -8011,7 +8032,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" hidden="1">
       <c r="A74" s="21" t="s">
         <v>925</v>
       </c>
@@ -8070,7 +8091,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" hidden="1">
       <c r="A75" s="21" t="s">
         <v>925</v>
       </c>
@@ -8129,193 +8150,193 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
-      <c r="A76" s="21" t="s">
+    <row r="76" spans="1:23" s="27" customFormat="1">
+      <c r="A76" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="27">
         <v>36</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G76" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H76" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I76" s="21" t="s">
+      <c r="I76" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="J76" s="21" t="s">
+      <c r="J76" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="K76" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L76" s="21" t="s">
+      <c r="K76" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="L76" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="M76" s="21" t="s">
+      <c r="M76" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="N76" s="21" t="s">
+      <c r="N76" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="O76" s="21" t="s">
+      <c r="O76" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="P76" s="21" t="s">
+      <c r="P76" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="Q76" s="21" t="s">
+      <c r="Q76" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="R76" s="21" t="s">
+      <c r="R76" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="U76" s="21" t="s">
+      <c r="U76" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="W76" s="21" t="s">
+      <c r="W76" s="27" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
-      <c r="A77" s="21" t="s">
+    <row r="77" spans="1:23" s="27" customFormat="1">
+      <c r="A77" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="27">
         <v>36</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I77" s="21" t="s">
+      <c r="I77" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="J77" s="21" t="s">
+      <c r="J77" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="K77" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L77" s="21" t="s">
+      <c r="K77" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="L77" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="M77" s="21" t="s">
+      <c r="M77" s="27" t="s">
         <v>808</v>
       </c>
-      <c r="N77" s="21" t="s">
+      <c r="N77" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="O77" s="21" t="s">
+      <c r="O77" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="P77" s="21" t="s">
+      <c r="P77" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="Q77" s="21" t="s">
+      <c r="Q77" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="R77" s="21" t="s">
+      <c r="R77" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="U77" s="21" t="s">
+      <c r="U77" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="W77" s="21" t="s">
+      <c r="W77" s="27" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
-      <c r="A78" s="21" t="s">
+    <row r="78" spans="1:23" s="27" customFormat="1">
+      <c r="A78" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="27">
         <v>36</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="G78" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="J78" s="21" t="s">
+      <c r="J78" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="K78" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L78" s="21" t="s">
+      <c r="K78" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="L78" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="M78" s="21" t="s">
+      <c r="M78" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="N78" s="21" t="s">
+      <c r="N78" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="O78" s="21" t="s">
+      <c r="O78" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="P78" s="21" t="s">
+      <c r="P78" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="Q78" s="21" t="s">
+      <c r="Q78" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="R78" s="21" t="s">
+      <c r="R78" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="U78" s="21" t="s">
+      <c r="U78" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="W78" s="21" t="s">
+      <c r="W78" s="27" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" hidden="1">
       <c r="A79" s="21" t="s">
         <v>927</v>
       </c>
@@ -8374,7 +8395,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" hidden="1">
       <c r="A80" s="21" t="s">
         <v>927</v>
       </c>
@@ -8433,7 +8454,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" hidden="1">
       <c r="A81" s="21" t="s">
         <v>927</v>
       </c>
@@ -8492,7 +8513,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" hidden="1">
       <c r="A82" s="21" t="s">
         <v>927</v>
       </c>
@@ -8551,7 +8572,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" hidden="1">
       <c r="A83" s="21" t="s">
         <v>927</v>
       </c>
@@ -8610,7 +8631,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" hidden="1">
       <c r="A84" s="21" t="s">
         <v>927</v>
       </c>
@@ -8669,7 +8690,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" hidden="1">
       <c r="A85" s="21" t="s">
         <v>928</v>
       </c>
@@ -8731,7 +8752,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" hidden="1">
       <c r="A86" s="21" t="s">
         <v>928</v>
       </c>
@@ -8793,7 +8814,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" hidden="1">
       <c r="A87" s="21" t="s">
         <v>928</v>
       </c>
@@ -8855,7 +8876,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" hidden="1">
       <c r="A88" s="21" t="s">
         <v>928</v>
       </c>
@@ -8917,7 +8938,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" hidden="1">
       <c r="A89" s="21" t="s">
         <v>928</v>
       </c>
@@ -8979,7 +9000,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" hidden="1">
       <c r="A90" s="21" t="s">
         <v>928</v>
       </c>
@@ -9041,7 +9062,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" hidden="1">
       <c r="A91" s="21" t="s">
         <v>929</v>
       </c>
@@ -9100,7 +9121,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" hidden="1">
       <c r="A92" s="21" t="s">
         <v>929</v>
       </c>
@@ -9159,7 +9180,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" hidden="1">
       <c r="A93" s="21" t="s">
         <v>930</v>
       </c>
@@ -9218,7 +9239,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" hidden="1">
       <c r="A94" s="21" t="s">
         <v>930</v>
       </c>
@@ -9277,7 +9298,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" hidden="1">
       <c r="A95" s="21" t="s">
         <v>930</v>
       </c>
@@ -9336,7 +9357,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" hidden="1">
       <c r="A96" s="21" t="s">
         <v>930</v>
       </c>
@@ -9395,7 +9416,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" hidden="1">
       <c r="A97" s="21" t="s">
         <v>930</v>
       </c>
@@ -9454,7 +9475,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" hidden="1">
       <c r="A98" s="21" t="s">
         <v>930</v>
       </c>
@@ -9513,7 +9534,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" hidden="1">
       <c r="A99" s="21" t="s">
         <v>930</v>
       </c>
@@ -9572,7 +9593,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" hidden="1">
       <c r="A100" s="21" t="s">
         <v>930</v>
       </c>
@@ -9631,7 +9652,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" hidden="1">
       <c r="A101" s="21" t="s">
         <v>930</v>
       </c>
@@ -9690,7 +9711,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" hidden="1">
       <c r="A102" s="21" t="s">
         <v>930</v>
       </c>
@@ -9749,7 +9770,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" hidden="1">
       <c r="A103" s="21" t="s">
         <v>930</v>
       </c>
@@ -9808,7 +9829,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" hidden="1">
       <c r="A104" s="21" t="s">
         <v>930</v>
       </c>
@@ -9867,7 +9888,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" hidden="1">
       <c r="A105" s="21" t="s">
         <v>931</v>
       </c>
@@ -9926,7 +9947,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" hidden="1">
       <c r="A106" s="21" t="s">
         <v>931</v>
       </c>
@@ -9985,7 +10006,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" hidden="1">
       <c r="A107" s="21" t="s">
         <v>931</v>
       </c>
@@ -10044,7 +10065,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" hidden="1">
       <c r="A108" s="21" t="s">
         <v>931</v>
       </c>
@@ -10103,7 +10124,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" hidden="1">
       <c r="A109" s="21" t="s">
         <v>931</v>
       </c>
@@ -10162,7 +10183,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" hidden="1">
       <c r="A110" s="21" t="s">
         <v>931</v>
       </c>
@@ -10221,7 +10242,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" hidden="1">
       <c r="A111" s="21" t="s">
         <v>931</v>
       </c>
@@ -10280,7 +10301,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" hidden="1">
       <c r="A112" s="21" t="s">
         <v>931</v>
       </c>
@@ -10339,7 +10360,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" hidden="1">
       <c r="A113" s="21" t="s">
         <v>931</v>
       </c>
@@ -10398,7 +10419,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" hidden="1">
       <c r="A114" s="21" t="s">
         <v>931</v>
       </c>
@@ -10457,7 +10478,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" hidden="1">
       <c r="A115" s="21" t="s">
         <v>932</v>
       </c>
@@ -10519,7 +10540,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" hidden="1">
       <c r="A116" s="21" t="s">
         <v>932</v>
       </c>
@@ -10581,7 +10602,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" hidden="1">
       <c r="A117" s="21" t="s">
         <v>932</v>
       </c>
@@ -10643,7 +10664,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" hidden="1">
       <c r="A118" s="21" t="s">
         <v>932</v>
       </c>
@@ -10705,7 +10726,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" hidden="1">
       <c r="A119" s="21" t="s">
         <v>932</v>
       </c>
@@ -10767,7 +10788,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" hidden="1">
       <c r="A120" s="21" t="s">
         <v>932</v>
       </c>
@@ -10829,7 +10850,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" hidden="1">
       <c r="A121" s="21" t="s">
         <v>933</v>
       </c>
@@ -10891,7 +10912,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" hidden="1">
       <c r="A122" s="21" t="s">
         <v>933</v>
       </c>
@@ -10953,7 +10974,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" hidden="1">
       <c r="A123" s="21" t="s">
         <v>933</v>
       </c>
@@ -11015,7 +11036,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" hidden="1">
       <c r="A124" s="21" t="s">
         <v>933</v>
       </c>
@@ -11077,7 +11098,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" hidden="1">
       <c r="A125" s="21" t="s">
         <v>933</v>
       </c>
@@ -11139,7 +11160,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" hidden="1">
       <c r="A126" s="21" t="s">
         <v>933</v>
       </c>
@@ -11201,7 +11222,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" hidden="1">
       <c r="A127" s="21" t="s">
         <v>933</v>
       </c>
@@ -11263,7 +11284,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" hidden="1">
       <c r="A128" s="21" t="s">
         <v>933</v>
       </c>
@@ -11325,7 +11346,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" hidden="1">
       <c r="A129" s="21" t="s">
         <v>933</v>
       </c>
@@ -11387,7 +11408,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" hidden="1">
       <c r="A130" s="21" t="s">
         <v>933</v>
       </c>
@@ -11449,7 +11470,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" hidden="1">
       <c r="A131" s="21" t="s">
         <v>933</v>
       </c>
@@ -11511,7 +11532,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" hidden="1">
       <c r="A132" s="21" t="s">
         <v>933</v>
       </c>
@@ -11573,7 +11594,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" hidden="1">
       <c r="A133" s="21" t="s">
         <v>934</v>
       </c>
@@ -11632,7 +11653,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" hidden="1">
       <c r="A134" s="21" t="s">
         <v>934</v>
       </c>
@@ -11691,7 +11712,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" hidden="1">
       <c r="A135" s="21" t="s">
         <v>934</v>
       </c>
@@ -11750,7 +11771,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" hidden="1">
       <c r="A136" s="21" t="s">
         <v>934</v>
       </c>
@@ -11809,7 +11830,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" hidden="1">
       <c r="A137" s="21" t="s">
         <v>934</v>
       </c>
@@ -11868,7 +11889,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" hidden="1">
       <c r="A138" s="21" t="s">
         <v>934</v>
       </c>
@@ -11927,7 +11948,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" hidden="1">
       <c r="A139" s="21" t="s">
         <v>935</v>
       </c>
@@ -11989,7 +12010,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" hidden="1">
       <c r="A140" s="21" t="s">
         <v>936</v>
       </c>
@@ -12054,7 +12075,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" hidden="1">
       <c r="A141" s="21" t="s">
         <v>936</v>
       </c>
@@ -12119,7 +12140,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" hidden="1">
       <c r="A142" s="21" t="s">
         <v>936</v>
       </c>
@@ -12184,7 +12205,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" hidden="1">
       <c r="A143" s="21" t="s">
         <v>1009</v>
       </c>
@@ -12243,7 +12264,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" hidden="1">
       <c r="A144" s="21" t="s">
         <v>937</v>
       </c>
@@ -12302,7 +12323,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" hidden="1">
       <c r="A145" s="21" t="s">
         <v>937</v>
       </c>
@@ -12361,7 +12382,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" hidden="1">
       <c r="A146" s="21" t="s">
         <v>937</v>
       </c>
@@ -12420,7 +12441,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" hidden="1">
       <c r="A147" s="21" t="s">
         <v>937</v>
       </c>
@@ -12479,7 +12500,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" hidden="1">
       <c r="A148" s="21" t="s">
         <v>938</v>
       </c>
@@ -12544,7 +12565,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" hidden="1">
       <c r="A149" s="21" t="s">
         <v>938</v>
       </c>
@@ -12609,7 +12630,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" hidden="1">
       <c r="A150" s="21" t="s">
         <v>938</v>
       </c>
@@ -12674,7 +12695,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" hidden="1">
       <c r="A151" s="21" t="s">
         <v>939</v>
       </c>
@@ -12733,7 +12754,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" hidden="1">
       <c r="A152" s="21" t="s">
         <v>940</v>
       </c>
@@ -12792,7 +12813,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" hidden="1">
       <c r="A153" s="21" t="s">
         <v>940</v>
       </c>
@@ -12851,7 +12872,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" hidden="1">
       <c r="A154" s="21" t="s">
         <v>1010</v>
       </c>
@@ -12913,7 +12934,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" hidden="1">
       <c r="A155" s="21" t="s">
         <v>1010</v>
       </c>
@@ -12975,7 +12996,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" hidden="1">
       <c r="A156" s="21" t="s">
         <v>941</v>
       </c>
@@ -13037,7 +13058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" hidden="1">
       <c r="A157" s="21" t="s">
         <v>941</v>
       </c>
@@ -13099,7 +13120,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" hidden="1">
       <c r="A158" s="21" t="s">
         <v>941</v>
       </c>
@@ -13161,7 +13182,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" hidden="1">
       <c r="A159" s="21" t="s">
         <v>941</v>
       </c>
@@ -13223,7 +13244,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" hidden="1">
       <c r="A160" s="21" t="s">
         <v>941</v>
       </c>
@@ -13285,7 +13306,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="21" t="s">
         <v>941</v>
       </c>
@@ -13347,7 +13368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="21" t="s">
         <v>941</v>
       </c>
@@ -13409,7 +13430,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="21" t="s">
         <v>941</v>
       </c>
@@ -13471,7 +13492,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="21" t="s">
         <v>941</v>
       </c>
@@ -13533,7 +13554,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" hidden="1">
       <c r="A165" s="21" t="s">
         <v>941</v>
       </c>
@@ -13595,7 +13616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" hidden="1">
       <c r="A166" s="21" t="s">
         <v>941</v>
       </c>
@@ -13657,7 +13678,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" hidden="1">
       <c r="A167" s="21" t="s">
         <v>941</v>
       </c>
@@ -13719,7 +13740,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" hidden="1">
       <c r="A168" s="21" t="s">
         <v>941</v>
       </c>
@@ -13781,7 +13802,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" hidden="1">
       <c r="A169" s="21" t="s">
         <v>941</v>
       </c>
@@ -13843,7 +13864,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" hidden="1">
       <c r="A170" s="21" t="s">
         <v>941</v>
       </c>
@@ -13905,7 +13926,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" hidden="1">
       <c r="A171" s="21" t="s">
         <v>941</v>
       </c>
@@ -13967,7 +13988,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" hidden="1">
       <c r="A172" s="21" t="s">
         <v>941</v>
       </c>
@@ -14029,7 +14050,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" hidden="1">
       <c r="A173" s="21" t="s">
         <v>941</v>
       </c>
@@ -14091,7 +14112,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" hidden="1">
       <c r="A174" s="21" t="s">
         <v>941</v>
       </c>
@@ -14153,7 +14174,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" hidden="1">
       <c r="A175" s="21" t="s">
         <v>941</v>
       </c>
@@ -14215,7 +14236,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" hidden="1">
       <c r="A176" s="21" t="s">
         <v>941</v>
       </c>
@@ -14277,7 +14298,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" hidden="1">
       <c r="A177" s="21" t="s">
         <v>941</v>
       </c>
@@ -14339,7 +14360,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" hidden="1">
       <c r="A178" s="21" t="s">
         <v>941</v>
       </c>
@@ -14401,7 +14422,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" hidden="1">
       <c r="A179" s="21" t="s">
         <v>941</v>
       </c>
@@ -14463,7 +14484,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" hidden="1">
       <c r="A180" s="21" t="s">
         <v>942</v>
       </c>
@@ -14525,7 +14546,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" hidden="1">
       <c r="A181" s="21" t="s">
         <v>942</v>
       </c>
@@ -14587,7 +14608,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" hidden="1">
       <c r="A182" s="21" t="s">
         <v>943</v>
       </c>
@@ -14643,7 +14664,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" hidden="1">
       <c r="A183" s="21" t="s">
         <v>943</v>
       </c>
@@ -14699,7 +14720,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" hidden="1">
       <c r="A184" s="21" t="s">
         <v>943</v>
       </c>
@@ -14755,7 +14776,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" hidden="1">
       <c r="A185" s="21" t="s">
         <v>944</v>
       </c>
@@ -14814,7 +14835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" hidden="1">
       <c r="A186" s="21" t="s">
         <v>944</v>
       </c>
@@ -14873,7 +14894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" hidden="1">
       <c r="A187" s="21" t="s">
         <v>945</v>
       </c>
@@ -14932,7 +14953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" hidden="1">
       <c r="A188" s="21" t="s">
         <v>945</v>
       </c>
@@ -17420,7 +17441,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" hidden="1">
       <c r="A232" s="21" t="s">
         <v>956</v>
       </c>
@@ -17479,7 +17500,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" hidden="1">
       <c r="A233" s="21" t="s">
         <v>956</v>
       </c>
@@ -17538,7 +17559,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" hidden="1">
       <c r="A234" s="21" t="s">
         <v>957</v>
       </c>
@@ -17600,7 +17621,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" hidden="1">
       <c r="A235" s="21" t="s">
         <v>958</v>
       </c>
@@ -17656,7 +17677,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" hidden="1">
       <c r="A236" s="21" t="s">
         <v>958</v>
       </c>
@@ -18343,115 +18364,115 @@
         <v>892</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
-      <c r="A248" s="21" t="s">
+    <row r="248" spans="1:23" s="27" customFormat="1">
+      <c r="A248" s="27" t="s">
         <v>1012</v>
       </c>
-      <c r="B248" s="21">
+      <c r="B248" s="27">
         <v>163</v>
       </c>
-      <c r="C248" s="21" t="s">
+      <c r="C248" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D248" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E248" s="21" t="s">
+      <c r="D248" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E248" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="F248" s="21" t="s">
+      <c r="F248" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="G248" s="21" t="s">
+      <c r="G248" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H248" s="21" t="s">
+      <c r="H248" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="I248" s="21" t="s">
+      <c r="I248" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="J248" s="21" t="s">
+      <c r="J248" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="K248" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L248" s="21" t="s">
+      <c r="K248" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="L248" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="M248" s="21" t="s">
+      <c r="M248" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="N248" s="21" t="s">
+      <c r="N248" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="O248" s="21" t="s">
+      <c r="O248" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="P248" s="21" t="s">
+      <c r="P248" s="27" t="s">
         <v>655</v>
       </c>
-      <c r="Q248" s="21" t="s">
+      <c r="Q248" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="R248" s="21" t="s">
+      <c r="R248" s="27" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
-      <c r="A249" s="21" t="s">
+    <row r="249" spans="1:23" s="27" customFormat="1">
+      <c r="A249" s="27" t="s">
         <v>1012</v>
       </c>
-      <c r="B249" s="21">
+      <c r="B249" s="27">
         <v>163</v>
       </c>
-      <c r="C249" s="21" t="s">
+      <c r="C249" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D249" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E249" s="21" t="s">
+      <c r="D249" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E249" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="F249" s="21" t="s">
+      <c r="F249" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="G249" s="21" t="s">
+      <c r="G249" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H249" s="21" t="s">
+      <c r="H249" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="I249" s="21" t="s">
+      <c r="I249" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="J249" s="21" t="s">
+      <c r="J249" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="K249" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L249" s="21" t="s">
+      <c r="K249" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="L249" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="M249" s="21" t="s">
+      <c r="M249" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="N249" s="21" t="s">
+      <c r="N249" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="O249" s="21" t="s">
+      <c r="O249" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="P249" s="21" t="s">
+      <c r="P249" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="Q249" s="21" t="s">
+      <c r="Q249" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="R249" s="21" t="s">
+      <c r="R249" s="27" t="s">
         <v>892</v>
       </c>
     </row>
@@ -18959,7 +18980,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" hidden="1">
       <c r="A259" s="21" t="s">
         <v>965</v>
       </c>
@@ -19015,7 +19036,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" hidden="1">
       <c r="A260" s="21" t="s">
         <v>965</v>
       </c>
@@ -19071,7 +19092,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" hidden="1">
       <c r="A261" s="21" t="s">
         <v>965</v>
       </c>
@@ -19466,7 +19487,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" hidden="1">
       <c r="A268" s="21" t="s">
         <v>957</v>
       </c>
@@ -19528,7 +19549,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" hidden="1">
       <c r="A269" s="21" t="s">
         <v>966</v>
       </c>
@@ -19590,7 +19611,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" hidden="1">
       <c r="A270" s="21" t="s">
         <v>966</v>
       </c>
@@ -19997,7 +20018,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" hidden="1">
       <c r="A277" s="21" t="s">
         <v>966</v>
       </c>
@@ -20059,7 +20080,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" hidden="1">
       <c r="A278" s="21" t="s">
         <v>967</v>
       </c>
@@ -20124,7 +20145,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" hidden="1">
       <c r="A279" s="21" t="s">
         <v>967</v>
       </c>
@@ -20189,7 +20210,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" hidden="1">
       <c r="A280" s="21" t="s">
         <v>967</v>
       </c>
@@ -20254,7 +20275,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" hidden="1">
       <c r="A281" s="21" t="s">
         <v>1011</v>
       </c>
@@ -20319,7 +20340,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" hidden="1">
       <c r="A282" s="21" t="s">
         <v>1011</v>
       </c>
@@ -20384,7 +20405,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" hidden="1">
       <c r="A283" s="21" t="s">
         <v>1011</v>
       </c>
@@ -20449,7 +20470,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" hidden="1">
       <c r="A284" s="21" t="s">
         <v>1012</v>
       </c>
@@ -20508,7 +20529,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" hidden="1">
       <c r="A285" s="21" t="s">
         <v>1012</v>
       </c>
@@ -23931,7 +23952,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" hidden="1">
       <c r="A345" s="21" t="s">
         <v>978</v>
       </c>
@@ -24214,7 +24235,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" hidden="1">
       <c r="A350" s="21" t="s">
         <v>980</v>
       </c>
@@ -24727,7 +24748,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" hidden="1">
       <c r="A359" s="21" t="s">
         <v>984</v>
       </c>
@@ -24783,7 +24804,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" hidden="1">
       <c r="A360" s="21" t="s">
         <v>984</v>
       </c>
@@ -24839,7 +24860,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" hidden="1">
       <c r="A361" s="21" t="s">
         <v>984</v>
       </c>
@@ -24895,7 +24916,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" hidden="1">
       <c r="A362" s="21" t="s">
         <v>985</v>
       </c>
@@ -24951,7 +24972,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" hidden="1">
       <c r="A363" s="21" t="s">
         <v>985</v>
       </c>
@@ -25007,7 +25028,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" hidden="1">
       <c r="A364" s="21" t="s">
         <v>985</v>
       </c>
@@ -25063,7 +25084,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" hidden="1">
       <c r="A365" s="21" t="s">
         <v>985</v>
       </c>
@@ -25119,7 +25140,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" hidden="1">
       <c r="A366" s="21" t="s">
         <v>980</v>
       </c>
@@ -25178,7 +25199,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" hidden="1">
       <c r="A367" s="21" t="s">
         <v>980</v>
       </c>
@@ -25237,7 +25258,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" hidden="1">
       <c r="A368" s="21" t="s">
         <v>980</v>
       </c>
@@ -25296,7 +25317,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" hidden="1">
       <c r="A369" s="21" t="s">
         <v>980</v>
       </c>
@@ -25355,7 +25376,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" hidden="1">
       <c r="A370" s="21" t="s">
         <v>980</v>
       </c>
@@ -26982,7 +27003,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" hidden="1">
       <c r="A399" s="21" t="s">
         <v>993</v>
       </c>
@@ -27038,7 +27059,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" hidden="1">
       <c r="A400" s="21" t="s">
         <v>993</v>
       </c>
@@ -27094,7 +27115,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" hidden="1">
       <c r="A401" s="21" t="s">
         <v>994</v>
       </c>
@@ -27153,7 +27174,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" hidden="1">
       <c r="A402" s="21" t="s">
         <v>994</v>
       </c>
@@ -27212,7 +27233,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" hidden="1">
       <c r="A403" s="21" t="s">
         <v>994</v>
       </c>
@@ -27271,7 +27292,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" hidden="1">
       <c r="A404" s="21" t="s">
         <v>994</v>
       </c>
@@ -27330,7 +27351,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" hidden="1">
       <c r="A405" s="21" t="s">
         <v>994</v>
       </c>
@@ -27389,7 +27410,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" hidden="1">
       <c r="A406" s="21" t="s">
         <v>994</v>
       </c>
@@ -27448,7 +27469,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" hidden="1">
       <c r="A407" s="21" t="s">
         <v>994</v>
       </c>
@@ -27507,7 +27528,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" hidden="1">
       <c r="A408" s="21" t="s">
         <v>994</v>
       </c>
@@ -27566,7 +27587,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="409" spans="1:23">
+    <row r="409" spans="1:23" hidden="1">
       <c r="A409" s="21" t="s">
         <v>980</v>
       </c>
@@ -27625,7 +27646,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:23">
+    <row r="410" spans="1:23" hidden="1">
       <c r="A410" s="21" t="s">
         <v>980</v>
       </c>
@@ -28132,7 +28153,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" hidden="1">
       <c r="A419" s="21" t="s">
         <v>980</v>
       </c>
@@ -28191,7 +28212,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" hidden="1">
       <c r="A420" s="21" t="s">
         <v>980</v>
       </c>
@@ -28250,7 +28271,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" hidden="1">
       <c r="A421" s="21" t="s">
         <v>980</v>
       </c>
@@ -28309,7 +28330,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" hidden="1">
       <c r="A422" s="21" t="s">
         <v>996</v>
       </c>
@@ -28365,7 +28386,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" hidden="1">
       <c r="A423" s="21" t="s">
         <v>996</v>
       </c>
@@ -28421,7 +28442,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" hidden="1">
       <c r="A424" s="21" t="s">
         <v>996</v>
       </c>
@@ -29037,7 +29058,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="435" spans="1:23">
+    <row r="435" spans="1:23" hidden="1">
       <c r="A435" s="21" t="s">
         <v>980</v>
       </c>
@@ -29096,7 +29117,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:23">
+    <row r="436" spans="1:23" hidden="1">
       <c r="A436" s="21" t="s">
         <v>980</v>
       </c>
@@ -29155,7 +29176,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:23">
+    <row r="437" spans="1:23" hidden="1">
       <c r="A437" s="21" t="s">
         <v>980</v>
       </c>
@@ -29382,7 +29403,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="441" spans="1:23">
+    <row r="441" spans="1:23" hidden="1">
       <c r="A441" s="21" t="s">
         <v>980</v>
       </c>
@@ -29500,7 +29521,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" spans="1:23" hidden="1">
       <c r="A443" s="21" t="s">
         <v>980</v>
       </c>
@@ -29618,7 +29639,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" hidden="1">
       <c r="A445" s="21" t="s">
         <v>1000</v>
       </c>
@@ -29677,7 +29698,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" spans="1:23" hidden="1">
       <c r="A446" s="21" t="s">
         <v>1000</v>
       </c>
@@ -29851,7 +29872,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" spans="1:23" hidden="1">
       <c r="A449" s="21" t="s">
         <v>1002</v>
       </c>
@@ -29910,7 +29931,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" spans="1:23" hidden="1">
       <c r="A450" s="21" t="s">
         <v>1003</v>
       </c>
@@ -30640,6 +30661,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="derived"/>
+        <filter val="digitized"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:W462">
       <sortCondition ref="A1:A462"/>
     </sortState>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C0A32-C1A7-EB40-904A-D3C2175A6AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A21D2-872E-7745-A351-3DC856AB952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38340" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3631,8 +3631,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T405" sqref="T405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -8150,7 +8150,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="27" customFormat="1">
+    <row r="76" spans="1:23" s="27" customFormat="1" hidden="1">
       <c r="A76" s="27" t="s">
         <v>926</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="27" customFormat="1">
+    <row r="77" spans="1:23" s="27" customFormat="1" hidden="1">
       <c r="A77" s="27" t="s">
         <v>926</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="27" customFormat="1">
+    <row r="78" spans="1:23" s="27" customFormat="1" hidden="1">
       <c r="A78" s="27" t="s">
         <v>926</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:23" s="23" customFormat="1">
+    <row r="189" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A189" s="23" t="s">
         <v>953</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="23" customFormat="1">
+    <row r="190" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A190" s="23" t="s">
         <v>953</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="23" customFormat="1">
+    <row r="191" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A191" s="23" t="s">
         <v>953</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="23" customFormat="1">
+    <row r="192" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A192" s="23" t="s">
         <v>953</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="193" spans="1:23" s="23" customFormat="1">
+    <row r="193" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A193" s="23" t="s">
         <v>953</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="194" spans="1:23" s="23" customFormat="1">
+    <row r="194" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A194" s="23" t="s">
         <v>959</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:23" s="23" customFormat="1">
+    <row r="195" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A195" s="23" t="s">
         <v>972</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="196" spans="1:23" s="23" customFormat="1">
+    <row r="196" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A196" s="23" t="s">
         <v>972</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="197" spans="1:23" s="23" customFormat="1">
+    <row r="197" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A197" s="23" t="s">
         <v>972</v>
       </c>
@@ -15528,287 +15528,287 @@
         <v>762</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
-      <c r="A198" s="21" t="s">
+    <row r="198" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A198" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="B198" s="21">
+      <c r="B198" s="23">
         <v>126</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D198" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E198" s="21" t="s">
+      <c r="D198" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E198" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F198" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="G198" s="21" t="s">
+      <c r="G198" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H198" s="21" t="s">
+      <c r="H198" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="I198" s="21" t="s">
+      <c r="I198" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="J198" s="21" t="s">
+      <c r="J198" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K198" s="21" t="s">
+      <c r="K198" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L198" s="21" t="s">
+      <c r="L198" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="M198" s="21" t="s">
+      <c r="M198" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="N198" s="21" t="s">
+      <c r="N198" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O198" s="21" t="s">
+      <c r="O198" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P198" s="21" t="s">
+      <c r="P198" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q198" s="21" t="s">
+      <c r="Q198" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R198" s="21" t="s">
+      <c r="R198" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
-      <c r="A199" s="21" t="s">
+    <row r="199" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A199" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="B199" s="21">
+      <c r="B199" s="23">
         <v>126</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D199" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E199" s="21" t="s">
+      <c r="D199" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E199" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="F199" s="21" t="s">
+      <c r="F199" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="G199" s="21" t="s">
+      <c r="G199" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H199" s="21" t="s">
+      <c r="H199" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="I199" s="21" t="s">
+      <c r="I199" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="J199" s="21" t="s">
+      <c r="J199" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K199" s="21" t="s">
+      <c r="K199" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L199" s="21" t="s">
+      <c r="L199" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="M199" s="21" t="s">
+      <c r="M199" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="N199" s="21" t="s">
+      <c r="N199" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O199" s="21" t="s">
+      <c r="O199" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P199" s="21" t="s">
+      <c r="P199" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q199" s="21" t="s">
+      <c r="Q199" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R199" s="21" t="s">
+      <c r="R199" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
-      <c r="A200" s="21" t="s">
+    <row r="200" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A200" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="B200" s="21">
+      <c r="B200" s="23">
         <v>126</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D200" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E200" s="21" t="s">
+      <c r="D200" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E200" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="F200" s="21" t="s">
+      <c r="F200" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="G200" s="21" t="s">
+      <c r="G200" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H200" s="21" t="s">
+      <c r="H200" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="I200" s="21" t="s">
+      <c r="I200" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="J200" s="21" t="s">
+      <c r="J200" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K200" s="21" t="s">
+      <c r="K200" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L200" s="21" t="s">
+      <c r="L200" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="M200" s="21" t="s">
+      <c r="M200" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="N200" s="21" t="s">
+      <c r="N200" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O200" s="21" t="s">
+      <c r="O200" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P200" s="21" t="s">
+      <c r="P200" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q200" s="21" t="s">
+      <c r="Q200" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R200" s="21" t="s">
+      <c r="R200" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
-      <c r="A201" s="21" t="s">
+    <row r="201" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A201" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="B201" s="21">
+      <c r="B201" s="23">
         <v>126</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D201" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E201" s="21" t="s">
+      <c r="D201" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E201" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="F201" s="21" t="s">
+      <c r="F201" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G201" s="21" t="s">
+      <c r="G201" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H201" s="21" t="s">
+      <c r="H201" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="I201" s="21" t="s">
+      <c r="I201" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="J201" s="21" t="s">
+      <c r="J201" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K201" s="21" t="s">
+      <c r="K201" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L201" s="21" t="s">
+      <c r="L201" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="M201" s="21" t="s">
+      <c r="M201" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="N201" s="21" t="s">
+      <c r="N201" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O201" s="21" t="s">
+      <c r="O201" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P201" s="21" t="s">
+      <c r="P201" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q201" s="21" t="s">
+      <c r="Q201" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R201" s="21" t="s">
+      <c r="R201" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
-      <c r="A202" s="21" t="s">
+    <row r="202" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A202" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="B202" s="21">
+      <c r="B202" s="23">
         <v>126</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D202" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E202" s="21" t="s">
+      <c r="D202" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E202" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="F202" s="21" t="s">
+      <c r="F202" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G202" s="21" t="s">
+      <c r="G202" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H202" s="21" t="s">
+      <c r="H202" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="I202" s="21" t="s">
+      <c r="I202" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="J202" s="21" t="s">
+      <c r="J202" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K202" s="21" t="s">
+      <c r="K202" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L202" s="21" t="s">
+      <c r="L202" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="M202" s="21" t="s">
+      <c r="M202" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="N202" s="21" t="s">
+      <c r="N202" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O202" s="21" t="s">
+      <c r="O202" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P202" s="21" t="s">
+      <c r="P202" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q202" s="21" t="s">
+      <c r="Q202" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R202" s="21" t="s">
+      <c r="R202" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="203" spans="1:23" s="23" customFormat="1">
+    <row r="203" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A203" s="23" t="s">
         <v>1014</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="204" spans="1:23" s="23" customFormat="1">
+    <row r="204" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A204" s="23" t="s">
         <v>1014</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="205" spans="1:23" s="23" customFormat="1">
+    <row r="205" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A205" s="23" t="s">
         <v>1014</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="206" spans="1:23" s="23" customFormat="1">
+    <row r="206" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A206" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="207" spans="1:23" s="23" customFormat="1">
+    <row r="207" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A207" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="208" spans="1:23" s="23" customFormat="1">
+    <row r="208" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A208" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="209" spans="1:18" s="23" customFormat="1">
+    <row r="209" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A209" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="210" spans="1:18" s="23" customFormat="1">
+    <row r="210" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A210" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="211" spans="1:18" s="23" customFormat="1">
+    <row r="211" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A211" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="23" customFormat="1">
+    <row r="212" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A212" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="213" spans="1:18" s="23" customFormat="1">
+    <row r="213" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A213" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="214" spans="1:18" s="23" customFormat="1">
+    <row r="214" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A214" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="215" spans="1:18" s="23" customFormat="1">
+    <row r="215" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A215" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="216" spans="1:18" s="23" customFormat="1">
+    <row r="216" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A216" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="217" spans="1:18" s="23" customFormat="1">
+    <row r="217" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A217" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="218" spans="1:18" s="23" customFormat="1">
+    <row r="218" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A218" s="23" t="s">
         <v>1014</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="219" spans="1:18" s="23" customFormat="1">
+    <row r="219" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A219" s="23" t="s">
         <v>982</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="220" spans="1:18" s="23" customFormat="1">
+    <row r="220" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A220" s="23" t="s">
         <v>982</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="221" spans="1:18" s="23" customFormat="1">
+    <row r="221" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A221" s="23" t="s">
         <v>1005</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="222" spans="1:18" s="23" customFormat="1">
+    <row r="222" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A222" s="23" t="s">
         <v>1005</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="223" spans="1:18" s="23" customFormat="1">
+    <row r="223" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A223" s="23" t="s">
         <v>1005</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="224" spans="1:18" s="23" customFormat="1">
+    <row r="224" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A224" s="23" t="s">
         <v>1005</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="225" spans="1:23" s="23" customFormat="1">
+    <row r="225" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A225" s="23" t="s">
         <v>1005</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="226" spans="1:23" s="23" customFormat="1">
+    <row r="226" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A226" s="23" t="s">
         <v>1005</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="227" spans="1:23" s="23" customFormat="1">
+    <row r="227" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A227" s="23" t="s">
         <v>1005</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="228" spans="1:23" s="23" customFormat="1">
+    <row r="228" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A228" s="23" t="s">
         <v>989</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="229" spans="1:23" s="23" customFormat="1">
+    <row r="229" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A229" s="23" t="s">
         <v>1006</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="230" spans="1:23" s="23" customFormat="1">
+    <row r="230" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A230" s="23" t="s">
         <v>949</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="231" spans="1:23" s="23" customFormat="1">
+    <row r="231" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A231" s="23" t="s">
         <v>949</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1">
+    <row r="235" spans="1:23">
       <c r="A235" s="21" t="s">
         <v>958</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1">
+    <row r="236" spans="1:23">
       <c r="A236" s="21" t="s">
         <v>958</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="237" spans="1:23" s="23" customFormat="1">
+    <row r="237" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A237" s="23" t="s">
         <v>949</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="238" spans="1:23" s="23" customFormat="1">
+    <row r="238" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A238" s="23" t="s">
         <v>949</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="239" spans="1:23" s="23" customFormat="1">
+    <row r="239" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A239" s="23" t="s">
         <v>949</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="240" spans="1:23" s="23" customFormat="1">
+    <row r="240" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A240" s="23" t="s">
         <v>949</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="241" spans="1:23" s="23" customFormat="1">
+    <row r="241" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A241" s="23" t="s">
         <v>969</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="242" spans="1:23" s="23" customFormat="1">
+    <row r="242" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A242" s="23" t="s">
         <v>960</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="243" spans="1:23" s="23" customFormat="1">
+    <row r="243" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A243" s="23" t="s">
         <v>960</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="244" spans="1:23" s="23" customFormat="1">
+    <row r="244" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A244" s="23" t="s">
         <v>960</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="245" spans="1:23" s="23" customFormat="1">
+    <row r="245" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A245" s="23" t="s">
         <v>960</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="246" spans="1:23" s="23" customFormat="1">
+    <row r="246" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A246" s="23" t="s">
         <v>983</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="247" spans="1:23" s="23" customFormat="1">
+    <row r="247" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A247" s="23" t="s">
         <v>983</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="248" spans="1:23" s="27" customFormat="1">
+    <row r="248" spans="1:23" s="27" customFormat="1" hidden="1">
       <c r="A248" s="27" t="s">
         <v>1012</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="249" spans="1:23" s="27" customFormat="1">
+    <row r="249" spans="1:23" s="27" customFormat="1" hidden="1">
       <c r="A249" s="27" t="s">
         <v>1012</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="250" spans="1:23" s="23" customFormat="1">
+    <row r="250" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A250" s="23" t="s">
         <v>962</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="251" spans="1:23" s="23" customFormat="1">
+    <row r="251" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A251" s="23" t="s">
         <v>962</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="252" spans="1:23" s="23" customFormat="1">
+    <row r="252" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A252" s="23" t="s">
         <v>962</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="23" customFormat="1">
+    <row r="253" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A253" s="23" t="s">
         <v>962</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="254" spans="1:23" s="23" customFormat="1">
+    <row r="254" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A254" s="23" t="s">
         <v>962</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="255" spans="1:23" s="23" customFormat="1">
+    <row r="255" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A255" s="23" t="s">
         <v>962</v>
       </c>
@@ -18812,175 +18812,175 @@
         <v>892</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
-      <c r="A256" s="21" t="s">
+    <row r="256" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A256" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B256" s="21">
+      <c r="B256" s="23">
         <v>157</v>
       </c>
-      <c r="C256" s="21" t="s">
+      <c r="C256" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D256" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E256" s="21" t="s">
+      <c r="D256" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E256" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="F256" s="21" t="s">
+      <c r="F256" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="G256" s="21" t="s">
+      <c r="G256" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H256" s="21" t="s">
+      <c r="H256" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I256" s="21" t="s">
+      <c r="I256" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="21" t="s">
+      <c r="J256" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="K256" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L256" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M256" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N256" s="21" t="s">
+      <c r="K256" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L256" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M256" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N256" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O256" s="21" t="s">
+      <c r="O256" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="P256" s="21" t="s">
+      <c r="P256" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q256" s="21" t="s">
+      <c r="Q256" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R256" s="21" t="s">
+      <c r="R256" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
-      <c r="A257" s="21" t="s">
+    <row r="257" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A257" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B257" s="21">
+      <c r="B257" s="23">
         <v>157</v>
       </c>
-      <c r="C257" s="21" t="s">
+      <c r="C257" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D257" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E257" s="21" t="s">
+      <c r="D257" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E257" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="F257" s="21" t="s">
+      <c r="F257" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="G257" s="21" t="s">
+      <c r="G257" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H257" s="21" t="s">
+      <c r="H257" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I257" s="21" t="s">
+      <c r="I257" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J257" s="21" t="s">
+      <c r="J257" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="K257" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L257" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M257" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N257" s="21" t="s">
+      <c r="K257" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L257" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M257" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N257" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O257" s="21" t="s">
+      <c r="O257" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="P257" s="21" t="s">
+      <c r="P257" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q257" s="21" t="s">
+      <c r="Q257" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R257" s="21" t="s">
+      <c r="R257" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
-      <c r="A258" s="21" t="s">
+    <row r="258" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A258" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B258" s="21">
+      <c r="B258" s="23">
         <v>157</v>
       </c>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D258" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E258" s="21" t="s">
+      <c r="D258" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E258" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="F258" s="21" t="s">
+      <c r="F258" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="G258" s="21" t="s">
+      <c r="G258" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H258" s="21" t="s">
+      <c r="H258" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I258" s="21" t="s">
+      <c r="I258" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J258" s="21" t="s">
+      <c r="J258" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K258" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L258" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M258" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N258" s="21" t="s">
+      <c r="K258" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L258" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M258" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N258" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O258" s="21" t="s">
+      <c r="O258" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="P258" s="21" t="s">
+      <c r="P258" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q258" s="21" t="s">
+      <c r="Q258" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R258" s="21" t="s">
+      <c r="R258" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1">
+    <row r="259" spans="1:23">
       <c r="A259" s="21" t="s">
         <v>965</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1">
+    <row r="260" spans="1:23">
       <c r="A260" s="21" t="s">
         <v>965</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1">
+    <row r="261" spans="1:23">
       <c r="A261" s="21" t="s">
         <v>965</v>
       </c>
@@ -19148,342 +19148,342 @@
         <v>461</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
-      <c r="A262" s="21" t="s">
+    <row r="262" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A262" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B262" s="21">
+      <c r="B262" s="23">
         <v>157</v>
       </c>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D262" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E262" s="21" t="s">
+      <c r="D262" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E262" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="F262" s="21" t="s">
+      <c r="F262" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="G262" s="21" t="s">
+      <c r="G262" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H262" s="21" t="s">
+      <c r="H262" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I262" s="21" t="s">
+      <c r="I262" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J262" s="21" t="s">
+      <c r="J262" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K262" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L262" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M262" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N262" s="21" t="s">
+      <c r="K262" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L262" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M262" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N262" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O262" s="21" t="s">
+      <c r="O262" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="P262" s="21" t="s">
+      <c r="P262" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q262" s="21" t="s">
+      <c r="Q262" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R262" s="21" t="s">
+      <c r="R262" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
-      <c r="A263" s="21" t="s">
+    <row r="263" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A263" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B263" s="21">
+      <c r="B263" s="23">
         <v>157</v>
       </c>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D263" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E263" s="21" t="s">
+      <c r="D263" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E263" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="F263" s="21" t="s">
+      <c r="F263" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="G263" s="21" t="s">
+      <c r="G263" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H263" s="21" t="s">
+      <c r="H263" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I263" s="21" t="s">
+      <c r="I263" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J263" s="21" t="s">
+      <c r="J263" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K263" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L263" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M263" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N263" s="21" t="s">
+      <c r="K263" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L263" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M263" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N263" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O263" s="21" t="s">
+      <c r="O263" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="P263" s="21" t="s">
+      <c r="P263" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q263" s="21" t="s">
+      <c r="Q263" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R263" s="21" t="s">
+      <c r="R263" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
-      <c r="A264" s="21" t="s">
+    <row r="264" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A264" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B264" s="21">
+      <c r="B264" s="23">
         <v>157</v>
       </c>
-      <c r="C264" s="21" t="s">
+      <c r="C264" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D264" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E264" s="21" t="s">
+      <c r="D264" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E264" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="F264" s="21" t="s">
+      <c r="F264" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="G264" s="21" t="s">
+      <c r="G264" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H264" s="21" t="s">
+      <c r="H264" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I264" s="21" t="s">
+      <c r="I264" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J264" s="21" t="s">
+      <c r="J264" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K264" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L264" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M264" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N264" s="21" t="s">
+      <c r="K264" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L264" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M264" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N264" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O264" s="21" t="s">
+      <c r="O264" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="P264" s="21" t="s">
+      <c r="P264" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="Q264" s="21" t="s">
+      <c r="Q264" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R264" s="21" t="s">
+      <c r="R264" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="W264" s="21" t="s">
+      <c r="W264" s="23" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
-      <c r="A265" s="21" t="s">
+    <row r="265" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A265" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B265" s="21">
+      <c r="B265" s="23">
         <v>157</v>
       </c>
-      <c r="C265" s="21" t="s">
+      <c r="C265" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D265" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E265" s="21" t="s">
+      <c r="D265" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E265" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="F265" s="21" t="s">
+      <c r="F265" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="G265" s="21" t="s">
+      <c r="G265" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H265" s="21" t="s">
+      <c r="H265" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I265" s="21" t="s">
+      <c r="I265" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J265" s="21" t="s">
+      <c r="J265" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K265" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L265" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M265" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N265" s="21" t="s">
+      <c r="K265" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L265" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M265" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N265" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O265" s="21" t="s">
+      <c r="O265" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="P265" s="21" t="s">
+      <c r="P265" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q265" s="21" t="s">
+      <c r="Q265" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R265" s="21" t="s">
+      <c r="R265" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
-      <c r="A266" s="21" t="s">
+    <row r="266" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A266" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B266" s="21">
+      <c r="B266" s="23">
         <v>157</v>
       </c>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D266" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E266" s="21" t="s">
+      <c r="D266" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E266" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="F266" s="21" t="s">
+      <c r="F266" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="G266" s="21" t="s">
+      <c r="G266" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H266" s="21" t="s">
+      <c r="H266" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I266" s="21" t="s">
+      <c r="I266" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J266" s="21" t="s">
+      <c r="J266" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K266" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L266" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M266" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N266" s="21" t="s">
+      <c r="K266" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L266" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M266" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N266" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O266" s="21" t="s">
+      <c r="O266" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="P266" s="21" t="s">
+      <c r="P266" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q266" s="21" t="s">
+      <c r="Q266" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R266" s="21" t="s">
+      <c r="R266" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
-      <c r="A267" s="21" t="s">
+    <row r="267" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A267" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="B267" s="21">
+      <c r="B267" s="23">
         <v>157</v>
       </c>
-      <c r="C267" s="21" t="s">
+      <c r="C267" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D267" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E267" s="21" t="s">
+      <c r="D267" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E267" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="F267" s="21" t="s">
+      <c r="F267" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="G267" s="21" t="s">
+      <c r="G267" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H267" s="21" t="s">
+      <c r="H267" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I267" s="21" t="s">
+      <c r="I267" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J267" s="21" t="s">
+      <c r="J267" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="K267" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L267" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M267" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N267" s="21" t="s">
+      <c r="K267" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L267" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M267" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N267" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O267" s="21" t="s">
+      <c r="O267" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P267" s="21" t="s">
+      <c r="P267" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q267" s="21" t="s">
+      <c r="Q267" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R267" s="21" t="s">
+      <c r="R267" s="23" t="s">
         <v>892</v>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" hidden="1">
       <c r="A271" s="21" t="s">
         <v>946</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" hidden="1">
       <c r="A272" s="21" t="s">
         <v>946</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" hidden="1">
       <c r="A273" s="21" t="s">
         <v>946</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" hidden="1">
       <c r="A274" s="21" t="s">
         <v>946</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" hidden="1">
       <c r="A275" s="21" t="s">
         <v>946</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" hidden="1">
       <c r="A276" s="21" t="s">
         <v>946</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" hidden="1">
       <c r="A286" s="21" t="s">
         <v>946</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" hidden="1">
       <c r="A287" s="21" t="s">
         <v>998</v>
       </c>
@@ -20703,231 +20703,231 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
-      <c r="A288" s="21" t="s">
+    <row r="288" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A288" s="23" t="s">
         <v>1001</v>
       </c>
-      <c r="B288" s="21">
+      <c r="B288" s="23">
         <v>166</v>
       </c>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D288" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E288" s="21" t="s">
+      <c r="D288" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E288" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F288" s="21" t="s">
+      <c r="F288" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G288" s="21" t="s">
+      <c r="G288" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H288" s="21" t="s">
+      <c r="H288" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I288" s="21" t="s">
+      <c r="I288" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J288" s="21" t="s">
+      <c r="J288" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K288" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L288" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M288" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N288" s="21" t="s">
+      <c r="K288" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L288" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M288" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N288" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O288" s="21" t="s">
+      <c r="O288" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="P288" s="21" t="s">
+      <c r="P288" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="Q288" s="21" t="s">
+      <c r="Q288" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R288" s="21" t="s">
+      <c r="R288" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="289" spans="1:18">
-      <c r="A289" s="21" t="s">
+    <row r="289" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A289" s="23" t="s">
         <v>1001</v>
       </c>
-      <c r="B289" s="21">
+      <c r="B289" s="23">
         <v>166</v>
       </c>
-      <c r="C289" s="21" t="s">
+      <c r="C289" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D289" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E289" s="21" t="s">
+      <c r="D289" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E289" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="F289" s="21" t="s">
+      <c r="F289" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G289" s="21" t="s">
+      <c r="G289" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H289" s="21" t="s">
+      <c r="H289" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I289" s="21" t="s">
+      <c r="I289" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J289" s="21" t="s">
+      <c r="J289" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K289" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L289" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M289" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N289" s="21" t="s">
+      <c r="K289" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L289" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M289" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N289" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O289" s="21" t="s">
+      <c r="O289" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="P289" s="21" t="s">
+      <c r="P289" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q289" s="21" t="s">
+      <c r="Q289" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R289" s="21" t="s">
+      <c r="R289" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
-      <c r="A290" s="21" t="s">
+    <row r="290" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A290" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="B290" s="21">
+      <c r="B290" s="23">
         <v>98</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D290" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E290" s="21" t="s">
+      <c r="D290" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E290" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F290" s="21" t="s">
+      <c r="F290" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G290" s="21" t="s">
+      <c r="G290" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="H290" s="21" t="s">
+      <c r="H290" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="I290" s="21" t="s">
+      <c r="I290" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="J290" s="21" t="s">
+      <c r="J290" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="K290" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L290" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M290" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N290" s="21" t="s">
+      <c r="K290" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L290" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M290" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N290" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O290" s="21" t="s">
+      <c r="O290" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P290" s="21" t="s">
+      <c r="P290" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="Q290" s="21" t="s">
+      <c r="Q290" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R290" s="21" t="s">
+      <c r="R290" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
-      <c r="A291" s="21" t="s">
+    <row r="291" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A291" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="B291" s="21">
+      <c r="B291" s="23">
         <v>98</v>
       </c>
-      <c r="C291" s="21" t="s">
+      <c r="C291" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D291" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E291" s="21" t="s">
+      <c r="D291" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E291" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F291" s="21" t="s">
+      <c r="F291" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G291" s="21" t="s">
+      <c r="G291" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="H291" s="21" t="s">
+      <c r="H291" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="I291" s="21" t="s">
+      <c r="I291" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="J291" s="21" t="s">
+      <c r="J291" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="K291" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L291" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M291" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N291" s="21" t="s">
+      <c r="K291" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L291" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M291" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N291" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O291" s="21" t="s">
+      <c r="O291" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="P291" s="21" t="s">
+      <c r="P291" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="Q291" s="21" t="s">
+      <c r="Q291" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R291" s="21" t="s">
+      <c r="R291" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="292" spans="1:18" s="23" customFormat="1">
+    <row r="292" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A292" s="23" t="s">
         <v>987</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="23" customFormat="1">
+    <row r="293" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A293" s="23" t="s">
         <v>987</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="23" customFormat="1">
+    <row r="294" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A294" s="23" t="s">
         <v>987</v>
       </c>
@@ -21095,7 +21095,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="295" spans="1:18" s="23" customFormat="1">
+    <row r="295" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A295" s="23" t="s">
         <v>987</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="23" customFormat="1">
+    <row r="296" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A296" s="23" t="s">
         <v>987</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="297" spans="1:18" s="23" customFormat="1">
+    <row r="297" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A297" s="23" t="s">
         <v>987</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="23" customFormat="1">
+    <row r="298" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A298" s="23" t="s">
         <v>987</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="299" spans="1:18" s="23" customFormat="1">
+    <row r="299" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A299" s="23" t="s">
         <v>987</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="300" spans="1:18" s="23" customFormat="1">
+    <row r="300" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A300" s="23" t="s">
         <v>992</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="301" spans="1:18" s="23" customFormat="1">
+    <row r="301" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A301" s="23" t="s">
         <v>992</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="302" spans="1:18" s="23" customFormat="1">
+    <row r="302" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A302" s="23" t="s">
         <v>992</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="303" spans="1:18" s="23" customFormat="1">
+    <row r="303" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A303" s="23" t="s">
         <v>992</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="304" spans="1:18" s="23" customFormat="1">
+    <row r="304" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A304" s="23" t="s">
         <v>992</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="305" spans="1:18" s="23" customFormat="1">
+    <row r="305" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A305" s="23" t="s">
         <v>992</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="23" customFormat="1">
+    <row r="306" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A306" s="23" t="s">
         <v>992</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="23" customFormat="1">
+    <row r="307" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A307" s="23" t="s">
         <v>992</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="23" customFormat="1">
+    <row r="308" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A308" s="23" t="s">
         <v>974</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="309" spans="1:18" s="23" customFormat="1">
+    <row r="309" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A309" s="23" t="s">
         <v>974</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="310" spans="1:18" s="23" customFormat="1">
+    <row r="310" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A310" s="23" t="s">
         <v>974</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="311" spans="1:18" s="23" customFormat="1">
+    <row r="311" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A311" s="23" t="s">
         <v>974</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="312" spans="1:18" s="23" customFormat="1">
+    <row r="312" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A312" s="23" t="s">
         <v>974</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="313" spans="1:18" s="23" customFormat="1">
+    <row r="313" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A313" s="23" t="s">
         <v>974</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="314" spans="1:18" s="23" customFormat="1">
+    <row r="314" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A314" s="23" t="s">
         <v>974</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="315" spans="1:18" s="23" customFormat="1">
+    <row r="315" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A315" s="23" t="s">
         <v>990</v>
       </c>
@@ -22271,399 +22271,399 @@
         <v>892</v>
       </c>
     </row>
-    <row r="316" spans="1:18">
-      <c r="A316" s="21" t="s">
+    <row r="316" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A316" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B316" s="21">
+      <c r="B316" s="23">
         <v>71</v>
       </c>
-      <c r="C316" s="21" t="s">
+      <c r="C316" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D316" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E316" s="21" t="s">
+      <c r="D316" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E316" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F316" s="21" t="s">
+      <c r="F316" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G316" s="21" t="s">
+      <c r="G316" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H316" s="21" t="s">
+      <c r="H316" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I316" s="21" t="s">
+      <c r="I316" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J316" s="21" t="s">
+      <c r="J316" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K316" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L316" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M316" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N316" s="21" t="s">
+      <c r="K316" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L316" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M316" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N316" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O316" s="21" t="s">
+      <c r="O316" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="P316" s="21" t="s">
+      <c r="P316" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q316" s="21" t="s">
+      <c r="Q316" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R316" s="21" t="s">
+      <c r="R316" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="317" spans="1:18">
-      <c r="A317" s="21" t="s">
+    <row r="317" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A317" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B317" s="21">
+      <c r="B317" s="23">
         <v>71</v>
       </c>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D317" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E317" s="21" t="s">
+      <c r="D317" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E317" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F317" s="21" t="s">
+      <c r="F317" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G317" s="21" t="s">
+      <c r="G317" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H317" s="21" t="s">
+      <c r="H317" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I317" s="21" t="s">
+      <c r="I317" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J317" s="21" t="s">
+      <c r="J317" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K317" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L317" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M317" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N317" s="21" t="s">
+      <c r="K317" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L317" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M317" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N317" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O317" s="21" t="s">
+      <c r="O317" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="P317" s="21" t="s">
+      <c r="P317" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q317" s="21" t="s">
+      <c r="Q317" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R317" s="21" t="s">
+      <c r="R317" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="318" spans="1:18">
-      <c r="A318" s="21" t="s">
+    <row r="318" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A318" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B318" s="21">
+      <c r="B318" s="23">
         <v>71</v>
       </c>
-      <c r="C318" s="21" t="s">
+      <c r="C318" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D318" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E318" s="21" t="s">
+      <c r="D318" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E318" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F318" s="21" t="s">
+      <c r="F318" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G318" s="21" t="s">
+      <c r="G318" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H318" s="21" t="s">
+      <c r="H318" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I318" s="21" t="s">
+      <c r="I318" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J318" s="21" t="s">
+      <c r="J318" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K318" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L318" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M318" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N318" s="21" t="s">
+      <c r="K318" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L318" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M318" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N318" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O318" s="21" t="s">
+      <c r="O318" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="P318" s="21" t="s">
+      <c r="P318" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q318" s="21" t="s">
+      <c r="Q318" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R318" s="21" t="s">
+      <c r="R318" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="319" spans="1:18">
-      <c r="A319" s="21" t="s">
+    <row r="319" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A319" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B319" s="21">
+      <c r="B319" s="23">
         <v>71</v>
       </c>
-      <c r="C319" s="21" t="s">
+      <c r="C319" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D319" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E319" s="21" t="s">
+      <c r="D319" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E319" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F319" s="21" t="s">
+      <c r="F319" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G319" s="21" t="s">
+      <c r="G319" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H319" s="21" t="s">
+      <c r="H319" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I319" s="21" t="s">
+      <c r="I319" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J319" s="21" t="s">
+      <c r="J319" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K319" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L319" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M319" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N319" s="21" t="s">
+      <c r="K319" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L319" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M319" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N319" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O319" s="21" t="s">
+      <c r="O319" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="P319" s="21" t="s">
+      <c r="P319" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q319" s="21" t="s">
+      <c r="Q319" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R319" s="21" t="s">
+      <c r="R319" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="320" spans="1:18">
-      <c r="A320" s="21" t="s">
+    <row r="320" spans="1:18" s="23" customFormat="1" hidden="1">
+      <c r="A320" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B320" s="21">
+      <c r="B320" s="23">
         <v>71</v>
       </c>
-      <c r="C320" s="21" t="s">
+      <c r="C320" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D320" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E320" s="21" t="s">
+      <c r="D320" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E320" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F320" s="21" t="s">
+      <c r="F320" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G320" s="21" t="s">
+      <c r="G320" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H320" s="21" t="s">
+      <c r="H320" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I320" s="21" t="s">
+      <c r="I320" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J320" s="21" t="s">
+      <c r="J320" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K320" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L320" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M320" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N320" s="21" t="s">
+      <c r="K320" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L320" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M320" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N320" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O320" s="21" t="s">
+      <c r="O320" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="P320" s="21" t="s">
+      <c r="P320" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q320" s="21" t="s">
+      <c r="Q320" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R320" s="21" t="s">
+      <c r="R320" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
-      <c r="A321" s="21" t="s">
+    <row r="321" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A321" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B321" s="21">
+      <c r="B321" s="23">
         <v>71</v>
       </c>
-      <c r="C321" s="21" t="s">
+      <c r="C321" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D321" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E321" s="21" t="s">
+      <c r="D321" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E321" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F321" s="21" t="s">
+      <c r="F321" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G321" s="21" t="s">
+      <c r="G321" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H321" s="21" t="s">
+      <c r="H321" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I321" s="21" t="s">
+      <c r="I321" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J321" s="21" t="s">
+      <c r="J321" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K321" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L321" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M321" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N321" s="21" t="s">
+      <c r="K321" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L321" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M321" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N321" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O321" s="21" t="s">
+      <c r="O321" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="P321" s="21" t="s">
+      <c r="P321" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q321" s="21" t="s">
+      <c r="Q321" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R321" s="21" t="s">
+      <c r="R321" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
-      <c r="A322" s="21" t="s">
+    <row r="322" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A322" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="B322" s="21">
+      <c r="B322" s="23">
         <v>71</v>
       </c>
-      <c r="C322" s="21" t="s">
+      <c r="C322" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D322" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E322" s="21" t="s">
+      <c r="D322" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E322" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F322" s="21" t="s">
+      <c r="F322" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G322" s="21" t="s">
+      <c r="G322" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H322" s="21" t="s">
+      <c r="H322" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="I322" s="21" t="s">
+      <c r="I322" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J322" s="21" t="s">
+      <c r="J322" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K322" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L322" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M322" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N322" s="21" t="s">
+      <c r="K322" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L322" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M322" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N322" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O322" s="21" t="s">
+      <c r="O322" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="P322" s="21" t="s">
+      <c r="P322" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q322" s="21" t="s">
+      <c r="Q322" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R322" s="21" t="s">
+      <c r="R322" s="23" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="323" spans="1:23" s="23" customFormat="1">
+    <row r="323" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A323" s="23" t="s">
         <v>961</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="324" spans="1:23" s="23" customFormat="1">
+    <row r="324" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A324" s="23" t="s">
         <v>977</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="325" spans="1:23" s="23" customFormat="1">
+    <row r="325" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A325" s="23" t="s">
         <v>977</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="326" spans="1:23" s="23" customFormat="1">
+    <row r="326" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A326" s="23" t="s">
         <v>977</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="327" spans="1:23" s="23" customFormat="1">
+    <row r="327" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A327" s="23" t="s">
         <v>1004</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" hidden="1">
       <c r="A328" s="21" t="s">
         <v>976</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" hidden="1">
       <c r="A329" s="21" t="s">
         <v>976</v>
       </c>
@@ -23070,715 +23070,715 @@
         <v>432</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
-      <c r="A330" s="21" t="s">
+    <row r="330" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A330" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B330" s="21">
+      <c r="B330" s="23">
         <v>52</v>
       </c>
-      <c r="C330" s="21" t="s">
+      <c r="C330" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D330" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E330" s="21" t="s">
+      <c r="D330" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E330" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F330" s="21" t="s">
+      <c r="F330" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G330" s="21" t="s">
+      <c r="G330" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H330" s="21" t="s">
+      <c r="H330" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I330" s="21" t="s">
+      <c r="I330" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J330" s="21" t="s">
+      <c r="J330" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K330" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L330" s="21" t="s">
+      <c r="K330" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L330" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M330" s="21" t="s">
+      <c r="M330" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="N330" s="21" t="s">
+      <c r="N330" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O330" s="21" t="s">
+      <c r="O330" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P330" s="21" t="s">
+      <c r="P330" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="Q330" s="21" t="s">
+      <c r="Q330" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R330" s="21" t="s">
+      <c r="R330" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W330" s="21" t="s">
+      <c r="W330" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
-      <c r="A331" s="21" t="s">
+    <row r="331" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A331" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B331" s="21">
+      <c r="B331" s="23">
         <v>52</v>
       </c>
-      <c r="C331" s="21" t="s">
+      <c r="C331" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D331" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E331" s="21" t="s">
+      <c r="D331" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E331" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F331" s="21" t="s">
+      <c r="F331" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G331" s="21" t="s">
+      <c r="G331" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H331" s="21" t="s">
+      <c r="H331" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I331" s="21" t="s">
+      <c r="I331" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J331" s="21" t="s">
+      <c r="J331" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K331" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L331" s="21" t="s">
+      <c r="K331" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L331" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M331" s="21" t="s">
+      <c r="M331" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="N331" s="21" t="s">
+      <c r="N331" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O331" s="21" t="s">
+      <c r="O331" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P331" s="21" t="s">
+      <c r="P331" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="Q331" s="21" t="s">
+      <c r="Q331" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R331" s="21" t="s">
+      <c r="R331" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W331" s="21" t="s">
+      <c r="W331" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:23">
-      <c r="A332" s="21" t="s">
+    <row r="332" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A332" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B332" s="21">
+      <c r="B332" s="23">
         <v>52</v>
       </c>
-      <c r="C332" s="21" t="s">
+      <c r="C332" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D332" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E332" s="21" t="s">
+      <c r="D332" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E332" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F332" s="21" t="s">
+      <c r="F332" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G332" s="21" t="s">
+      <c r="G332" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H332" s="21" t="s">
+      <c r="H332" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I332" s="21" t="s">
+      <c r="I332" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J332" s="21" t="s">
+      <c r="J332" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K332" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L332" s="21" t="s">
+      <c r="K332" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L332" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M332" s="21" t="s">
+      <c r="M332" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="N332" s="21" t="s">
+      <c r="N332" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O332" s="21" t="s">
+      <c r="O332" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P332" s="21" t="s">
+      <c r="P332" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="Q332" s="21" t="s">
+      <c r="Q332" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R332" s="21" t="s">
+      <c r="R332" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W332" s="21" t="s">
+      <c r="W332" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="333" spans="1:23">
-      <c r="A333" s="21" t="s">
+    <row r="333" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A333" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B333" s="21">
+      <c r="B333" s="23">
         <v>52</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D333" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E333" s="21" t="s">
+      <c r="D333" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E333" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F333" s="21" t="s">
+      <c r="F333" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G333" s="21" t="s">
+      <c r="G333" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H333" s="21" t="s">
+      <c r="H333" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I333" s="21" t="s">
+      <c r="I333" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J333" s="21" t="s">
+      <c r="J333" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K333" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L333" s="21" t="s">
+      <c r="K333" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L333" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M333" s="21" t="s">
+      <c r="M333" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="N333" s="21" t="s">
+      <c r="N333" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O333" s="21" t="s">
+      <c r="O333" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="P333" s="21" t="s">
+      <c r="P333" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="Q333" s="21" t="s">
+      <c r="Q333" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R333" s="21" t="s">
+      <c r="R333" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W333" s="21" t="s">
+      <c r="W333" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="334" spans="1:23">
-      <c r="A334" s="21" t="s">
+    <row r="334" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A334" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B334" s="21">
+      <c r="B334" s="23">
         <v>52</v>
       </c>
-      <c r="C334" s="21" t="s">
+      <c r="C334" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D334" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E334" s="21" t="s">
+      <c r="D334" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E334" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F334" s="21" t="s">
+      <c r="F334" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G334" s="21" t="s">
+      <c r="G334" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H334" s="21" t="s">
+      <c r="H334" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I334" s="21" t="s">
+      <c r="I334" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J334" s="21" t="s">
+      <c r="J334" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K334" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L334" s="21" t="s">
+      <c r="K334" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L334" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M334" s="21" t="s">
+      <c r="M334" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="N334" s="21" t="s">
+      <c r="N334" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O334" s="21" t="s">
+      <c r="O334" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="P334" s="21" t="s">
+      <c r="P334" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="Q334" s="21" t="s">
+      <c r="Q334" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R334" s="21" t="s">
+      <c r="R334" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W334" s="21" t="s">
+      <c r="W334" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="335" spans="1:23">
-      <c r="A335" s="21" t="s">
+    <row r="335" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A335" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B335" s="21">
+      <c r="B335" s="23">
         <v>52</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D335" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E335" s="21" t="s">
+      <c r="D335" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E335" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F335" s="21" t="s">
+      <c r="F335" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G335" s="21" t="s">
+      <c r="G335" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H335" s="21" t="s">
+      <c r="H335" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I335" s="21" t="s">
+      <c r="I335" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J335" s="21" t="s">
+      <c r="J335" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K335" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L335" s="21" t="s">
+      <c r="K335" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L335" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M335" s="21" t="s">
+      <c r="M335" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="N335" s="21" t="s">
+      <c r="N335" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O335" s="21" t="s">
+      <c r="O335" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="P335" s="21" t="s">
+      <c r="P335" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="Q335" s="21" t="s">
+      <c r="Q335" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R335" s="21" t="s">
+      <c r="R335" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W335" s="21" t="s">
+      <c r="W335" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="336" spans="1:23">
-      <c r="A336" s="21" t="s">
+    <row r="336" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A336" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B336" s="21">
+      <c r="B336" s="23">
         <v>52</v>
       </c>
-      <c r="C336" s="21" t="s">
+      <c r="C336" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D336" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E336" s="21" t="s">
+      <c r="D336" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E336" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F336" s="21" t="s">
+      <c r="F336" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G336" s="21" t="s">
+      <c r="G336" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H336" s="21" t="s">
+      <c r="H336" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I336" s="21" t="s">
+      <c r="I336" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J336" s="21" t="s">
+      <c r="J336" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K336" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L336" s="21" t="s">
+      <c r="K336" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L336" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M336" s="21" t="s">
+      <c r="M336" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="N336" s="21" t="s">
+      <c r="N336" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O336" s="21" t="s">
+      <c r="O336" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P336" s="21" t="s">
+      <c r="P336" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="Q336" s="21" t="s">
+      <c r="Q336" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R336" s="21" t="s">
+      <c r="R336" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W336" s="21" t="s">
+      <c r="W336" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="337" spans="1:23">
-      <c r="A337" s="21" t="s">
+    <row r="337" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A337" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B337" s="21">
+      <c r="B337" s="23">
         <v>52</v>
       </c>
-      <c r="C337" s="21" t="s">
+      <c r="C337" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D337" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E337" s="21" t="s">
+      <c r="D337" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E337" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F337" s="21" t="s">
+      <c r="F337" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G337" s="21" t="s">
+      <c r="G337" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H337" s="21" t="s">
+      <c r="H337" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I337" s="21" t="s">
+      <c r="I337" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J337" s="21" t="s">
+      <c r="J337" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K337" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L337" s="21" t="s">
+      <c r="K337" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L337" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M337" s="21" t="s">
+      <c r="M337" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="N337" s="21" t="s">
+      <c r="N337" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O337" s="21" t="s">
+      <c r="O337" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P337" s="21" t="s">
+      <c r="P337" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="Q337" s="21" t="s">
+      <c r="Q337" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R337" s="21" t="s">
+      <c r="R337" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W337" s="21" t="s">
+      <c r="W337" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="338" spans="1:23">
-      <c r="A338" s="21" t="s">
+    <row r="338" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A338" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B338" s="21">
+      <c r="B338" s="23">
         <v>52</v>
       </c>
-      <c r="C338" s="21" t="s">
+      <c r="C338" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D338" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E338" s="21" t="s">
+      <c r="D338" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E338" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F338" s="21" t="s">
+      <c r="F338" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G338" s="21" t="s">
+      <c r="G338" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H338" s="21" t="s">
+      <c r="H338" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I338" s="21" t="s">
+      <c r="I338" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J338" s="21" t="s">
+      <c r="J338" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K338" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L338" s="21" t="s">
+      <c r="K338" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L338" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M338" s="21" t="s">
+      <c r="M338" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="N338" s="21" t="s">
+      <c r="N338" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O338" s="21" t="s">
+      <c r="O338" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="P338" s="21" t="s">
+      <c r="P338" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="Q338" s="21" t="s">
+      <c r="Q338" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R338" s="21" t="s">
+      <c r="R338" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W338" s="21" t="s">
+      <c r="W338" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:23">
-      <c r="A339" s="21" t="s">
+    <row r="339" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A339" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B339" s="21">
+      <c r="B339" s="23">
         <v>52</v>
       </c>
-      <c r="C339" s="21" t="s">
+      <c r="C339" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D339" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E339" s="21" t="s">
+      <c r="D339" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E339" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F339" s="21" t="s">
+      <c r="F339" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G339" s="21" t="s">
+      <c r="G339" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H339" s="21" t="s">
+      <c r="H339" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I339" s="21" t="s">
+      <c r="I339" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J339" s="21" t="s">
+      <c r="J339" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K339" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L339" s="21" t="s">
+      <c r="K339" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L339" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M339" s="21" t="s">
+      <c r="M339" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="N339" s="21" t="s">
+      <c r="N339" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O339" s="21" t="s">
+      <c r="O339" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="P339" s="21" t="s">
+      <c r="P339" s="23" t="s">
         <v>902</v>
       </c>
-      <c r="Q339" s="21" t="s">
+      <c r="Q339" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R339" s="21" t="s">
+      <c r="R339" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W339" s="21" t="s">
+      <c r="W339" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="340" spans="1:23">
-      <c r="A340" s="21" t="s">
+    <row r="340" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A340" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B340" s="21">
+      <c r="B340" s="23">
         <v>52</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D340" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E340" s="21" t="s">
+      <c r="D340" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E340" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F340" s="21" t="s">
+      <c r="F340" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G340" s="21" t="s">
+      <c r="G340" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H340" s="21" t="s">
+      <c r="H340" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I340" s="21" t="s">
+      <c r="I340" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J340" s="21" t="s">
+      <c r="J340" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K340" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L340" s="21" t="s">
+      <c r="K340" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L340" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M340" s="21" t="s">
+      <c r="M340" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="N340" s="21" t="s">
+      <c r="N340" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O340" s="21" t="s">
+      <c r="O340" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="P340" s="21" t="s">
+      <c r="P340" s="23" t="s">
         <v>902</v>
       </c>
-      <c r="Q340" s="21" t="s">
+      <c r="Q340" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R340" s="21" t="s">
+      <c r="R340" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W340" s="21" t="s">
+      <c r="W340" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="341" spans="1:23">
-      <c r="A341" s="21" t="s">
+    <row r="341" spans="1:23" s="23" customFormat="1" hidden="1">
+      <c r="A341" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="B341" s="21">
+      <c r="B341" s="23">
         <v>52</v>
       </c>
-      <c r="C341" s="21" t="s">
+      <c r="C341" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D341" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E341" s="21" t="s">
+      <c r="D341" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E341" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F341" s="21" t="s">
+      <c r="F341" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G341" s="21" t="s">
+      <c r="G341" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H341" s="21" t="s">
+      <c r="H341" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I341" s="21" t="s">
+      <c r="I341" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J341" s="21" t="s">
+      <c r="J341" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K341" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L341" s="21" t="s">
+      <c r="K341" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L341" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M341" s="21" t="s">
+      <c r="M341" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="N341" s="21" t="s">
+      <c r="N341" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O341" s="21" t="s">
+      <c r="O341" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="P341" s="21" t="s">
+      <c r="P341" s="23" t="s">
         <v>902</v>
       </c>
-      <c r="Q341" s="21" t="s">
+      <c r="Q341" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R341" s="21" t="s">
+      <c r="R341" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W341" s="21" t="s">
+      <c r="W341" s="23" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="342" spans="1:23" s="23" customFormat="1">
+    <row r="342" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A342" s="23" t="s">
         <v>995</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="343" spans="1:23" s="23" customFormat="1">
+    <row r="343" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A343" s="23" t="s">
         <v>995</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="344" spans="1:23" s="23" customFormat="1">
+    <row r="344" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A344" s="23" t="s">
         <v>968</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="345" spans="1:23" hidden="1">
+    <row r="345" spans="1:23">
       <c r="A345" s="21" t="s">
         <v>978</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="346" spans="1:23" s="23" customFormat="1">
+    <row r="346" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A346" s="23" t="s">
         <v>968</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="347" spans="1:23" s="23" customFormat="1">
+    <row r="347" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A347" s="23" t="s">
         <v>986</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="348" spans="1:23" s="23" customFormat="1">
+    <row r="348" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A348" s="23" t="s">
         <v>986</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="349" spans="1:23" s="23" customFormat="1">
+    <row r="349" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A349" s="23" t="s">
         <v>986</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" hidden="1">
       <c r="A351" s="21" t="s">
         <v>981</v>
       </c>
@@ -24353,7 +24353,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" hidden="1">
       <c r="A352" s="21" t="s">
         <v>981</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="353" spans="1:21" s="23" customFormat="1">
+    <row r="353" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A353" s="23" t="s">
         <v>1016</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="354" spans="1:21" s="23" customFormat="1">
+    <row r="354" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A354" s="23" t="s">
         <v>1016</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="355" spans="1:21" s="23" customFormat="1">
+    <row r="355" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A355" s="23" t="s">
         <v>1016</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="356" spans="1:21" s="23" customFormat="1">
+    <row r="356" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A356" s="23" t="s">
         <v>1016</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="357" spans="1:21" s="23" customFormat="1">
+    <row r="357" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A357" s="23" t="s">
         <v>1016</v>
       </c>
@@ -24692,7 +24692,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="358" spans="1:21" s="23" customFormat="1">
+    <row r="358" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A358" s="23" t="s">
         <v>1016</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1">
+    <row r="359" spans="1:21">
       <c r="A359" s="21" t="s">
         <v>984</v>
       </c>
@@ -24804,7 +24804,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1">
+    <row r="360" spans="1:21">
       <c r="A360" s="21" t="s">
         <v>984</v>
       </c>
@@ -24860,7 +24860,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1">
+    <row r="361" spans="1:21">
       <c r="A361" s="21" t="s">
         <v>984</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1">
+    <row r="362" spans="1:21">
       <c r="A362" s="21" t="s">
         <v>985</v>
       </c>
@@ -24972,7 +24972,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1">
+    <row r="363" spans="1:21">
       <c r="A363" s="21" t="s">
         <v>985</v>
       </c>
@@ -25028,7 +25028,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1">
+    <row r="364" spans="1:21">
       <c r="A364" s="21" t="s">
         <v>985</v>
       </c>
@@ -25084,7 +25084,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1">
+    <row r="365" spans="1:21">
       <c r="A365" s="21" t="s">
         <v>985</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:21" s="23" customFormat="1">
+    <row r="371" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A371" s="23" t="s">
         <v>991</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="372" spans="1:21" s="23" customFormat="1">
+    <row r="372" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A372" s="23" t="s">
         <v>991</v>
       </c>
@@ -25547,7 +25547,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="373" spans="1:21" s="23" customFormat="1">
+    <row r="373" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A373" s="23" t="s">
         <v>973</v>
       </c>
@@ -25603,7 +25603,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="374" spans="1:21" s="23" customFormat="1">
+    <row r="374" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A374" s="23" t="s">
         <v>973</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="375" spans="1:21" s="23" customFormat="1">
+    <row r="375" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A375" s="23" t="s">
         <v>979</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="376" spans="1:21" s="23" customFormat="1">
+    <row r="376" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A376" s="23" t="s">
         <v>979</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="377" spans="1:21" s="23" customFormat="1">
+    <row r="377" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A377" s="23" t="s">
         <v>979</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="378" spans="1:21" s="23" customFormat="1">
+    <row r="378" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A378" s="23" t="s">
         <v>979</v>
       </c>
@@ -25883,7 +25883,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" hidden="1">
       <c r="A379" s="21" t="s">
         <v>955</v>
       </c>
@@ -25939,7 +25939,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" hidden="1">
       <c r="A380" s="21" t="s">
         <v>955</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" hidden="1">
       <c r="A381" s="21" t="s">
         <v>955</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" hidden="1">
       <c r="A382" s="21" t="s">
         <v>955</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" hidden="1">
       <c r="A383" s="21" t="s">
         <v>955</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" hidden="1">
       <c r="A384" s="21" t="s">
         <v>955</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="385" spans="1:18" s="23" customFormat="1">
+    <row r="385" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A385" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="23" customFormat="1">
+    <row r="386" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A386" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="23" customFormat="1">
+    <row r="387" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A387" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26387,7 +26387,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="388" spans="1:18" s="23" customFormat="1">
+    <row r="388" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A388" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26443,7 +26443,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="389" spans="1:18" s="23" customFormat="1">
+    <row r="389" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A389" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="390" spans="1:18" s="23" customFormat="1">
+    <row r="390" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A390" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26555,7 +26555,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="391" spans="1:18" s="23" customFormat="1">
+    <row r="391" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A391" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26611,7 +26611,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="392" spans="1:18" s="23" customFormat="1">
+    <row r="392" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A392" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="23" customFormat="1">
+    <row r="393" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A393" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26723,7 +26723,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="394" spans="1:18" s="23" customFormat="1">
+    <row r="394" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A394" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26779,7 +26779,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="395" spans="1:18" s="23" customFormat="1">
+    <row r="395" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A395" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26835,7 +26835,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="396" spans="1:18" s="23" customFormat="1">
+    <row r="396" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A396" s="23" t="s">
         <v>1013</v>
       </c>
@@ -26891,7 +26891,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="397" spans="1:18">
+    <row r="397" spans="1:18" hidden="1">
       <c r="A397" s="21" t="s">
         <v>952</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:18" hidden="1">
       <c r="A398" s="21" t="s">
         <v>952</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1">
+    <row r="399" spans="1:18">
       <c r="A399" s="21" t="s">
         <v>993</v>
       </c>
@@ -27059,7 +27059,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1">
+    <row r="400" spans="1:18">
       <c r="A400" s="21" t="s">
         <v>993</v>
       </c>
@@ -27115,7 +27115,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1">
+    <row r="401" spans="1:23">
       <c r="A401" s="21" t="s">
         <v>994</v>
       </c>
@@ -27174,7 +27174,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1">
+    <row r="402" spans="1:23">
       <c r="A402" s="21" t="s">
         <v>994</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1">
+    <row r="403" spans="1:23">
       <c r="A403" s="21" t="s">
         <v>994</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1">
+    <row r="404" spans="1:23">
       <c r="A404" s="21" t="s">
         <v>994</v>
       </c>
@@ -27351,7 +27351,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1">
+    <row r="405" spans="1:23">
       <c r="A405" s="21" t="s">
         <v>994</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1">
+    <row r="406" spans="1:23">
       <c r="A406" s="21" t="s">
         <v>994</v>
       </c>
@@ -27469,7 +27469,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:23" hidden="1">
+    <row r="407" spans="1:23">
       <c r="A407" s="21" t="s">
         <v>994</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:23" hidden="1">
+    <row r="408" spans="1:23">
       <c r="A408" s="21" t="s">
         <v>994</v>
       </c>
@@ -27705,7 +27705,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" spans="1:23" hidden="1">
       <c r="A411" s="21" t="s">
         <v>952</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" spans="1:23" hidden="1">
       <c r="A412" s="21" t="s">
         <v>952</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" spans="1:23" hidden="1">
       <c r="A413" s="21" t="s">
         <v>952</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" spans="1:23" hidden="1">
       <c r="A414" s="21" t="s">
         <v>952</v>
       </c>
@@ -27929,7 +27929,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" spans="1:23" hidden="1">
       <c r="A415" s="21" t="s">
         <v>952</v>
       </c>
@@ -27985,7 +27985,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" spans="1:23" hidden="1">
       <c r="A416" s="21" t="s">
         <v>952</v>
       </c>
@@ -28041,7 +28041,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="417" spans="1:21" s="23" customFormat="1">
+    <row r="417" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A417" s="23" t="s">
         <v>963</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="418" spans="1:21" s="23" customFormat="1">
+    <row r="418" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A418" s="23" t="s">
         <v>947</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1">
+    <row r="422" spans="1:21">
       <c r="A422" s="21" t="s">
         <v>996</v>
       </c>
@@ -28386,7 +28386,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1">
+    <row r="423" spans="1:21">
       <c r="A423" s="21" t="s">
         <v>996</v>
       </c>
@@ -28442,7 +28442,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1">
+    <row r="424" spans="1:21">
       <c r="A424" s="21" t="s">
         <v>996</v>
       </c>
@@ -28498,7 +28498,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="1:21" s="23" customFormat="1">
+    <row r="425" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A425" s="23" t="s">
         <v>947</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="426" spans="1:21" s="23" customFormat="1">
+    <row r="426" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A426" s="23" t="s">
         <v>947</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="427" spans="1:21" s="23" customFormat="1">
+    <row r="427" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A427" s="23" t="s">
         <v>975</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="428" spans="1:21" s="23" customFormat="1">
+    <row r="428" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A428" s="23" t="s">
         <v>975</v>
       </c>
@@ -28722,7 +28722,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="429" spans="1:21" s="23" customFormat="1">
+    <row r="429" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A429" s="23" t="s">
         <v>975</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="430" spans="1:21" s="23" customFormat="1">
+    <row r="430" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A430" s="23" t="s">
         <v>950</v>
       </c>
@@ -28834,7 +28834,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="431" spans="1:21" s="23" customFormat="1">
+    <row r="431" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A431" s="23" t="s">
         <v>950</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="432" spans="1:21" s="23" customFormat="1">
+    <row r="432" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A432" s="23" t="s">
         <v>950</v>
       </c>
@@ -28946,7 +28946,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="433" spans="1:23" s="23" customFormat="1">
+    <row r="433" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A433" s="23" t="s">
         <v>1008</v>
       </c>
@@ -29002,7 +29002,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="434" spans="1:23" s="23" customFormat="1">
+    <row r="434" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A434" s="23" t="s">
         <v>1008</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="438" spans="1:23" s="23" customFormat="1">
+    <row r="438" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A438" s="23" t="s">
         <v>954</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="439" spans="1:23" s="23" customFormat="1">
+    <row r="439" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A439" s="23" t="s">
         <v>970</v>
       </c>
@@ -29347,7 +29347,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="440" spans="1:23" s="23" customFormat="1">
+    <row r="440" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A440" s="23" t="s">
         <v>951</v>
       </c>
@@ -29462,7 +29462,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:23" s="23" customFormat="1">
+    <row r="442" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A442" s="23" t="s">
         <v>999</v>
       </c>
@@ -29580,7 +29580,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:23" s="23" customFormat="1">
+    <row r="444" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A444" s="23" t="s">
         <v>999</v>
       </c>
@@ -29639,7 +29639,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="445" spans="1:23" hidden="1">
+    <row r="445" spans="1:23">
       <c r="A445" s="21" t="s">
         <v>1000</v>
       </c>
@@ -29698,7 +29698,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="446" spans="1:23" hidden="1">
+    <row r="446" spans="1:23">
       <c r="A446" s="21" t="s">
         <v>1000</v>
       </c>
@@ -29757,7 +29757,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" spans="1:23" s="23" customFormat="1">
+    <row r="447" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A447" s="23" t="s">
         <v>999</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="448" spans="1:23" s="23" customFormat="1">
+    <row r="448" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A448" s="23" t="s">
         <v>948</v>
       </c>
@@ -29872,7 +29872,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="449" spans="1:23" hidden="1">
+    <row r="449" spans="1:23">
       <c r="A449" s="21" t="s">
         <v>1002</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="1:23" hidden="1">
+    <row r="450" spans="1:23">
       <c r="A450" s="21" t="s">
         <v>1003</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="451" spans="1:23" s="23" customFormat="1">
+    <row r="451" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A451" s="23" t="s">
         <v>948</v>
       </c>
@@ -30043,7 +30043,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="452" spans="1:23" s="23" customFormat="1">
+    <row r="452" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A452" s="23" t="s">
         <v>948</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="453" spans="1:23" s="23" customFormat="1">
+    <row r="453" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A453" s="23" t="s">
         <v>964</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="454" spans="1:23" s="23" customFormat="1">
+    <row r="454" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A454" s="23" t="s">
         <v>964</v>
       </c>
@@ -30211,7 +30211,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="455" spans="1:23" s="23" customFormat="1">
+    <row r="455" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A455" s="23" t="s">
         <v>964</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="456" spans="1:23" s="23" customFormat="1">
+    <row r="456" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A456" s="23" t="s">
         <v>964</v>
       </c>
@@ -30323,7 +30323,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="457" spans="1:23" s="23" customFormat="1">
+    <row r="457" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A457" s="23" t="s">
         <v>964</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="458" spans="1:23" s="23" customFormat="1">
+    <row r="458" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A458" s="23" t="s">
         <v>964</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="459" spans="1:23" s="23" customFormat="1">
+    <row r="459" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A459" s="23" t="s">
         <v>964</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="460" spans="1:23" s="23" customFormat="1">
+    <row r="460" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A460" s="23" t="s">
         <v>964</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="461" spans="1:23" s="23" customFormat="1">
+    <row r="461" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A461" s="23" t="s">
         <v>964</v>
       </c>
@@ -30603,7 +30603,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="462" spans="1:23" s="23" customFormat="1">
+    <row r="462" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A462" s="23" t="s">
         <v>1007</v>
       </c>
@@ -30663,8 +30663,7 @@
   <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
     <filterColumn colId="16">
       <filters>
-        <filter val="derived"/>
-        <filter val="digitized"/>
+        <filter val="TBD"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:W462">

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A21D2-872E-7745-A351-3DC856AB952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF1CCB-D394-0E45-91EF-B409C4040FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3282,7 +3282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3313,6 +3313,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3630,9 +3631,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T405" sqref="T405"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -30699,9 +30700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A59317-DFCB-D444-85E0-2BD7B6E5BEF1}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -30807,14 +30808,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1">
+    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="A4" s="6">
         <v>142</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -30905,25 +30906,25 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1">
+    <row r="11" spans="1:16" s="6" customFormat="1">
+      <c r="A11" s="6">
         <v>178</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1">
+    <row r="12" spans="1:16" s="6" customFormat="1">
+      <c r="A12" s="6">
         <v>89</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -31241,23 +31242,23 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1">
+    <row r="26" spans="1:13" s="6" customFormat="1">
+      <c r="A26" s="6">
         <v>93</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="6" t="s">
         <v>368</v>
       </c>
     </row>
@@ -32705,32 +32706,32 @@
         <v>267</v>
       </c>
     </row>
-    <row r="84" spans="1:13" customFormat="1">
-      <c r="A84">
+    <row r="84" spans="1:13" s="11" customFormat="1">
+      <c r="A84" s="11">
         <v>16</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" s="6" t="s">
         <v>625</v>
       </c>
     </row>
@@ -32973,29 +32974,29 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:13" customFormat="1">
-      <c r="A92">
+    <row r="92" spans="1:13" s="11" customFormat="1">
+      <c r="A92" s="11">
         <v>124</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" s="6" t="s">
         <v>428</v>
       </c>
     </row>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF1CCB-D394-0E45-91EF-B409C4040FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F506B-4846-734D-A497-408E3B62FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3631,9 +3631,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -5820,7 +5820,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1">
+    <row r="37" spans="1:23">
       <c r="A37" s="21" t="s">
         <v>918</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1">
+    <row r="38" spans="1:23">
       <c r="A38" s="21" t="s">
         <v>918</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1">
+    <row r="39" spans="1:23">
       <c r="A39" s="21" t="s">
         <v>918</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1">
+    <row r="40" spans="1:23">
       <c r="A40" s="21" t="s">
         <v>918</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1">
+    <row r="156" spans="1:23">
       <c r="A156" s="21" t="s">
         <v>941</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1">
+    <row r="157" spans="1:23">
       <c r="A157" s="21" t="s">
         <v>941</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1">
+    <row r="158" spans="1:23">
       <c r="A158" s="21" t="s">
         <v>941</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1">
+    <row r="159" spans="1:23">
       <c r="A159" s="21" t="s">
         <v>941</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1">
+    <row r="160" spans="1:23">
       <c r="A160" s="21" t="s">
         <v>941</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1">
+    <row r="161" spans="1:20">
       <c r="A161" s="21" t="s">
         <v>941</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1">
+    <row r="162" spans="1:20">
       <c r="A162" s="21" t="s">
         <v>941</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1">
+    <row r="163" spans="1:20">
       <c r="A163" s="21" t="s">
         <v>941</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1">
+    <row r="164" spans="1:20">
       <c r="A164" s="21" t="s">
         <v>941</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1">
+    <row r="165" spans="1:20">
       <c r="A165" s="21" t="s">
         <v>941</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1">
+    <row r="166" spans="1:20">
       <c r="A166" s="21" t="s">
         <v>941</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1">
+    <row r="167" spans="1:20">
       <c r="A167" s="21" t="s">
         <v>941</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1">
+    <row r="168" spans="1:20">
       <c r="A168" s="21" t="s">
         <v>941</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1">
+    <row r="169" spans="1:20">
       <c r="A169" s="21" t="s">
         <v>941</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1">
+    <row r="170" spans="1:20">
       <c r="A170" s="21" t="s">
         <v>941</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1">
+    <row r="171" spans="1:20">
       <c r="A171" s="21" t="s">
         <v>941</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1">
+    <row r="172" spans="1:20">
       <c r="A172" s="21" t="s">
         <v>941</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1">
+    <row r="173" spans="1:20">
       <c r="A173" s="21" t="s">
         <v>941</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1">
+    <row r="174" spans="1:20">
       <c r="A174" s="21" t="s">
         <v>941</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1">
+    <row r="175" spans="1:20">
       <c r="A175" s="21" t="s">
         <v>941</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1">
+    <row r="176" spans="1:20">
       <c r="A176" s="21" t="s">
         <v>941</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1">
+    <row r="177" spans="1:23">
       <c r="A177" s="21" t="s">
         <v>941</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1">
+    <row r="178" spans="1:23">
       <c r="A178" s="21" t="s">
         <v>941</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1">
+    <row r="179" spans="1:23">
       <c r="A179" s="21" t="s">
         <v>941</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" hidden="1">
       <c r="A235" s="21" t="s">
         <v>958</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" hidden="1">
       <c r="A236" s="21" t="s">
         <v>958</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" hidden="1">
       <c r="A259" s="21" t="s">
         <v>965</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" hidden="1">
       <c r="A260" s="21" t="s">
         <v>965</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" hidden="1">
       <c r="A261" s="21" t="s">
         <v>965</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="323" spans="1:23" s="23" customFormat="1" hidden="1">
+    <row r="323" spans="1:23" s="23" customFormat="1">
       <c r="A323" s="23" t="s">
         <v>961</v>
       </c>
@@ -23953,7 +23953,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" hidden="1">
       <c r="A345" s="21" t="s">
         <v>978</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" hidden="1">
       <c r="A359" s="21" t="s">
         <v>984</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" hidden="1">
       <c r="A360" s="21" t="s">
         <v>984</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" hidden="1">
       <c r="A361" s="21" t="s">
         <v>984</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" hidden="1">
       <c r="A362" s="21" t="s">
         <v>985</v>
       </c>
@@ -24973,7 +24973,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" hidden="1">
       <c r="A363" s="21" t="s">
         <v>985</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" hidden="1">
       <c r="A364" s="21" t="s">
         <v>985</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" hidden="1">
       <c r="A365" s="21" t="s">
         <v>985</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" hidden="1">
       <c r="A399" s="21" t="s">
         <v>993</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" hidden="1">
       <c r="A400" s="21" t="s">
         <v>993</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" hidden="1">
       <c r="A401" s="21" t="s">
         <v>994</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" hidden="1">
       <c r="A402" s="21" t="s">
         <v>994</v>
       </c>
@@ -27234,7 +27234,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" hidden="1">
       <c r="A403" s="21" t="s">
         <v>994</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" hidden="1">
       <c r="A404" s="21" t="s">
         <v>994</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" hidden="1">
       <c r="A405" s="21" t="s">
         <v>994</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" hidden="1">
       <c r="A406" s="21" t="s">
         <v>994</v>
       </c>
@@ -27470,7 +27470,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" hidden="1">
       <c r="A407" s="21" t="s">
         <v>994</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" hidden="1">
       <c r="A408" s="21" t="s">
         <v>994</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" hidden="1">
       <c r="A422" s="21" t="s">
         <v>996</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" hidden="1">
       <c r="A423" s="21" t="s">
         <v>996</v>
       </c>
@@ -28443,7 +28443,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" hidden="1">
       <c r="A424" s="21" t="s">
         <v>996</v>
       </c>
@@ -29640,7 +29640,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" hidden="1">
       <c r="A445" s="21" t="s">
         <v>1000</v>
       </c>
@@ -29699,7 +29699,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" spans="1:23" hidden="1">
       <c r="A446" s="21" t="s">
         <v>1000</v>
       </c>
@@ -29873,7 +29873,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" spans="1:23" hidden="1">
       <c r="A449" s="21" t="s">
         <v>1002</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" spans="1:23" hidden="1">
       <c r="A450" s="21" t="s">
         <v>1003</v>
       </c>
@@ -30662,14 +30662,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="16">
+    <filterColumn colId="8">
       <filters>
-        <filter val="TBD"/>
+        <filter val="Ciguatoxin"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:W462">
-      <sortCondition ref="A1:A462"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -30700,9 +30697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A59317-DFCB-D444-85E0-2BD7B6E5BEF1}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -31513,106 +31510,106 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1">
+    <row r="34" spans="1:9" s="6" customFormat="1">
+      <c r="A34" s="6">
         <v>135</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1">
+    <row r="35" spans="1:9" s="6" customFormat="1">
+      <c r="A35" s="6">
         <v>132</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1">
+    <row r="36" spans="1:9" s="6" customFormat="1">
+      <c r="A36" s="6">
         <v>96</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1">
+    <row r="37" spans="1:9" s="6" customFormat="1">
+      <c r="A37" s="6">
         <v>111</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1">
+    <row r="38" spans="1:9" s="6" customFormat="1">
+      <c r="A38" s="6">
         <v>111</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="6" t="s">
         <v>328</v>
       </c>
     </row>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F506B-4846-734D-A497-408E3B62FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29FDBC-538E-944A-9374-3A019FFEC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3282,7 +3282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3314,6 +3314,7 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3631,7 +3632,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
@@ -30697,9 +30698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A59317-DFCB-D444-85E0-2BD7B6E5BEF1}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -30870,36 +30871,36 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1">
+    <row r="8" spans="1:16" s="6" customFormat="1">
+      <c r="A8" s="6">
         <v>187</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1">
+    <row r="9" spans="1:16" s="6" customFormat="1">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1">
+    <row r="10" spans="1:16" s="6" customFormat="1">
+      <c r="A10" s="6">
         <v>161</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>364</v>
       </c>
     </row>
@@ -31510,20 +31511,20 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="6" customFormat="1">
-      <c r="A34" s="6">
+    <row r="34" spans="1:9" s="29" customFormat="1">
+      <c r="A34" s="29">
         <v>135</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="29" t="s">
         <v>328</v>
       </c>
     </row>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29FDBC-538E-944A-9374-3A019FFEC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803166CE-602B-194E-81F0-F28444B79BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3282,7 +3282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3314,7 +3314,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3633,8 +3632,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4700,7 +4699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="21" t="s">
         <v>914</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1">
+    <row r="19" spans="1:22">
       <c r="A19" s="21" t="s">
         <v>914</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1">
+    <row r="20" spans="1:22">
       <c r="A20" s="21" t="s">
         <v>914</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1">
+    <row r="21" spans="1:22">
       <c r="A21" s="21" t="s">
         <v>914</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1">
+    <row r="22" spans="1:22">
       <c r="A22" s="21" t="s">
         <v>914</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1">
+    <row r="23" spans="1:22">
       <c r="A23" s="21" t="s">
         <v>914</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1">
+    <row r="24" spans="1:22">
       <c r="A24" s="21" t="s">
         <v>914</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1">
+    <row r="25" spans="1:22">
       <c r="A25" s="21" t="s">
         <v>914</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" hidden="1">
       <c r="A37" s="21" t="s">
         <v>918</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" hidden="1">
       <c r="A38" s="21" t="s">
         <v>918</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" s="21" t="s">
         <v>918</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" s="21" t="s">
         <v>918</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1">
+    <row r="41" spans="1:23">
       <c r="A41" s="21" t="s">
         <v>919</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1">
+    <row r="42" spans="1:23">
       <c r="A42" s="21" t="s">
         <v>919</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1">
+    <row r="59" spans="1:23">
       <c r="A59" s="21" t="s">
         <v>924</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1">
+    <row r="60" spans="1:23">
       <c r="A60" s="21" t="s">
         <v>924</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1">
+    <row r="61" spans="1:23">
       <c r="A61" s="21" t="s">
         <v>924</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1">
+    <row r="62" spans="1:23">
       <c r="A62" s="21" t="s">
         <v>924</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1">
+    <row r="63" spans="1:23">
       <c r="A63" s="21" t="s">
         <v>924</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1">
+    <row r="64" spans="1:23">
       <c r="A64" s="21" t="s">
         <v>924</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1">
+    <row r="65" spans="1:23">
       <c r="A65" s="21" t="s">
         <v>924</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1">
+    <row r="66" spans="1:23">
       <c r="A66" s="21" t="s">
         <v>924</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1">
+    <row r="67" spans="1:23">
       <c r="A67" s="21" t="s">
         <v>924</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1">
+    <row r="68" spans="1:23">
       <c r="A68" s="21" t="s">
         <v>924</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1">
+    <row r="69" spans="1:23">
       <c r="A69" s="21" t="s">
         <v>924</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1">
+    <row r="70" spans="1:23">
       <c r="A70" s="21" t="s">
         <v>924</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1">
+    <row r="71" spans="1:23">
       <c r="A71" s="21" t="s">
         <v>924</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1">
+    <row r="79" spans="1:23">
       <c r="A79" s="21" t="s">
         <v>927</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1">
+    <row r="80" spans="1:23">
       <c r="A80" s="21" t="s">
         <v>927</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1">
+    <row r="81" spans="1:23">
       <c r="A81" s="21" t="s">
         <v>927</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1">
+    <row r="82" spans="1:23">
       <c r="A82" s="21" t="s">
         <v>927</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1">
+    <row r="83" spans="1:23">
       <c r="A83" s="21" t="s">
         <v>927</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1">
+    <row r="84" spans="1:23">
       <c r="A84" s="21" t="s">
         <v>927</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1">
+    <row r="91" spans="1:23">
       <c r="A91" s="21" t="s">
         <v>929</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1">
+    <row r="92" spans="1:23">
       <c r="A92" s="21" t="s">
         <v>929</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1">
+    <row r="93" spans="1:23">
       <c r="A93" s="21" t="s">
         <v>930</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1">
+    <row r="94" spans="1:23">
       <c r="A94" s="21" t="s">
         <v>930</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1">
+    <row r="95" spans="1:23">
       <c r="A95" s="21" t="s">
         <v>930</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1">
+    <row r="96" spans="1:23">
       <c r="A96" s="21" t="s">
         <v>930</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1">
+    <row r="97" spans="1:21">
       <c r="A97" s="21" t="s">
         <v>930</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1">
+    <row r="98" spans="1:21">
       <c r="A98" s="21" t="s">
         <v>930</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1">
+    <row r="99" spans="1:21">
       <c r="A99" s="21" t="s">
         <v>930</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1">
+    <row r="100" spans="1:21">
       <c r="A100" s="21" t="s">
         <v>930</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1">
+    <row r="101" spans="1:21">
       <c r="A101" s="21" t="s">
         <v>930</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1">
+    <row r="102" spans="1:21">
       <c r="A102" s="21" t="s">
         <v>930</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1">
+    <row r="103" spans="1:21">
       <c r="A103" s="21" t="s">
         <v>930</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1">
+    <row r="104" spans="1:21">
       <c r="A104" s="21" t="s">
         <v>930</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1">
+    <row r="121" spans="1:23">
       <c r="A121" s="21" t="s">
         <v>933</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1">
+    <row r="123" spans="1:23">
       <c r="A123" s="21" t="s">
         <v>933</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1">
+    <row r="124" spans="1:23">
       <c r="A124" s="21" t="s">
         <v>933</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1">
+    <row r="125" spans="1:23">
       <c r="A125" s="21" t="s">
         <v>933</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1">
+    <row r="127" spans="1:23">
       <c r="A127" s="21" t="s">
         <v>933</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1">
+    <row r="129" spans="1:23">
       <c r="A129" s="21" t="s">
         <v>933</v>
       </c>
@@ -11950,7 +11949,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1">
+    <row r="139" spans="1:23">
       <c r="A139" s="21" t="s">
         <v>935</v>
       </c>
@@ -12697,7 +12696,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1">
+    <row r="151" spans="1:23">
       <c r="A151" s="21" t="s">
         <v>939</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1">
+    <row r="152" spans="1:23">
       <c r="A152" s="21" t="s">
         <v>940</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1">
+    <row r="153" spans="1:23">
       <c r="A153" s="21" t="s">
         <v>940</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1">
+    <row r="154" spans="1:23">
       <c r="A154" s="21" t="s">
         <v>1010</v>
       </c>
@@ -12936,7 +12935,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1">
+    <row r="155" spans="1:23">
       <c r="A155" s="21" t="s">
         <v>1010</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" hidden="1">
       <c r="A156" s="21" t="s">
         <v>941</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" hidden="1">
       <c r="A157" s="21" t="s">
         <v>941</v>
       </c>
@@ -13122,7 +13121,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" hidden="1">
       <c r="A158" s="21" t="s">
         <v>941</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" hidden="1">
       <c r="A159" s="21" t="s">
         <v>941</v>
       </c>
@@ -13246,7 +13245,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" hidden="1">
       <c r="A160" s="21" t="s">
         <v>941</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="21" t="s">
         <v>941</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="21" t="s">
         <v>941</v>
       </c>
@@ -13432,7 +13431,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="21" t="s">
         <v>941</v>
       </c>
@@ -13494,7 +13493,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="21" t="s">
         <v>941</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" hidden="1">
       <c r="A165" s="21" t="s">
         <v>941</v>
       </c>
@@ -13618,7 +13617,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" hidden="1">
       <c r="A166" s="21" t="s">
         <v>941</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" hidden="1">
       <c r="A167" s="21" t="s">
         <v>941</v>
       </c>
@@ -13742,7 +13741,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" hidden="1">
       <c r="A168" s="21" t="s">
         <v>941</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" hidden="1">
       <c r="A169" s="21" t="s">
         <v>941</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" hidden="1">
       <c r="A170" s="21" t="s">
         <v>941</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" hidden="1">
       <c r="A171" s="21" t="s">
         <v>941</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" hidden="1">
       <c r="A172" s="21" t="s">
         <v>941</v>
       </c>
@@ -14052,7 +14051,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" hidden="1">
       <c r="A173" s="21" t="s">
         <v>941</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" hidden="1">
       <c r="A174" s="21" t="s">
         <v>941</v>
       </c>
@@ -14176,7 +14175,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" hidden="1">
       <c r="A175" s="21" t="s">
         <v>941</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" hidden="1">
       <c r="A176" s="21" t="s">
         <v>941</v>
       </c>
@@ -14300,7 +14299,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" hidden="1">
       <c r="A177" s="21" t="s">
         <v>941</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" hidden="1">
       <c r="A178" s="21" t="s">
         <v>941</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" hidden="1">
       <c r="A179" s="21" t="s">
         <v>941</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1">
+    <row r="187" spans="1:23">
       <c r="A187" s="21" t="s">
         <v>945</v>
       </c>
@@ -14955,7 +14954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:23" hidden="1">
+    <row r="188" spans="1:23">
       <c r="A188" s="21" t="s">
         <v>945</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="232" spans="1:23" hidden="1">
+    <row r="232" spans="1:23">
       <c r="A232" s="21" t="s">
         <v>956</v>
       </c>
@@ -17502,7 +17501,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="233" spans="1:23" hidden="1">
+    <row r="233" spans="1:23">
       <c r="A233" s="21" t="s">
         <v>956</v>
       </c>
@@ -19551,7 +19550,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="269" spans="1:23" hidden="1">
+    <row r="269" spans="1:23">
       <c r="A269" s="21" t="s">
         <v>966</v>
       </c>
@@ -19613,7 +19612,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="270" spans="1:23" hidden="1">
+    <row r="270" spans="1:23">
       <c r="A270" s="21" t="s">
         <v>966</v>
       </c>
@@ -20020,7 +20019,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="277" spans="1:23" hidden="1">
+    <row r="277" spans="1:23">
       <c r="A277" s="21" t="s">
         <v>966</v>
       </c>
@@ -22665,7 +22664,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="323" spans="1:23" s="23" customFormat="1">
+    <row r="323" spans="1:23" s="23" customFormat="1" hidden="1">
       <c r="A323" s="23" t="s">
         <v>961</v>
       </c>
@@ -30663,9 +30662,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="8">
+    <filterColumn colId="10">
       <filters>
-        <filter val="Ciguatoxin"/>
+        <filter val="field"/>
+        <filter val="field (non-toxic site)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="provided"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -31511,20 +31516,20 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1">
-      <c r="A34" s="29">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
         <v>135</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="1" t="s">
         <v>328</v>
       </c>
     </row>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C21431-1D34-F04B-924B-6A9A20EB935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA14F7-0445-404C-98F9-38947712157B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3334,9 +3334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3374,7 +3374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3480,7 +3480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3622,7 +3622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3632,9 +3632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R172" sqref="R172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA14F7-0445-404C-98F9-38947712157B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8DDB6-FEE6-E74D-9329-0AE27F8E0EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="23840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="500" windowWidth="31880" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3630,11 +3630,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R172" sqref="R172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3735,7 +3736,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="20" t="s">
         <v>910</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="20" t="s">
         <v>910</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="20" t="s">
         <v>910</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="20" t="s">
         <v>910</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="20" t="s">
         <v>911</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="20" t="s">
         <v>911</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="20" t="s">
         <v>911</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="20" t="s">
         <v>911</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="20" t="s">
         <v>912</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="20" t="s">
         <v>912</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="20" t="s">
         <v>912</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="20" t="s">
         <v>913</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="20" t="s">
         <v>913</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="20" t="s">
         <v>913</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="20" t="s">
         <v>913</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" hidden="1">
       <c r="A17" s="20" t="s">
         <v>913</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" hidden="1">
       <c r="A18" s="20" t="s">
         <v>914</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" hidden="1">
       <c r="A19" s="20" t="s">
         <v>914</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" hidden="1">
       <c r="A20" s="20" t="s">
         <v>914</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" hidden="1">
       <c r="A21" s="20" t="s">
         <v>914</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" hidden="1">
       <c r="A22" s="20" t="s">
         <v>914</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" hidden="1">
       <c r="A23" s="20" t="s">
         <v>914</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" hidden="1">
       <c r="A24" s="20" t="s">
         <v>914</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" hidden="1">
       <c r="A25" s="20" t="s">
         <v>914</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" hidden="1">
       <c r="A26" s="20" t="s">
         <v>915</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" hidden="1">
       <c r="A27" s="20" t="s">
         <v>915</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" hidden="1">
       <c r="A28" s="20" t="s">
         <v>915</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" hidden="1">
       <c r="A29" s="20" t="s">
         <v>915</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" hidden="1">
       <c r="A30" s="20" t="s">
         <v>915</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" hidden="1">
       <c r="A31" s="20" t="s">
         <v>916</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" hidden="1">
       <c r="A32" s="20" t="s">
         <v>916</v>
       </c>
@@ -5585,7 +5586,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="20" t="s">
         <v>916</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" hidden="1">
       <c r="A34" s="20" t="s">
         <v>916</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" hidden="1">
       <c r="A35" s="20" t="s">
         <v>917</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" hidden="1">
       <c r="A36" s="20" t="s">
         <v>917</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" hidden="1">
       <c r="A37" s="20" t="s">
         <v>918</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" hidden="1">
       <c r="A38" s="20" t="s">
         <v>918</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" s="20" t="s">
         <v>918</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" s="20" t="s">
         <v>918</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" hidden="1">
       <c r="A41" s="20" t="s">
         <v>919</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" hidden="1">
       <c r="A42" s="20" t="s">
         <v>919</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" hidden="1">
       <c r="A43" s="20" t="s">
         <v>920</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" hidden="1">
       <c r="A44" s="20" t="s">
         <v>920</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" hidden="1">
       <c r="A45" s="20" t="s">
         <v>920</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" hidden="1">
       <c r="A46" s="20" t="s">
         <v>920</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" hidden="1">
       <c r="A47" s="20" t="s">
         <v>921</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" hidden="1">
       <c r="A48" s="20" t="s">
         <v>921</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" hidden="1">
       <c r="A49" s="20" t="s">
         <v>921</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" hidden="1">
       <c r="A50" s="20" t="s">
         <v>921</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" hidden="1">
       <c r="A51" s="20" t="s">
         <v>921</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="20" t="s">
         <v>921</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="20" t="s">
         <v>921</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="20" t="s">
         <v>922</v>
       </c>
@@ -6907,7 +6908,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="20" t="s">
         <v>922</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="20" t="s">
         <v>922</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" hidden="1">
       <c r="A57" s="20" t="s">
         <v>923</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" hidden="1">
       <c r="A58" s="20" t="s">
         <v>923</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" hidden="1">
       <c r="A59" s="20" t="s">
         <v>924</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" hidden="1">
       <c r="A60" s="20" t="s">
         <v>924</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" hidden="1">
       <c r="A61" s="20" t="s">
         <v>924</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" hidden="1">
       <c r="A62" s="20" t="s">
         <v>924</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" hidden="1">
       <c r="A63" s="20" t="s">
         <v>924</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" hidden="1">
       <c r="A64" s="20" t="s">
         <v>924</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" hidden="1">
       <c r="A65" s="20" t="s">
         <v>924</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" hidden="1">
       <c r="A66" s="20" t="s">
         <v>924</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" hidden="1">
       <c r="A67" s="20" t="s">
         <v>924</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" hidden="1">
       <c r="A68" s="20" t="s">
         <v>924</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" hidden="1">
       <c r="A69" s="20" t="s">
         <v>924</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" hidden="1">
       <c r="A70" s="20" t="s">
         <v>924</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" hidden="1">
       <c r="A71" s="20" t="s">
         <v>924</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" hidden="1">
       <c r="A72" s="20" t="s">
         <v>925</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" hidden="1">
       <c r="A73" s="20" t="s">
         <v>925</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" hidden="1">
       <c r="A74" s="20" t="s">
         <v>925</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" hidden="1">
       <c r="A75" s="20" t="s">
         <v>925</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="26" customFormat="1">
+    <row r="76" spans="1:23" s="26" customFormat="1" hidden="1">
       <c r="A76" s="29" t="s">
         <v>926</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="26" customFormat="1">
+    <row r="77" spans="1:23" s="26" customFormat="1" hidden="1">
       <c r="A77" s="29" t="s">
         <v>926</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="26" customFormat="1">
+    <row r="78" spans="1:23" s="26" customFormat="1" hidden="1">
       <c r="A78" s="29" t="s">
         <v>926</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" hidden="1">
       <c r="A79" s="20" t="s">
         <v>927</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" hidden="1">
       <c r="A80" s="20" t="s">
         <v>927</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" hidden="1">
       <c r="A81" s="20" t="s">
         <v>927</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" hidden="1">
       <c r="A82" s="20" t="s">
         <v>927</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" hidden="1">
       <c r="A83" s="20" t="s">
         <v>927</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" hidden="1">
       <c r="A84" s="20" t="s">
         <v>927</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" hidden="1">
       <c r="A85" s="20" t="s">
         <v>928</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" hidden="1">
       <c r="A86" s="20" t="s">
         <v>928</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" hidden="1">
       <c r="A87" s="20" t="s">
         <v>928</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" hidden="1">
       <c r="A88" s="20" t="s">
         <v>928</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" hidden="1">
       <c r="A89" s="20" t="s">
         <v>928</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" hidden="1">
       <c r="A90" s="20" t="s">
         <v>928</v>
       </c>
@@ -9073,7 +9074,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" hidden="1">
       <c r="A91" s="20" t="s">
         <v>929</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" hidden="1">
       <c r="A92" s="20" t="s">
         <v>929</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" hidden="1">
       <c r="A93" s="20" t="s">
         <v>930</v>
       </c>
@@ -9250,7 +9251,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" hidden="1">
       <c r="A94" s="20" t="s">
         <v>930</v>
       </c>
@@ -9309,7 +9310,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" hidden="1">
       <c r="A95" s="20" t="s">
         <v>930</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" hidden="1">
       <c r="A96" s="20" t="s">
         <v>930</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" hidden="1">
       <c r="A97" s="20" t="s">
         <v>930</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" hidden="1">
       <c r="A98" s="20" t="s">
         <v>930</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" hidden="1">
       <c r="A99" s="20" t="s">
         <v>930</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" hidden="1">
       <c r="A100" s="20" t="s">
         <v>930</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" hidden="1">
       <c r="A101" s="20" t="s">
         <v>930</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" hidden="1">
       <c r="A102" s="20" t="s">
         <v>930</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" hidden="1">
       <c r="A103" s="20" t="s">
         <v>930</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" hidden="1">
       <c r="A104" s="20" t="s">
         <v>930</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" hidden="1">
       <c r="A105" s="20" t="s">
         <v>931</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" hidden="1">
       <c r="A106" s="20" t="s">
         <v>931</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" hidden="1">
       <c r="A107" s="20" t="s">
         <v>931</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" hidden="1">
       <c r="A108" s="20" t="s">
         <v>931</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" hidden="1">
       <c r="A109" s="20" t="s">
         <v>931</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" hidden="1">
       <c r="A110" s="20" t="s">
         <v>931</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" hidden="1">
       <c r="A111" s="20" t="s">
         <v>931</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" hidden="1">
       <c r="A112" s="20" t="s">
         <v>931</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" hidden="1">
       <c r="A113" s="20" t="s">
         <v>931</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" hidden="1">
       <c r="A114" s="20" t="s">
         <v>931</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" hidden="1">
       <c r="A115" s="20" t="s">
         <v>932</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" hidden="1">
       <c r="A116" s="20" t="s">
         <v>932</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" hidden="1">
       <c r="A117" s="20" t="s">
         <v>932</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" hidden="1">
       <c r="A118" s="20" t="s">
         <v>932</v>
       </c>
@@ -10737,7 +10738,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" hidden="1">
       <c r="A119" s="20" t="s">
         <v>932</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" hidden="1">
       <c r="A120" s="20" t="s">
         <v>932</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" hidden="1">
       <c r="A121" s="20" t="s">
         <v>933</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" hidden="1">
       <c r="A122" s="20" t="s">
         <v>933</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" hidden="1">
       <c r="A123" s="20" t="s">
         <v>933</v>
       </c>
@@ -11047,7 +11048,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" hidden="1">
       <c r="A124" s="20" t="s">
         <v>933</v>
       </c>
@@ -11109,7 +11110,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" hidden="1">
       <c r="A125" s="20" t="s">
         <v>933</v>
       </c>
@@ -11171,7 +11172,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" hidden="1">
       <c r="A126" s="20" t="s">
         <v>933</v>
       </c>
@@ -11233,7 +11234,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" hidden="1">
       <c r="A127" s="20" t="s">
         <v>933</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" hidden="1">
       <c r="A128" s="20" t="s">
         <v>933</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" hidden="1">
       <c r="A129" s="20" t="s">
         <v>933</v>
       </c>
@@ -11419,7 +11420,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" hidden="1">
       <c r="A130" s="20" t="s">
         <v>933</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" hidden="1">
       <c r="A131" s="20" t="s">
         <v>933</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" hidden="1">
       <c r="A132" s="20" t="s">
         <v>933</v>
       </c>
@@ -11605,7 +11606,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" hidden="1">
       <c r="A133" s="20" t="s">
         <v>934</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" hidden="1">
       <c r="A134" s="20" t="s">
         <v>934</v>
       </c>
@@ -11723,7 +11724,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" hidden="1">
       <c r="A135" s="20" t="s">
         <v>934</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" hidden="1">
       <c r="A136" s="20" t="s">
         <v>934</v>
       </c>
@@ -11841,7 +11842,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" hidden="1">
       <c r="A137" s="20" t="s">
         <v>934</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" hidden="1">
       <c r="A138" s="20" t="s">
         <v>934</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" hidden="1">
       <c r="A139" s="20" t="s">
         <v>935</v>
       </c>
@@ -12021,7 +12022,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" hidden="1">
       <c r="A140" s="20" t="s">
         <v>936</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" hidden="1">
       <c r="A141" s="20" t="s">
         <v>936</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" hidden="1">
       <c r="A142" s="20" t="s">
         <v>936</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" hidden="1">
       <c r="A143" s="20" t="s">
         <v>1009</v>
       </c>
@@ -12275,7 +12276,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" hidden="1">
       <c r="A144" s="20" t="s">
         <v>937</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" hidden="1">
       <c r="A145" s="20" t="s">
         <v>937</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" hidden="1">
       <c r="A146" s="20" t="s">
         <v>937</v>
       </c>
@@ -12452,7 +12453,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" hidden="1">
       <c r="A147" s="20" t="s">
         <v>937</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" hidden="1">
       <c r="A148" s="20" t="s">
         <v>938</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" hidden="1">
       <c r="A149" s="20" t="s">
         <v>938</v>
       </c>
@@ -12641,7 +12642,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" hidden="1">
       <c r="A150" s="20" t="s">
         <v>938</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" hidden="1">
       <c r="A151" s="20" t="s">
         <v>939</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" hidden="1">
       <c r="A152" s="20" t="s">
         <v>940</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" hidden="1">
       <c r="A153" s="20" t="s">
         <v>940</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" hidden="1">
       <c r="A154" s="20" t="s">
         <v>1010</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" hidden="1">
       <c r="A155" s="20" t="s">
         <v>1010</v>
       </c>
@@ -13007,7 +13008,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" hidden="1">
       <c r="A156" s="20" t="s">
         <v>941</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" hidden="1">
       <c r="A157" s="20" t="s">
         <v>941</v>
       </c>
@@ -13131,7 +13132,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" hidden="1">
       <c r="A158" s="20" t="s">
         <v>941</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" hidden="1">
       <c r="A159" s="20" t="s">
         <v>941</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" hidden="1">
       <c r="A160" s="20" t="s">
         <v>941</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="20" t="s">
         <v>941</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="20" t="s">
         <v>941</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="20" t="s">
         <v>941</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="20" t="s">
         <v>941</v>
       </c>
@@ -13565,7 +13566,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" hidden="1">
       <c r="A165" s="20" t="s">
         <v>941</v>
       </c>
@@ -13627,7 +13628,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" hidden="1">
       <c r="A166" s="20" t="s">
         <v>941</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" hidden="1">
       <c r="A167" s="20" t="s">
         <v>941</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" hidden="1">
       <c r="A168" s="20" t="s">
         <v>941</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" hidden="1">
       <c r="A169" s="20" t="s">
         <v>941</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" hidden="1">
       <c r="A170" s="20" t="s">
         <v>941</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" hidden="1">
       <c r="A171" s="20" t="s">
         <v>941</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" hidden="1">
       <c r="A172" s="20" t="s">
         <v>941</v>
       </c>
@@ -14061,7 +14062,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" hidden="1">
       <c r="A173" s="20" t="s">
         <v>941</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" hidden="1">
       <c r="A174" s="20" t="s">
         <v>941</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" hidden="1">
       <c r="A175" s="20" t="s">
         <v>941</v>
       </c>
@@ -14247,7 +14248,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" hidden="1">
       <c r="A176" s="20" t="s">
         <v>941</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" hidden="1">
       <c r="A177" s="20" t="s">
         <v>941</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" hidden="1">
       <c r="A178" s="20" t="s">
         <v>941</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" hidden="1">
       <c r="A179" s="20" t="s">
         <v>941</v>
       </c>
@@ -14495,7 +14496,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" hidden="1">
       <c r="A180" s="20" t="s">
         <v>942</v>
       </c>
@@ -14557,7 +14558,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" hidden="1">
       <c r="A181" s="20" t="s">
         <v>942</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" hidden="1">
       <c r="A182" s="20" t="s">
         <v>943</v>
       </c>
@@ -14675,7 +14676,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" hidden="1">
       <c r="A183" s="20" t="s">
         <v>943</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" hidden="1">
       <c r="A184" s="20" t="s">
         <v>943</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" hidden="1">
       <c r="A185" s="20" t="s">
         <v>944</v>
       </c>
@@ -14846,7 +14847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" hidden="1">
       <c r="A186" s="20" t="s">
         <v>944</v>
       </c>
@@ -14905,7 +14906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" hidden="1">
       <c r="A187" s="20" t="s">
         <v>945</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" hidden="1">
       <c r="A188" s="20" t="s">
         <v>945</v>
       </c>
@@ -15023,7 +15024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:23" s="22" customFormat="1">
+    <row r="189" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A189" s="22" t="s">
         <v>953</v>
       </c>
@@ -15079,7 +15080,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="22" customFormat="1">
+    <row r="190" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A190" s="22" t="s">
         <v>953</v>
       </c>
@@ -15135,7 +15136,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="22" customFormat="1">
+    <row r="191" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A191" s="22" t="s">
         <v>953</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="22" customFormat="1">
+    <row r="192" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A192" s="22" t="s">
         <v>953</v>
       </c>
@@ -15247,7 +15248,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="193" spans="1:23" s="22" customFormat="1">
+    <row r="193" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A193" s="22" t="s">
         <v>953</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="194" spans="1:23" s="22" customFormat="1">
+    <row r="194" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A194" s="22" t="s">
         <v>959</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:23" s="22" customFormat="1">
+    <row r="195" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A195" s="22" t="s">
         <v>972</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="196" spans="1:23" s="22" customFormat="1">
+    <row r="196" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A196" s="22" t="s">
         <v>972</v>
       </c>
@@ -15480,7 +15481,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="197" spans="1:23" s="22" customFormat="1">
+    <row r="197" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A197" s="22" t="s">
         <v>972</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="198" spans="1:23" s="22" customFormat="1">
+    <row r="198" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A198" s="22" t="s">
         <v>988</v>
       </c>
@@ -15595,7 +15596,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="199" spans="1:23" s="22" customFormat="1">
+    <row r="199" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A199" s="22" t="s">
         <v>988</v>
       </c>
@@ -15651,7 +15652,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="200" spans="1:23" s="22" customFormat="1">
+    <row r="200" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A200" s="22" t="s">
         <v>988</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="201" spans="1:23" s="22" customFormat="1">
+    <row r="201" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A201" s="22" t="s">
         <v>988</v>
       </c>
@@ -15763,7 +15764,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="202" spans="1:23" s="22" customFormat="1">
+    <row r="202" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A202" s="22" t="s">
         <v>988</v>
       </c>
@@ -15819,7 +15820,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="203" spans="1:23" s="22" customFormat="1">
+    <row r="203" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A203" s="22" t="s">
         <v>1014</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="204" spans="1:23" s="22" customFormat="1">
+    <row r="204" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A204" s="22" t="s">
         <v>1014</v>
       </c>
@@ -15931,7 +15932,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="205" spans="1:23" s="22" customFormat="1">
+    <row r="205" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A205" s="22" t="s">
         <v>1014</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="206" spans="1:23" s="22" customFormat="1">
+    <row r="206" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A206" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="207" spans="1:23" s="22" customFormat="1">
+    <row r="207" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A207" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16099,7 +16100,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="208" spans="1:23" s="22" customFormat="1">
+    <row r="208" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A208" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16155,7 +16156,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="209" spans="1:23" s="22" customFormat="1">
+    <row r="209" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A209" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16211,7 +16212,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="210" spans="1:23" s="22" customFormat="1">
+    <row r="210" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A210" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16267,7 +16268,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="211" spans="1:23" s="22" customFormat="1">
+    <row r="211" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A211" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16323,7 +16324,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="212" spans="1:23" s="22" customFormat="1">
+    <row r="212" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A212" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="213" spans="1:23" s="22" customFormat="1">
+    <row r="213" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A213" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16435,7 +16436,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="214" spans="1:23" s="22" customFormat="1">
+    <row r="214" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A214" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="215" spans="1:23" s="22" customFormat="1">
+    <row r="215" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A215" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16547,7 +16548,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="216" spans="1:23" s="22" customFormat="1">
+    <row r="216" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A216" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="217" spans="1:23" s="22" customFormat="1">
+    <row r="217" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A217" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="218" spans="1:23" s="22" customFormat="1">
+    <row r="218" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A218" s="22" t="s">
         <v>1014</v>
       </c>
@@ -16715,7 +16716,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="219" spans="1:23" s="22" customFormat="1">
+    <row r="219" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A219" s="30" t="s">
         <v>982</v>
       </c>
@@ -16776,7 +16777,7 @@
       <c r="V219" s="30"/>
       <c r="W219" s="30"/>
     </row>
-    <row r="220" spans="1:23" s="22" customFormat="1">
+    <row r="220" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A220" s="22" t="s">
         <v>982</v>
       </c>
@@ -16832,7 +16833,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="221" spans="1:23" s="22" customFormat="1">
+    <row r="221" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A221" s="22" t="s">
         <v>1005</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="222" spans="1:23" s="22" customFormat="1">
+    <row r="222" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A222" s="22" t="s">
         <v>1005</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="223" spans="1:23" s="22" customFormat="1">
+    <row r="223" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A223" s="22" t="s">
         <v>1005</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="224" spans="1:23" s="22" customFormat="1">
+    <row r="224" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A224" s="22" t="s">
         <v>1005</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="225" spans="1:23" s="22" customFormat="1">
+    <row r="225" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A225" s="22" t="s">
         <v>1005</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="226" spans="1:23" s="22" customFormat="1">
+    <row r="226" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A226" s="22" t="s">
         <v>1005</v>
       </c>
@@ -17168,7 +17169,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="227" spans="1:23" s="22" customFormat="1">
+    <row r="227" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A227" s="22" t="s">
         <v>1005</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="228" spans="1:23" s="22" customFormat="1">
+    <row r="228" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A228" s="22" t="s">
         <v>989</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="229" spans="1:23" s="22" customFormat="1">
+    <row r="229" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A229" s="30" t="s">
         <v>1006</v>
       </c>
@@ -17343,7 +17344,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="230" spans="1:23" s="22" customFormat="1">
+    <row r="230" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A230" s="30" t="s">
         <v>949</v>
       </c>
@@ -17406,7 +17407,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="231" spans="1:23" s="22" customFormat="1">
+    <row r="231" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A231" s="30" t="s">
         <v>949</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" hidden="1">
       <c r="A232" s="20" t="s">
         <v>956</v>
       </c>
@@ -17528,7 +17529,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" hidden="1">
       <c r="A233" s="20" t="s">
         <v>956</v>
       </c>
@@ -17587,7 +17588,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" hidden="1">
       <c r="A234" s="20" t="s">
         <v>957</v>
       </c>
@@ -17761,7 +17762,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="237" spans="1:23" s="22" customFormat="1">
+    <row r="237" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A237" s="30" t="s">
         <v>949</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="238" spans="1:23" s="22" customFormat="1">
+    <row r="238" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A238" s="30" t="s">
         <v>949</v>
       </c>
@@ -17887,7 +17888,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="239" spans="1:23" s="22" customFormat="1">
+    <row r="239" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A239" s="30" t="s">
         <v>949</v>
       </c>
@@ -17950,7 +17951,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="240" spans="1:23" s="22" customFormat="1">
+    <row r="240" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A240" s="30" t="s">
         <v>949</v>
       </c>
@@ -18013,7 +18014,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="241" spans="1:23" s="22" customFormat="1">
+    <row r="241" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A241" s="22" t="s">
         <v>969</v>
       </c>
@@ -18072,7 +18073,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="242" spans="1:23" s="22" customFormat="1">
+    <row r="242" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A242" s="22" t="s">
         <v>960</v>
       </c>
@@ -18128,7 +18129,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="243" spans="1:23" s="22" customFormat="1">
+    <row r="243" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A243" s="22" t="s">
         <v>960</v>
       </c>
@@ -18184,7 +18185,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="244" spans="1:23" s="22" customFormat="1">
+    <row r="244" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A244" s="22" t="s">
         <v>960</v>
       </c>
@@ -18240,7 +18241,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="245" spans="1:23" s="22" customFormat="1">
+    <row r="245" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A245" s="22" t="s">
         <v>960</v>
       </c>
@@ -18296,7 +18297,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="246" spans="1:23" s="22" customFormat="1">
+    <row r="246" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A246" s="22" t="s">
         <v>983</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="247" spans="1:23" s="22" customFormat="1">
+    <row r="247" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A247" s="22" t="s">
         <v>983</v>
       </c>
@@ -18408,7 +18409,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="248" spans="1:23" s="26" customFormat="1">
+    <row r="248" spans="1:23" s="26" customFormat="1" hidden="1">
       <c r="A248" s="29" t="s">
         <v>1012</v>
       </c>
@@ -18469,7 +18470,7 @@
       <c r="V248" s="29"/>
       <c r="W248" s="29"/>
     </row>
-    <row r="249" spans="1:23" s="26" customFormat="1">
+    <row r="249" spans="1:23" s="26" customFormat="1" hidden="1">
       <c r="A249" s="29" t="s">
         <v>1012</v>
       </c>
@@ -18530,7 +18531,7 @@
       <c r="V249" s="29"/>
       <c r="W249" s="29"/>
     </row>
-    <row r="250" spans="1:23" s="22" customFormat="1">
+    <row r="250" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A250" s="22" t="s">
         <v>962</v>
       </c>
@@ -18586,7 +18587,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="251" spans="1:23" s="22" customFormat="1">
+    <row r="251" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A251" s="22" t="s">
         <v>962</v>
       </c>
@@ -18642,7 +18643,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="252" spans="1:23" s="22" customFormat="1">
+    <row r="252" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A252" s="22" t="s">
         <v>962</v>
       </c>
@@ -18698,7 +18699,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="22" customFormat="1">
+    <row r="253" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A253" s="22" t="s">
         <v>962</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="254" spans="1:23" s="22" customFormat="1">
+    <row r="254" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A254" s="22" t="s">
         <v>962</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="255" spans="1:23" s="22" customFormat="1">
+    <row r="255" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A255" s="22" t="s">
         <v>962</v>
       </c>
@@ -18866,7 +18867,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="256" spans="1:23" s="22" customFormat="1">
+    <row r="256" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A256" s="22" t="s">
         <v>997</v>
       </c>
@@ -18922,7 +18923,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="257" spans="1:23" s="22" customFormat="1">
+    <row r="257" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A257" s="22" t="s">
         <v>997</v>
       </c>
@@ -18978,7 +18979,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="258" spans="1:23" s="22" customFormat="1">
+    <row r="258" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A258" s="22" t="s">
         <v>997</v>
       </c>
@@ -19202,7 +19203,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="262" spans="1:23" s="22" customFormat="1">
+    <row r="262" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A262" s="22" t="s">
         <v>997</v>
       </c>
@@ -19258,7 +19259,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="263" spans="1:23" s="22" customFormat="1">
+    <row r="263" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A263" s="22" t="s">
         <v>997</v>
       </c>
@@ -19314,7 +19315,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="264" spans="1:23" s="22" customFormat="1">
+    <row r="264" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A264" s="22" t="s">
         <v>997</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="265" spans="1:23" s="22" customFormat="1">
+    <row r="265" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A265" s="22" t="s">
         <v>997</v>
       </c>
@@ -19429,7 +19430,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="266" spans="1:23" s="22" customFormat="1">
+    <row r="266" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A266" s="22" t="s">
         <v>997</v>
       </c>
@@ -19485,7 +19486,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="267" spans="1:23" s="22" customFormat="1">
+    <row r="267" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A267" s="22" t="s">
         <v>997</v>
       </c>
@@ -19541,7 +19542,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" hidden="1">
       <c r="A268" s="20" t="s">
         <v>957</v>
       </c>
@@ -19603,7 +19604,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" hidden="1">
       <c r="A269" s="20" t="s">
         <v>966</v>
       </c>
@@ -19665,7 +19666,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" hidden="1">
       <c r="A270" s="20" t="s">
         <v>966</v>
       </c>
@@ -19727,7 +19728,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" hidden="1">
       <c r="A271" s="28" t="s">
         <v>946</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" hidden="1">
       <c r="A272" s="28" t="s">
         <v>946</v>
       </c>
@@ -19851,7 +19852,7 @@
       <c r="V272" s="28"/>
       <c r="W272" s="28"/>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" hidden="1">
       <c r="A273" s="28" t="s">
         <v>946</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" hidden="1">
       <c r="A274" s="28" t="s">
         <v>946</v>
       </c>
@@ -19977,7 +19978,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" hidden="1">
       <c r="A275" s="28" t="s">
         <v>946</v>
       </c>
@@ -20038,7 +20039,7 @@
       <c r="V275" s="28"/>
       <c r="W275" s="28"/>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" hidden="1">
       <c r="A276" s="20" t="s">
         <v>946</v>
       </c>
@@ -20094,7 +20095,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" hidden="1">
       <c r="A277" s="20" t="s">
         <v>966</v>
       </c>
@@ -20156,7 +20157,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" hidden="1">
       <c r="A278" s="20" t="s">
         <v>967</v>
       </c>
@@ -20221,7 +20222,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" hidden="1">
       <c r="A279" s="20" t="s">
         <v>967</v>
       </c>
@@ -20286,7 +20287,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" hidden="1">
       <c r="A280" s="20" t="s">
         <v>967</v>
       </c>
@@ -20351,7 +20352,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" hidden="1">
       <c r="A281" s="20" t="s">
         <v>1011</v>
       </c>
@@ -20416,7 +20417,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" hidden="1">
       <c r="A282" s="20" t="s">
         <v>1011</v>
       </c>
@@ -20481,7 +20482,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" hidden="1">
       <c r="A283" s="20" t="s">
         <v>1011</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" hidden="1">
       <c r="A284" s="20" t="s">
         <v>1012</v>
       </c>
@@ -20605,7 +20606,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" hidden="1">
       <c r="A285" s="20" t="s">
         <v>1012</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" hidden="1">
       <c r="A286" s="20" t="s">
         <v>946</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" hidden="1">
       <c r="A287" s="28" t="s">
         <v>998</v>
       </c>
@@ -20783,7 +20784,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="288" spans="1:23" s="22" customFormat="1">
+    <row r="288" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A288" s="30" t="s">
         <v>1001</v>
       </c>
@@ -20844,7 +20845,7 @@
       <c r="V288" s="30"/>
       <c r="W288" s="30"/>
     </row>
-    <row r="289" spans="1:23" s="22" customFormat="1">
+    <row r="289" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A289" s="30" t="s">
         <v>1001</v>
       </c>
@@ -20905,7 +20906,7 @@
       <c r="V289" s="30"/>
       <c r="W289" s="30"/>
     </row>
-    <row r="290" spans="1:23" s="22" customFormat="1">
+    <row r="290" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A290" s="22" t="s">
         <v>1015</v>
       </c>
@@ -20961,7 +20962,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="291" spans="1:23" s="22" customFormat="1">
+    <row r="291" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A291" s="22" t="s">
         <v>1015</v>
       </c>
@@ -21017,7 +21018,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="292" spans="1:23" s="22" customFormat="1">
+    <row r="292" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A292" s="22" t="s">
         <v>987</v>
       </c>
@@ -21073,7 +21074,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="293" spans="1:23" s="22" customFormat="1">
+    <row r="293" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A293" s="22" t="s">
         <v>987</v>
       </c>
@@ -21129,7 +21130,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="294" spans="1:23" s="22" customFormat="1">
+    <row r="294" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A294" s="22" t="s">
         <v>987</v>
       </c>
@@ -21185,7 +21186,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="295" spans="1:23" s="22" customFormat="1">
+    <row r="295" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A295" s="22" t="s">
         <v>987</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="296" spans="1:23" s="22" customFormat="1">
+    <row r="296" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A296" s="22" t="s">
         <v>987</v>
       </c>
@@ -21297,7 +21298,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="297" spans="1:23" s="22" customFormat="1">
+    <row r="297" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A297" s="22" t="s">
         <v>987</v>
       </c>
@@ -21353,7 +21354,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="298" spans="1:23" s="22" customFormat="1">
+    <row r="298" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A298" s="22" t="s">
         <v>987</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="299" spans="1:23" s="22" customFormat="1">
+    <row r="299" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A299" s="22" t="s">
         <v>987</v>
       </c>
@@ -21465,7 +21466,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="300" spans="1:23" s="22" customFormat="1">
+    <row r="300" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A300" s="22" t="s">
         <v>992</v>
       </c>
@@ -21521,7 +21522,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="301" spans="1:23" s="22" customFormat="1">
+    <row r="301" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A301" s="22" t="s">
         <v>992</v>
       </c>
@@ -21577,7 +21578,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="302" spans="1:23" s="22" customFormat="1">
+    <row r="302" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A302" s="22" t="s">
         <v>992</v>
       </c>
@@ -21633,7 +21634,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="303" spans="1:23" s="22" customFormat="1">
+    <row r="303" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A303" s="22" t="s">
         <v>992</v>
       </c>
@@ -21689,7 +21690,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="304" spans="1:23" s="22" customFormat="1">
+    <row r="304" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A304" s="22" t="s">
         <v>992</v>
       </c>
@@ -21745,7 +21746,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="305" spans="1:23" s="22" customFormat="1">
+    <row r="305" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A305" s="22" t="s">
         <v>992</v>
       </c>
@@ -21801,7 +21802,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="306" spans="1:23" s="22" customFormat="1">
+    <row r="306" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A306" s="22" t="s">
         <v>992</v>
       </c>
@@ -21857,7 +21858,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="307" spans="1:23" s="22" customFormat="1">
+    <row r="307" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A307" s="22" t="s">
         <v>992</v>
       </c>
@@ -21913,7 +21914,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="308" spans="1:23" s="22" customFormat="1">
+    <row r="308" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A308" s="30" t="s">
         <v>974</v>
       </c>
@@ -21974,7 +21975,7 @@
       <c r="V308" s="30"/>
       <c r="W308" s="30"/>
     </row>
-    <row r="309" spans="1:23" s="22" customFormat="1">
+    <row r="309" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A309" s="30" t="s">
         <v>974</v>
       </c>
@@ -22035,7 +22036,7 @@
       <c r="V309" s="30"/>
       <c r="W309" s="30"/>
     </row>
-    <row r="310" spans="1:23" s="22" customFormat="1">
+    <row r="310" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A310" s="30" t="s">
         <v>974</v>
       </c>
@@ -22096,7 +22097,7 @@
       <c r="V310" s="30"/>
       <c r="W310" s="30"/>
     </row>
-    <row r="311" spans="1:23" s="22" customFormat="1">
+    <row r="311" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A311" s="30" t="s">
         <v>974</v>
       </c>
@@ -22157,7 +22158,7 @@
       <c r="V311" s="30"/>
       <c r="W311" s="30"/>
     </row>
-    <row r="312" spans="1:23" s="22" customFormat="1">
+    <row r="312" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A312" s="30" t="s">
         <v>974</v>
       </c>
@@ -22218,7 +22219,7 @@
       <c r="V312" s="30"/>
       <c r="W312" s="30"/>
     </row>
-    <row r="313" spans="1:23" s="22" customFormat="1">
+    <row r="313" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A313" s="30" t="s">
         <v>974</v>
       </c>
@@ -22279,7 +22280,7 @@
       <c r="V313" s="30"/>
       <c r="W313" s="30"/>
     </row>
-    <row r="314" spans="1:23" s="22" customFormat="1">
+    <row r="314" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A314" s="30" t="s">
         <v>974</v>
       </c>
@@ -22340,7 +22341,7 @@
       <c r="V314" s="30"/>
       <c r="W314" s="30"/>
     </row>
-    <row r="315" spans="1:23" s="22" customFormat="1">
+    <row r="315" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A315" s="30" t="s">
         <v>990</v>
       </c>
@@ -22401,7 +22402,7 @@
       <c r="V315" s="30"/>
       <c r="W315" s="30"/>
     </row>
-    <row r="316" spans="1:23" s="22" customFormat="1">
+    <row r="316" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A316" s="30" t="s">
         <v>971</v>
       </c>
@@ -22462,7 +22463,7 @@
       <c r="V316" s="30"/>
       <c r="W316" s="30"/>
     </row>
-    <row r="317" spans="1:23" s="22" customFormat="1">
+    <row r="317" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A317" s="30" t="s">
         <v>971</v>
       </c>
@@ -22523,7 +22524,7 @@
       <c r="V317" s="30"/>
       <c r="W317" s="30"/>
     </row>
-    <row r="318" spans="1:23" s="22" customFormat="1">
+    <row r="318" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A318" s="30" t="s">
         <v>971</v>
       </c>
@@ -22584,7 +22585,7 @@
       <c r="V318" s="30"/>
       <c r="W318" s="30"/>
     </row>
-    <row r="319" spans="1:23" s="22" customFormat="1">
+    <row r="319" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A319" s="30" t="s">
         <v>971</v>
       </c>
@@ -22645,7 +22646,7 @@
       <c r="V319" s="30"/>
       <c r="W319" s="30"/>
     </row>
-    <row r="320" spans="1:23" s="22" customFormat="1">
+    <row r="320" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A320" s="30" t="s">
         <v>971</v>
       </c>
@@ -22706,7 +22707,7 @@
       <c r="V320" s="30"/>
       <c r="W320" s="30"/>
     </row>
-    <row r="321" spans="1:23" s="22" customFormat="1">
+    <row r="321" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A321" s="30" t="s">
         <v>971</v>
       </c>
@@ -22767,7 +22768,7 @@
       <c r="V321" s="30"/>
       <c r="W321" s="30"/>
     </row>
-    <row r="322" spans="1:23" s="22" customFormat="1">
+    <row r="322" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A322" s="30" t="s">
         <v>971</v>
       </c>
@@ -22828,7 +22829,7 @@
       <c r="V322" s="30"/>
       <c r="W322" s="30"/>
     </row>
-    <row r="323" spans="1:23" s="22" customFormat="1">
+    <row r="323" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A323" s="22" t="s">
         <v>961</v>
       </c>
@@ -22884,7 +22885,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="324" spans="1:23" s="22" customFormat="1">
+    <row r="324" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A324" s="30" t="s">
         <v>977</v>
       </c>
@@ -22947,7 +22948,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="325" spans="1:23" s="22" customFormat="1">
+    <row r="325" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A325" s="30" t="s">
         <v>977</v>
       </c>
@@ -23010,7 +23011,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="326" spans="1:23" s="22" customFormat="1">
+    <row r="326" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A326" s="30" t="s">
         <v>977</v>
       </c>
@@ -23073,7 +23074,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="327" spans="1:23" s="22" customFormat="1">
+    <row r="327" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A327" s="30" t="s">
         <v>1004</v>
       </c>
@@ -23134,7 +23135,7 @@
       <c r="V327" s="30"/>
       <c r="W327" s="30"/>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" hidden="1">
       <c r="A328" s="28" t="s">
         <v>976</v>
       </c>
@@ -23197,7 +23198,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" hidden="1">
       <c r="A329" s="28" t="s">
         <v>976</v>
       </c>
@@ -23260,7 +23261,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="330" spans="1:23" s="22" customFormat="1">
+    <row r="330" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A330" s="30" t="s">
         <v>932</v>
       </c>
@@ -23323,7 +23324,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="331" spans="1:23" s="22" customFormat="1">
+    <row r="331" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A331" s="30" t="s">
         <v>932</v>
       </c>
@@ -23386,7 +23387,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:23" s="22" customFormat="1">
+    <row r="332" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A332" s="30" t="s">
         <v>932</v>
       </c>
@@ -23449,7 +23450,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="333" spans="1:23" s="22" customFormat="1">
+    <row r="333" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A333" s="30" t="s">
         <v>932</v>
       </c>
@@ -23512,7 +23513,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="334" spans="1:23" s="22" customFormat="1">
+    <row r="334" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A334" s="30" t="s">
         <v>932</v>
       </c>
@@ -23575,7 +23576,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="335" spans="1:23" s="22" customFormat="1">
+    <row r="335" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A335" s="30" t="s">
         <v>932</v>
       </c>
@@ -23638,7 +23639,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="22" customFormat="1">
+    <row r="336" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A336" s="30" t="s">
         <v>932</v>
       </c>
@@ -23701,7 +23702,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="337" spans="1:23" s="22" customFormat="1">
+    <row r="337" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A337" s="30" t="s">
         <v>932</v>
       </c>
@@ -23764,7 +23765,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="338" spans="1:23" s="22" customFormat="1">
+    <row r="338" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A338" s="30" t="s">
         <v>932</v>
       </c>
@@ -23827,7 +23828,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:23" s="22" customFormat="1">
+    <row r="339" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A339" s="30" t="s">
         <v>932</v>
       </c>
@@ -23890,7 +23891,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="340" spans="1:23" s="22" customFormat="1">
+    <row r="340" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A340" s="30" t="s">
         <v>932</v>
       </c>
@@ -23953,7 +23954,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="341" spans="1:23" s="22" customFormat="1">
+    <row r="341" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A341" s="30" t="s">
         <v>932</v>
       </c>
@@ -24016,7 +24017,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="342" spans="1:23" s="22" customFormat="1">
+    <row r="342" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A342" s="22" t="s">
         <v>995</v>
       </c>
@@ -24075,7 +24076,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="343" spans="1:23" s="22" customFormat="1">
+    <row r="343" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A343" s="22" t="s">
         <v>995</v>
       </c>
@@ -24134,7 +24135,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="344" spans="1:23" s="22" customFormat="1">
+    <row r="344" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A344" s="30" t="s">
         <v>968</v>
       </c>
@@ -24254,7 +24255,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="346" spans="1:23" s="22" customFormat="1">
+    <row r="346" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A346" s="30" t="s">
         <v>968</v>
       </c>
@@ -24315,7 +24316,7 @@
       <c r="V346" s="30"/>
       <c r="W346" s="30"/>
     </row>
-    <row r="347" spans="1:23" s="22" customFormat="1">
+    <row r="347" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A347" s="30" t="s">
         <v>986</v>
       </c>
@@ -24376,7 +24377,7 @@
       <c r="V347" s="30"/>
       <c r="W347" s="30"/>
     </row>
-    <row r="348" spans="1:23" s="22" customFormat="1">
+    <row r="348" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A348" s="30" t="s">
         <v>986</v>
       </c>
@@ -24437,7 +24438,7 @@
       <c r="V348" s="30"/>
       <c r="W348" s="30"/>
     </row>
-    <row r="349" spans="1:23" s="22" customFormat="1">
+    <row r="349" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A349" s="30" t="s">
         <v>986</v>
       </c>
@@ -24498,7 +24499,7 @@
       <c r="V349" s="30"/>
       <c r="W349" s="30"/>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" hidden="1">
       <c r="A350" s="20" t="s">
         <v>980</v>
       </c>
@@ -24557,7 +24558,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" hidden="1">
       <c r="A351" s="28" t="s">
         <v>981</v>
       </c>
@@ -24620,7 +24621,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" hidden="1">
       <c r="A352" s="28" t="s">
         <v>981</v>
       </c>
@@ -24683,7 +24684,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="353" spans="1:21" s="22" customFormat="1">
+    <row r="353" spans="1:21" s="22" customFormat="1" hidden="1">
       <c r="A353" s="22" t="s">
         <v>1016</v>
       </c>
@@ -24739,7 +24740,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="354" spans="1:21" s="22" customFormat="1">
+    <row r="354" spans="1:21" s="22" customFormat="1" hidden="1">
       <c r="A354" s="22" t="s">
         <v>1016</v>
       </c>
@@ -24795,7 +24796,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="355" spans="1:21" s="22" customFormat="1">
+    <row r="355" spans="1:21" s="22" customFormat="1" hidden="1">
       <c r="A355" s="22" t="s">
         <v>1016</v>
       </c>
@@ -24851,7 +24852,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="356" spans="1:21" s="22" customFormat="1">
+    <row r="356" spans="1:21" s="22" customFormat="1" hidden="1">
       <c r="A356" s="22" t="s">
         <v>1016</v>
       </c>
@@ -24907,7 +24908,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="357" spans="1:21" s="22" customFormat="1">
+    <row r="357" spans="1:21" s="22" customFormat="1" hidden="1">
       <c r="A357" s="22" t="s">
         <v>1016</v>
       </c>
@@ -24963,7 +24964,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="358" spans="1:21" s="22" customFormat="1">
+    <row r="358" spans="1:21" s="22" customFormat="1" hidden="1">
       <c r="A358" s="22" t="s">
         <v>1016</v>
       </c>
@@ -25411,7 +25412,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" hidden="1">
       <c r="A366" s="20" t="s">
         <v>980</v>
       </c>
@@ -25470,7 +25471,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" hidden="1">
       <c r="A367" s="20" t="s">
         <v>980</v>
       </c>
@@ -25529,7 +25530,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" hidden="1">
       <c r="A368" s="20" t="s">
         <v>980</v>
       </c>
@@ -25588,7 +25589,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" hidden="1">
       <c r="A369" s="20" t="s">
         <v>980</v>
       </c>
@@ -25647,7 +25648,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" hidden="1">
       <c r="A370" s="20" t="s">
         <v>980</v>
       </c>
@@ -25706,7 +25707,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:23" s="22" customFormat="1">
+    <row r="371" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A371" s="22" t="s">
         <v>991</v>
       </c>
@@ -25762,7 +25763,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="372" spans="1:23" s="22" customFormat="1">
+    <row r="372" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A372" s="22" t="s">
         <v>991</v>
       </c>
@@ -25818,7 +25819,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="373" spans="1:23" s="22" customFormat="1">
+    <row r="373" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A373" s="30" t="s">
         <v>973</v>
       </c>
@@ -25879,7 +25880,7 @@
       <c r="V373" s="30"/>
       <c r="W373" s="30"/>
     </row>
-    <row r="374" spans="1:23" s="22" customFormat="1">
+    <row r="374" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A374" s="30" t="s">
         <v>973</v>
       </c>
@@ -25940,7 +25941,7 @@
       <c r="V374" s="30"/>
       <c r="W374" s="30"/>
     </row>
-    <row r="375" spans="1:23" s="22" customFormat="1">
+    <row r="375" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A375" s="30" t="s">
         <v>979</v>
       </c>
@@ -26001,7 +26002,7 @@
       <c r="V375" s="30"/>
       <c r="W375" s="30"/>
     </row>
-    <row r="376" spans="1:23" s="22" customFormat="1">
+    <row r="376" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A376" s="30" t="s">
         <v>979</v>
       </c>
@@ -26062,7 +26063,7 @@
       <c r="V376" s="30"/>
       <c r="W376" s="30"/>
     </row>
-    <row r="377" spans="1:23" s="22" customFormat="1">
+    <row r="377" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A377" s="30" t="s">
         <v>979</v>
       </c>
@@ -26123,7 +26124,7 @@
       <c r="V377" s="30"/>
       <c r="W377" s="30"/>
     </row>
-    <row r="378" spans="1:23" s="22" customFormat="1">
+    <row r="378" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A378" s="30" t="s">
         <v>979</v>
       </c>
@@ -26184,7 +26185,7 @@
       <c r="V378" s="30"/>
       <c r="W378" s="30"/>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" hidden="1">
       <c r="A379" s="28" t="s">
         <v>955</v>
       </c>
@@ -26245,7 +26246,7 @@
       <c r="V379" s="28"/>
       <c r="W379" s="28"/>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" hidden="1">
       <c r="A380" s="28" t="s">
         <v>955</v>
       </c>
@@ -26306,7 +26307,7 @@
       <c r="V380" s="28"/>
       <c r="W380" s="28"/>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" hidden="1">
       <c r="A381" s="28" t="s">
         <v>955</v>
       </c>
@@ -26367,7 +26368,7 @@
       <c r="V381" s="28"/>
       <c r="W381" s="28"/>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" hidden="1">
       <c r="A382" s="28" t="s">
         <v>955</v>
       </c>
@@ -26428,7 +26429,7 @@
       <c r="V382" s="28"/>
       <c r="W382" s="28"/>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" hidden="1">
       <c r="A383" s="28" t="s">
         <v>955</v>
       </c>
@@ -26489,7 +26490,7 @@
       <c r="V383" s="28"/>
       <c r="W383" s="28"/>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" hidden="1">
       <c r="A384" s="28" t="s">
         <v>955</v>
       </c>
@@ -26550,7 +26551,7 @@
       <c r="V384" s="28"/>
       <c r="W384" s="28"/>
     </row>
-    <row r="385" spans="1:18" s="22" customFormat="1">
+    <row r="385" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A385" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26606,7 +26607,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="386" spans="1:18" s="22" customFormat="1">
+    <row r="386" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A386" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26662,7 +26663,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="387" spans="1:18" s="22" customFormat="1">
+    <row r="387" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A387" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26718,7 +26719,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="388" spans="1:18" s="22" customFormat="1">
+    <row r="388" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A388" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26774,7 +26775,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="389" spans="1:18" s="22" customFormat="1">
+    <row r="389" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A389" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26830,7 +26831,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="390" spans="1:18" s="22" customFormat="1">
+    <row r="390" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A390" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26886,7 +26887,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="391" spans="1:18" s="22" customFormat="1">
+    <row r="391" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A391" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26942,7 +26943,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="392" spans="1:18" s="22" customFormat="1">
+    <row r="392" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A392" s="22" t="s">
         <v>1013</v>
       </c>
@@ -26998,7 +26999,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="393" spans="1:18" s="22" customFormat="1">
+    <row r="393" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A393" s="22" t="s">
         <v>1013</v>
       </c>
@@ -27054,7 +27055,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="394" spans="1:18" s="22" customFormat="1">
+    <row r="394" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A394" s="22" t="s">
         <v>1013</v>
       </c>
@@ -27110,7 +27111,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="395" spans="1:18" s="22" customFormat="1">
+    <row r="395" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A395" s="22" t="s">
         <v>1013</v>
       </c>
@@ -27166,7 +27167,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="396" spans="1:18" s="22" customFormat="1">
+    <row r="396" spans="1:18" s="22" customFormat="1" hidden="1">
       <c r="A396" s="22" t="s">
         <v>1013</v>
       </c>
@@ -27222,7 +27223,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="397" spans="1:18">
+    <row r="397" spans="1:18" hidden="1">
       <c r="A397" s="20" t="s">
         <v>952</v>
       </c>
@@ -27278,7 +27279,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:18" hidden="1">
       <c r="A398" s="20" t="s">
         <v>952</v>
       </c>
@@ -27918,7 +27919,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="409" spans="1:23">
+    <row r="409" spans="1:23" hidden="1">
       <c r="A409" s="20" t="s">
         <v>980</v>
       </c>
@@ -27977,7 +27978,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:23">
+    <row r="410" spans="1:23" hidden="1">
       <c r="A410" s="20" t="s">
         <v>980</v>
       </c>
@@ -28036,7 +28037,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" spans="1:23" hidden="1">
       <c r="A411" s="20" t="s">
         <v>952</v>
       </c>
@@ -28092,7 +28093,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" spans="1:23" hidden="1">
       <c r="A412" s="20" t="s">
         <v>952</v>
       </c>
@@ -28148,7 +28149,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" spans="1:23" hidden="1">
       <c r="A413" s="20" t="s">
         <v>952</v>
       </c>
@@ -28204,7 +28205,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" spans="1:23" hidden="1">
       <c r="A414" s="20" t="s">
         <v>952</v>
       </c>
@@ -28260,7 +28261,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" spans="1:23" hidden="1">
       <c r="A415" s="20" t="s">
         <v>952</v>
       </c>
@@ -28316,7 +28317,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" spans="1:23" hidden="1">
       <c r="A416" s="20" t="s">
         <v>952</v>
       </c>
@@ -28372,7 +28373,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="417" spans="1:23" s="22" customFormat="1">
+    <row r="417" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A417" s="30" t="s">
         <v>963</v>
       </c>
@@ -28433,7 +28434,7 @@
       <c r="V417" s="30"/>
       <c r="W417" s="30"/>
     </row>
-    <row r="418" spans="1:23" s="22" customFormat="1">
+    <row r="418" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A418" s="22" t="s">
         <v>947</v>
       </c>
@@ -28489,7 +28490,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="419" spans="1:23">
+    <row r="419" spans="1:23" hidden="1">
       <c r="A419" s="20" t="s">
         <v>980</v>
       </c>
@@ -28548,7 +28549,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:23">
+    <row r="420" spans="1:23" hidden="1">
       <c r="A420" s="20" t="s">
         <v>980</v>
       </c>
@@ -28607,7 +28608,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:23">
+    <row r="421" spans="1:23" hidden="1">
       <c r="A421" s="20" t="s">
         <v>980</v>
       </c>
@@ -28834,7 +28835,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="1:23" s="22" customFormat="1">
+    <row r="425" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A425" s="22" t="s">
         <v>947</v>
       </c>
@@ -28890,7 +28891,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="426" spans="1:23" s="22" customFormat="1">
+    <row r="426" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A426" s="22" t="s">
         <v>947</v>
       </c>
@@ -28946,7 +28947,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="427" spans="1:23" s="22" customFormat="1">
+    <row r="427" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A427" s="22" t="s">
         <v>975</v>
       </c>
@@ -29002,7 +29003,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="428" spans="1:23" s="22" customFormat="1">
+    <row r="428" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A428" s="22" t="s">
         <v>975</v>
       </c>
@@ -29058,7 +29059,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="429" spans="1:23" s="22" customFormat="1">
+    <row r="429" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A429" s="22" t="s">
         <v>975</v>
       </c>
@@ -29114,7 +29115,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="430" spans="1:23" s="22" customFormat="1">
+    <row r="430" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A430" s="30" t="s">
         <v>950</v>
       </c>
@@ -29175,7 +29176,7 @@
       <c r="V430" s="30"/>
       <c r="W430" s="30"/>
     </row>
-    <row r="431" spans="1:23" s="22" customFormat="1">
+    <row r="431" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A431" s="30" t="s">
         <v>950</v>
       </c>
@@ -29236,7 +29237,7 @@
       <c r="V431" s="30"/>
       <c r="W431" s="30"/>
     </row>
-    <row r="432" spans="1:23" s="22" customFormat="1">
+    <row r="432" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A432" s="30" t="s">
         <v>950</v>
       </c>
@@ -29297,7 +29298,7 @@
       <c r="V432" s="30"/>
       <c r="W432" s="30"/>
     </row>
-    <row r="433" spans="1:23" s="22" customFormat="1">
+    <row r="433" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A433" s="30" t="s">
         <v>1008</v>
       </c>
@@ -29358,7 +29359,7 @@
       <c r="V433" s="30"/>
       <c r="W433" s="30"/>
     </row>
-    <row r="434" spans="1:23" s="22" customFormat="1">
+    <row r="434" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A434" s="30" t="s">
         <v>1008</v>
       </c>
@@ -29419,7 +29420,7 @@
       <c r="V434" s="30"/>
       <c r="W434" s="30"/>
     </row>
-    <row r="435" spans="1:23">
+    <row r="435" spans="1:23" hidden="1">
       <c r="A435" s="20" t="s">
         <v>980</v>
       </c>
@@ -29478,7 +29479,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:23">
+    <row r="436" spans="1:23" hidden="1">
       <c r="A436" s="20" t="s">
         <v>980</v>
       </c>
@@ -29537,7 +29538,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:23">
+    <row r="437" spans="1:23" hidden="1">
       <c r="A437" s="20" t="s">
         <v>980</v>
       </c>
@@ -29596,7 +29597,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="438" spans="1:23" s="22" customFormat="1">
+    <row r="438" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A438" s="30" t="s">
         <v>954</v>
       </c>
@@ -29657,7 +29658,7 @@
       <c r="V438" s="30"/>
       <c r="W438" s="30"/>
     </row>
-    <row r="439" spans="1:23" s="22" customFormat="1">
+    <row r="439" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A439" s="30" t="s">
         <v>970</v>
       </c>
@@ -29718,7 +29719,7 @@
       <c r="V439" s="30"/>
       <c r="W439" s="30"/>
     </row>
-    <row r="440" spans="1:23" s="22" customFormat="1">
+    <row r="440" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A440" s="22" t="s">
         <v>951</v>
       </c>
@@ -29774,7 +29775,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="441" spans="1:23">
+    <row r="441" spans="1:23" hidden="1">
       <c r="A441" s="20" t="s">
         <v>980</v>
       </c>
@@ -29833,7 +29834,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:23" s="22" customFormat="1">
+    <row r="442" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A442" s="30" t="s">
         <v>999</v>
       </c>
@@ -29896,7 +29897,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" spans="1:23" hidden="1">
       <c r="A443" s="20" t="s">
         <v>980</v>
       </c>
@@ -29955,7 +29956,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:23" s="22" customFormat="1">
+    <row r="444" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A444" s="30" t="s">
         <v>999</v>
       </c>
@@ -30136,7 +30137,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" spans="1:23" s="22" customFormat="1">
+    <row r="447" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A447" s="30" t="s">
         <v>999</v>
       </c>
@@ -30199,7 +30200,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="448" spans="1:23" s="22" customFormat="1">
+    <row r="448" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A448" s="30" t="s">
         <v>948</v>
       </c>
@@ -30375,7 +30376,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="451" spans="1:23" s="22" customFormat="1">
+    <row r="451" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A451" s="30" t="s">
         <v>948</v>
       </c>
@@ -30436,7 +30437,7 @@
       <c r="V451" s="30"/>
       <c r="W451" s="30"/>
     </row>
-    <row r="452" spans="1:23" s="22" customFormat="1">
+    <row r="452" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A452" s="30" t="s">
         <v>948</v>
       </c>
@@ -30497,7 +30498,7 @@
       <c r="V452" s="30"/>
       <c r="W452" s="30"/>
     </row>
-    <row r="453" spans="1:23" s="22" customFormat="1">
+    <row r="453" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A453" s="30" t="s">
         <v>964</v>
       </c>
@@ -30558,7 +30559,7 @@
       <c r="V453" s="30"/>
       <c r="W453" s="30"/>
     </row>
-    <row r="454" spans="1:23" s="22" customFormat="1">
+    <row r="454" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A454" s="30" t="s">
         <v>964</v>
       </c>
@@ -30619,7 +30620,7 @@
       <c r="V454" s="30"/>
       <c r="W454" s="30"/>
     </row>
-    <row r="455" spans="1:23" s="22" customFormat="1">
+    <row r="455" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A455" s="30" t="s">
         <v>964</v>
       </c>
@@ -30680,7 +30681,7 @@
       <c r="V455" s="30"/>
       <c r="W455" s="30"/>
     </row>
-    <row r="456" spans="1:23" s="22" customFormat="1">
+    <row r="456" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A456" s="30" t="s">
         <v>964</v>
       </c>
@@ -30741,7 +30742,7 @@
       <c r="V456" s="30"/>
       <c r="W456" s="30"/>
     </row>
-    <row r="457" spans="1:23" s="22" customFormat="1">
+    <row r="457" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A457" s="30" t="s">
         <v>964</v>
       </c>
@@ -30802,7 +30803,7 @@
       <c r="V457" s="30"/>
       <c r="W457" s="30"/>
     </row>
-    <row r="458" spans="1:23" s="22" customFormat="1">
+    <row r="458" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A458" s="30" t="s">
         <v>964</v>
       </c>
@@ -30863,7 +30864,7 @@
       <c r="V458" s="30"/>
       <c r="W458" s="30"/>
     </row>
-    <row r="459" spans="1:23" s="22" customFormat="1">
+    <row r="459" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A459" s="30" t="s">
         <v>964</v>
       </c>
@@ -30924,7 +30925,7 @@
       <c r="V459" s="30"/>
       <c r="W459" s="30"/>
     </row>
-    <row r="460" spans="1:23" s="22" customFormat="1">
+    <row r="460" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A460" s="30" t="s">
         <v>964</v>
       </c>
@@ -30985,7 +30986,7 @@
       <c r="V460" s="30"/>
       <c r="W460" s="30"/>
     </row>
-    <row r="461" spans="1:23" s="22" customFormat="1">
+    <row r="461" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A461" s="30" t="s">
         <v>964</v>
       </c>
@@ -31046,7 +31047,7 @@
       <c r="V461" s="30"/>
       <c r="W461" s="30"/>
     </row>
-    <row r="462" spans="1:23" s="22" customFormat="1">
+    <row r="462" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A462" s="22" t="s">
         <v>1007</v>
       </c>
@@ -31103,7 +31104,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}"/>
+  <autoFilter ref="A1:W462" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="TBD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -33443,7 +33450,7 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8DDB6-FEE6-E74D-9329-0AE27F8E0EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB149799-8C87-C147-AA26-A911827DBC6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="500" windowWidth="31880" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="1940" windowWidth="31880" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3634,8 +3634,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E362" sqref="E362"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4406,7 +4406,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" s="20" t="s">
         <v>913</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" s="20" t="s">
         <v>913</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" s="20" t="s">
         <v>913</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" s="20" t="s">
         <v>913</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1">
+    <row r="17" spans="1:22">
       <c r="A17" s="20" t="s">
         <v>913</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1">
+    <row r="26" spans="1:22">
       <c r="A26" s="20" t="s">
         <v>915</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1">
+    <row r="27" spans="1:22">
       <c r="A27" s="20" t="s">
         <v>915</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1">
+    <row r="28" spans="1:22">
       <c r="A28" s="20" t="s">
         <v>915</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1">
+    <row r="29" spans="1:22">
       <c r="A29" s="20" t="s">
         <v>915</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1">
+    <row r="30" spans="1:22">
       <c r="A30" s="20" t="s">
         <v>915</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1">
+    <row r="185" spans="1:23">
       <c r="A185" s="20" t="s">
         <v>944</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:23" hidden="1">
+    <row r="186" spans="1:23">
       <c r="A186" s="20" t="s">
         <v>944</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" hidden="1">
       <c r="A235" s="20" t="s">
         <v>958</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" hidden="1">
       <c r="A236" s="20" t="s">
         <v>958</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" hidden="1">
       <c r="A259" s="20" t="s">
         <v>965</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" hidden="1">
       <c r="A260" s="20" t="s">
         <v>965</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" hidden="1">
       <c r="A261" s="20" t="s">
         <v>965</v>
       </c>
@@ -24196,7 +24196,7 @@
       <c r="V344" s="30"/>
       <c r="W344" s="30"/>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" hidden="1">
       <c r="A345" s="20" t="s">
         <v>978</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" hidden="1">
       <c r="A359" s="20" t="s">
         <v>984</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" hidden="1">
       <c r="A360" s="20" t="s">
         <v>984</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" hidden="1">
       <c r="A361" s="20" t="s">
         <v>984</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" hidden="1">
       <c r="A362" s="20" t="s">
         <v>985</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" hidden="1">
       <c r="A363" s="20" t="s">
         <v>985</v>
       </c>
@@ -25300,7 +25300,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" hidden="1">
       <c r="A364" s="20" t="s">
         <v>985</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" hidden="1">
       <c r="A365" s="20" t="s">
         <v>985</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" hidden="1">
       <c r="A399" s="20" t="s">
         <v>993</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" hidden="1">
       <c r="A400" s="20" t="s">
         <v>993</v>
       </c>
@@ -27447,7 +27447,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" hidden="1">
       <c r="A401" s="20" t="s">
         <v>994</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" hidden="1">
       <c r="A402" s="20" t="s">
         <v>994</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" hidden="1">
       <c r="A403" s="20" t="s">
         <v>994</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" hidden="1">
       <c r="A404" s="20" t="s">
         <v>994</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" hidden="1">
       <c r="A405" s="20" t="s">
         <v>994</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" hidden="1">
       <c r="A406" s="20" t="s">
         <v>994</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" hidden="1">
       <c r="A407" s="20" t="s">
         <v>994</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" hidden="1">
       <c r="A408" s="20" t="s">
         <v>994</v>
       </c>
@@ -28667,7 +28667,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:23">
+    <row r="422" spans="1:23" hidden="1">
       <c r="A422" s="20" t="s">
         <v>996</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="423" spans="1:23">
+    <row r="423" spans="1:23" hidden="1">
       <c r="A423" s="20" t="s">
         <v>996</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="424" spans="1:23">
+    <row r="424" spans="1:23" hidden="1">
       <c r="A424" s="20" t="s">
         <v>996</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" hidden="1">
       <c r="A445" s="20" t="s">
         <v>1000</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" spans="1:23" hidden="1">
       <c r="A446" s="20" t="s">
         <v>1000</v>
       </c>
@@ -30261,7 +30261,7 @@
       <c r="V448" s="30"/>
       <c r="W448" s="30"/>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" spans="1:23" hidden="1">
       <c r="A449" s="20" t="s">
         <v>1002</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" spans="1:23" hidden="1">
       <c r="A450" s="20" t="s">
         <v>1003</v>
       </c>
@@ -31105,9 +31105,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
-    <filterColumn colId="16">
+    <filterColumn colId="4">
       <filters>
-        <filter val="TBD"/>
+        <filter val="Brown crab"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB149799-8C87-C147-AA26-A911827DBC6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87EDCC-A11F-2540-8C41-C1992C6CF997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="1940" windowWidth="31880" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16240" yWindow="1860" windowWidth="31880" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3633,9 +3633,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4220,7 +4220,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" s="20" t="s">
         <v>912</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="A11" s="20" t="s">
         <v>912</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" s="20" t="s">
         <v>912</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="20" t="s">
         <v>913</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="20" t="s">
         <v>913</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="20" t="s">
         <v>913</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="20" t="s">
         <v>913</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" hidden="1">
       <c r="A17" s="20" t="s">
         <v>913</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" hidden="1">
       <c r="A26" s="20" t="s">
         <v>915</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" hidden="1">
       <c r="A27" s="20" t="s">
         <v>915</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" hidden="1">
       <c r="A28" s="20" t="s">
         <v>915</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" hidden="1">
       <c r="A29" s="20" t="s">
         <v>915</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" hidden="1">
       <c r="A30" s="20" t="s">
         <v>915</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1">
+    <row r="115" spans="1:23">
       <c r="A115" s="20" t="s">
         <v>932</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1">
+    <row r="116" spans="1:23">
       <c r="A116" s="20" t="s">
         <v>932</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1">
+    <row r="117" spans="1:23">
       <c r="A117" s="20" t="s">
         <v>932</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1">
+    <row r="118" spans="1:23">
       <c r="A118" s="20" t="s">
         <v>932</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1">
+    <row r="119" spans="1:23">
       <c r="A119" s="20" t="s">
         <v>932</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1">
+    <row r="120" spans="1:23">
       <c r="A120" s="20" t="s">
         <v>932</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1">
+    <row r="121" spans="1:23">
       <c r="A121" s="20" t="s">
         <v>933</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1">
+    <row r="122" spans="1:23">
       <c r="A122" s="20" t="s">
         <v>933</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1">
+    <row r="123" spans="1:23">
       <c r="A123" s="20" t="s">
         <v>933</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1">
+    <row r="124" spans="1:23">
       <c r="A124" s="20" t="s">
         <v>933</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1">
+    <row r="125" spans="1:23">
       <c r="A125" s="20" t="s">
         <v>933</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1">
+    <row r="126" spans="1:23">
       <c r="A126" s="20" t="s">
         <v>933</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1">
+    <row r="127" spans="1:23">
       <c r="A127" s="20" t="s">
         <v>933</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1">
+    <row r="128" spans="1:23">
       <c r="A128" s="20" t="s">
         <v>933</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1">
+    <row r="129" spans="1:23">
       <c r="A129" s="20" t="s">
         <v>933</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1">
+    <row r="130" spans="1:23">
       <c r="A130" s="20" t="s">
         <v>933</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1">
+    <row r="131" spans="1:23">
       <c r="A131" s="20" t="s">
         <v>933</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1">
+    <row r="132" spans="1:23">
       <c r="A132" s="20" t="s">
         <v>933</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1">
+    <row r="140" spans="1:23">
       <c r="A140" s="20" t="s">
         <v>936</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1">
+    <row r="141" spans="1:23">
       <c r="A141" s="20" t="s">
         <v>936</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1">
+    <row r="142" spans="1:23">
       <c r="A142" s="20" t="s">
         <v>936</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1">
+    <row r="154" spans="1:23">
       <c r="A154" s="20" t="s">
         <v>1010</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1">
+    <row r="155" spans="1:23">
       <c r="A155" s="20" t="s">
         <v>1010</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" hidden="1">
       <c r="A185" s="20" t="s">
         <v>944</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" hidden="1">
       <c r="A186" s="20" t="s">
         <v>944</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="194" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="194" spans="1:23" s="22" customFormat="1">
       <c r="A194" s="22" t="s">
         <v>959</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="278" spans="1:23" hidden="1">
+    <row r="278" spans="1:23">
       <c r="A278" s="20" t="s">
         <v>967</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:23" hidden="1">
+    <row r="279" spans="1:23">
       <c r="A279" s="20" t="s">
         <v>967</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="280" spans="1:23" hidden="1">
+    <row r="280" spans="1:23">
       <c r="A280" s="20" t="s">
         <v>967</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="330" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="330" spans="1:23" s="22" customFormat="1">
       <c r="A330" s="30" t="s">
         <v>932</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="331" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="331" spans="1:23" s="22" customFormat="1">
       <c r="A331" s="30" t="s">
         <v>932</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="332" spans="1:23" s="22" customFormat="1">
       <c r="A332" s="30" t="s">
         <v>932</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="333" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="333" spans="1:23" s="22" customFormat="1">
       <c r="A333" s="30" t="s">
         <v>932</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="334" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="334" spans="1:23" s="22" customFormat="1">
       <c r="A334" s="30" t="s">
         <v>932</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="335" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="335" spans="1:23" s="22" customFormat="1">
       <c r="A335" s="30" t="s">
         <v>932</v>
       </c>
@@ -23639,7 +23639,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="336" spans="1:23" s="22" customFormat="1">
       <c r="A336" s="30" t="s">
         <v>932</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="337" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="337" spans="1:23" s="22" customFormat="1">
       <c r="A337" s="30" t="s">
         <v>932</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="338" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="338" spans="1:23" s="22" customFormat="1">
       <c r="A338" s="30" t="s">
         <v>932</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="339" spans="1:23" s="22" customFormat="1">
       <c r="A339" s="30" t="s">
         <v>932</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="340" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="340" spans="1:23" s="22" customFormat="1">
       <c r="A340" s="30" t="s">
         <v>932</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="341" spans="1:23" s="22" customFormat="1" hidden="1">
+    <row r="341" spans="1:23" s="22" customFormat="1">
       <c r="A341" s="30" t="s">
         <v>932</v>
       </c>
@@ -31105,9 +31105,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
-    <filterColumn colId="4">
+    <filterColumn colId="17">
       <filters>
-        <filter val="Brown crab"/>
+        <filter val="one vs. two"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87EDCC-A11F-2540-8C41-C1992C6CF997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA55AF3-DFE7-0E40-AE93-2ACE6905CEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="1860" windowWidth="31880" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="31880" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3334,9 +3334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3374,7 +3374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3480,7 +3480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3622,7 +3622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3633,9 +3633,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H194" sqref="H194"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H406" sqref="H406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4220,7 +4220,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="20" t="s">
         <v>912</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="20" t="s">
         <v>912</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="20" t="s">
         <v>912</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" hidden="1">
       <c r="A115" s="20" t="s">
         <v>932</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" hidden="1">
       <c r="A116" s="20" t="s">
         <v>932</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" hidden="1">
       <c r="A117" s="20" t="s">
         <v>932</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" hidden="1">
       <c r="A118" s="20" t="s">
         <v>932</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" hidden="1">
       <c r="A119" s="20" t="s">
         <v>932</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" hidden="1">
       <c r="A120" s="20" t="s">
         <v>932</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" hidden="1">
       <c r="A121" s="20" t="s">
         <v>933</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" hidden="1">
       <c r="A122" s="20" t="s">
         <v>933</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" hidden="1">
       <c r="A123" s="20" t="s">
         <v>933</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" hidden="1">
       <c r="A124" s="20" t="s">
         <v>933</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" hidden="1">
       <c r="A125" s="20" t="s">
         <v>933</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" hidden="1">
       <c r="A126" s="20" t="s">
         <v>933</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" hidden="1">
       <c r="A127" s="20" t="s">
         <v>933</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" hidden="1">
       <c r="A128" s="20" t="s">
         <v>933</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" hidden="1">
       <c r="A129" s="20" t="s">
         <v>933</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" hidden="1">
       <c r="A130" s="20" t="s">
         <v>933</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" hidden="1">
       <c r="A131" s="20" t="s">
         <v>933</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" hidden="1">
       <c r="A132" s="20" t="s">
         <v>933</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" hidden="1">
       <c r="A140" s="20" t="s">
         <v>936</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" hidden="1">
       <c r="A141" s="20" t="s">
         <v>936</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" hidden="1">
       <c r="A142" s="20" t="s">
         <v>936</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" hidden="1">
       <c r="A154" s="20" t="s">
         <v>1010</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" hidden="1">
       <c r="A155" s="20" t="s">
         <v>1010</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="194" spans="1:23" s="22" customFormat="1">
+    <row r="194" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A194" s="22" t="s">
         <v>959</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1">
+    <row r="235" spans="1:23">
       <c r="A235" s="20" t="s">
         <v>958</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1">
+    <row r="236" spans="1:23">
       <c r="A236" s="20" t="s">
         <v>958</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1">
+    <row r="259" spans="1:23">
       <c r="A259" s="20" t="s">
         <v>965</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1">
+    <row r="260" spans="1:23">
       <c r="A260" s="20" t="s">
         <v>965</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1">
+    <row r="261" spans="1:23">
       <c r="A261" s="20" t="s">
         <v>965</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" hidden="1">
       <c r="A278" s="20" t="s">
         <v>967</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" hidden="1">
       <c r="A279" s="20" t="s">
         <v>967</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" hidden="1">
       <c r="A280" s="20" t="s">
         <v>967</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="330" spans="1:23" s="22" customFormat="1">
+    <row r="330" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A330" s="30" t="s">
         <v>932</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="331" spans="1:23" s="22" customFormat="1">
+    <row r="331" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A331" s="30" t="s">
         <v>932</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:23" s="22" customFormat="1">
+    <row r="332" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A332" s="30" t="s">
         <v>932</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="333" spans="1:23" s="22" customFormat="1">
+    <row r="333" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A333" s="30" t="s">
         <v>932</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="334" spans="1:23" s="22" customFormat="1">
+    <row r="334" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A334" s="30" t="s">
         <v>932</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="335" spans="1:23" s="22" customFormat="1">
+    <row r="335" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A335" s="30" t="s">
         <v>932</v>
       </c>
@@ -23639,7 +23639,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="22" customFormat="1">
+    <row r="336" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A336" s="30" t="s">
         <v>932</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="337" spans="1:23" s="22" customFormat="1">
+    <row r="337" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A337" s="30" t="s">
         <v>932</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="338" spans="1:23" s="22" customFormat="1">
+    <row r="338" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A338" s="30" t="s">
         <v>932</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:23" s="22" customFormat="1">
+    <row r="339" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A339" s="30" t="s">
         <v>932</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="340" spans="1:23" s="22" customFormat="1">
+    <row r="340" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A340" s="30" t="s">
         <v>932</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="341" spans="1:23" s="22" customFormat="1">
+    <row r="341" spans="1:23" s="22" customFormat="1" hidden="1">
       <c r="A341" s="30" t="s">
         <v>932</v>
       </c>
@@ -24196,7 +24196,7 @@
       <c r="V344" s="30"/>
       <c r="W344" s="30"/>
     </row>
-    <row r="345" spans="1:23" hidden="1">
+    <row r="345" spans="1:23">
       <c r="A345" s="20" t="s">
         <v>978</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1">
+    <row r="359" spans="1:21">
       <c r="A359" s="20" t="s">
         <v>984</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1">
+    <row r="360" spans="1:21">
       <c r="A360" s="20" t="s">
         <v>984</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1">
+    <row r="361" spans="1:21">
       <c r="A361" s="20" t="s">
         <v>984</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1">
+    <row r="362" spans="1:21">
       <c r="A362" s="20" t="s">
         <v>985</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1">
+    <row r="363" spans="1:21">
       <c r="A363" s="20" t="s">
         <v>985</v>
       </c>
@@ -25300,7 +25300,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1">
+    <row r="364" spans="1:21">
       <c r="A364" s="20" t="s">
         <v>985</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1">
+    <row r="365" spans="1:21">
       <c r="A365" s="20" t="s">
         <v>985</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1">
+    <row r="399" spans="1:18">
       <c r="A399" s="20" t="s">
         <v>993</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1">
+    <row r="400" spans="1:18">
       <c r="A400" s="20" t="s">
         <v>993</v>
       </c>
@@ -27447,7 +27447,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1">
+    <row r="401" spans="1:23">
       <c r="A401" s="20" t="s">
         <v>994</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1">
+    <row r="402" spans="1:23">
       <c r="A402" s="20" t="s">
         <v>994</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1">
+    <row r="403" spans="1:23">
       <c r="A403" s="20" t="s">
         <v>994</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1">
+    <row r="404" spans="1:23">
       <c r="A404" s="20" t="s">
         <v>994</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1">
+    <row r="405" spans="1:23">
       <c r="A405" s="20" t="s">
         <v>994</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1">
+    <row r="406" spans="1:23">
       <c r="A406" s="20" t="s">
         <v>994</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:23" hidden="1">
+    <row r="407" spans="1:23">
       <c r="A407" s="20" t="s">
         <v>994</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:23" hidden="1">
+    <row r="408" spans="1:23">
       <c r="A408" s="20" t="s">
         <v>994</v>
       </c>
@@ -28667,7 +28667,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:23" hidden="1">
+    <row r="422" spans="1:23">
       <c r="A422" s="20" t="s">
         <v>996</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="423" spans="1:23" hidden="1">
+    <row r="423" spans="1:23">
       <c r="A423" s="20" t="s">
         <v>996</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="424" spans="1:23" hidden="1">
+    <row r="424" spans="1:23">
       <c r="A424" s="20" t="s">
         <v>996</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="445" spans="1:23" hidden="1">
+    <row r="445" spans="1:23">
       <c r="A445" s="20" t="s">
         <v>1000</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="446" spans="1:23" hidden="1">
+    <row r="446" spans="1:23">
       <c r="A446" s="20" t="s">
         <v>1000</v>
       </c>
@@ -30261,7 +30261,7 @@
       <c r="V448" s="30"/>
       <c r="W448" s="30"/>
     </row>
-    <row r="449" spans="1:23" hidden="1">
+    <row r="449" spans="1:23">
       <c r="A449" s="20" t="s">
         <v>1002</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="1:23" hidden="1">
+    <row r="450" spans="1:23">
       <c r="A450" s="20" t="s">
         <v>1003</v>
       </c>
@@ -31107,7 +31107,7 @@
   <autoFilter ref="A1:W462" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
     <filterColumn colId="17">
       <filters>
-        <filter val="one vs. two"/>
+        <filter val="TBD"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA55AF3-DFE7-0E40-AE93-2ACE6905CEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB90621-7D3C-824D-9FC7-ECB386B9A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="500" windowWidth="31880" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39220" yWindow="500" windowWidth="31880" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3634,8 +3634,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H406" sqref="H406"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -8153,7 +8153,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="26" customFormat="1" hidden="1">
+    <row r="76" spans="1:23" s="26" customFormat="1">
       <c r="A76" s="29" t="s">
         <v>926</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="26" customFormat="1" hidden="1">
+    <row r="77" spans="1:23" s="26" customFormat="1">
       <c r="A77" s="29" t="s">
         <v>926</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="26" customFormat="1" hidden="1">
+    <row r="78" spans="1:23" s="26" customFormat="1">
       <c r="A78" s="29" t="s">
         <v>926</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" hidden="1">
       <c r="A235" s="20" t="s">
         <v>958</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" hidden="1">
       <c r="A236" s="20" t="s">
         <v>958</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" hidden="1">
       <c r="A259" s="20" t="s">
         <v>965</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" hidden="1">
       <c r="A260" s="20" t="s">
         <v>965</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" hidden="1">
       <c r="A261" s="20" t="s">
         <v>965</v>
       </c>
@@ -24196,7 +24196,7 @@
       <c r="V344" s="30"/>
       <c r="W344" s="30"/>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" hidden="1">
       <c r="A345" s="20" t="s">
         <v>978</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" hidden="1">
       <c r="A359" s="20" t="s">
         <v>984</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" hidden="1">
       <c r="A360" s="20" t="s">
         <v>984</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" hidden="1">
       <c r="A361" s="20" t="s">
         <v>984</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" hidden="1">
       <c r="A362" s="20" t="s">
         <v>985</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" hidden="1">
       <c r="A363" s="20" t="s">
         <v>985</v>
       </c>
@@ -25300,7 +25300,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" hidden="1">
       <c r="A364" s="20" t="s">
         <v>985</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" hidden="1">
       <c r="A365" s="20" t="s">
         <v>985</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" hidden="1">
       <c r="A399" s="20" t="s">
         <v>993</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" hidden="1">
       <c r="A400" s="20" t="s">
         <v>993</v>
       </c>
@@ -27447,7 +27447,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" hidden="1">
       <c r="A401" s="20" t="s">
         <v>994</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" hidden="1">
       <c r="A402" s="20" t="s">
         <v>994</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" hidden="1">
       <c r="A403" s="20" t="s">
         <v>994</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" hidden="1">
       <c r="A404" s="20" t="s">
         <v>994</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" hidden="1">
       <c r="A405" s="20" t="s">
         <v>994</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" hidden="1">
       <c r="A406" s="20" t="s">
         <v>994</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" hidden="1">
       <c r="A407" s="20" t="s">
         <v>994</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" hidden="1">
       <c r="A408" s="20" t="s">
         <v>994</v>
       </c>
@@ -28667,7 +28667,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:23">
+    <row r="422" spans="1:23" hidden="1">
       <c r="A422" s="20" t="s">
         <v>996</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="423" spans="1:23">
+    <row r="423" spans="1:23" hidden="1">
       <c r="A423" s="20" t="s">
         <v>996</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="424" spans="1:23">
+    <row r="424" spans="1:23" hidden="1">
       <c r="A424" s="20" t="s">
         <v>996</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" hidden="1">
       <c r="A445" s="20" t="s">
         <v>1000</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" spans="1:23" hidden="1">
       <c r="A446" s="20" t="s">
         <v>1000</v>
       </c>
@@ -30261,7 +30261,7 @@
       <c r="V448" s="30"/>
       <c r="W448" s="30"/>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" spans="1:23" hidden="1">
       <c r="A449" s="20" t="s">
         <v>1002</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" spans="1:23" hidden="1">
       <c r="A450" s="20" t="s">
         <v>1003</v>
       </c>
@@ -31105,9 +31105,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W462" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
-    <filterColumn colId="17">
+    <filterColumn colId="0">
       <filters>
-        <filter val="TBD"/>
+        <filter val="Barbosa et al. (2019)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D652F-9CF8-3943-AA12-B19A0DBC3EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC563B2-8F66-1D44-AE9B-8C33AD10D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="33120" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11291" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11291" uniqueCount="1316">
   <si>
     <t>Article Title</t>
   </si>
@@ -3900,9 +3900,6 @@
   </si>
   <si>
     <t>Table 5???</t>
-  </si>
-  <si>
-    <t>reported</t>
   </si>
   <si>
     <t>Year 1</t>
@@ -4183,7 +4180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4216,7 +4213,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4534,8 +4530,8 @@
   <dimension ref="A1:Z555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7815,16 +7811,16 @@
         <v>430</v>
       </c>
       <c r="P49" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q49" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q49" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R49" s="24" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S49" s="24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="T49" s="24" t="s">
         <v>870</v>
@@ -7880,16 +7876,16 @@
         <v>430</v>
       </c>
       <c r="P50" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q50" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q50" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R50" s="24" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S50" s="24" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="T50" s="24" t="s">
         <v>870</v>
@@ -7945,16 +7941,16 @@
         <v>722</v>
       </c>
       <c r="P51" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q51" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q51" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R51" s="24" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S51" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="T51" s="24" t="s">
         <v>870</v>
@@ -8010,16 +8006,16 @@
         <v>722</v>
       </c>
       <c r="P52" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q52" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q52" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R52" s="24" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S52" s="24" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="T52" s="24" t="s">
         <v>870</v>
@@ -8075,16 +8071,16 @@
         <v>722</v>
       </c>
       <c r="P53" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q53" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q53" s="24" t="s">
-        <v>595</v>
-      </c>
       <c r="R53" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S53" s="24" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="T53" s="24" t="s">
         <v>870</v>
@@ -8141,16 +8137,16 @@
         <v>722</v>
       </c>
       <c r="P54" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q54" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q54" s="24" t="s">
-        <v>595</v>
-      </c>
       <c r="R54" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S54" s="24" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="T54" s="24" t="s">
         <v>870</v>
@@ -8207,16 +8203,16 @@
         <v>722</v>
       </c>
       <c r="P55" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q55" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q55" s="24" t="s">
-        <v>595</v>
-      </c>
       <c r="R55" s="24" t="s">
+        <v>1289</v>
+      </c>
+      <c r="S55" s="24" t="s">
         <v>1290</v>
-      </c>
-      <c r="S55" s="24" t="s">
-        <v>1291</v>
       </c>
       <c r="T55" s="24" t="s">
         <v>870</v>
@@ -8273,16 +8269,16 @@
         <v>722</v>
       </c>
       <c r="P56" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q56" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q56" s="24" t="s">
-        <v>595</v>
-      </c>
       <c r="R56" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S56" s="24" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="T56" s="24" t="s">
         <v>870</v>
@@ -8339,16 +8335,16 @@
         <v>430</v>
       </c>
       <c r="P57" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q57" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q57" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R57" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S57" s="24" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="T57" s="24" t="s">
         <v>870</v>
@@ -8405,16 +8401,16 @@
         <v>430</v>
       </c>
       <c r="P58" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q58" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q58" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R58" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S58" s="24" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="T58" s="24" t="s">
         <v>870</v>
@@ -8471,16 +8467,16 @@
         <v>430</v>
       </c>
       <c r="P59" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q59" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q59" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R59" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S59" s="24" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="T59" s="24" t="s">
         <v>870</v>
@@ -8537,16 +8533,16 @@
         <v>430</v>
       </c>
       <c r="P60" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q60" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="Q60" s="24" t="s">
-        <v>538</v>
-      </c>
       <c r="R60" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="S60" s="24" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="T60" s="24" t="s">
         <v>870</v>
@@ -10822,7 +10818,7 @@
         <v>483</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="N95" s="24" t="s">
         <v>452</v>
@@ -10834,7 +10830,7 @@
         <v>566</v>
       </c>
       <c r="Q95" s="24" t="s">
-        <v>1278</v>
+        <v>617</v>
       </c>
       <c r="R95" s="24" t="s">
         <v>998</v>
@@ -10849,7 +10845,7 @@
         <v>-4.9416349999999998E-3</v>
       </c>
       <c r="Y95" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -10890,7 +10886,7 @@
         <v>483</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="N96" s="24" t="s">
         <v>452</v>
@@ -10902,7 +10898,7 @@
         <v>566</v>
       </c>
       <c r="Q96" s="24" t="s">
-        <v>1278</v>
+        <v>617</v>
       </c>
       <c r="R96" s="24" t="s">
         <v>998</v>
@@ -10917,7 +10913,7 @@
         <v>-3.1779439999999998E-3</v>
       </c>
       <c r="Y96" s="24" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -18599,10 +18595,10 @@
         <v>633</v>
       </c>
       <c r="R216" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="S216" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="T216" s="24" t="s">
         <v>870</v>
@@ -18666,10 +18662,10 @@
         <v>633</v>
       </c>
       <c r="R217" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="S217" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="T217" s="24" t="s">
         <v>870</v>
@@ -18696,7 +18692,7 @@
       <c r="E218" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F218" s="30" t="s">
+      <c r="F218" s="24" t="s">
         <v>206</v>
       </c>
       <c r="G218" s="24" t="s">
@@ -18733,10 +18729,10 @@
         <v>633</v>
       </c>
       <c r="R218" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="S218" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="T218" s="24" t="s">
         <v>870</v>
@@ -18763,7 +18759,7 @@
       <c r="E219" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F219" s="30" t="s">
+      <c r="F219" s="24" t="s">
         <v>206</v>
       </c>
       <c r="G219" s="24" t="s">
@@ -18800,10 +18796,10 @@
         <v>633</v>
       </c>
       <c r="R219" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="S219" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="T219" s="24" t="s">
         <v>870</v>
@@ -19633,381 +19629,381 @@
         <v>875</v>
       </c>
     </row>
-    <row r="232" spans="1:25" s="30" customFormat="1">
-      <c r="A232" s="30" t="s">
+    <row r="232" spans="1:25">
+      <c r="A232" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="B232" s="30">
+      <c r="B232" s="24">
         <v>98</v>
       </c>
-      <c r="C232" s="30" t="s">
+      <c r="C232" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D232" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="E232" s="30" t="s">
+      <c r="D232" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E232" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F232" s="30" t="s">
+      <c r="F232" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G232" s="30" t="s">
+      <c r="G232" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="H232" s="30" t="s">
+      <c r="H232" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I232" s="30" t="s">
+      <c r="I232" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="J232" s="30" t="s">
+      <c r="J232" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="K232" s="30" t="s">
+      <c r="K232" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L232" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M232" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="N232" s="30" t="s">
+      <c r="L232" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M232" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N232" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="O232" s="30" t="s">
+      <c r="O232" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="P232" s="30" t="s">
+      <c r="P232" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="Q232" s="30" t="s">
+      <c r="Q232" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="R232" s="30" t="s">
+      <c r="R232" s="24" t="s">
         <v>1027</v>
       </c>
-      <c r="S232" s="30" t="s">
+      <c r="S232" s="24" t="s">
         <v>1097</v>
       </c>
-      <c r="T232" s="30" t="s">
+      <c r="T232" s="24" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="233" spans="1:25" s="30" customFormat="1">
-      <c r="A233" s="30" t="s">
+    <row r="233" spans="1:25">
+      <c r="A233" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="B233" s="30">
+      <c r="B233" s="24">
         <v>98</v>
       </c>
-      <c r="C233" s="30" t="s">
+      <c r="C233" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D233" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="E233" s="30" t="s">
+      <c r="D233" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E233" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F233" s="30" t="s">
+      <c r="F233" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G233" s="30" t="s">
+      <c r="G233" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="H233" s="30" t="s">
+      <c r="H233" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I233" s="30" t="s">
+      <c r="I233" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="J233" s="30" t="s">
+      <c r="J233" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="K233" s="30" t="s">
+      <c r="K233" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L233" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M233" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="N233" s="30" t="s">
+      <c r="L233" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M233" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N233" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="O233" s="30" t="s">
+      <c r="O233" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="P233" s="30" t="s">
+      <c r="P233" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="Q233" s="30" t="s">
+      <c r="Q233" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="R233" s="30" t="s">
+      <c r="R233" s="24" t="s">
         <v>1027</v>
       </c>
-      <c r="S233" s="30" t="s">
+      <c r="S233" s="24" t="s">
         <v>1096</v>
       </c>
-      <c r="T233" s="30" t="s">
+      <c r="T233" s="24" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="234" spans="1:25" s="30" customFormat="1">
-      <c r="A234" s="30" t="s">
+    <row r="234" spans="1:25">
+      <c r="A234" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="B234" s="30">
+      <c r="B234" s="24">
         <v>98</v>
       </c>
-      <c r="C234" s="30" t="s">
+      <c r="C234" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D234" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="E234" s="30" t="s">
+      <c r="D234" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E234" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F234" s="30" t="s">
+      <c r="F234" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G234" s="30" t="s">
+      <c r="G234" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="H234" s="30" t="s">
+      <c r="H234" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I234" s="30" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J234" s="30" t="s">
+      <c r="I234" s="24" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J234" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="K234" s="30" t="s">
+      <c r="K234" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L234" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M234" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="N234" s="30" t="s">
+      <c r="L234" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M234" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N234" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="O234" s="30" t="s">
+      <c r="O234" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="P234" s="30" t="s">
+      <c r="P234" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="Q234" s="30" t="s">
+      <c r="Q234" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="R234" s="30" t="s">
+      <c r="R234" s="24" t="s">
         <v>1027</v>
       </c>
-      <c r="S234" s="30" t="s">
+      <c r="S234" s="24" t="s">
         <v>1274</v>
       </c>
-      <c r="T234" s="30" t="s">
+      <c r="T234" s="24" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="235" spans="1:25" s="30" customFormat="1">
-      <c r="A235" s="30" t="s">
+    <row r="235" spans="1:25">
+      <c r="A235" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="B235" s="30">
+      <c r="B235" s="24">
         <v>98</v>
       </c>
-      <c r="C235" s="30" t="s">
+      <c r="C235" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D235" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="E235" s="30" t="s">
+      <c r="D235" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E235" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F235" s="30" t="s">
+      <c r="F235" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G235" s="30" t="s">
+      <c r="G235" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="H235" s="30" t="s">
+      <c r="H235" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I235" s="30" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J235" s="30" t="s">
+      <c r="I235" s="24" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J235" s="24" t="s">
         <v>1051</v>
       </c>
-      <c r="K235" s="30" t="s">
+      <c r="K235" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L235" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M235" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="N235" s="30" t="s">
+      <c r="L235" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M235" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N235" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="O235" s="30" t="s">
+      <c r="O235" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="P235" s="30" t="s">
+      <c r="P235" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="Q235" s="30" t="s">
+      <c r="Q235" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="R235" s="30" t="s">
+      <c r="R235" s="24" t="s">
         <v>1027</v>
       </c>
-      <c r="S235" s="30" t="s">
+      <c r="S235" s="24" t="s">
         <v>1273</v>
       </c>
-      <c r="T235" s="30" t="s">
+      <c r="T235" s="24" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="236" spans="1:25" s="30" customFormat="1">
-      <c r="A236" s="30" t="s">
+    <row r="236" spans="1:25">
+      <c r="A236" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="B236" s="30">
+      <c r="B236" s="24">
         <v>33</v>
       </c>
-      <c r="C236" s="30" t="s">
+      <c r="C236" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D236" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="E236" s="30" t="s">
+      <c r="D236" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E236" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="F236" s="30" t="s">
+      <c r="F236" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="G236" s="30" t="s">
+      <c r="G236" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="H236" s="30" t="s">
+      <c r="H236" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I236" s="30" t="s">
+      <c r="I236" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="J236" s="30" t="s">
+      <c r="J236" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="K236" s="30" t="s">
+      <c r="K236" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L236" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M236" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="N236" s="30" t="s">
+      <c r="L236" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M236" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N236" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="O236" s="30" t="s">
+      <c r="O236" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="P236" s="30" t="s">
+      <c r="P236" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="Q236" s="30" t="s">
+      <c r="Q236" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="R236" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="S236" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="T236" s="30" t="s">
+      <c r="R236" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="S236" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="T236" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="U236" s="30">
+      <c r="U236" s="24">
         <v>-0.93054999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:25" s="30" customFormat="1">
-      <c r="A237" s="30" t="s">
+    <row r="237" spans="1:25">
+      <c r="A237" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="B237" s="30">
+      <c r="B237" s="24">
         <v>33</v>
       </c>
-      <c r="C237" s="30" t="s">
+      <c r="C237" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D237" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="E237" s="30" t="s">
+      <c r="D237" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E237" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="F237" s="30" t="s">
+      <c r="F237" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="G237" s="30" t="s">
+      <c r="G237" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="H237" s="30" t="s">
+      <c r="H237" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I237" s="30" t="s">
+      <c r="I237" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="J237" s="30" t="s">
+      <c r="J237" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="K237" s="30" t="s">
+      <c r="K237" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L237" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M237" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="N237" s="30" t="s">
+      <c r="L237" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M237" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N237" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="O237" s="30" t="s">
+      <c r="O237" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="P237" s="30" t="s">
+      <c r="P237" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="Q237" s="30" t="s">
+      <c r="Q237" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="R237" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="S237" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="T237" s="30" t="s">
+      <c r="R237" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="S237" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="T237" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="U237" s="30">
+      <c r="U237" s="24">
         <v>-4.9863999999999999E-2</v>
       </c>
     </row>
@@ -22491,7 +22487,7 @@
         <v>291</v>
       </c>
       <c r="I276" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J276" s="23" t="s">
         <v>707</v>
@@ -22560,7 +22556,7 @@
         <v>291</v>
       </c>
       <c r="I277" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J277" s="23" t="s">
         <v>597</v>
@@ -22629,7 +22625,7 @@
         <v>291</v>
       </c>
       <c r="I278" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J278" s="23" t="s">
         <v>623</v>
@@ -22698,7 +22694,7 @@
         <v>291</v>
       </c>
       <c r="I279" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J279" s="23" t="s">
         <v>1051</v>
@@ -24940,7 +24936,7 @@
         <v>343</v>
       </c>
       <c r="I312" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J312" s="24" t="s">
         <v>1051</v>
@@ -25005,7 +25001,7 @@
         <v>343</v>
       </c>
       <c r="I313" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J313" s="24" t="s">
         <v>1051</v>
@@ -25070,7 +25066,7 @@
         <v>343</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J314" s="24" t="s">
         <v>1051</v>
@@ -25135,7 +25131,7 @@
         <v>343</v>
       </c>
       <c r="I315" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J315" s="24" t="s">
         <v>1051</v>
@@ -25780,7 +25776,7 @@
         <v>-0.152941176470588</v>
       </c>
       <c r="X324" s="24">
-        <f>LN(2)/ABS(W324)</f>
+        <f t="shared" ref="X324:X341" si="0">LN(2)/ABS(W324)</f>
         <v>4.5321161805842651</v>
       </c>
       <c r="Y324" s="23" t="s">
@@ -25854,7 +25850,7 @@
         <v>-0.25581395348837199</v>
       </c>
       <c r="X325" s="24">
-        <f>LN(2)/ABS(W325)</f>
+        <f t="shared" si="0"/>
         <v>2.7095753421888782</v>
       </c>
       <c r="Y325" s="23" t="s">
@@ -25928,7 +25924,7 @@
         <v>-0.435294117647058</v>
       </c>
       <c r="X326" s="24">
-        <f>LN(2)/ABS(W326)</f>
+        <f t="shared" si="0"/>
         <v>1.592365144529607</v>
       </c>
       <c r="Y326" s="23" t="s">
@@ -26002,7 +25998,7 @@
         <v>-0.435294117647058</v>
       </c>
       <c r="X327" s="24">
-        <f>LN(2)/ABS(W327)</f>
+        <f t="shared" si="0"/>
         <v>1.592365144529607</v>
       </c>
       <c r="Y327" s="23" t="s">
@@ -26076,7 +26072,7 @@
         <v>-0.45882352941176402</v>
       </c>
       <c r="X328" s="24">
-        <f>LN(2)/ABS(W328)</f>
+        <f t="shared" si="0"/>
         <v>1.5107053935280881</v>
       </c>
       <c r="Y328" s="23" t="s">
@@ -26150,7 +26146,7 @@
         <v>-0.46511627906976699</v>
       </c>
       <c r="X329" s="24">
-        <f>LN(2)/ABS(W329)</f>
+        <f t="shared" si="0"/>
         <v>1.4902664382038837</v>
       </c>
       <c r="Y329" s="23" t="s">
@@ -26224,7 +26220,7 @@
         <v>-0.623529411764706</v>
       </c>
       <c r="X330" s="24">
-        <f>LN(2)/ABS(W330)</f>
+        <f t="shared" si="0"/>
         <v>1.1116511386338743</v>
       </c>
       <c r="Y330" s="23" t="s">
@@ -26298,7 +26294,7 @@
         <v>-0.89534883720930203</v>
       </c>
       <c r="X331" s="24">
-        <f>LN(2)/ABS(W331)</f>
+        <f t="shared" si="0"/>
         <v>0.77416438348253658</v>
       </c>
       <c r="Y331" s="23" t="s">
@@ -26372,7 +26368,7 @@
         <v>-0.94117647058823495</v>
       </c>
       <c r="X332" s="24">
-        <f>LN(2)/ABS(W332)</f>
+        <f t="shared" si="0"/>
         <v>0.7364688793449421</v>
       </c>
       <c r="Y332" s="23" t="s">
@@ -26446,7 +26442,7 @@
         <v>-1</v>
       </c>
       <c r="X333" s="24">
-        <f>LN(2)/ABS(W333)</f>
+        <f t="shared" si="0"/>
         <v>0.69314718055994529</v>
       </c>
       <c r="Y333" s="23" t="s">
@@ -26520,7 +26516,7 @@
         <v>-1.3411764705882301</v>
       </c>
       <c r="X334" s="24">
-        <f>LN(2)/ABS(W334)</f>
+        <f t="shared" si="0"/>
         <v>0.51682026620697874</v>
       </c>
       <c r="Y334" s="23" t="s">
@@ -26594,7 +26590,7 @@
         <v>-1.3764705882352899</v>
       </c>
       <c r="X335" s="24">
-        <f>LN(2)/ABS(W335)</f>
+        <f t="shared" si="0"/>
         <v>0.50356846450936354</v>
       </c>
       <c r="Y335" s="23" t="s">
@@ -26668,7 +26664,7 @@
         <v>-1.3953488372092999</v>
       </c>
       <c r="X336" s="24">
-        <f>LN(2)/ABS(W336)</f>
+        <f t="shared" si="0"/>
         <v>0.496755479401295</v>
       </c>
       <c r="Y336" s="23" t="s">
@@ -26742,7 +26738,7 @@
         <v>-1.48235294117647</v>
       </c>
       <c r="X337" s="24">
-        <f>LN(2)/ABS(W337)</f>
+        <f t="shared" si="0"/>
         <v>0.46759928847297916</v>
       </c>
       <c r="Y337" s="23" t="s">
@@ -26816,7 +26812,7 @@
         <v>-1.5930232558139501</v>
       </c>
       <c r="X338" s="24">
-        <f>LN(2)/ABS(W338)</f>
+        <f t="shared" si="0"/>
         <v>0.43511428852668188</v>
       </c>
       <c r="Y338" s="23" t="s">
@@ -26890,7 +26886,7 @@
         <v>-1.6162790697674401</v>
       </c>
       <c r="X339" s="24">
-        <f>LN(2)/ABS(W339)</f>
+        <f t="shared" si="0"/>
         <v>0.42885365128169323</v>
       </c>
       <c r="Y339" s="23" t="s">
@@ -26964,7 +26960,7 @@
         <v>-1.74117647058823</v>
       </c>
       <c r="X340" s="24">
-        <f>LN(2)/ABS(W340)</f>
+        <f t="shared" si="0"/>
         <v>0.39809128613240224</v>
       </c>
       <c r="Y340" s="23" t="s">
@@ -27038,7 +27034,7 @@
         <v>-2.0588235294117601</v>
       </c>
       <c r="X341" s="24">
-        <f>LN(2)/ABS(W341)</f>
+        <f t="shared" si="0"/>
         <v>0.33667148770054561</v>
       </c>
       <c r="Y341" s="23" t="s">
@@ -27822,7 +27818,7 @@
         <v>291</v>
       </c>
       <c r="I353" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J353" s="23" t="s">
         <v>598</v>
@@ -27889,7 +27885,7 @@
         <v>291</v>
       </c>
       <c r="I354" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J354" s="23" t="s">
         <v>597</v>
@@ -27956,7 +27952,7 @@
         <v>291</v>
       </c>
       <c r="I355" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J355" s="24" t="s">
         <v>1051</v>
@@ -28303,7 +28299,7 @@
         <v>318</v>
       </c>
       <c r="I361" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J361" s="23" t="s">
         <v>598</v>
@@ -28370,7 +28366,7 @@
         <v>318</v>
       </c>
       <c r="I362" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J362" s="23" t="s">
         <v>597</v>
@@ -28437,7 +28433,7 @@
         <v>318</v>
       </c>
       <c r="I363" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J363" s="23" t="s">
         <v>596</v>
@@ -28504,7 +28500,7 @@
         <v>318</v>
       </c>
       <c r="I364" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J364" s="23" t="s">
         <v>1051</v>
@@ -30997,7 +30993,7 @@
         <v>318</v>
       </c>
       <c r="I402" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J402" s="24" t="s">
         <v>597</v>
@@ -31065,7 +31061,7 @@
         <v>318</v>
       </c>
       <c r="I403" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J403" s="24" t="s">
         <v>602</v>
@@ -31133,7 +31129,7 @@
         <v>316</v>
       </c>
       <c r="I404" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J404" s="24" t="s">
         <v>627</v>
@@ -31204,7 +31200,7 @@
         <v>316</v>
       </c>
       <c r="I405" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J405" s="24" t="s">
         <v>597</v>
@@ -31275,7 +31271,7 @@
         <v>316</v>
       </c>
       <c r="I406" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J406" s="24" t="s">
         <v>574</v>
@@ -32288,7 +32284,7 @@
         <v>460</v>
       </c>
       <c r="Y421" s="24" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="422" spans="1:25">
@@ -33308,10 +33304,10 @@
         <v>291</v>
       </c>
       <c r="I437" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J437" s="23" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K437" s="23" t="s">
         <v>394</v>
@@ -33371,10 +33367,10 @@
         <v>291</v>
       </c>
       <c r="I438" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J438" s="23" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K438" s="23" t="s">
         <v>394</v>
@@ -33434,10 +33430,10 @@
         <v>291</v>
       </c>
       <c r="I439" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J439" s="23" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="K439" s="23" t="s">
         <v>394</v>
@@ -33497,10 +33493,10 @@
         <v>291</v>
       </c>
       <c r="I440" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J440" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K440" s="23" t="s">
         <v>394</v>
@@ -33560,10 +33556,10 @@
         <v>291</v>
       </c>
       <c r="I441" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J441" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K441" s="23" t="s">
         <v>394</v>
@@ -33623,10 +33619,10 @@
         <v>291</v>
       </c>
       <c r="I442" s="23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J442" s="23" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K442" s="23" t="s">
         <v>394</v>
@@ -33813,7 +33809,7 @@
         <v>283</v>
       </c>
       <c r="J445" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K445" s="24" t="s">
         <v>394</v>
@@ -33875,7 +33871,7 @@
         <v>283</v>
       </c>
       <c r="J446" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K446" s="24" t="s">
         <v>394</v>
@@ -33937,7 +33933,7 @@
         <v>283</v>
       </c>
       <c r="J447" s="24" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K447" s="24" t="s">
         <v>394</v>
@@ -33999,7 +33995,7 @@
         <v>283</v>
       </c>
       <c r="J448" s="24" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K448" s="24" t="s">
         <v>394</v>
@@ -34061,7 +34057,7 @@
         <v>283</v>
       </c>
       <c r="J449" s="24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K449" s="24" t="s">
         <v>394</v>
@@ -34123,7 +34119,7 @@
         <v>283</v>
       </c>
       <c r="J450" s="24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K450" s="24" t="s">
         <v>394</v>
@@ -34185,7 +34181,7 @@
         <v>283</v>
       </c>
       <c r="J451" s="24" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K451" s="24" t="s">
         <v>394</v>
@@ -34247,7 +34243,7 @@
         <v>283</v>
       </c>
       <c r="J452" s="24" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K452" s="24" t="s">
         <v>394</v>
@@ -34309,7 +34305,7 @@
         <v>283</v>
       </c>
       <c r="J453" s="24" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K453" s="24" t="s">
         <v>394</v>
@@ -34371,7 +34367,7 @@
         <v>283</v>
       </c>
       <c r="J454" s="24" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K454" s="24" t="s">
         <v>394</v>
@@ -34433,7 +34429,7 @@
         <v>283</v>
       </c>
       <c r="J455" s="24" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K455" s="24" t="s">
         <v>394</v>
@@ -34495,7 +34491,7 @@
         <v>283</v>
       </c>
       <c r="J456" s="24" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K456" s="24" t="s">
         <v>394</v>
@@ -35108,7 +35104,7 @@
         <v>-2.9499999999999998E-2</v>
       </c>
       <c r="Y466" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="467" spans="1:25">
@@ -35176,7 +35172,7 @@
         <v>-7.5600000000000001E-2</v>
       </c>
       <c r="Y467" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="468" spans="1:25">
@@ -37290,7 +37286,7 @@
         <v>417</v>
       </c>
       <c r="I500" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J500" s="24" t="s">
         <v>598</v>
@@ -37355,7 +37351,7 @@
         <v>417</v>
       </c>
       <c r="I501" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J501" s="24" t="s">
         <v>610</v>
@@ -37420,7 +37416,7 @@
         <v>417</v>
       </c>
       <c r="I502" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J502" s="24" t="s">
         <v>597</v>
@@ -37485,7 +37481,7 @@
         <v>417</v>
       </c>
       <c r="I503" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J503" s="24" t="s">
         <v>611</v>
@@ -37550,7 +37546,7 @@
         <v>417</v>
       </c>
       <c r="I504" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J504" s="24" t="s">
         <v>596</v>
@@ -37615,7 +37611,7 @@
         <v>647</v>
       </c>
       <c r="I505" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J505" s="24" t="s">
         <v>598</v>
@@ -37680,7 +37676,7 @@
         <v>647</v>
       </c>
       <c r="I506" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J506" s="24" t="s">
         <v>598</v>
@@ -37745,7 +37741,7 @@
         <v>647</v>
       </c>
       <c r="I507" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J507" s="24" t="s">
         <v>610</v>
@@ -37810,7 +37806,7 @@
         <v>647</v>
       </c>
       <c r="I508" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J508" s="24" t="s">
         <v>610</v>
@@ -37875,7 +37871,7 @@
         <v>647</v>
       </c>
       <c r="I509" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J509" s="24" t="s">
         <v>597</v>
@@ -37940,7 +37936,7 @@
         <v>647</v>
       </c>
       <c r="I510" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J510" s="24" t="s">
         <v>597</v>
@@ -38005,7 +38001,7 @@
         <v>647</v>
       </c>
       <c r="I511" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J511" s="24" t="s">
         <v>611</v>
@@ -38070,7 +38066,7 @@
         <v>647</v>
       </c>
       <c r="I512" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J512" s="24" t="s">
         <v>611</v>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC563B2-8F66-1D44-AE9B-8C33AD10D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3047172-E87D-1845-B4FD-CFC432B43F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="33120" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4527,11 +4527,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q242" sqref="Q242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4641,7 +4642,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" hidden="1">
       <c r="A2" s="24" t="s">
         <v>923</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" hidden="1">
       <c r="A3" s="24" t="s">
         <v>923</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" hidden="1">
       <c r="A4" s="24" t="s">
         <v>911</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" hidden="1">
       <c r="A5" s="24" t="s">
         <v>911</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" hidden="1">
       <c r="A6" s="24" t="s">
         <v>911</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" hidden="1">
       <c r="A7" s="24" t="s">
         <v>911</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" hidden="1">
       <c r="A8" s="24" t="s">
         <v>911</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" s="24" t="s">
         <v>911</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" hidden="1">
       <c r="A10" s="24" t="s">
         <v>911</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" hidden="1">
       <c r="A11" s="24" t="s">
         <v>911</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" hidden="1">
       <c r="A12" s="24" t="s">
         <v>911</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" hidden="1">
       <c r="A13" s="24" t="s">
         <v>911</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" hidden="1">
       <c r="A14" s="24" t="s">
         <v>911</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" hidden="1">
       <c r="A15" s="24" t="s">
         <v>911</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" hidden="1">
       <c r="A16" s="23" t="s">
         <v>904</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" hidden="1">
       <c r="A17" s="23" t="s">
         <v>904</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" hidden="1">
       <c r="A18" s="23" t="s">
         <v>904</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" hidden="1">
       <c r="A19" s="23" t="s">
         <v>904</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" hidden="1">
       <c r="A20" s="23" t="s">
         <v>904</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" hidden="1">
       <c r="A21" s="23" t="s">
         <v>904</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" hidden="1">
       <c r="A22" s="23" t="s">
         <v>904</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" hidden="1">
       <c r="A23" s="23" t="s">
         <v>904</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" hidden="1">
       <c r="A24" s="23" t="s">
         <v>904</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" hidden="1">
       <c r="A25" s="23" t="s">
         <v>904</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" hidden="1">
       <c r="A26" s="23" t="s">
         <v>904</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" hidden="1">
       <c r="A27" s="23" t="s">
         <v>904</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" hidden="1">
       <c r="A28" s="24" t="s">
         <v>921</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" hidden="1">
       <c r="A29" s="24" t="s">
         <v>921</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" hidden="1">
       <c r="A30" s="24" t="s">
         <v>921</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" hidden="1">
       <c r="A31" s="24" t="s">
         <v>896</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" hidden="1">
       <c r="A32" s="24" t="s">
         <v>896</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" s="24" t="s">
         <v>896</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" s="24" t="s">
         <v>896</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" s="24" t="s">
         <v>931</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" s="24" t="s">
         <v>931</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" s="24" t="s">
         <v>931</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" s="24" t="s">
         <v>931</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" s="24" t="s">
         <v>931</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" s="24" t="s">
         <v>937</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" s="24" t="s">
         <v>937</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" s="24" t="s">
         <v>937</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" s="24" t="s">
         <v>937</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" s="24" t="s">
         <v>937</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" s="24" t="s">
         <v>937</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" s="24" t="s">
         <v>937</v>
       </c>
@@ -7637,7 +7638,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" s="24" t="s">
         <v>937</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" s="24" t="s">
         <v>917</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" s="24" t="s">
         <v>978</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" s="24" t="s">
         <v>978</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" hidden="1">
       <c r="A51" s="24" t="s">
         <v>978</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" s="24" t="s">
         <v>978</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" s="24" t="s">
         <v>972</v>
       </c>
@@ -8090,7 +8091,7 @@
       </c>
       <c r="Z53"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" s="24" t="s">
         <v>972</v>
       </c>
@@ -8156,7 +8157,7 @@
       </c>
       <c r="Z54"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" hidden="1">
       <c r="A55" s="24" t="s">
         <v>972</v>
       </c>
@@ -8222,7 +8223,7 @@
       </c>
       <c r="Z55"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" s="24" t="s">
         <v>972</v>
       </c>
@@ -8288,7 +8289,7 @@
       </c>
       <c r="Z56"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" s="24" t="s">
         <v>972</v>
       </c>
@@ -8354,7 +8355,7 @@
       </c>
       <c r="Z57"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" hidden="1">
       <c r="A58" s="24" t="s">
         <v>972</v>
       </c>
@@ -8420,7 +8421,7 @@
       </c>
       <c r="Z58"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" s="24" t="s">
         <v>972</v>
       </c>
@@ -8486,7 +8487,7 @@
       </c>
       <c r="Z59"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" s="24" t="s">
         <v>972</v>
       </c>
@@ -8552,7 +8553,7 @@
       </c>
       <c r="Z60"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" s="24" t="s">
         <v>889</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" s="24" t="s">
         <v>889</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" hidden="1">
       <c r="A63" s="24" t="s">
         <v>889</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" s="24" t="s">
         <v>889</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" s="24" t="s">
         <v>906</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" s="24" t="s">
         <v>906</v>
       </c>
@@ -8948,7 +8949,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" s="24" t="s">
         <v>906</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" s="24" t="s">
         <v>906</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" s="24" t="s">
         <v>906</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" s="24" t="s">
         <v>906</v>
       </c>
@@ -9220,7 +9221,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" s="24" t="s">
         <v>950</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" s="24" t="s">
         <v>950</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" s="24" t="s">
         <v>950</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" s="24" t="s">
         <v>950</v>
       </c>
@@ -9480,7 +9481,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" s="24" t="s">
         <v>950</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" s="24" t="s">
         <v>950</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" s="24" t="s">
         <v>950</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" s="24" t="s">
         <v>950</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" s="24" t="s">
         <v>950</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" s="24" t="s">
         <v>950</v>
       </c>
@@ -9870,7 +9871,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" s="24" t="s">
         <v>950</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="24" t="s">
         <v>950</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="24" t="s">
         <v>950</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="24" t="s">
         <v>950</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="24" t="s">
         <v>950</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="24" t="s">
         <v>950</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="24" t="s">
         <v>950</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="24" t="s">
         <v>950</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="24" t="s">
         <v>950</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="24" t="s">
         <v>950</v>
       </c>
@@ -10520,7 +10521,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="24" t="s">
         <v>950</v>
       </c>
@@ -10585,7 +10586,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="24" t="s">
         <v>950</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" hidden="1">
       <c r="A93" s="24" t="s">
         <v>950</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="24" t="s">
         <v>950</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" s="24" t="s">
         <v>974</v>
       </c>
@@ -10848,7 +10849,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" s="24" t="s">
         <v>974</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="24" t="s">
         <v>966</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="24" t="s">
         <v>966</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="24" t="s">
         <v>966</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="24" t="s">
         <v>966</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="24" t="s">
         <v>966</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="24" t="s">
         <v>966</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="24" t="s">
         <v>966</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="24" t="s">
         <v>966</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="24" t="s">
         <v>966</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="24" t="s">
         <v>966</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="24" t="s">
         <v>900</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="24" t="s">
         <v>900</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="24" t="s">
         <v>900</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="24" t="s">
         <v>992</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="24" t="s">
         <v>992</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="24" t="s">
         <v>992</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="24" t="s">
         <v>992</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="24" t="s">
         <v>992</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="24" t="s">
         <v>992</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="24" t="s">
         <v>992</v>
       </c>
@@ -12165,7 +12166,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="24" t="s">
         <v>992</v>
       </c>
@@ -12224,7 +12225,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="24" t="s">
         <v>992</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="24" t="s">
         <v>992</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="24" t="s">
         <v>992</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="24" t="s">
         <v>992</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="24" t="s">
         <v>992</v>
       </c>
@@ -12534,7 +12535,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="24" t="s">
         <v>992</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="24" t="s">
         <v>992</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="24" t="s">
         <v>992</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="24" t="s">
         <v>922</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="24" t="s">
         <v>922</v>
       </c>
@@ -12847,7 +12848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" s="23" t="s">
         <v>960</v>
       </c>
@@ -12914,7 +12915,7 @@
       <c r="X128" s="23"/>
       <c r="Y128" s="23"/>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" s="24" t="s">
         <v>960</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" s="24" t="s">
         <v>897</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" s="24" t="s">
         <v>897</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" s="24" t="s">
         <v>902</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" s="24" t="s">
         <v>902</v>
       </c>
@@ -13242,7 +13243,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" s="24" t="s">
         <v>902</v>
       </c>
@@ -13307,7 +13308,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" s="24" t="s">
         <v>902</v>
       </c>
@@ -13372,7 +13373,7 @@
         <v>-0.14399999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" s="24" t="s">
         <v>902</v>
       </c>
@@ -13437,7 +13438,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" s="24" t="s">
         <v>902</v>
       </c>
@@ -13502,7 +13503,7 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" s="24" t="s">
         <v>902</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" s="24" t="s">
         <v>902</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" hidden="1">
       <c r="A140" s="24" t="s">
         <v>902</v>
       </c>
@@ -13697,7 +13698,7 @@
         <v>-0.17799999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" s="24" t="s">
         <v>902</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>-7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" s="24" t="s">
         <v>902</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" hidden="1">
       <c r="A143" s="24" t="s">
         <v>902</v>
       </c>
@@ -13892,7 +13893,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" s="24" t="s">
         <v>902</v>
       </c>
@@ -13957,7 +13958,7 @@
         <v>-0.24099999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" hidden="1">
       <c r="A145" s="24" t="s">
         <v>895</v>
       </c>
@@ -14022,7 +14023,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" hidden="1">
       <c r="A146" s="24" t="s">
         <v>895</v>
       </c>
@@ -14087,7 +14088,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="27" customFormat="1">
+    <row r="147" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A147" s="27" t="s">
         <v>963</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="27" customFormat="1">
+    <row r="148" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A148" s="27" t="s">
         <v>963</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:25" s="27" customFormat="1">
+    <row r="149" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A149" s="27" t="s">
         <v>963</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:25" s="27" customFormat="1">
+    <row r="150" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A150" s="27" t="s">
         <v>963</v>
       </c>
@@ -14311,7 +14312,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" hidden="1">
       <c r="A151" s="24" t="s">
         <v>983</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" hidden="1">
       <c r="A152" s="24" t="s">
         <v>983</v>
       </c>
@@ -14435,7 +14436,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" hidden="1">
       <c r="A153" s="24" t="s">
         <v>983</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" hidden="1">
       <c r="A154" s="24" t="s">
         <v>983</v>
       </c>
@@ -14559,7 +14560,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" hidden="1">
       <c r="A155" s="24" t="s">
         <v>983</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" hidden="1">
       <c r="A156" s="24" t="s">
         <v>983</v>
       </c>
@@ -14683,7 +14684,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" hidden="1">
       <c r="A157" s="24" t="s">
         <v>983</v>
       </c>
@@ -14745,7 +14746,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" hidden="1">
       <c r="A158" s="24" t="s">
         <v>967</v>
       </c>
@@ -14807,7 +14808,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" hidden="1">
       <c r="A159" s="23" t="s">
         <v>984</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" hidden="1">
       <c r="A160" s="23" t="s">
         <v>984</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" hidden="1">
       <c r="A161" s="24" t="s">
         <v>894</v>
       </c>
@@ -15010,7 +15011,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" hidden="1">
       <c r="A162" s="24" t="s">
         <v>894</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" hidden="1">
       <c r="A163" s="24" t="s">
         <v>894</v>
       </c>
@@ -15140,7 +15141,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" hidden="1">
       <c r="A164" s="24" t="s">
         <v>894</v>
       </c>
@@ -15205,7 +15206,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" hidden="1">
       <c r="A165" s="23" t="s">
         <v>927</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" hidden="1">
       <c r="A166" s="23" t="s">
         <v>927</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" hidden="1">
       <c r="A167" s="23" t="s">
         <v>927</v>
       </c>
@@ -15412,7 +15413,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" hidden="1">
       <c r="A168" s="23" t="s">
         <v>927</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" hidden="1">
       <c r="A169" s="23" t="s">
         <v>927</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" hidden="1">
       <c r="A170" s="23" t="s">
         <v>927</v>
       </c>
@@ -15619,7 +15620,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" hidden="1">
       <c r="A171" s="23" t="s">
         <v>927</v>
       </c>
@@ -15688,7 +15689,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" hidden="1">
       <c r="A172" s="23" t="s">
         <v>927</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" hidden="1">
       <c r="A173" s="23" t="s">
         <v>927</v>
       </c>
@@ -15826,7 +15827,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" hidden="1">
       <c r="A174" s="23" t="s">
         <v>927</v>
       </c>
@@ -15895,7 +15896,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" hidden="1">
       <c r="A175" s="23" t="s">
         <v>927</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" hidden="1">
       <c r="A176" s="23" t="s">
         <v>927</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" hidden="1">
       <c r="A177" s="23" t="s">
         <v>927</v>
       </c>
@@ -16102,7 +16103,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" hidden="1">
       <c r="A178" s="23" t="s">
         <v>927</v>
       </c>
@@ -16171,7 +16172,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" hidden="1">
       <c r="A179" s="23" t="s">
         <v>927</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" hidden="1">
       <c r="A180" s="23" t="s">
         <v>927</v>
       </c>
@@ -16309,7 +16310,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" hidden="1">
       <c r="A181" s="23" t="s">
         <v>927</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" hidden="1">
       <c r="A182" s="23" t="s">
         <v>927</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" hidden="1">
       <c r="A183" s="24" t="s">
         <v>947</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" hidden="1">
       <c r="A184" s="24" t="s">
         <v>987</v>
       </c>
@@ -16763,7 +16764,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" hidden="1">
       <c r="A188" s="24" t="s">
         <v>938</v>
       </c>
@@ -16825,7 +16826,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" hidden="1">
       <c r="A189" s="24" t="s">
         <v>961</v>
       </c>
@@ -16887,7 +16888,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" hidden="1">
       <c r="A190" s="24" t="s">
         <v>961</v>
       </c>
@@ -16949,7 +16950,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" hidden="1">
       <c r="A191" s="23" t="s">
         <v>990</v>
       </c>
@@ -17016,7 +17017,7 @@
       <c r="X191" s="23"/>
       <c r="Y191" s="23"/>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" hidden="1">
       <c r="A192" s="23" t="s">
         <v>990</v>
       </c>
@@ -17083,7 +17084,7 @@
       <c r="X192" s="23"/>
       <c r="Y192" s="23"/>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" hidden="1">
       <c r="A193" s="24" t="s">
         <v>990</v>
       </c>
@@ -17148,7 +17149,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" hidden="1">
       <c r="A194" s="24" t="s">
         <v>990</v>
       </c>
@@ -17213,7 +17214,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" hidden="1">
       <c r="A195" s="24" t="s">
         <v>940</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" hidden="1">
       <c r="A196" s="24" t="s">
         <v>940</v>
       </c>
@@ -17337,7 +17338,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" hidden="1">
       <c r="A197" s="24" t="s">
         <v>940</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" hidden="1">
       <c r="A198" s="24" t="s">
         <v>940</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" hidden="1">
       <c r="A199" s="24" t="s">
         <v>940</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" hidden="1">
       <c r="A200" s="24" t="s">
         <v>940</v>
       </c>
@@ -17585,7 +17586,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" hidden="1">
       <c r="A201" s="24" t="s">
         <v>940</v>
       </c>
@@ -17647,7 +17648,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" hidden="1">
       <c r="A202" s="24" t="s">
         <v>940</v>
       </c>
@@ -17709,7 +17710,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" hidden="1">
       <c r="A203" s="24" t="s">
         <v>940</v>
       </c>
@@ -17771,7 +17772,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" hidden="1">
       <c r="A204" s="24" t="s">
         <v>940</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" hidden="1">
       <c r="A205" s="24" t="s">
         <v>940</v>
       </c>
@@ -17895,7 +17896,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" hidden="1">
       <c r="A206" s="24" t="s">
         <v>940</v>
       </c>
@@ -17957,7 +17958,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" hidden="1">
       <c r="A207" s="24" t="s">
         <v>975</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" hidden="1">
       <c r="A208" s="24" t="s">
         <v>975</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" hidden="1">
       <c r="A209" s="24" t="s">
         <v>975</v>
       </c>
@@ -18143,7 +18144,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" hidden="1">
       <c r="A210" s="24" t="s">
         <v>975</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="211" spans="1:25" s="29" customFormat="1">
+    <row r="211" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A211" s="24" t="s">
         <v>975</v>
       </c>
@@ -18272,7 +18273,7 @@
       <c r="X211" s="24"/>
       <c r="Y211" s="24"/>
     </row>
-    <row r="212" spans="1:25" s="29" customFormat="1">
+    <row r="212" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A212" s="24" t="s">
         <v>975</v>
       </c>
@@ -18341,7 +18342,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:25" s="29" customFormat="1">
+    <row r="213" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A213" s="24" t="s">
         <v>975</v>
       </c>
@@ -18408,7 +18409,7 @@
       <c r="X213" s="24"/>
       <c r="Y213" s="24"/>
     </row>
-    <row r="214" spans="1:25" s="29" customFormat="1">
+    <row r="214" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A214" s="24" t="s">
         <v>975</v>
       </c>
@@ -18475,7 +18476,7 @@
       <c r="X214" s="24"/>
       <c r="Y214" s="24"/>
     </row>
-    <row r="215" spans="1:25" s="29" customFormat="1">
+    <row r="215" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A215" s="24" t="s">
         <v>975</v>
       </c>
@@ -18542,7 +18543,7 @@
       <c r="X215" s="24"/>
       <c r="Y215" s="24"/>
     </row>
-    <row r="216" spans="1:25" s="29" customFormat="1">
+    <row r="216" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A216" s="24" t="s">
         <v>924</v>
       </c>
@@ -18609,7 +18610,7 @@
       <c r="X216" s="24"/>
       <c r="Y216" s="24"/>
     </row>
-    <row r="217" spans="1:25" s="29" customFormat="1">
+    <row r="217" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A217" s="24" t="s">
         <v>924</v>
       </c>
@@ -18676,7 +18677,7 @@
       <c r="X217" s="24"/>
       <c r="Y217" s="24"/>
     </row>
-    <row r="218" spans="1:25" s="29" customFormat="1">
+    <row r="218" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A218" s="24" t="s">
         <v>924</v>
       </c>
@@ -18743,7 +18744,7 @@
       <c r="X218" s="24"/>
       <c r="Y218" s="24"/>
     </row>
-    <row r="219" spans="1:25" s="29" customFormat="1">
+    <row r="219" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A219" s="24" t="s">
         <v>924</v>
       </c>
@@ -18810,7 +18811,7 @@
       <c r="X219" s="24"/>
       <c r="Y219" s="24"/>
     </row>
-    <row r="220" spans="1:25" s="29" customFormat="1">
+    <row r="220" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A220" s="23" t="s">
         <v>924</v>
       </c>
@@ -18877,7 +18878,7 @@
       <c r="X220" s="23"/>
       <c r="Y220" s="23"/>
     </row>
-    <row r="221" spans="1:25" s="29" customFormat="1">
+    <row r="221" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A221" s="23" t="s">
         <v>924</v>
       </c>
@@ -18944,7 +18945,7 @@
       <c r="X221" s="23"/>
       <c r="Y221" s="23"/>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" hidden="1">
       <c r="A222" s="23" t="s">
         <v>924</v>
       </c>
@@ -19013,7 +19014,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" hidden="1">
       <c r="A223" s="23" t="s">
         <v>924</v>
       </c>
@@ -19081,7 +19082,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" hidden="1">
       <c r="A224" s="23" t="s">
         <v>924</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="228" spans="1:25">
+    <row r="228" spans="1:25" hidden="1">
       <c r="A228" s="23" t="s">
         <v>976</v>
       </c>
@@ -19427,7 +19428,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="229" spans="1:25">
+    <row r="229" spans="1:25" hidden="1">
       <c r="A229" s="23" t="s">
         <v>979</v>
       </c>
@@ -19494,7 +19495,7 @@
       <c r="X229" s="23"/>
       <c r="Y229" s="23"/>
     </row>
-    <row r="230" spans="1:25">
+    <row r="230" spans="1:25" hidden="1">
       <c r="A230" s="23" t="s">
         <v>979</v>
       </c>
@@ -19561,7 +19562,7 @@
       <c r="X230" s="23"/>
       <c r="Y230" s="23"/>
     </row>
-    <row r="231" spans="1:25">
+    <row r="231" spans="1:25" hidden="1">
       <c r="A231" s="24" t="s">
         <v>913</v>
       </c>
@@ -19629,7 +19630,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="232" spans="1:25">
+    <row r="232" spans="1:25" hidden="1">
       <c r="A232" s="24" t="s">
         <v>993</v>
       </c>
@@ -19691,7 +19692,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="233" spans="1:25">
+    <row r="233" spans="1:25" hidden="1">
       <c r="A233" s="24" t="s">
         <v>993</v>
       </c>
@@ -19753,7 +19754,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="234" spans="1:25">
+    <row r="234" spans="1:25" hidden="1">
       <c r="A234" s="24" t="s">
         <v>993</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="235" spans="1:25">
+    <row r="235" spans="1:25" hidden="1">
       <c r="A235" s="24" t="s">
         <v>993</v>
       </c>
@@ -19877,7 +19878,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="236" spans="1:25">
+    <row r="236" spans="1:25" hidden="1">
       <c r="A236" s="24" t="s">
         <v>901</v>
       </c>
@@ -19942,7 +19943,7 @@
         <v>-0.93054999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:25">
+    <row r="237" spans="1:25" hidden="1">
       <c r="A237" s="24" t="s">
         <v>901</v>
       </c>
@@ -21019,7 +21020,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:25">
+    <row r="254" spans="1:25" hidden="1">
       <c r="A254" s="23" t="s">
         <v>952</v>
       </c>
@@ -21085,7 +21086,7 @@
       <c r="X254" s="23"/>
       <c r="Y254" s="23"/>
     </row>
-    <row r="255" spans="1:25">
+    <row r="255" spans="1:25" hidden="1">
       <c r="A255" s="23" t="s">
         <v>952</v>
       </c>
@@ -21151,7 +21152,7 @@
       <c r="X255" s="23"/>
       <c r="Y255" s="23"/>
     </row>
-    <row r="256" spans="1:25">
+    <row r="256" spans="1:25" hidden="1">
       <c r="A256" s="23" t="s">
         <v>952</v>
       </c>
@@ -21217,7 +21218,7 @@
       <c r="X256" s="23"/>
       <c r="Y256" s="23"/>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:25" hidden="1">
       <c r="A257" s="23" t="s">
         <v>952</v>
       </c>
@@ -21283,7 +21284,7 @@
       <c r="X257" s="23"/>
       <c r="Y257" s="23"/>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:25" hidden="1">
       <c r="A258" s="23" t="s">
         <v>952</v>
       </c>
@@ -21346,7 +21347,7 @@
       <c r="X258" s="23"/>
       <c r="Y258" s="23"/>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:25" hidden="1">
       <c r="A259" s="23" t="s">
         <v>952</v>
       </c>
@@ -21412,7 +21413,7 @@
       <c r="X259" s="23"/>
       <c r="Y259" s="23"/>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:25" hidden="1">
       <c r="A260" s="23" t="s">
         <v>952</v>
       </c>
@@ -21479,7 +21480,7 @@
       <c r="X260" s="23"/>
       <c r="Y260" s="23"/>
     </row>
-    <row r="261" spans="1:25">
+    <row r="261" spans="1:25" hidden="1">
       <c r="A261" s="23" t="s">
         <v>968</v>
       </c>
@@ -21546,7 +21547,7 @@
       <c r="X261" s="23"/>
       <c r="Y261" s="23"/>
     </row>
-    <row r="262" spans="1:25" s="27" customFormat="1">
+    <row r="262" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A262" s="27" t="s">
         <v>936</v>
       </c>
@@ -21602,7 +21603,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:25" s="27" customFormat="1">
+    <row r="263" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A263" s="27" t="s">
         <v>936</v>
       </c>
@@ -21658,7 +21659,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:25">
+    <row r="264" spans="1:25" hidden="1">
       <c r="A264" s="24" t="s">
         <v>888</v>
       </c>
@@ -21726,7 +21727,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:25" hidden="1">
       <c r="A265" s="24" t="s">
         <v>888</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:25" hidden="1">
       <c r="A266" s="24" t="s">
         <v>888</v>
       </c>
@@ -21862,7 +21863,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:25" hidden="1">
       <c r="A267" s="24" t="s">
         <v>888</v>
       </c>
@@ -21930,7 +21931,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:25" hidden="1">
       <c r="A268" s="23" t="s">
         <v>949</v>
       </c>
@@ -21997,7 +21998,7 @@
       <c r="X268" s="23"/>
       <c r="Y268" s="23"/>
     </row>
-    <row r="269" spans="1:25">
+    <row r="269" spans="1:25" hidden="1">
       <c r="A269" s="23" t="s">
         <v>949</v>
       </c>
@@ -22064,7 +22065,7 @@
       <c r="X269" s="23"/>
       <c r="Y269" s="23"/>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:25" hidden="1">
       <c r="A270" s="23" t="s">
         <v>949</v>
       </c>
@@ -22131,7 +22132,7 @@
       <c r="X270" s="23"/>
       <c r="Y270" s="23"/>
     </row>
-    <row r="271" spans="1:25">
+    <row r="271" spans="1:25" hidden="1">
       <c r="A271" s="23" t="s">
         <v>949</v>
       </c>
@@ -22198,7 +22199,7 @@
       <c r="X271" s="23"/>
       <c r="Y271" s="23"/>
     </row>
-    <row r="272" spans="1:25">
+    <row r="272" spans="1:25" hidden="1">
       <c r="A272" s="23" t="s">
         <v>949</v>
       </c>
@@ -22265,7 +22266,7 @@
       <c r="X272" s="23"/>
       <c r="Y272" s="23"/>
     </row>
-    <row r="273" spans="1:25">
+    <row r="273" spans="1:25" hidden="1">
       <c r="A273" s="23" t="s">
         <v>949</v>
       </c>
@@ -22332,7 +22333,7 @@
       <c r="X273" s="23"/>
       <c r="Y273" s="23"/>
     </row>
-    <row r="274" spans="1:25">
+    <row r="274" spans="1:25" hidden="1">
       <c r="A274" s="23" t="s">
         <v>949</v>
       </c>
@@ -22399,7 +22400,7 @@
       <c r="X274" s="23"/>
       <c r="Y274" s="23"/>
     </row>
-    <row r="275" spans="1:25">
+    <row r="275" spans="1:25" hidden="1">
       <c r="A275" s="24" t="s">
         <v>939</v>
       </c>
@@ -22461,7 +22462,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:25" hidden="1">
       <c r="A276" s="23" t="s">
         <v>915</v>
       </c>
@@ -22530,7 +22531,7 @@
       <c r="X276" s="23"/>
       <c r="Y276" s="23"/>
     </row>
-    <row r="277" spans="1:25">
+    <row r="277" spans="1:25" hidden="1">
       <c r="A277" s="23" t="s">
         <v>915</v>
       </c>
@@ -22599,7 +22600,7 @@
       <c r="X277" s="23"/>
       <c r="Y277" s="23"/>
     </row>
-    <row r="278" spans="1:25">
+    <row r="278" spans="1:25" hidden="1">
       <c r="A278" s="23" t="s">
         <v>915</v>
       </c>
@@ -22668,7 +22669,7 @@
       <c r="X278" s="23"/>
       <c r="Y278" s="23"/>
     </row>
-    <row r="279" spans="1:25">
+    <row r="279" spans="1:25" hidden="1">
       <c r="A279" s="23" t="s">
         <v>915</v>
       </c>
@@ -22944,7 +22945,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="283" spans="1:25">
+    <row r="283" spans="1:25" hidden="1">
       <c r="A283" s="24" t="s">
         <v>893</v>
       </c>
@@ -23009,7 +23010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:25">
+    <row r="284" spans="1:25" hidden="1">
       <c r="A284" s="24" t="s">
         <v>893</v>
       </c>
@@ -23074,7 +23075,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="285" spans="1:25">
+    <row r="285" spans="1:25" hidden="1">
       <c r="A285" s="24" t="s">
         <v>893</v>
       </c>
@@ -23139,7 +23140,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="286" spans="1:25">
+    <row r="286" spans="1:25" hidden="1">
       <c r="A286" s="24" t="s">
         <v>893</v>
       </c>
@@ -23204,7 +23205,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="287" spans="1:25">
+    <row r="287" spans="1:25" hidden="1">
       <c r="A287" s="24" t="s">
         <v>893</v>
       </c>
@@ -23269,7 +23270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:25">
+    <row r="288" spans="1:25" hidden="1">
       <c r="A288" s="24" t="s">
         <v>919</v>
       </c>
@@ -23337,7 +23338,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="289" spans="1:25">
+    <row r="289" spans="1:25" hidden="1">
       <c r="A289" s="24" t="s">
         <v>919</v>
       </c>
@@ -23405,7 +23406,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25">
+    <row r="290" spans="1:25" hidden="1">
       <c r="A290" s="24" t="s">
         <v>919</v>
       </c>
@@ -23473,7 +23474,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="291" spans="1:25">
+    <row r="291" spans="1:25" hidden="1">
       <c r="A291" s="24" t="s">
         <v>919</v>
       </c>
@@ -23541,7 +23542,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="292" spans="1:25">
+    <row r="292" spans="1:25" hidden="1">
       <c r="A292" s="24" t="s">
         <v>919</v>
       </c>
@@ -23609,7 +23610,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="293" spans="1:25">
+    <row r="293" spans="1:25" hidden="1">
       <c r="A293" s="24" t="s">
         <v>919</v>
       </c>
@@ -23677,7 +23678,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="294" spans="1:25">
+    <row r="294" spans="1:25" hidden="1">
       <c r="A294" s="24" t="s">
         <v>919</v>
       </c>
@@ -23745,7 +23746,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="295" spans="1:25">
+    <row r="295" spans="1:25" hidden="1">
       <c r="A295" s="24" t="s">
         <v>919</v>
       </c>
@@ -23813,7 +23814,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:25">
+    <row r="296" spans="1:25" hidden="1">
       <c r="A296" s="24" t="s">
         <v>919</v>
       </c>
@@ -23881,7 +23882,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="297" spans="1:25">
+    <row r="297" spans="1:25" hidden="1">
       <c r="A297" s="24" t="s">
         <v>919</v>
       </c>
@@ -23949,7 +23950,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="298" spans="1:25">
+    <row r="298" spans="1:25" hidden="1">
       <c r="A298" s="24" t="s">
         <v>919</v>
       </c>
@@ -24017,7 +24018,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="299" spans="1:25">
+    <row r="299" spans="1:25" hidden="1">
       <c r="A299" s="24" t="s">
         <v>919</v>
       </c>
@@ -24085,7 +24086,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="300" spans="1:25">
+    <row r="300" spans="1:25" hidden="1">
       <c r="A300" s="24" t="s">
         <v>919</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="301" spans="1:25">
+    <row r="301" spans="1:25" hidden="1">
       <c r="A301" s="24" t="s">
         <v>919</v>
       </c>
@@ -24221,7 +24222,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="302" spans="1:25" s="29" customFormat="1">
+    <row r="302" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A302" s="24" t="s">
         <v>919</v>
       </c>
@@ -24292,7 +24293,7 @@
       <c r="X302" s="24"/>
       <c r="Y302" s="24"/>
     </row>
-    <row r="303" spans="1:25" s="29" customFormat="1">
+    <row r="303" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A303" s="24" t="s">
         <v>919</v>
       </c>
@@ -24363,7 +24364,7 @@
       <c r="X303" s="24"/>
       <c r="Y303" s="24"/>
     </row>
-    <row r="304" spans="1:25" s="29" customFormat="1">
+    <row r="304" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A304" s="24" t="s">
         <v>919</v>
       </c>
@@ -24434,7 +24435,7 @@
       <c r="X304" s="24"/>
       <c r="Y304" s="24"/>
     </row>
-    <row r="305" spans="1:25">
+    <row r="305" spans="1:25" hidden="1">
       <c r="A305" s="24" t="s">
         <v>919</v>
       </c>
@@ -24502,7 +24503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:25">
+    <row r="306" spans="1:25" hidden="1">
       <c r="A306" s="24" t="s">
         <v>919</v>
       </c>
@@ -24570,7 +24571,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="307" spans="1:25">
+    <row r="307" spans="1:25" hidden="1">
       <c r="A307" s="24" t="s">
         <v>919</v>
       </c>
@@ -24638,7 +24639,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="308" spans="1:25">
+    <row r="308" spans="1:25" hidden="1">
       <c r="A308" s="24" t="s">
         <v>919</v>
       </c>
@@ -24706,7 +24707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:25">
+    <row r="309" spans="1:25" hidden="1">
       <c r="A309" s="24" t="s">
         <v>919</v>
       </c>
@@ -24774,7 +24775,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="310" spans="1:25">
+    <row r="310" spans="1:25" hidden="1">
       <c r="A310" s="24" t="s">
         <v>919</v>
       </c>
@@ -24842,7 +24843,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="311" spans="1:25">
+    <row r="311" spans="1:25" hidden="1">
       <c r="A311" s="24" t="s">
         <v>919</v>
       </c>
@@ -24910,7 +24911,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="312" spans="1:25">
+    <row r="312" spans="1:25" hidden="1">
       <c r="A312" s="24" t="s">
         <v>903</v>
       </c>
@@ -24975,7 +24976,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="313" spans="1:25">
+    <row r="313" spans="1:25" hidden="1">
       <c r="A313" s="24" t="s">
         <v>903</v>
       </c>
@@ -25040,7 +25041,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="314" spans="1:25">
+    <row r="314" spans="1:25" hidden="1">
       <c r="A314" s="24" t="s">
         <v>903</v>
       </c>
@@ -25105,7 +25106,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="315" spans="1:25">
+    <row r="315" spans="1:25" hidden="1">
       <c r="A315" s="24" t="s">
         <v>903</v>
       </c>
@@ -25170,7 +25171,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="316" spans="1:25">
+    <row r="316" spans="1:25" hidden="1">
       <c r="A316" s="23" t="s">
         <v>982</v>
       </c>
@@ -25237,7 +25238,7 @@
       <c r="X316" s="23"/>
       <c r="Y316" s="23"/>
     </row>
-    <row r="317" spans="1:25">
+    <row r="317" spans="1:25" hidden="1">
       <c r="A317" s="24" t="s">
         <v>890</v>
       </c>
@@ -25305,7 +25306,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="318" spans="1:25">
+    <row r="318" spans="1:25" hidden="1">
       <c r="A318" s="24" t="s">
         <v>890</v>
       </c>
@@ -25373,7 +25374,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="319" spans="1:25">
+    <row r="319" spans="1:25" hidden="1">
       <c r="A319" s="24" t="s">
         <v>890</v>
       </c>
@@ -25441,7 +25442,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="320" spans="1:25">
+    <row r="320" spans="1:25" hidden="1">
       <c r="A320" s="23" t="s">
         <v>954</v>
       </c>
@@ -25510,7 +25511,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="321" spans="1:25">
+    <row r="321" spans="1:25" hidden="1">
       <c r="A321" s="23" t="s">
         <v>954</v>
       </c>
@@ -25579,7 +25580,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="322" spans="1:25">
+    <row r="322" spans="1:25" hidden="1">
       <c r="A322" s="24" t="s">
         <v>918</v>
       </c>
@@ -25644,7 +25645,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:25">
+    <row r="323" spans="1:25" hidden="1">
       <c r="A323" s="24" t="s">
         <v>918</v>
       </c>
@@ -25709,7 +25710,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:25">
+    <row r="324" spans="1:25" hidden="1">
       <c r="A324" s="23" t="s">
         <v>910</v>
       </c>
@@ -25783,7 +25784,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="325" spans="1:25">
+    <row r="325" spans="1:25" hidden="1">
       <c r="A325" s="23" t="s">
         <v>910</v>
       </c>
@@ -25857,7 +25858,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="326" spans="1:25">
+    <row r="326" spans="1:25" hidden="1">
       <c r="A326" s="23" t="s">
         <v>910</v>
       </c>
@@ -25931,7 +25932,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="327" spans="1:25">
+    <row r="327" spans="1:25" hidden="1">
       <c r="A327" s="23" t="s">
         <v>910</v>
       </c>
@@ -26005,7 +26006,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="328" spans="1:25">
+    <row r="328" spans="1:25" hidden="1">
       <c r="A328" s="23" t="s">
         <v>910</v>
       </c>
@@ -26079,7 +26080,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="329" spans="1:25">
+    <row r="329" spans="1:25" hidden="1">
       <c r="A329" s="23" t="s">
         <v>910</v>
       </c>
@@ -26153,7 +26154,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="330" spans="1:25">
+    <row r="330" spans="1:25" hidden="1">
       <c r="A330" s="23" t="s">
         <v>910</v>
       </c>
@@ -26227,7 +26228,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="331" spans="1:25">
+    <row r="331" spans="1:25" hidden="1">
       <c r="A331" s="23" t="s">
         <v>910</v>
       </c>
@@ -26301,7 +26302,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="332" spans="1:25">
+    <row r="332" spans="1:25" hidden="1">
       <c r="A332" s="23" t="s">
         <v>910</v>
       </c>
@@ -26375,7 +26376,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="333" spans="1:25">
+    <row r="333" spans="1:25" hidden="1">
       <c r="A333" s="23" t="s">
         <v>910</v>
       </c>
@@ -26449,7 +26450,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="334" spans="1:25">
+    <row r="334" spans="1:25" hidden="1">
       <c r="A334" s="23" t="s">
         <v>910</v>
       </c>
@@ -26523,7 +26524,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="335" spans="1:25">
+    <row r="335" spans="1:25" hidden="1">
       <c r="A335" s="23" t="s">
         <v>910</v>
       </c>
@@ -26597,7 +26598,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="336" spans="1:25">
+    <row r="336" spans="1:25" hidden="1">
       <c r="A336" s="23" t="s">
         <v>910</v>
       </c>
@@ -26671,7 +26672,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="337" spans="1:25">
+    <row r="337" spans="1:25" hidden="1">
       <c r="A337" s="23" t="s">
         <v>910</v>
       </c>
@@ -26745,7 +26746,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="338" spans="1:25">
+    <row r="338" spans="1:25" hidden="1">
       <c r="A338" s="23" t="s">
         <v>910</v>
       </c>
@@ -26819,7 +26820,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="339" spans="1:25">
+    <row r="339" spans="1:25" hidden="1">
       <c r="A339" s="23" t="s">
         <v>910</v>
       </c>
@@ -26893,7 +26894,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="340" spans="1:25">
+    <row r="340" spans="1:25" hidden="1">
       <c r="A340" s="23" t="s">
         <v>910</v>
       </c>
@@ -26967,7 +26968,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="341" spans="1:25">
+    <row r="341" spans="1:25" hidden="1">
       <c r="A341" s="23" t="s">
         <v>910</v>
       </c>
@@ -27041,7 +27042,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="342" spans="1:25">
+    <row r="342" spans="1:25" hidden="1">
       <c r="A342" s="24" t="s">
         <v>910</v>
       </c>
@@ -27109,7 +27110,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="343" spans="1:25">
+    <row r="343" spans="1:25" hidden="1">
       <c r="A343" s="24" t="s">
         <v>910</v>
       </c>
@@ -27177,7 +27178,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="344" spans="1:25">
+    <row r="344" spans="1:25" hidden="1">
       <c r="A344" s="24" t="s">
         <v>910</v>
       </c>
@@ -27245,7 +27246,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="345" spans="1:25">
+    <row r="345" spans="1:25" hidden="1">
       <c r="A345" s="24" t="s">
         <v>910</v>
       </c>
@@ -27313,7 +27314,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="346" spans="1:25">
+    <row r="346" spans="1:25" hidden="1">
       <c r="A346" s="24" t="s">
         <v>910</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="347" spans="1:25">
+    <row r="347" spans="1:25" hidden="1">
       <c r="A347" s="24" t="s">
         <v>910</v>
       </c>
@@ -27449,7 +27450,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="348" spans="1:25">
+    <row r="348" spans="1:25" hidden="1">
       <c r="A348" s="24" t="s">
         <v>916</v>
       </c>
@@ -27520,7 +27521,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="349" spans="1:25">
+    <row r="349" spans="1:25" hidden="1">
       <c r="A349" s="24" t="s">
         <v>916</v>
       </c>
@@ -27591,7 +27592,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="350" spans="1:25">
+    <row r="350" spans="1:25" hidden="1">
       <c r="A350" s="24" t="s">
         <v>916</v>
       </c>
@@ -27662,7 +27663,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="351" spans="1:25">
+    <row r="351" spans="1:25" hidden="1">
       <c r="A351" s="24" t="s">
         <v>973</v>
       </c>
@@ -27727,7 +27728,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="352" spans="1:25">
+    <row r="352" spans="1:25" hidden="1">
       <c r="A352" s="24" t="s">
         <v>973</v>
       </c>
@@ -27792,7 +27793,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="353" spans="1:25">
+    <row r="353" spans="1:25" hidden="1">
       <c r="A353" s="23" t="s">
         <v>946</v>
       </c>
@@ -27859,7 +27860,7 @@
       <c r="X353" s="23"/>
       <c r="Y353" s="23"/>
     </row>
-    <row r="354" spans="1:25">
+    <row r="354" spans="1:25" hidden="1">
       <c r="A354" s="23" t="s">
         <v>946</v>
       </c>
@@ -27926,7 +27927,7 @@
       <c r="X354" s="23"/>
       <c r="Y354" s="23"/>
     </row>
-    <row r="355" spans="1:25">
+    <row r="355" spans="1:25" hidden="1">
       <c r="A355" s="23" t="s">
         <v>946</v>
       </c>
@@ -27993,7 +27994,7 @@
       <c r="X355" s="23"/>
       <c r="Y355" s="23"/>
     </row>
-    <row r="356" spans="1:25">
+    <row r="356" spans="1:25" hidden="1">
       <c r="A356" s="24" t="s">
         <v>971</v>
       </c>
@@ -28049,7 +28050,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="357" spans="1:25">
+    <row r="357" spans="1:25" hidden="1">
       <c r="A357" s="24" t="s">
         <v>971</v>
       </c>
@@ -28105,7 +28106,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="358" spans="1:25">
+    <row r="358" spans="1:25" hidden="1">
       <c r="A358" s="24" t="s">
         <v>962</v>
       </c>
@@ -28161,7 +28162,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="359" spans="1:25">
+    <row r="359" spans="1:25" hidden="1">
       <c r="A359" s="24" t="s">
         <v>962</v>
       </c>
@@ -28217,7 +28218,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="360" spans="1:25">
+    <row r="360" spans="1:25" hidden="1">
       <c r="A360" s="24" t="s">
         <v>962</v>
       </c>
@@ -28273,7 +28274,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="361" spans="1:25">
+    <row r="361" spans="1:25" hidden="1">
       <c r="A361" s="23" t="s">
         <v>964</v>
       </c>
@@ -28340,7 +28341,7 @@
       <c r="X361" s="23"/>
       <c r="Y361" s="23"/>
     </row>
-    <row r="362" spans="1:25">
+    <row r="362" spans="1:25" hidden="1">
       <c r="A362" s="23" t="s">
         <v>964</v>
       </c>
@@ -28407,7 +28408,7 @@
       <c r="X362" s="23"/>
       <c r="Y362" s="23"/>
     </row>
-    <row r="363" spans="1:25">
+    <row r="363" spans="1:25" hidden="1">
       <c r="A363" s="23" t="s">
         <v>964</v>
       </c>
@@ -28474,7 +28475,7 @@
       <c r="X363" s="23"/>
       <c r="Y363" s="23"/>
     </row>
-    <row r="364" spans="1:25">
+    <row r="364" spans="1:25" hidden="1">
       <c r="A364" s="23" t="s">
         <v>964</v>
       </c>
@@ -28541,7 +28542,7 @@
       <c r="X364" s="23"/>
       <c r="Y364" s="23"/>
     </row>
-    <row r="365" spans="1:25">
+    <row r="365" spans="1:25" hidden="1">
       <c r="A365" s="24" t="s">
         <v>908</v>
       </c>
@@ -28606,7 +28607,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:25">
+    <row r="366" spans="1:25" hidden="1">
       <c r="A366" s="24" t="s">
         <v>908</v>
       </c>
@@ -28671,7 +28672,7 @@
         <v>-1.4E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:25">
+    <row r="367" spans="1:25" hidden="1">
       <c r="A367" s="24" t="s">
         <v>908</v>
       </c>
@@ -28736,7 +28737,7 @@
         <v>-1.8E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:25">
+    <row r="368" spans="1:25" hidden="1">
       <c r="A368" s="24" t="s">
         <v>908</v>
       </c>
@@ -28801,7 +28802,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:25">
+    <row r="369" spans="1:25" hidden="1">
       <c r="A369" s="24" t="s">
         <v>908</v>
       </c>
@@ -28866,7 +28867,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:25">
+    <row r="370" spans="1:25" hidden="1">
       <c r="A370" s="24" t="s">
         <v>908</v>
       </c>
@@ -28931,7 +28932,7 @@
         <v>-4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:25">
+    <row r="371" spans="1:25" hidden="1">
       <c r="A371" s="24" t="s">
         <v>908</v>
       </c>
@@ -28996,7 +28997,7 @@
         <v>-5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:25">
+    <row r="372" spans="1:25" hidden="1">
       <c r="A372" s="24" t="s">
         <v>908</v>
       </c>
@@ -29061,7 +29062,7 @@
         <v>-5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:25">
+    <row r="373" spans="1:25" hidden="1">
       <c r="A373" s="24" t="s">
         <v>908</v>
       </c>
@@ -29126,7 +29127,7 @@
         <v>-6.3E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:25">
+    <row r="374" spans="1:25" hidden="1">
       <c r="A374" s="24" t="s">
         <v>908</v>
       </c>
@@ -29191,7 +29192,7 @@
         <v>-6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:25">
+    <row r="375" spans="1:25" hidden="1">
       <c r="A375" s="24" t="s">
         <v>908</v>
       </c>
@@ -29256,7 +29257,7 @@
         <v>-8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:25">
+    <row r="376" spans="1:25" hidden="1">
       <c r="A376" s="24" t="s">
         <v>908</v>
       </c>
@@ -29321,7 +29322,7 @@
         <v>-1.44E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:25">
+    <row r="377" spans="1:25" hidden="1">
       <c r="A377" s="24" t="s">
         <v>935</v>
       </c>
@@ -29389,7 +29390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="378" spans="1:25">
+    <row r="378" spans="1:25" hidden="1">
       <c r="A378" s="24" t="s">
         <v>935</v>
       </c>
@@ -29457,7 +29458,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="379" spans="1:25">
+    <row r="379" spans="1:25" hidden="1">
       <c r="A379" s="23" t="s">
         <v>959</v>
       </c>
@@ -29524,7 +29525,7 @@
       <c r="X379" s="23"/>
       <c r="Y379" s="23"/>
     </row>
-    <row r="380" spans="1:25">
+    <row r="380" spans="1:25" hidden="1">
       <c r="A380" s="23" t="s">
         <v>959</v>
       </c>
@@ -29591,7 +29592,7 @@
       <c r="X380" s="23"/>
       <c r="Y380" s="23"/>
     </row>
-    <row r="381" spans="1:25">
+    <row r="381" spans="1:25" hidden="1">
       <c r="A381" s="23" t="s">
         <v>959</v>
       </c>
@@ -29658,7 +29659,7 @@
       <c r="X381" s="23"/>
       <c r="Y381" s="23"/>
     </row>
-    <row r="382" spans="1:25">
+    <row r="382" spans="1:25" hidden="1">
       <c r="A382" s="23" t="s">
         <v>959</v>
       </c>
@@ -29725,7 +29726,7 @@
       <c r="X382" s="23"/>
       <c r="Y382" s="23"/>
     </row>
-    <row r="383" spans="1:25">
+    <row r="383" spans="1:25" hidden="1">
       <c r="A383" s="23" t="s">
         <v>959</v>
       </c>
@@ -29792,7 +29793,7 @@
       <c r="X383" s="23"/>
       <c r="Y383" s="23"/>
     </row>
-    <row r="384" spans="1:25">
+    <row r="384" spans="1:25" hidden="1">
       <c r="A384" s="23" t="s">
         <v>959</v>
       </c>
@@ -29859,7 +29860,7 @@
       <c r="X384" s="23"/>
       <c r="Y384" s="23"/>
     </row>
-    <row r="385" spans="1:25">
+    <row r="385" spans="1:25" hidden="1">
       <c r="A385" s="23" t="s">
         <v>959</v>
       </c>
@@ -29926,7 +29927,7 @@
       <c r="X385" s="23"/>
       <c r="Y385" s="23"/>
     </row>
-    <row r="386" spans="1:25">
+    <row r="386" spans="1:25" hidden="1">
       <c r="A386" s="23" t="s">
         <v>959</v>
       </c>
@@ -29993,7 +29994,7 @@
       <c r="X386" s="23"/>
       <c r="Y386" s="23"/>
     </row>
-    <row r="387" spans="1:25">
+    <row r="387" spans="1:25" hidden="1">
       <c r="A387" s="23" t="s">
         <v>959</v>
       </c>
@@ -30060,7 +30061,7 @@
       <c r="X387" s="23"/>
       <c r="Y387" s="23"/>
     </row>
-    <row r="388" spans="1:25">
+    <row r="388" spans="1:25" hidden="1">
       <c r="A388" s="23" t="s">
         <v>959</v>
       </c>
@@ -30127,7 +30128,7 @@
       <c r="X388" s="23"/>
       <c r="Y388" s="23"/>
     </row>
-    <row r="389" spans="1:25">
+    <row r="389" spans="1:25" hidden="1">
       <c r="A389" s="23" t="s">
         <v>959</v>
       </c>
@@ -30194,7 +30195,7 @@
       <c r="X389" s="23"/>
       <c r="Y389" s="23"/>
     </row>
-    <row r="390" spans="1:25">
+    <row r="390" spans="1:25" hidden="1">
       <c r="A390" s="23" t="s">
         <v>959</v>
       </c>
@@ -30261,7 +30262,7 @@
       <c r="X390" s="23"/>
       <c r="Y390" s="23"/>
     </row>
-    <row r="391" spans="1:25">
+    <row r="391" spans="1:25" hidden="1">
       <c r="A391" s="24" t="s">
         <v>907</v>
       </c>
@@ -30326,7 +30327,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:25">
+    <row r="392" spans="1:25" hidden="1">
       <c r="A392" s="24" t="s">
         <v>907</v>
       </c>
@@ -30391,7 +30392,7 @@
         <v>-4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:25">
+    <row r="393" spans="1:25" hidden="1">
       <c r="A393" s="24" t="s">
         <v>994</v>
       </c>
@@ -30453,7 +30454,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="394" spans="1:25">
+    <row r="394" spans="1:25" hidden="1">
       <c r="A394" s="24" t="s">
         <v>994</v>
       </c>
@@ -30515,7 +30516,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="395" spans="1:25">
+    <row r="395" spans="1:25" hidden="1">
       <c r="A395" s="24" t="s">
         <v>994</v>
       </c>
@@ -30577,7 +30578,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="396" spans="1:25">
+    <row r="396" spans="1:25" hidden="1">
       <c r="A396" s="24" t="s">
         <v>994</v>
       </c>
@@ -30639,7 +30640,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="397" spans="1:25">
+    <row r="397" spans="1:25" hidden="1">
       <c r="A397" s="24" t="s">
         <v>994</v>
       </c>
@@ -30701,7 +30702,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="398" spans="1:25">
+    <row r="398" spans="1:25" hidden="1">
       <c r="A398" s="24" t="s">
         <v>994</v>
       </c>
@@ -30763,7 +30764,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="399" spans="1:25">
+    <row r="399" spans="1:25" hidden="1">
       <c r="A399" s="24" t="s">
         <v>944</v>
       </c>
@@ -30831,7 +30832,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="400" spans="1:25">
+    <row r="400" spans="1:25" hidden="1">
       <c r="A400" s="24" t="s">
         <v>944</v>
       </c>
@@ -30899,7 +30900,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="401" spans="1:25">
+    <row r="401" spans="1:25" hidden="1">
       <c r="A401" s="24" t="s">
         <v>944</v>
       </c>
@@ -30967,7 +30968,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="402" spans="1:25">
+    <row r="402" spans="1:25" hidden="1">
       <c r="A402" s="24" t="s">
         <v>988</v>
       </c>
@@ -31035,7 +31036,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="403" spans="1:25">
+    <row r="403" spans="1:25" hidden="1">
       <c r="A403" s="24" t="s">
         <v>988</v>
       </c>
@@ -31103,7 +31104,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="404" spans="1:25">
+    <row r="404" spans="1:25" hidden="1">
       <c r="A404" s="24" t="s">
         <v>914</v>
       </c>
@@ -31174,7 +31175,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="405" spans="1:25">
+    <row r="405" spans="1:25" hidden="1">
       <c r="A405" s="24" t="s">
         <v>914</v>
       </c>
@@ -31245,7 +31246,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="406" spans="1:25">
+    <row r="406" spans="1:25" hidden="1">
       <c r="A406" s="24" t="s">
         <v>914</v>
       </c>
@@ -31316,7 +31317,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="407" spans="1:25">
+    <row r="407" spans="1:25" hidden="1">
       <c r="A407" s="24" t="s">
         <v>909</v>
       </c>
@@ -31381,7 +31382,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:25">
+    <row r="408" spans="1:25" hidden="1">
       <c r="A408" s="24" t="s">
         <v>909</v>
       </c>
@@ -31446,7 +31447,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:25">
+    <row r="409" spans="1:25" hidden="1">
       <c r="A409" s="24" t="s">
         <v>909</v>
       </c>
@@ -31511,7 +31512,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:25">
+    <row r="410" spans="1:25" hidden="1">
       <c r="A410" s="24" t="s">
         <v>909</v>
       </c>
@@ -31576,7 +31577,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:25">
+    <row r="411" spans="1:25" hidden="1">
       <c r="A411" s="24" t="s">
         <v>909</v>
       </c>
@@ -31641,7 +31642,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:25">
+    <row r="412" spans="1:25" hidden="1">
       <c r="A412" s="24" t="s">
         <v>909</v>
       </c>
@@ -31706,7 +31707,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:25">
+    <row r="413" spans="1:25" hidden="1">
       <c r="A413" s="24" t="s">
         <v>909</v>
       </c>
@@ -31771,7 +31772,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:25">
+    <row r="414" spans="1:25" hidden="1">
       <c r="A414" s="24" t="s">
         <v>909</v>
       </c>
@@ -31836,7 +31837,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:25">
+    <row r="415" spans="1:25" hidden="1">
       <c r="A415" s="24" t="s">
         <v>909</v>
       </c>
@@ -31901,7 +31902,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:25">
+    <row r="416" spans="1:25" hidden="1">
       <c r="A416" s="24" t="s">
         <v>909</v>
       </c>
@@ -31966,7 +31967,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:25">
+    <row r="417" spans="1:25" hidden="1">
       <c r="A417" s="29" t="s">
         <v>969</v>
       </c>
@@ -32033,7 +32034,7 @@
       <c r="X417" s="29"/>
       <c r="Y417" s="29"/>
     </row>
-    <row r="418" spans="1:25">
+    <row r="418" spans="1:25" hidden="1">
       <c r="A418" s="29" t="s">
         <v>969</v>
       </c>
@@ -32100,7 +32101,7 @@
       <c r="X418" s="29"/>
       <c r="Y418" s="29"/>
     </row>
-    <row r="419" spans="1:25">
+    <row r="419" spans="1:25" hidden="1">
       <c r="A419" s="29" t="s">
         <v>969</v>
       </c>
@@ -32167,7 +32168,7 @@
       <c r="X419" s="29"/>
       <c r="Y419" s="29"/>
     </row>
-    <row r="420" spans="1:25">
+    <row r="420" spans="1:25" hidden="1">
       <c r="A420" s="24" t="s">
         <v>956</v>
       </c>
@@ -32227,7 +32228,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="421" spans="1:25">
+    <row r="421" spans="1:25" hidden="1">
       <c r="A421" s="24" t="s">
         <v>980</v>
       </c>
@@ -32287,7 +32288,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="422" spans="1:25">
+    <row r="422" spans="1:25" hidden="1">
       <c r="A422" s="24" t="s">
         <v>989</v>
       </c>
@@ -32358,7 +32359,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="423" spans="1:25">
+    <row r="423" spans="1:25" hidden="1">
       <c r="A423" s="24" t="s">
         <v>989</v>
       </c>
@@ -32429,7 +32430,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="424" spans="1:25">
+    <row r="424" spans="1:25" hidden="1">
       <c r="A424" s="24" t="s">
         <v>989</v>
       </c>
@@ -32500,7 +32501,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="425" spans="1:25">
+    <row r="425" spans="1:25" hidden="1">
       <c r="A425" s="24" t="s">
         <v>981</v>
       </c>
@@ -32557,7 +32558,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="426" spans="1:25">
+    <row r="426" spans="1:25" hidden="1">
       <c r="A426" s="23" t="s">
         <v>951</v>
       </c>
@@ -32624,7 +32625,7 @@
       <c r="X426" s="23"/>
       <c r="Y426" s="23"/>
     </row>
-    <row r="427" spans="1:25">
+    <row r="427" spans="1:25" hidden="1">
       <c r="A427" s="23" t="s">
         <v>951</v>
       </c>
@@ -32691,7 +32692,7 @@
       <c r="X427" s="23"/>
       <c r="Y427" s="23"/>
     </row>
-    <row r="428" spans="1:25">
+    <row r="428" spans="1:25" hidden="1">
       <c r="A428" s="23" t="s">
         <v>951</v>
       </c>
@@ -32758,7 +32759,7 @@
       <c r="X428" s="23"/>
       <c r="Y428" s="23"/>
     </row>
-    <row r="429" spans="1:25">
+    <row r="429" spans="1:25" hidden="1">
       <c r="A429" s="23" t="s">
         <v>951</v>
       </c>
@@ -32825,7 +32826,7 @@
       <c r="X429" s="23"/>
       <c r="Y429" s="23"/>
     </row>
-    <row r="430" spans="1:25">
+    <row r="430" spans="1:25" hidden="1">
       <c r="A430" s="23" t="s">
         <v>951</v>
       </c>
@@ -32892,7 +32893,7 @@
       <c r="X430" s="23"/>
       <c r="Y430" s="23"/>
     </row>
-    <row r="431" spans="1:25">
+    <row r="431" spans="1:25" hidden="1">
       <c r="A431" s="23" t="s">
         <v>951</v>
       </c>
@@ -32959,7 +32960,7 @@
       <c r="X431" s="23"/>
       <c r="Y431" s="23"/>
     </row>
-    <row r="432" spans="1:25">
+    <row r="432" spans="1:25" hidden="1">
       <c r="A432" s="23" t="s">
         <v>951</v>
       </c>
@@ -33026,7 +33027,7 @@
       <c r="X432" s="23"/>
       <c r="Y432" s="23"/>
     </row>
-    <row r="433" spans="1:25">
+    <row r="433" spans="1:25" hidden="1">
       <c r="A433" s="23" t="s">
         <v>957</v>
       </c>
@@ -33089,7 +33090,7 @@
       <c r="X433" s="23"/>
       <c r="Y433" s="23"/>
     </row>
-    <row r="434" spans="1:25">
+    <row r="434" spans="1:25" hidden="1">
       <c r="A434" s="23" t="s">
         <v>957</v>
       </c>
@@ -33152,7 +33153,7 @@
       <c r="X434" s="23"/>
       <c r="Y434" s="23"/>
     </row>
-    <row r="435" spans="1:25">
+    <row r="435" spans="1:25" hidden="1">
       <c r="A435" s="23" t="s">
         <v>957</v>
       </c>
@@ -33215,7 +33216,7 @@
       <c r="X435" s="23"/>
       <c r="Y435" s="23"/>
     </row>
-    <row r="436" spans="1:25">
+    <row r="436" spans="1:25" hidden="1">
       <c r="A436" s="23" t="s">
         <v>957</v>
       </c>
@@ -33278,7 +33279,7 @@
       <c r="X436" s="23"/>
       <c r="Y436" s="23"/>
     </row>
-    <row r="437" spans="1:25">
+    <row r="437" spans="1:25" hidden="1">
       <c r="A437" s="23" t="s">
         <v>933</v>
       </c>
@@ -33341,7 +33342,7 @@
       <c r="X437" s="23"/>
       <c r="Y437" s="23"/>
     </row>
-    <row r="438" spans="1:25">
+    <row r="438" spans="1:25" hidden="1">
       <c r="A438" s="23" t="s">
         <v>933</v>
       </c>
@@ -33404,7 +33405,7 @@
       <c r="X438" s="23"/>
       <c r="Y438" s="23"/>
     </row>
-    <row r="439" spans="1:25">
+    <row r="439" spans="1:25" hidden="1">
       <c r="A439" s="23" t="s">
         <v>933</v>
       </c>
@@ -33467,7 +33468,7 @@
       <c r="X439" s="23"/>
       <c r="Y439" s="23"/>
     </row>
-    <row r="440" spans="1:25">
+    <row r="440" spans="1:25" hidden="1">
       <c r="A440" s="23" t="s">
         <v>933</v>
       </c>
@@ -33530,7 +33531,7 @@
       <c r="X440" s="23"/>
       <c r="Y440" s="23"/>
     </row>
-    <row r="441" spans="1:25">
+    <row r="441" spans="1:25" hidden="1">
       <c r="A441" s="23" t="s">
         <v>933</v>
       </c>
@@ -33593,7 +33594,7 @@
       <c r="X441" s="23"/>
       <c r="Y441" s="23"/>
     </row>
-    <row r="442" spans="1:25">
+    <row r="442" spans="1:25" hidden="1">
       <c r="A442" s="23" t="s">
         <v>933</v>
       </c>
@@ -33656,7 +33657,7 @@
       <c r="X442" s="23"/>
       <c r="Y442" s="23"/>
     </row>
-    <row r="443" spans="1:25">
+    <row r="443" spans="1:25" hidden="1">
       <c r="A443" s="24" t="s">
         <v>991</v>
       </c>
@@ -33718,7 +33719,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="444" spans="1:25">
+    <row r="444" spans="1:25" hidden="1">
       <c r="A444" s="24" t="s">
         <v>991</v>
       </c>
@@ -33780,7 +33781,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="445" spans="1:25">
+    <row r="445" spans="1:25" hidden="1">
       <c r="A445" s="24" t="s">
         <v>991</v>
       </c>
@@ -33842,7 +33843,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="446" spans="1:25">
+    <row r="446" spans="1:25" hidden="1">
       <c r="A446" s="24" t="s">
         <v>991</v>
       </c>
@@ -33904,7 +33905,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="447" spans="1:25">
+    <row r="447" spans="1:25" hidden="1">
       <c r="A447" s="24" t="s">
         <v>991</v>
       </c>
@@ -33966,7 +33967,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="448" spans="1:25">
+    <row r="448" spans="1:25" hidden="1">
       <c r="A448" s="24" t="s">
         <v>991</v>
       </c>
@@ -34028,7 +34029,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="449" spans="1:20">
+    <row r="449" spans="1:20" hidden="1">
       <c r="A449" s="24" t="s">
         <v>991</v>
       </c>
@@ -34090,7 +34091,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="450" spans="1:20">
+    <row r="450" spans="1:20" hidden="1">
       <c r="A450" s="24" t="s">
         <v>991</v>
       </c>
@@ -34152,7 +34153,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="451" spans="1:20">
+    <row r="451" spans="1:20" hidden="1">
       <c r="A451" s="24" t="s">
         <v>991</v>
       </c>
@@ -34214,7 +34215,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="452" spans="1:20">
+    <row r="452" spans="1:20" hidden="1">
       <c r="A452" s="24" t="s">
         <v>991</v>
       </c>
@@ -34276,7 +34277,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="453" spans="1:20">
+    <row r="453" spans="1:20" hidden="1">
       <c r="A453" s="24" t="s">
         <v>991</v>
       </c>
@@ -34338,7 +34339,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="454" spans="1:20">
+    <row r="454" spans="1:20" hidden="1">
       <c r="A454" s="24" t="s">
         <v>991</v>
       </c>
@@ -34400,7 +34401,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="455" spans="1:20">
+    <row r="455" spans="1:20" hidden="1">
       <c r="A455" s="24" t="s">
         <v>991</v>
       </c>
@@ -34462,7 +34463,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="456" spans="1:20">
+    <row r="456" spans="1:20" hidden="1">
       <c r="A456" s="24" t="s">
         <v>991</v>
       </c>
@@ -34524,7 +34525,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="457" spans="1:20">
+    <row r="457" spans="1:20" hidden="1">
       <c r="A457" s="24" t="s">
         <v>930</v>
       </c>
@@ -34580,7 +34581,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="458" spans="1:20">
+    <row r="458" spans="1:20" hidden="1">
       <c r="A458" s="24" t="s">
         <v>930</v>
       </c>
@@ -34636,7 +34637,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="459" spans="1:20">
+    <row r="459" spans="1:20" hidden="1">
       <c r="A459" s="24" t="s">
         <v>930</v>
       </c>
@@ -34692,7 +34693,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="460" spans="1:20">
+    <row r="460" spans="1:20" hidden="1">
       <c r="A460" s="24" t="s">
         <v>930</v>
       </c>
@@ -34748,7 +34749,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="461" spans="1:20">
+    <row r="461" spans="1:20" hidden="1">
       <c r="A461" s="24" t="s">
         <v>930</v>
       </c>
@@ -34804,7 +34805,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="462" spans="1:20">
+    <row r="462" spans="1:20" hidden="1">
       <c r="A462" s="24" t="s">
         <v>930</v>
       </c>
@@ -34860,7 +34861,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="463" spans="1:20">
+    <row r="463" spans="1:20" hidden="1">
       <c r="A463" s="24" t="s">
         <v>930</v>
       </c>
@@ -34916,7 +34917,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="464" spans="1:20">
+    <row r="464" spans="1:20" hidden="1">
       <c r="A464" s="24" t="s">
         <v>930</v>
       </c>
@@ -34972,7 +34973,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="465" spans="1:25">
+    <row r="465" spans="1:25" hidden="1">
       <c r="A465" s="23" t="s">
         <v>941</v>
       </c>
@@ -35175,7 +35176,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="468" spans="1:25">
+    <row r="468" spans="1:25" hidden="1">
       <c r="A468" s="24" t="s">
         <v>925</v>
       </c>
@@ -35237,7 +35238,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="469" spans="1:25">
+    <row r="469" spans="1:25" hidden="1">
       <c r="A469" s="24" t="s">
         <v>925</v>
       </c>
@@ -35299,7 +35300,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="470" spans="1:25">
+    <row r="470" spans="1:25" hidden="1">
       <c r="A470" s="24" t="s">
         <v>925</v>
       </c>
@@ -35361,7 +35362,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="471" spans="1:25">
+    <row r="471" spans="1:25" hidden="1">
       <c r="A471" s="29" t="s">
         <v>953</v>
       </c>
@@ -35428,7 +35429,7 @@
       <c r="X471" s="29"/>
       <c r="Y471" s="29"/>
     </row>
-    <row r="472" spans="1:25">
+    <row r="472" spans="1:25" hidden="1">
       <c r="A472" s="29" t="s">
         <v>953</v>
       </c>
@@ -35495,7 +35496,7 @@
       <c r="X472" s="29"/>
       <c r="Y472" s="29"/>
     </row>
-    <row r="473" spans="1:25">
+    <row r="473" spans="1:25" hidden="1">
       <c r="A473" s="29" t="s">
         <v>953</v>
       </c>
@@ -35562,7 +35563,7 @@
       <c r="X473" s="29"/>
       <c r="Y473" s="29"/>
     </row>
-    <row r="474" spans="1:25">
+    <row r="474" spans="1:25" hidden="1">
       <c r="A474" s="24" t="s">
         <v>898</v>
       </c>
@@ -35627,7 +35628,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:25">
+    <row r="475" spans="1:25" hidden="1">
       <c r="A475" s="24" t="s">
         <v>898</v>
       </c>
@@ -35692,7 +35693,7 @@
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:25">
+    <row r="476" spans="1:25" hidden="1">
       <c r="A476" s="24" t="s">
         <v>898</v>
       </c>
@@ -35757,7 +35758,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:25">
+    <row r="477" spans="1:25" hidden="1">
       <c r="A477" s="24" t="s">
         <v>898</v>
       </c>
@@ -35822,7 +35823,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:25">
+    <row r="478" spans="1:25" hidden="1">
       <c r="A478" s="23" t="s">
         <v>928</v>
       </c>
@@ -35889,7 +35890,7 @@
       <c r="X478" s="23"/>
       <c r="Y478" s="23"/>
     </row>
-    <row r="479" spans="1:25">
+    <row r="479" spans="1:25" hidden="1">
       <c r="A479" s="23" t="s">
         <v>928</v>
       </c>
@@ -35956,7 +35957,7 @@
       <c r="X479" s="23"/>
       <c r="Y479" s="23"/>
     </row>
-    <row r="480" spans="1:25">
+    <row r="480" spans="1:25" hidden="1">
       <c r="A480" s="23" t="s">
         <v>928</v>
       </c>
@@ -36023,7 +36024,7 @@
       <c r="X480" s="23"/>
       <c r="Y480" s="23"/>
     </row>
-    <row r="481" spans="1:25">
+    <row r="481" spans="1:25" hidden="1">
       <c r="A481" s="23" t="s">
         <v>986</v>
       </c>
@@ -36090,7 +36091,7 @@
       <c r="X481" s="23"/>
       <c r="Y481" s="23"/>
     </row>
-    <row r="482" spans="1:25">
+    <row r="482" spans="1:25" hidden="1">
       <c r="A482" s="23" t="s">
         <v>986</v>
       </c>
@@ -36157,7 +36158,7 @@
       <c r="X482" s="23"/>
       <c r="Y482" s="23"/>
     </row>
-    <row r="483" spans="1:25">
+    <row r="483" spans="1:25" hidden="1">
       <c r="A483" s="23" t="s">
         <v>932</v>
       </c>
@@ -36220,7 +36221,7 @@
       <c r="X483" s="23"/>
       <c r="Y483" s="23"/>
     </row>
-    <row r="484" spans="1:25">
+    <row r="484" spans="1:25" hidden="1">
       <c r="A484" s="24" t="s">
         <v>958</v>
       </c>
@@ -36285,7 +36286,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:25">
+    <row r="485" spans="1:25" hidden="1">
       <c r="A485" s="24" t="s">
         <v>958</v>
       </c>
@@ -36350,7 +36351,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:25">
+    <row r="486" spans="1:25" hidden="1">
       <c r="A486" s="24" t="s">
         <v>958</v>
       </c>
@@ -36415,7 +36416,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:25">
+    <row r="487" spans="1:25" hidden="1">
       <c r="A487" s="24" t="s">
         <v>958</v>
       </c>
@@ -36480,7 +36481,7 @@
         <v>-0.14199999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:25">
+    <row r="488" spans="1:25" hidden="1">
       <c r="A488" s="24" t="s">
         <v>958</v>
       </c>
@@ -36545,7 +36546,7 @@
         <v>-0.20599999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:25">
+    <row r="489" spans="1:25" hidden="1">
       <c r="A489" s="24" t="s">
         <v>958</v>
       </c>
@@ -36610,7 +36611,7 @@
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:25">
+    <row r="490" spans="1:25" hidden="1">
       <c r="A490" s="24" t="s">
         <v>958</v>
       </c>
@@ -36675,7 +36676,7 @@
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:25">
+    <row r="491" spans="1:25" hidden="1">
       <c r="A491" s="24" t="s">
         <v>958</v>
       </c>
@@ -36740,7 +36741,7 @@
         <v>-0.52600000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:25">
+    <row r="492" spans="1:25" hidden="1">
       <c r="A492" s="24" t="s">
         <v>958</v>
       </c>
@@ -36805,7 +36806,7 @@
         <v>-0.16300000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:25">
+    <row r="493" spans="1:25" hidden="1">
       <c r="A493" s="24" t="s">
         <v>958</v>
       </c>
@@ -36870,7 +36871,7 @@
         <v>-0.16700000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:25">
+    <row r="494" spans="1:25" hidden="1">
       <c r="A494" s="24" t="s">
         <v>958</v>
       </c>
@@ -36935,7 +36936,7 @@
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:25">
+    <row r="495" spans="1:25" hidden="1">
       <c r="A495" s="24" t="s">
         <v>958</v>
       </c>
@@ -37000,7 +37001,7 @@
         <v>-0.432</v>
       </c>
     </row>
-    <row r="496" spans="1:25">
+    <row r="496" spans="1:25" hidden="1">
       <c r="A496" s="24" t="s">
         <v>958</v>
       </c>
@@ -37065,7 +37066,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="497" spans="1:24">
+    <row r="497" spans="1:24" hidden="1">
       <c r="A497" s="24" t="s">
         <v>958</v>
       </c>
@@ -37130,7 +37131,7 @@
         <v>-6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:24">
+    <row r="498" spans="1:24" hidden="1">
       <c r="A498" s="24" t="s">
         <v>958</v>
       </c>
@@ -37195,7 +37196,7 @@
         <v>-0.32200000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:24">
+    <row r="499" spans="1:24" hidden="1">
       <c r="A499" s="24" t="s">
         <v>958</v>
       </c>
@@ -37260,7 +37261,7 @@
         <v>-0.35099999999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:24">
+    <row r="500" spans="1:24" hidden="1">
       <c r="A500" s="24" t="s">
         <v>891</v>
       </c>
@@ -37325,7 +37326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:24">
+    <row r="501" spans="1:24" hidden="1">
       <c r="A501" s="24" t="s">
         <v>891</v>
       </c>
@@ -37390,7 +37391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:24">
+    <row r="502" spans="1:24" hidden="1">
       <c r="A502" s="24" t="s">
         <v>891</v>
       </c>
@@ -37455,7 +37456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:24">
+    <row r="503" spans="1:24" hidden="1">
       <c r="A503" s="24" t="s">
         <v>891</v>
       </c>
@@ -37520,7 +37521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:24">
+    <row r="504" spans="1:24" hidden="1">
       <c r="A504" s="24" t="s">
         <v>891</v>
       </c>
@@ -37585,7 +37586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:24">
+    <row r="505" spans="1:24" hidden="1">
       <c r="A505" s="24" t="s">
         <v>892</v>
       </c>
@@ -37650,7 +37651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:24">
+    <row r="506" spans="1:24" hidden="1">
       <c r="A506" s="24" t="s">
         <v>892</v>
       </c>
@@ -37715,7 +37716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:24">
+    <row r="507" spans="1:24" hidden="1">
       <c r="A507" s="24" t="s">
         <v>892</v>
       </c>
@@ -37780,7 +37781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="508" spans="1:24">
+    <row r="508" spans="1:24" hidden="1">
       <c r="A508" s="24" t="s">
         <v>892</v>
       </c>
@@ -37845,7 +37846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:24">
+    <row r="509" spans="1:24" hidden="1">
       <c r="A509" s="24" t="s">
         <v>892</v>
       </c>
@@ -37910,7 +37911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:24">
+    <row r="510" spans="1:24" hidden="1">
       <c r="A510" s="24" t="s">
         <v>892</v>
       </c>
@@ -37975,7 +37976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:24">
+    <row r="511" spans="1:24" hidden="1">
       <c r="A511" s="24" t="s">
         <v>892</v>
       </c>
@@ -38040,7 +38041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:24">
+    <row r="512" spans="1:24" hidden="1">
       <c r="A512" s="24" t="s">
         <v>892</v>
       </c>
@@ -38105,7 +38106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:25">
+    <row r="513" spans="1:25" hidden="1">
       <c r="A513" s="24" t="s">
         <v>899</v>
       </c>
@@ -38170,7 +38171,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:25">
+    <row r="514" spans="1:25" hidden="1">
       <c r="A514" s="24" t="s">
         <v>899</v>
       </c>
@@ -38235,7 +38236,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:25">
+    <row r="515" spans="1:25" hidden="1">
       <c r="A515" s="24" t="s">
         <v>899</v>
       </c>
@@ -38300,7 +38301,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:25">
+    <row r="516" spans="1:25" hidden="1">
       <c r="A516" s="24" t="s">
         <v>899</v>
       </c>
@@ -38365,7 +38366,7 @@
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:25">
+    <row r="517" spans="1:25" hidden="1">
       <c r="A517" s="24" t="s">
         <v>899</v>
       </c>
@@ -38430,7 +38431,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:25">
+    <row r="518" spans="1:25" hidden="1">
       <c r="A518" s="24" t="s">
         <v>899</v>
       </c>
@@ -38495,7 +38496,7 @@
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:25">
+    <row r="519" spans="1:25" hidden="1">
       <c r="A519" s="24" t="s">
         <v>899</v>
       </c>
@@ -38560,7 +38561,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:25">
+    <row r="520" spans="1:25" hidden="1">
       <c r="A520" s="24" t="s">
         <v>905</v>
       </c>
@@ -38625,7 +38626,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:25">
+    <row r="521" spans="1:25" hidden="1">
       <c r="A521" s="24" t="s">
         <v>905</v>
       </c>
@@ -38690,7 +38691,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:25">
+    <row r="522" spans="1:25" hidden="1">
       <c r="A522" s="24" t="s">
         <v>905</v>
       </c>
@@ -38755,7 +38756,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:25">
+    <row r="523" spans="1:25" hidden="1">
       <c r="A523" s="24" t="s">
         <v>905</v>
       </c>
@@ -38820,7 +38821,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:25">
+    <row r="524" spans="1:25" hidden="1">
       <c r="A524" s="24" t="s">
         <v>905</v>
       </c>
@@ -38885,7 +38886,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:25">
+    <row r="525" spans="1:25" hidden="1">
       <c r="A525" s="24" t="s">
         <v>905</v>
       </c>
@@ -38950,7 +38951,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:25">
+    <row r="526" spans="1:25" hidden="1">
       <c r="A526" s="23" t="s">
         <v>948</v>
       </c>
@@ -39017,7 +39018,7 @@
       <c r="X526" s="23"/>
       <c r="Y526" s="23"/>
     </row>
-    <row r="527" spans="1:25">
+    <row r="527" spans="1:25" hidden="1">
       <c r="A527" s="24" t="s">
         <v>929</v>
       </c>
@@ -39079,7 +39080,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="528" spans="1:25">
+    <row r="528" spans="1:25" hidden="1">
       <c r="A528" s="24" t="s">
         <v>943</v>
       </c>
@@ -39135,7 +39136,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:25">
+    <row r="529" spans="1:25" hidden="1">
       <c r="A529" s="24" t="s">
         <v>943</v>
       </c>
@@ -39191,7 +39192,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="530" spans="1:25">
+    <row r="530" spans="1:25" hidden="1">
       <c r="A530" s="24" t="s">
         <v>943</v>
       </c>
@@ -39247,7 +39248,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="531" spans="1:25">
+    <row r="531" spans="1:25" hidden="1">
       <c r="A531" s="24" t="s">
         <v>912</v>
       </c>
@@ -39312,7 +39313,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="532" spans="1:25">
+    <row r="532" spans="1:25" hidden="1">
       <c r="A532" s="24" t="s">
         <v>912</v>
       </c>
@@ -39377,7 +39378,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="533" spans="1:25">
+    <row r="533" spans="1:25" hidden="1">
       <c r="A533" s="24" t="s">
         <v>912</v>
       </c>
@@ -39442,7 +39443,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="534" spans="1:25">
+    <row r="534" spans="1:25" hidden="1">
       <c r="A534" s="24" t="s">
         <v>912</v>
       </c>
@@ -39507,7 +39508,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="535" spans="1:25">
+    <row r="535" spans="1:25" hidden="1">
       <c r="A535" s="24" t="s">
         <v>912</v>
       </c>
@@ -39572,7 +39573,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="536" spans="1:25">
+    <row r="536" spans="1:25" hidden="1">
       <c r="A536" s="24" t="s">
         <v>912</v>
       </c>
@@ -39637,7 +39638,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="537" spans="1:25">
+    <row r="537" spans="1:25" hidden="1">
       <c r="A537" s="23" t="s">
         <v>977</v>
       </c>
@@ -39706,7 +39707,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="538" spans="1:25">
+    <row r="538" spans="1:25" hidden="1">
       <c r="A538" s="23" t="s">
         <v>977</v>
       </c>
@@ -39775,7 +39776,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="539" spans="1:25">
+    <row r="539" spans="1:25" hidden="1">
       <c r="A539" s="23" t="s">
         <v>977</v>
       </c>
@@ -39844,7 +39845,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="540" spans="1:25">
+    <row r="540" spans="1:25" hidden="1">
       <c r="A540" s="23" t="s">
         <v>977</v>
       </c>
@@ -39913,7 +39914,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="541" spans="1:25">
+    <row r="541" spans="1:25" hidden="1">
       <c r="A541" s="23" t="s">
         <v>926</v>
       </c>
@@ -39980,7 +39981,7 @@
       <c r="X541" s="23"/>
       <c r="Y541" s="23"/>
     </row>
-    <row r="542" spans="1:25">
+    <row r="542" spans="1:25" hidden="1">
       <c r="A542" s="23" t="s">
         <v>926</v>
       </c>
@@ -40047,7 +40048,7 @@
       <c r="X542" s="23"/>
       <c r="Y542" s="23"/>
     </row>
-    <row r="543" spans="1:25">
+    <row r="543" spans="1:25" hidden="1">
       <c r="A543" s="23" t="s">
         <v>926</v>
       </c>
@@ -40114,7 +40115,7 @@
       <c r="X543" s="23"/>
       <c r="Y543" s="23"/>
     </row>
-    <row r="544" spans="1:25">
+    <row r="544" spans="1:25" hidden="1">
       <c r="A544" s="23" t="s">
         <v>942</v>
       </c>
@@ -40180,7 +40181,7 @@
       <c r="X544" s="23"/>
       <c r="Y544" s="23"/>
     </row>
-    <row r="545" spans="1:25">
+    <row r="545" spans="1:25" hidden="1">
       <c r="A545" s="23" t="s">
         <v>942</v>
       </c>
@@ -40246,7 +40247,7 @@
       <c r="X545" s="23"/>
       <c r="Y545" s="23"/>
     </row>
-    <row r="546" spans="1:25">
+    <row r="546" spans="1:25" hidden="1">
       <c r="A546" s="23" t="s">
         <v>942</v>
       </c>
@@ -40312,7 +40313,7 @@
       <c r="X546" s="23"/>
       <c r="Y546" s="23"/>
     </row>
-    <row r="547" spans="1:25">
+    <row r="547" spans="1:25" hidden="1">
       <c r="A547" s="23" t="s">
         <v>942</v>
       </c>
@@ -40378,7 +40379,7 @@
       <c r="X547" s="23"/>
       <c r="Y547" s="23"/>
     </row>
-    <row r="548" spans="1:25">
+    <row r="548" spans="1:25" hidden="1">
       <c r="A548" s="23" t="s">
         <v>942</v>
       </c>
@@ -40444,7 +40445,7 @@
       <c r="X548" s="23"/>
       <c r="Y548" s="23"/>
     </row>
-    <row r="549" spans="1:25">
+    <row r="549" spans="1:25" hidden="1">
       <c r="A549" s="23" t="s">
         <v>942</v>
       </c>
@@ -40510,7 +40511,7 @@
       <c r="X549" s="23"/>
       <c r="Y549" s="23"/>
     </row>
-    <row r="550" spans="1:25">
+    <row r="550" spans="1:25" hidden="1">
       <c r="A550" s="23" t="s">
         <v>942</v>
       </c>
@@ -40576,7 +40577,7 @@
       <c r="X550" s="23"/>
       <c r="Y550" s="23"/>
     </row>
-    <row r="551" spans="1:25">
+    <row r="551" spans="1:25" hidden="1">
       <c r="A551" s="23" t="s">
         <v>942</v>
       </c>
@@ -40642,7 +40643,7 @@
       <c r="X551" s="23"/>
       <c r="Y551" s="23"/>
     </row>
-    <row r="552" spans="1:25">
+    <row r="552" spans="1:25" hidden="1">
       <c r="A552" s="23" t="s">
         <v>942</v>
       </c>
@@ -40708,7 +40709,7 @@
       <c r="X552" s="23"/>
       <c r="Y552" s="23"/>
     </row>
-    <row r="553" spans="1:25">
+    <row r="553" spans="1:25" hidden="1">
       <c r="A553" s="24" t="s">
         <v>934</v>
       </c>
@@ -40773,7 +40774,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="554" spans="1:25">
+    <row r="554" spans="1:25" hidden="1">
       <c r="A554" s="24" t="s">
         <v>934</v>
       </c>
@@ -40838,7 +40839,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="555" spans="1:25">
+    <row r="555" spans="1:25" hidden="1">
       <c r="A555" s="24" t="s">
         <v>985</v>
       </c>
@@ -40902,6 +40903,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Y555" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="exposure"/>
+        <filter val="exposure_diet"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y555">
       <sortCondition ref="A1:A555"/>
     </sortState>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3047172-E87D-1845-B4FD-CFC432B43F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA27BE-C585-9547-BEFC-9443A1E12504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="33120" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="500" windowWidth="47620" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -23,20 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Done!$A$1:$Y$555</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Working!$A$1:$Q$144</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -4231,9 +4218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4271,7 +4258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4377,7 +4364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4519,7 +4506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4527,12 +4514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q242" sqref="Q242"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4642,7 +4628,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1">
+    <row r="2" spans="1:25">
       <c r="A2" s="24" t="s">
         <v>923</v>
       </c>
@@ -4707,7 +4693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1">
+    <row r="3" spans="1:25">
       <c r="A3" s="24" t="s">
         <v>923</v>
       </c>
@@ -4772,7 +4758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1">
+    <row r="4" spans="1:25">
       <c r="A4" s="24" t="s">
         <v>911</v>
       </c>
@@ -4840,7 +4826,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1">
+    <row r="5" spans="1:25">
       <c r="A5" s="24" t="s">
         <v>911</v>
       </c>
@@ -4908,7 +4894,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1">
+    <row r="6" spans="1:25">
       <c r="A6" s="24" t="s">
         <v>911</v>
       </c>
@@ -4976,7 +4962,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1">
+    <row r="7" spans="1:25">
       <c r="A7" s="24" t="s">
         <v>911</v>
       </c>
@@ -5044,7 +5030,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1">
+    <row r="8" spans="1:25">
       <c r="A8" s="24" t="s">
         <v>911</v>
       </c>
@@ -5112,7 +5098,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1">
+    <row r="9" spans="1:25">
       <c r="A9" s="24" t="s">
         <v>911</v>
       </c>
@@ -5180,7 +5166,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1">
+    <row r="10" spans="1:25">
       <c r="A10" s="24" t="s">
         <v>911</v>
       </c>
@@ -5248,7 +5234,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1">
+    <row r="11" spans="1:25">
       <c r="A11" s="24" t="s">
         <v>911</v>
       </c>
@@ -5316,7 +5302,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1">
+    <row r="12" spans="1:25">
       <c r="A12" s="24" t="s">
         <v>911</v>
       </c>
@@ -5384,7 +5370,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1">
+    <row r="13" spans="1:25">
       <c r="A13" s="24" t="s">
         <v>911</v>
       </c>
@@ -5452,7 +5438,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1">
+    <row r="14" spans="1:25">
       <c r="A14" s="24" t="s">
         <v>911</v>
       </c>
@@ -5520,7 +5506,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1">
+    <row r="15" spans="1:25">
       <c r="A15" s="24" t="s">
         <v>911</v>
       </c>
@@ -5588,7 +5574,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1">
+    <row r="16" spans="1:25">
       <c r="A16" s="23" t="s">
         <v>904</v>
       </c>
@@ -5659,7 +5645,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1">
+    <row r="17" spans="1:25">
       <c r="A17" s="23" t="s">
         <v>904</v>
       </c>
@@ -5730,7 +5716,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1">
+    <row r="18" spans="1:25">
       <c r="A18" s="23" t="s">
         <v>904</v>
       </c>
@@ -5801,7 +5787,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1">
+    <row r="19" spans="1:25">
       <c r="A19" s="23" t="s">
         <v>904</v>
       </c>
@@ -5872,7 +5858,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1">
+    <row r="20" spans="1:25">
       <c r="A20" s="23" t="s">
         <v>904</v>
       </c>
@@ -5943,7 +5929,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1">
+    <row r="21" spans="1:25">
       <c r="A21" s="23" t="s">
         <v>904</v>
       </c>
@@ -6014,7 +6000,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1">
+    <row r="22" spans="1:25">
       <c r="A22" s="23" t="s">
         <v>904</v>
       </c>
@@ -6085,7 +6071,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1">
+    <row r="23" spans="1:25">
       <c r="A23" s="23" t="s">
         <v>904</v>
       </c>
@@ -6156,7 +6142,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1">
+    <row r="24" spans="1:25">
       <c r="A24" s="23" t="s">
         <v>904</v>
       </c>
@@ -6227,7 +6213,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1">
+    <row r="25" spans="1:25">
       <c r="A25" s="23" t="s">
         <v>904</v>
       </c>
@@ -6295,7 +6281,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1">
+    <row r="26" spans="1:25">
       <c r="A26" s="23" t="s">
         <v>904</v>
       </c>
@@ -6363,7 +6349,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1">
+    <row r="27" spans="1:25">
       <c r="A27" s="23" t="s">
         <v>904</v>
       </c>
@@ -6431,7 +6417,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1">
+    <row r="28" spans="1:25">
       <c r="A28" s="24" t="s">
         <v>921</v>
       </c>
@@ -6493,7 +6479,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1">
+    <row r="29" spans="1:25">
       <c r="A29" s="24" t="s">
         <v>921</v>
       </c>
@@ -6555,7 +6541,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1">
+    <row r="30" spans="1:25">
       <c r="A30" s="24" t="s">
         <v>921</v>
       </c>
@@ -6617,7 +6603,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1">
+    <row r="31" spans="1:25">
       <c r="A31" s="24" t="s">
         <v>896</v>
       </c>
@@ -6686,7 +6672,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1">
+    <row r="32" spans="1:25">
       <c r="A32" s="24" t="s">
         <v>896</v>
       </c>
@@ -6755,7 +6741,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:25">
       <c r="A33" s="24" t="s">
         <v>896</v>
       </c>
@@ -6826,7 +6812,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:25">
       <c r="A34" s="24" t="s">
         <v>896</v>
       </c>
@@ -6894,7 +6880,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1">
+    <row r="35" spans="1:25">
       <c r="A35" s="24" t="s">
         <v>931</v>
       </c>
@@ -6956,7 +6942,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25">
       <c r="A36" s="24" t="s">
         <v>931</v>
       </c>
@@ -7018,7 +7004,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1">
+    <row r="37" spans="1:25">
       <c r="A37" s="24" t="s">
         <v>931</v>
       </c>
@@ -7080,7 +7066,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1">
+    <row r="38" spans="1:25">
       <c r="A38" s="24" t="s">
         <v>931</v>
       </c>
@@ -7142,7 +7128,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1">
+    <row r="39" spans="1:25">
       <c r="A39" s="24" t="s">
         <v>931</v>
       </c>
@@ -7204,7 +7190,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1">
+    <row r="40" spans="1:25">
       <c r="A40" s="24" t="s">
         <v>937</v>
       </c>
@@ -7266,7 +7252,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1">
+    <row r="41" spans="1:25">
       <c r="A41" s="24" t="s">
         <v>937</v>
       </c>
@@ -7328,7 +7314,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1">
+    <row r="42" spans="1:25">
       <c r="A42" s="24" t="s">
         <v>937</v>
       </c>
@@ -7390,7 +7376,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1">
+    <row r="43" spans="1:25">
       <c r="A43" s="24" t="s">
         <v>937</v>
       </c>
@@ -7452,7 +7438,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:25">
       <c r="A44" s="24" t="s">
         <v>937</v>
       </c>
@@ -7514,7 +7500,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:25">
       <c r="A45" s="24" t="s">
         <v>937</v>
       </c>
@@ -7576,7 +7562,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25">
       <c r="A46" s="24" t="s">
         <v>937</v>
       </c>
@@ -7638,7 +7624,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:25">
       <c r="A47" s="24" t="s">
         <v>937</v>
       </c>
@@ -7700,7 +7686,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" s="24" t="s">
         <v>917</v>
       </c>
@@ -7765,7 +7751,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="49" spans="1:26" hidden="1">
+    <row r="49" spans="1:26">
       <c r="A49" s="24" t="s">
         <v>978</v>
       </c>
@@ -7830,7 +7816,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:26" hidden="1">
+    <row r="50" spans="1:26">
       <c r="A50" s="24" t="s">
         <v>978</v>
       </c>
@@ -7895,7 +7881,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:26" hidden="1">
+    <row r="51" spans="1:26">
       <c r="A51" s="24" t="s">
         <v>978</v>
       </c>
@@ -7960,7 +7946,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:26" hidden="1">
+    <row r="52" spans="1:26">
       <c r="A52" s="24" t="s">
         <v>978</v>
       </c>
@@ -8025,7 +8011,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1">
+    <row r="53" spans="1:26">
       <c r="A53" s="24" t="s">
         <v>972</v>
       </c>
@@ -8091,7 +8077,7 @@
       </c>
       <c r="Z53"/>
     </row>
-    <row r="54" spans="1:26" hidden="1">
+    <row r="54" spans="1:26">
       <c r="A54" s="24" t="s">
         <v>972</v>
       </c>
@@ -8157,7 +8143,7 @@
       </c>
       <c r="Z54"/>
     </row>
-    <row r="55" spans="1:26" hidden="1">
+    <row r="55" spans="1:26">
       <c r="A55" s="24" t="s">
         <v>972</v>
       </c>
@@ -8223,7 +8209,7 @@
       </c>
       <c r="Z55"/>
     </row>
-    <row r="56" spans="1:26" hidden="1">
+    <row r="56" spans="1:26">
       <c r="A56" s="24" t="s">
         <v>972</v>
       </c>
@@ -8289,7 +8275,7 @@
       </c>
       <c r="Z56"/>
     </row>
-    <row r="57" spans="1:26" hidden="1">
+    <row r="57" spans="1:26">
       <c r="A57" s="24" t="s">
         <v>972</v>
       </c>
@@ -8355,7 +8341,7 @@
       </c>
       <c r="Z57"/>
     </row>
-    <row r="58" spans="1:26" hidden="1">
+    <row r="58" spans="1:26">
       <c r="A58" s="24" t="s">
         <v>972</v>
       </c>
@@ -8421,7 +8407,7 @@
       </c>
       <c r="Z58"/>
     </row>
-    <row r="59" spans="1:26" hidden="1">
+    <row r="59" spans="1:26">
       <c r="A59" s="24" t="s">
         <v>972</v>
       </c>
@@ -8487,7 +8473,7 @@
       </c>
       <c r="Z59"/>
     </row>
-    <row r="60" spans="1:26" hidden="1">
+    <row r="60" spans="1:26">
       <c r="A60" s="24" t="s">
         <v>972</v>
       </c>
@@ -8553,7 +8539,7 @@
       </c>
       <c r="Z60"/>
     </row>
-    <row r="61" spans="1:26" hidden="1">
+    <row r="61" spans="1:26">
       <c r="A61" s="24" t="s">
         <v>889</v>
       </c>
@@ -8618,7 +8604,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1">
+    <row r="62" spans="1:26">
       <c r="A62" s="24" t="s">
         <v>889</v>
       </c>
@@ -8683,7 +8669,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="63" spans="1:26" hidden="1">
+    <row r="63" spans="1:26">
       <c r="A63" s="24" t="s">
         <v>889</v>
       </c>
@@ -8748,7 +8734,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:26" hidden="1">
+    <row r="64" spans="1:26">
       <c r="A64" s="24" t="s">
         <v>889</v>
       </c>
@@ -8813,7 +8799,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1">
+    <row r="65" spans="1:25">
       <c r="A65" s="24" t="s">
         <v>906</v>
       </c>
@@ -8881,7 +8867,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1">
+    <row r="66" spans="1:25">
       <c r="A66" s="24" t="s">
         <v>906</v>
       </c>
@@ -8949,7 +8935,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1">
+    <row r="67" spans="1:25">
       <c r="A67" s="24" t="s">
         <v>906</v>
       </c>
@@ -9017,7 +9003,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1">
+    <row r="68" spans="1:25">
       <c r="A68" s="24" t="s">
         <v>906</v>
       </c>
@@ -9085,7 +9071,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1">
+    <row r="69" spans="1:25">
       <c r="A69" s="24" t="s">
         <v>906</v>
       </c>
@@ -9153,7 +9139,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1">
+    <row r="70" spans="1:25">
       <c r="A70" s="24" t="s">
         <v>906</v>
       </c>
@@ -9221,7 +9207,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1">
+    <row r="71" spans="1:25">
       <c r="A71" s="24" t="s">
         <v>950</v>
       </c>
@@ -9286,7 +9272,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1">
+    <row r="72" spans="1:25">
       <c r="A72" s="24" t="s">
         <v>950</v>
       </c>
@@ -9351,7 +9337,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1">
+    <row r="73" spans="1:25">
       <c r="A73" s="24" t="s">
         <v>950</v>
       </c>
@@ -9416,7 +9402,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1">
+    <row r="74" spans="1:25">
       <c r="A74" s="24" t="s">
         <v>950</v>
       </c>
@@ -9481,7 +9467,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1">
+    <row r="75" spans="1:25">
       <c r="A75" s="24" t="s">
         <v>950</v>
       </c>
@@ -9546,7 +9532,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1">
+    <row r="76" spans="1:25">
       <c r="A76" s="24" t="s">
         <v>950</v>
       </c>
@@ -9611,7 +9597,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1">
+    <row r="77" spans="1:25">
       <c r="A77" s="24" t="s">
         <v>950</v>
       </c>
@@ -9676,7 +9662,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1">
+    <row r="78" spans="1:25">
       <c r="A78" s="24" t="s">
         <v>950</v>
       </c>
@@ -9741,7 +9727,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1">
+    <row r="79" spans="1:25">
       <c r="A79" s="24" t="s">
         <v>950</v>
       </c>
@@ -9806,7 +9792,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1">
+    <row r="80" spans="1:25">
       <c r="A80" s="24" t="s">
         <v>950</v>
       </c>
@@ -9871,7 +9857,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1">
+    <row r="81" spans="1:25">
       <c r="A81" s="24" t="s">
         <v>950</v>
       </c>
@@ -9936,7 +9922,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1">
+    <row r="82" spans="1:25">
       <c r="A82" s="24" t="s">
         <v>950</v>
       </c>
@@ -10001,7 +9987,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1">
+    <row r="83" spans="1:25">
       <c r="A83" s="24" t="s">
         <v>950</v>
       </c>
@@ -10066,7 +10052,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1">
+    <row r="84" spans="1:25">
       <c r="A84" s="24" t="s">
         <v>950</v>
       </c>
@@ -10131,7 +10117,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1">
+    <row r="85" spans="1:25">
       <c r="A85" s="24" t="s">
         <v>950</v>
       </c>
@@ -10196,7 +10182,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1">
+    <row r="86" spans="1:25">
       <c r="A86" s="24" t="s">
         <v>950</v>
       </c>
@@ -10261,7 +10247,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1">
+    <row r="87" spans="1:25">
       <c r="A87" s="24" t="s">
         <v>950</v>
       </c>
@@ -10326,7 +10312,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1">
+    <row r="88" spans="1:25">
       <c r="A88" s="24" t="s">
         <v>950</v>
       </c>
@@ -10391,7 +10377,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1">
+    <row r="89" spans="1:25">
       <c r="A89" s="24" t="s">
         <v>950</v>
       </c>
@@ -10456,7 +10442,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1">
+    <row r="90" spans="1:25">
       <c r="A90" s="24" t="s">
         <v>950</v>
       </c>
@@ -10521,7 +10507,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1">
+    <row r="91" spans="1:25">
       <c r="A91" s="24" t="s">
         <v>950</v>
       </c>
@@ -10586,7 +10572,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1">
+    <row r="92" spans="1:25">
       <c r="A92" s="24" t="s">
         <v>950</v>
       </c>
@@ -10651,7 +10637,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="93" spans="1:25" hidden="1">
+    <row r="93" spans="1:25">
       <c r="A93" s="24" t="s">
         <v>950</v>
       </c>
@@ -10716,7 +10702,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="94" spans="1:25" hidden="1">
+    <row r="94" spans="1:25">
       <c r="A94" s="24" t="s">
         <v>950</v>
       </c>
@@ -10781,7 +10767,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1">
+    <row r="95" spans="1:25">
       <c r="A95" s="24" t="s">
         <v>974</v>
       </c>
@@ -10849,7 +10835,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1">
+    <row r="96" spans="1:25">
       <c r="A96" s="24" t="s">
         <v>974</v>
       </c>
@@ -10917,7 +10903,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1">
+    <row r="97" spans="1:25">
       <c r="A97" s="24" t="s">
         <v>966</v>
       </c>
@@ -10979,7 +10965,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1">
+    <row r="98" spans="1:25">
       <c r="A98" s="24" t="s">
         <v>966</v>
       </c>
@@ -11041,7 +11027,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1">
+    <row r="99" spans="1:25">
       <c r="A99" s="24" t="s">
         <v>966</v>
       </c>
@@ -11103,7 +11089,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="100" spans="1:25" hidden="1">
+    <row r="100" spans="1:25">
       <c r="A100" s="24" t="s">
         <v>966</v>
       </c>
@@ -11165,7 +11151,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1">
+    <row r="101" spans="1:25">
       <c r="A101" s="24" t="s">
         <v>966</v>
       </c>
@@ -11227,7 +11213,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1">
+    <row r="102" spans="1:25">
       <c r="A102" s="24" t="s">
         <v>966</v>
       </c>
@@ -11289,7 +11275,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1">
+    <row r="103" spans="1:25">
       <c r="A103" s="24" t="s">
         <v>966</v>
       </c>
@@ -11351,7 +11337,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1">
+    <row r="104" spans="1:25">
       <c r="A104" s="24" t="s">
         <v>966</v>
       </c>
@@ -11413,7 +11399,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1">
+    <row r="105" spans="1:25">
       <c r="A105" s="24" t="s">
         <v>966</v>
       </c>
@@ -11475,7 +11461,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1">
+    <row r="106" spans="1:25">
       <c r="A106" s="24" t="s">
         <v>966</v>
       </c>
@@ -11537,7 +11523,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1">
+    <row r="107" spans="1:25">
       <c r="A107" s="24" t="s">
         <v>900</v>
       </c>
@@ -11605,7 +11591,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1">
+    <row r="108" spans="1:25">
       <c r="A108" s="24" t="s">
         <v>900</v>
       </c>
@@ -11673,7 +11659,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1">
+    <row r="109" spans="1:25">
       <c r="A109" s="24" t="s">
         <v>900</v>
       </c>
@@ -11741,7 +11727,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1">
+    <row r="110" spans="1:25">
       <c r="A110" s="24" t="s">
         <v>992</v>
       </c>
@@ -11803,7 +11789,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1">
+    <row r="111" spans="1:25">
       <c r="A111" s="24" t="s">
         <v>992</v>
       </c>
@@ -11862,7 +11848,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1">
+    <row r="112" spans="1:25">
       <c r="A112" s="24" t="s">
         <v>992</v>
       </c>
@@ -11924,7 +11910,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1">
+    <row r="113" spans="1:25">
       <c r="A113" s="24" t="s">
         <v>992</v>
       </c>
@@ -11986,7 +11972,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1">
+    <row r="114" spans="1:25">
       <c r="A114" s="24" t="s">
         <v>992</v>
       </c>
@@ -12045,7 +12031,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1">
+    <row r="115" spans="1:25">
       <c r="A115" s="24" t="s">
         <v>992</v>
       </c>
@@ -12104,7 +12090,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1">
+    <row r="116" spans="1:25">
       <c r="A116" s="24" t="s">
         <v>992</v>
       </c>
@@ -12166,7 +12152,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1">
+    <row r="117" spans="1:25">
       <c r="A117" s="24" t="s">
         <v>992</v>
       </c>
@@ -12225,7 +12211,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1">
+    <row r="118" spans="1:25">
       <c r="A118" s="24" t="s">
         <v>992</v>
       </c>
@@ -12287,7 +12273,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1">
+    <row r="119" spans="1:25">
       <c r="A119" s="24" t="s">
         <v>992</v>
       </c>
@@ -12349,7 +12335,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1">
+    <row r="120" spans="1:25">
       <c r="A120" s="24" t="s">
         <v>992</v>
       </c>
@@ -12411,7 +12397,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1">
+    <row r="121" spans="1:25">
       <c r="A121" s="24" t="s">
         <v>992</v>
       </c>
@@ -12473,7 +12459,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1">
+    <row r="122" spans="1:25">
       <c r="A122" s="24" t="s">
         <v>992</v>
       </c>
@@ -12535,7 +12521,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1">
+    <row r="123" spans="1:25">
       <c r="A123" s="24" t="s">
         <v>992</v>
       </c>
@@ -12594,7 +12580,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1">
+    <row r="124" spans="1:25">
       <c r="A124" s="24" t="s">
         <v>992</v>
       </c>
@@ -12656,7 +12642,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1">
+    <row r="125" spans="1:25">
       <c r="A125" s="24" t="s">
         <v>992</v>
       </c>
@@ -12718,7 +12704,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1">
+    <row r="126" spans="1:25">
       <c r="A126" s="24" t="s">
         <v>922</v>
       </c>
@@ -12783,7 +12769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1">
+    <row r="127" spans="1:25">
       <c r="A127" s="24" t="s">
         <v>922</v>
       </c>
@@ -12848,7 +12834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1">
+    <row r="128" spans="1:25">
       <c r="A128" s="23" t="s">
         <v>960</v>
       </c>
@@ -12915,7 +12901,7 @@
       <c r="X128" s="23"/>
       <c r="Y128" s="23"/>
     </row>
-    <row r="129" spans="1:25" hidden="1">
+    <row r="129" spans="1:25">
       <c r="A129" s="24" t="s">
         <v>960</v>
       </c>
@@ -12977,7 +12963,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1">
+    <row r="130" spans="1:25">
       <c r="A130" s="24" t="s">
         <v>897</v>
       </c>
@@ -13045,7 +13031,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1">
+    <row r="131" spans="1:25">
       <c r="A131" s="24" t="s">
         <v>897</v>
       </c>
@@ -13113,7 +13099,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1">
+    <row r="132" spans="1:25">
       <c r="A132" s="24" t="s">
         <v>902</v>
       </c>
@@ -13178,7 +13164,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:25">
       <c r="A133" s="24" t="s">
         <v>902</v>
       </c>
@@ -13243,7 +13229,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1">
+    <row r="134" spans="1:25">
       <c r="A134" s="24" t="s">
         <v>902</v>
       </c>
@@ -13308,7 +13294,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1">
+    <row r="135" spans="1:25">
       <c r="A135" s="24" t="s">
         <v>902</v>
       </c>
@@ -13373,7 +13359,7 @@
         <v>-0.14399999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1">
+    <row r="136" spans="1:25">
       <c r="A136" s="24" t="s">
         <v>902</v>
       </c>
@@ -13438,7 +13424,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1">
+    <row r="137" spans="1:25">
       <c r="A137" s="24" t="s">
         <v>902</v>
       </c>
@@ -13503,7 +13489,7 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1">
+    <row r="138" spans="1:25">
       <c r="A138" s="24" t="s">
         <v>902</v>
       </c>
@@ -13568,7 +13554,7 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1">
+    <row r="139" spans="1:25">
       <c r="A139" s="24" t="s">
         <v>902</v>
       </c>
@@ -13633,7 +13619,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1">
+    <row r="140" spans="1:25">
       <c r="A140" s="24" t="s">
         <v>902</v>
       </c>
@@ -13698,7 +13684,7 @@
         <v>-0.17799999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1">
+    <row r="141" spans="1:25">
       <c r="A141" s="24" t="s">
         <v>902</v>
       </c>
@@ -13763,7 +13749,7 @@
         <v>-7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1">
+    <row r="142" spans="1:25">
       <c r="A142" s="24" t="s">
         <v>902</v>
       </c>
@@ -13828,7 +13814,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1">
+    <row r="143" spans="1:25">
       <c r="A143" s="24" t="s">
         <v>902</v>
       </c>
@@ -13893,7 +13879,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1">
+    <row r="144" spans="1:25">
       <c r="A144" s="24" t="s">
         <v>902</v>
       </c>
@@ -13958,7 +13944,7 @@
         <v>-0.24099999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1">
+    <row r="145" spans="1:25">
       <c r="A145" s="24" t="s">
         <v>895</v>
       </c>
@@ -14023,7 +14009,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1">
+    <row r="146" spans="1:25">
       <c r="A146" s="24" t="s">
         <v>895</v>
       </c>
@@ -14088,7 +14074,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="27" customFormat="1" hidden="1">
+    <row r="147" spans="1:25" s="27" customFormat="1">
       <c r="A147" s="27" t="s">
         <v>963</v>
       </c>
@@ -14144,7 +14130,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="27" customFormat="1" hidden="1">
+    <row r="148" spans="1:25" s="27" customFormat="1">
       <c r="A148" s="27" t="s">
         <v>963</v>
       </c>
@@ -14200,7 +14186,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:25" s="27" customFormat="1" hidden="1">
+    <row r="149" spans="1:25" s="27" customFormat="1">
       <c r="A149" s="27" t="s">
         <v>963</v>
       </c>
@@ -14256,7 +14242,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:25" s="27" customFormat="1" hidden="1">
+    <row r="150" spans="1:25" s="27" customFormat="1">
       <c r="A150" s="27" t="s">
         <v>963</v>
       </c>
@@ -14312,7 +14298,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1">
+    <row r="151" spans="1:25">
       <c r="A151" s="24" t="s">
         <v>983</v>
       </c>
@@ -14374,7 +14360,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1">
+    <row r="152" spans="1:25">
       <c r="A152" s="24" t="s">
         <v>983</v>
       </c>
@@ -14436,7 +14422,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1">
+    <row r="153" spans="1:25">
       <c r="A153" s="24" t="s">
         <v>983</v>
       </c>
@@ -14498,7 +14484,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="154" spans="1:25" hidden="1">
+    <row r="154" spans="1:25">
       <c r="A154" s="24" t="s">
         <v>983</v>
       </c>
@@ -14560,7 +14546,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1">
+    <row r="155" spans="1:25">
       <c r="A155" s="24" t="s">
         <v>983</v>
       </c>
@@ -14622,7 +14608,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1">
+    <row r="156" spans="1:25">
       <c r="A156" s="24" t="s">
         <v>983</v>
       </c>
@@ -14684,7 +14670,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1">
+    <row r="157" spans="1:25">
       <c r="A157" s="24" t="s">
         <v>983</v>
       </c>
@@ -14746,7 +14732,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1">
+    <row r="158" spans="1:25">
       <c r="A158" s="24" t="s">
         <v>967</v>
       </c>
@@ -14808,7 +14794,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1">
+    <row r="159" spans="1:25">
       <c r="A159" s="23" t="s">
         <v>984</v>
       </c>
@@ -14877,7 +14863,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1">
+    <row r="160" spans="1:25">
       <c r="A160" s="23" t="s">
         <v>984</v>
       </c>
@@ -14946,7 +14932,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1">
+    <row r="161" spans="1:25">
       <c r="A161" s="24" t="s">
         <v>894</v>
       </c>
@@ -15011,7 +14997,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="162" spans="1:25" hidden="1">
+    <row r="162" spans="1:25">
       <c r="A162" s="24" t="s">
         <v>894</v>
       </c>
@@ -15076,7 +15062,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="163" spans="1:25" hidden="1">
+    <row r="163" spans="1:25">
       <c r="A163" s="24" t="s">
         <v>894</v>
       </c>
@@ -15141,7 +15127,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1">
+    <row r="164" spans="1:25">
       <c r="A164" s="24" t="s">
         <v>894</v>
       </c>
@@ -15206,7 +15192,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1">
+    <row r="165" spans="1:25">
       <c r="A165" s="23" t="s">
         <v>927</v>
       </c>
@@ -15275,7 +15261,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="166" spans="1:25" hidden="1">
+    <row r="166" spans="1:25">
       <c r="A166" s="23" t="s">
         <v>927</v>
       </c>
@@ -15344,7 +15330,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1">
+    <row r="167" spans="1:25">
       <c r="A167" s="23" t="s">
         <v>927</v>
       </c>
@@ -15413,7 +15399,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1">
+    <row r="168" spans="1:25">
       <c r="A168" s="23" t="s">
         <v>927</v>
       </c>
@@ -15482,7 +15468,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="169" spans="1:25" hidden="1">
+    <row r="169" spans="1:25">
       <c r="A169" s="23" t="s">
         <v>927</v>
       </c>
@@ -15551,7 +15537,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1">
+    <row r="170" spans="1:25">
       <c r="A170" s="23" t="s">
         <v>927</v>
       </c>
@@ -15620,7 +15606,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1">
+    <row r="171" spans="1:25">
       <c r="A171" s="23" t="s">
         <v>927</v>
       </c>
@@ -15689,7 +15675,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="172" spans="1:25" hidden="1">
+    <row r="172" spans="1:25">
       <c r="A172" s="23" t="s">
         <v>927</v>
       </c>
@@ -15758,7 +15744,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="173" spans="1:25" hidden="1">
+    <row r="173" spans="1:25">
       <c r="A173" s="23" t="s">
         <v>927</v>
       </c>
@@ -15827,7 +15813,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="174" spans="1:25" hidden="1">
+    <row r="174" spans="1:25">
       <c r="A174" s="23" t="s">
         <v>927</v>
       </c>
@@ -15896,7 +15882,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="175" spans="1:25" hidden="1">
+    <row r="175" spans="1:25">
       <c r="A175" s="23" t="s">
         <v>927</v>
       </c>
@@ -15965,7 +15951,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="176" spans="1:25" hidden="1">
+    <row r="176" spans="1:25">
       <c r="A176" s="23" t="s">
         <v>927</v>
       </c>
@@ -16034,7 +16020,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1">
+    <row r="177" spans="1:25">
       <c r="A177" s="23" t="s">
         <v>927</v>
       </c>
@@ -16103,7 +16089,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1">
+    <row r="178" spans="1:25">
       <c r="A178" s="23" t="s">
         <v>927</v>
       </c>
@@ -16172,7 +16158,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1">
+    <row r="179" spans="1:25">
       <c r="A179" s="23" t="s">
         <v>927</v>
       </c>
@@ -16241,7 +16227,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1">
+    <row r="180" spans="1:25">
       <c r="A180" s="23" t="s">
         <v>927</v>
       </c>
@@ -16310,7 +16296,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1">
+    <row r="181" spans="1:25">
       <c r="A181" s="23" t="s">
         <v>927</v>
       </c>
@@ -16379,7 +16365,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1">
+    <row r="182" spans="1:25">
       <c r="A182" s="23" t="s">
         <v>927</v>
       </c>
@@ -16448,7 +16434,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1">
+    <row r="183" spans="1:25">
       <c r="A183" s="24" t="s">
         <v>947</v>
       </c>
@@ -16513,7 +16499,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1">
+    <row r="184" spans="1:25">
       <c r="A184" s="24" t="s">
         <v>987</v>
       </c>
@@ -16764,7 +16750,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1">
+    <row r="188" spans="1:25">
       <c r="A188" s="24" t="s">
         <v>938</v>
       </c>
@@ -16826,7 +16812,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1">
+    <row r="189" spans="1:25">
       <c r="A189" s="24" t="s">
         <v>961</v>
       </c>
@@ -16888,7 +16874,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1">
+    <row r="190" spans="1:25">
       <c r="A190" s="24" t="s">
         <v>961</v>
       </c>
@@ -16950,7 +16936,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1">
+    <row r="191" spans="1:25">
       <c r="A191" s="23" t="s">
         <v>990</v>
       </c>
@@ -17017,7 +17003,7 @@
       <c r="X191" s="23"/>
       <c r="Y191" s="23"/>
     </row>
-    <row r="192" spans="1:25" hidden="1">
+    <row r="192" spans="1:25">
       <c r="A192" s="23" t="s">
         <v>990</v>
       </c>
@@ -17084,7 +17070,7 @@
       <c r="X192" s="23"/>
       <c r="Y192" s="23"/>
     </row>
-    <row r="193" spans="1:21" hidden="1">
+    <row r="193" spans="1:21">
       <c r="A193" s="24" t="s">
         <v>990</v>
       </c>
@@ -17149,7 +17135,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1">
+    <row r="194" spans="1:21">
       <c r="A194" s="24" t="s">
         <v>990</v>
       </c>
@@ -17214,7 +17200,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1">
+    <row r="195" spans="1:21">
       <c r="A195" s="24" t="s">
         <v>940</v>
       </c>
@@ -17276,7 +17262,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1">
+    <row r="196" spans="1:21">
       <c r="A196" s="24" t="s">
         <v>940</v>
       </c>
@@ -17338,7 +17324,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1">
+    <row r="197" spans="1:21">
       <c r="A197" s="24" t="s">
         <v>940</v>
       </c>
@@ -17400,7 +17386,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1">
+    <row r="198" spans="1:21">
       <c r="A198" s="24" t="s">
         <v>940</v>
       </c>
@@ -17462,7 +17448,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="199" spans="1:21" hidden="1">
+    <row r="199" spans="1:21">
       <c r="A199" s="24" t="s">
         <v>940</v>
       </c>
@@ -17524,7 +17510,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1">
+    <row r="200" spans="1:21">
       <c r="A200" s="24" t="s">
         <v>940</v>
       </c>
@@ -17586,7 +17572,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="201" spans="1:21" hidden="1">
+    <row r="201" spans="1:21">
       <c r="A201" s="24" t="s">
         <v>940</v>
       </c>
@@ -17648,7 +17634,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1">
+    <row r="202" spans="1:21">
       <c r="A202" s="24" t="s">
         <v>940</v>
       </c>
@@ -17710,7 +17696,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1">
+    <row r="203" spans="1:21">
       <c r="A203" s="24" t="s">
         <v>940</v>
       </c>
@@ -17772,7 +17758,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1">
+    <row r="204" spans="1:21">
       <c r="A204" s="24" t="s">
         <v>940</v>
       </c>
@@ -17834,7 +17820,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="205" spans="1:21" hidden="1">
+    <row r="205" spans="1:21">
       <c r="A205" s="24" t="s">
         <v>940</v>
       </c>
@@ -17896,7 +17882,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1">
+    <row r="206" spans="1:21">
       <c r="A206" s="24" t="s">
         <v>940</v>
       </c>
@@ -17958,7 +17944,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1">
+    <row r="207" spans="1:21">
       <c r="A207" s="24" t="s">
         <v>975</v>
       </c>
@@ -18020,7 +18006,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="208" spans="1:21" hidden="1">
+    <row r="208" spans="1:21">
       <c r="A208" s="24" t="s">
         <v>975</v>
       </c>
@@ -18082,7 +18068,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="209" spans="1:25" hidden="1">
+    <row r="209" spans="1:25">
       <c r="A209" s="24" t="s">
         <v>975</v>
       </c>
@@ -18144,7 +18130,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="210" spans="1:25" hidden="1">
+    <row r="210" spans="1:25">
       <c r="A210" s="24" t="s">
         <v>975</v>
       </c>
@@ -18206,7 +18192,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="211" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="211" spans="1:25" s="29" customFormat="1">
       <c r="A211" s="24" t="s">
         <v>975</v>
       </c>
@@ -18273,7 +18259,7 @@
       <c r="X211" s="24"/>
       <c r="Y211" s="24"/>
     </row>
-    <row r="212" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="212" spans="1:25" s="29" customFormat="1">
       <c r="A212" s="24" t="s">
         <v>975</v>
       </c>
@@ -18342,7 +18328,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="213" spans="1:25" s="29" customFormat="1">
       <c r="A213" s="24" t="s">
         <v>975</v>
       </c>
@@ -18409,7 +18395,7 @@
       <c r="X213" s="24"/>
       <c r="Y213" s="24"/>
     </row>
-    <row r="214" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="214" spans="1:25" s="29" customFormat="1">
       <c r="A214" s="24" t="s">
         <v>975</v>
       </c>
@@ -18476,7 +18462,7 @@
       <c r="X214" s="24"/>
       <c r="Y214" s="24"/>
     </row>
-    <row r="215" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="215" spans="1:25" s="29" customFormat="1">
       <c r="A215" s="24" t="s">
         <v>975</v>
       </c>
@@ -18543,7 +18529,7 @@
       <c r="X215" s="24"/>
       <c r="Y215" s="24"/>
     </row>
-    <row r="216" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="216" spans="1:25" s="29" customFormat="1">
       <c r="A216" s="24" t="s">
         <v>924</v>
       </c>
@@ -18610,7 +18596,7 @@
       <c r="X216" s="24"/>
       <c r="Y216" s="24"/>
     </row>
-    <row r="217" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="217" spans="1:25" s="29" customFormat="1">
       <c r="A217" s="24" t="s">
         <v>924</v>
       </c>
@@ -18677,7 +18663,7 @@
       <c r="X217" s="24"/>
       <c r="Y217" s="24"/>
     </row>
-    <row r="218" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="218" spans="1:25" s="29" customFormat="1">
       <c r="A218" s="24" t="s">
         <v>924</v>
       </c>
@@ -18744,7 +18730,7 @@
       <c r="X218" s="24"/>
       <c r="Y218" s="24"/>
     </row>
-    <row r="219" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="219" spans="1:25" s="29" customFormat="1">
       <c r="A219" s="24" t="s">
         <v>924</v>
       </c>
@@ -18811,7 +18797,7 @@
       <c r="X219" s="24"/>
       <c r="Y219" s="24"/>
     </row>
-    <row r="220" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="220" spans="1:25" s="29" customFormat="1">
       <c r="A220" s="23" t="s">
         <v>924</v>
       </c>
@@ -18878,7 +18864,7 @@
       <c r="X220" s="23"/>
       <c r="Y220" s="23"/>
     </row>
-    <row r="221" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="221" spans="1:25" s="29" customFormat="1">
       <c r="A221" s="23" t="s">
         <v>924</v>
       </c>
@@ -18945,7 +18931,7 @@
       <c r="X221" s="23"/>
       <c r="Y221" s="23"/>
     </row>
-    <row r="222" spans="1:25" hidden="1">
+    <row r="222" spans="1:25">
       <c r="A222" s="23" t="s">
         <v>924</v>
       </c>
@@ -19014,7 +19000,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="223" spans="1:25" hidden="1">
+    <row r="223" spans="1:25">
       <c r="A223" s="23" t="s">
         <v>924</v>
       </c>
@@ -19082,7 +19068,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="224" spans="1:25" hidden="1">
+    <row r="224" spans="1:25">
       <c r="A224" s="23" t="s">
         <v>924</v>
       </c>
@@ -19363,7 +19349,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="228" spans="1:25" hidden="1">
+    <row r="228" spans="1:25">
       <c r="A228" s="23" t="s">
         <v>976</v>
       </c>
@@ -19428,7 +19414,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="229" spans="1:25" hidden="1">
+    <row r="229" spans="1:25">
       <c r="A229" s="23" t="s">
         <v>979</v>
       </c>
@@ -19495,7 +19481,7 @@
       <c r="X229" s="23"/>
       <c r="Y229" s="23"/>
     </row>
-    <row r="230" spans="1:25" hidden="1">
+    <row r="230" spans="1:25">
       <c r="A230" s="23" t="s">
         <v>979</v>
       </c>
@@ -19562,7 +19548,7 @@
       <c r="X230" s="23"/>
       <c r="Y230" s="23"/>
     </row>
-    <row r="231" spans="1:25" hidden="1">
+    <row r="231" spans="1:25">
       <c r="A231" s="24" t="s">
         <v>913</v>
       </c>
@@ -19630,7 +19616,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="232" spans="1:25" hidden="1">
+    <row r="232" spans="1:25">
       <c r="A232" s="24" t="s">
         <v>993</v>
       </c>
@@ -19692,7 +19678,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="233" spans="1:25" hidden="1">
+    <row r="233" spans="1:25">
       <c r="A233" s="24" t="s">
         <v>993</v>
       </c>
@@ -19754,7 +19740,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="234" spans="1:25" hidden="1">
+    <row r="234" spans="1:25">
       <c r="A234" s="24" t="s">
         <v>993</v>
       </c>
@@ -19816,7 +19802,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="235" spans="1:25" hidden="1">
+    <row r="235" spans="1:25">
       <c r="A235" s="24" t="s">
         <v>993</v>
       </c>
@@ -19878,7 +19864,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="236" spans="1:25" hidden="1">
+    <row r="236" spans="1:25">
       <c r="A236" s="24" t="s">
         <v>901</v>
       </c>
@@ -19943,7 +19929,7 @@
         <v>-0.93054999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:25" hidden="1">
+    <row r="237" spans="1:25">
       <c r="A237" s="24" t="s">
         <v>901</v>
       </c>
@@ -21020,7 +21006,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:25" hidden="1">
+    <row r="254" spans="1:25">
       <c r="A254" s="23" t="s">
         <v>952</v>
       </c>
@@ -21086,7 +21072,7 @@
       <c r="X254" s="23"/>
       <c r="Y254" s="23"/>
     </row>
-    <row r="255" spans="1:25" hidden="1">
+    <row r="255" spans="1:25">
       <c r="A255" s="23" t="s">
         <v>952</v>
       </c>
@@ -21152,7 +21138,7 @@
       <c r="X255" s="23"/>
       <c r="Y255" s="23"/>
     </row>
-    <row r="256" spans="1:25" hidden="1">
+    <row r="256" spans="1:25">
       <c r="A256" s="23" t="s">
         <v>952</v>
       </c>
@@ -21218,7 +21204,7 @@
       <c r="X256" s="23"/>
       <c r="Y256" s="23"/>
     </row>
-    <row r="257" spans="1:25" hidden="1">
+    <row r="257" spans="1:25">
       <c r="A257" s="23" t="s">
         <v>952</v>
       </c>
@@ -21284,7 +21270,7 @@
       <c r="X257" s="23"/>
       <c r="Y257" s="23"/>
     </row>
-    <row r="258" spans="1:25" hidden="1">
+    <row r="258" spans="1:25">
       <c r="A258" s="23" t="s">
         <v>952</v>
       </c>
@@ -21347,7 +21333,7 @@
       <c r="X258" s="23"/>
       <c r="Y258" s="23"/>
     </row>
-    <row r="259" spans="1:25" hidden="1">
+    <row r="259" spans="1:25">
       <c r="A259" s="23" t="s">
         <v>952</v>
       </c>
@@ -21413,7 +21399,7 @@
       <c r="X259" s="23"/>
       <c r="Y259" s="23"/>
     </row>
-    <row r="260" spans="1:25" hidden="1">
+    <row r="260" spans="1:25">
       <c r="A260" s="23" t="s">
         <v>952</v>
       </c>
@@ -21480,7 +21466,7 @@
       <c r="X260" s="23"/>
       <c r="Y260" s="23"/>
     </row>
-    <row r="261" spans="1:25" hidden="1">
+    <row r="261" spans="1:25">
       <c r="A261" s="23" t="s">
         <v>968</v>
       </c>
@@ -21547,7 +21533,7 @@
       <c r="X261" s="23"/>
       <c r="Y261" s="23"/>
     </row>
-    <row r="262" spans="1:25" s="27" customFormat="1" hidden="1">
+    <row r="262" spans="1:25" s="27" customFormat="1">
       <c r="A262" s="27" t="s">
         <v>936</v>
       </c>
@@ -21603,7 +21589,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:25" s="27" customFormat="1" hidden="1">
+    <row r="263" spans="1:25" s="27" customFormat="1">
       <c r="A263" s="27" t="s">
         <v>936</v>
       </c>
@@ -21659,7 +21645,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:25" hidden="1">
+    <row r="264" spans="1:25">
       <c r="A264" s="24" t="s">
         <v>888</v>
       </c>
@@ -21727,7 +21713,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="265" spans="1:25" hidden="1">
+    <row r="265" spans="1:25">
       <c r="A265" s="24" t="s">
         <v>888</v>
       </c>
@@ -21795,7 +21781,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="266" spans="1:25" hidden="1">
+    <row r="266" spans="1:25">
       <c r="A266" s="24" t="s">
         <v>888</v>
       </c>
@@ -21863,7 +21849,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="267" spans="1:25" hidden="1">
+    <row r="267" spans="1:25">
       <c r="A267" s="24" t="s">
         <v>888</v>
       </c>
@@ -21931,7 +21917,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="268" spans="1:25" hidden="1">
+    <row r="268" spans="1:25">
       <c r="A268" s="23" t="s">
         <v>949</v>
       </c>
@@ -21998,7 +21984,7 @@
       <c r="X268" s="23"/>
       <c r="Y268" s="23"/>
     </row>
-    <row r="269" spans="1:25" hidden="1">
+    <row r="269" spans="1:25">
       <c r="A269" s="23" t="s">
         <v>949</v>
       </c>
@@ -22065,7 +22051,7 @@
       <c r="X269" s="23"/>
       <c r="Y269" s="23"/>
     </row>
-    <row r="270" spans="1:25" hidden="1">
+    <row r="270" spans="1:25">
       <c r="A270" s="23" t="s">
         <v>949</v>
       </c>
@@ -22132,7 +22118,7 @@
       <c r="X270" s="23"/>
       <c r="Y270" s="23"/>
     </row>
-    <row r="271" spans="1:25" hidden="1">
+    <row r="271" spans="1:25">
       <c r="A271" s="23" t="s">
         <v>949</v>
       </c>
@@ -22199,7 +22185,7 @@
       <c r="X271" s="23"/>
       <c r="Y271" s="23"/>
     </row>
-    <row r="272" spans="1:25" hidden="1">
+    <row r="272" spans="1:25">
       <c r="A272" s="23" t="s">
         <v>949</v>
       </c>
@@ -22266,7 +22252,7 @@
       <c r="X272" s="23"/>
       <c r="Y272" s="23"/>
     </row>
-    <row r="273" spans="1:25" hidden="1">
+    <row r="273" spans="1:25">
       <c r="A273" s="23" t="s">
         <v>949</v>
       </c>
@@ -22333,7 +22319,7 @@
       <c r="X273" s="23"/>
       <c r="Y273" s="23"/>
     </row>
-    <row r="274" spans="1:25" hidden="1">
+    <row r="274" spans="1:25">
       <c r="A274" s="23" t="s">
         <v>949</v>
       </c>
@@ -22400,7 +22386,7 @@
       <c r="X274" s="23"/>
       <c r="Y274" s="23"/>
     </row>
-    <row r="275" spans="1:25" hidden="1">
+    <row r="275" spans="1:25">
       <c r="A275" s="24" t="s">
         <v>939</v>
       </c>
@@ -22462,7 +22448,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="276" spans="1:25" hidden="1">
+    <row r="276" spans="1:25">
       <c r="A276" s="23" t="s">
         <v>915</v>
       </c>
@@ -22531,7 +22517,7 @@
       <c r="X276" s="23"/>
       <c r="Y276" s="23"/>
     </row>
-    <row r="277" spans="1:25" hidden="1">
+    <row r="277" spans="1:25">
       <c r="A277" s="23" t="s">
         <v>915</v>
       </c>
@@ -22600,7 +22586,7 @@
       <c r="X277" s="23"/>
       <c r="Y277" s="23"/>
     </row>
-    <row r="278" spans="1:25" hidden="1">
+    <row r="278" spans="1:25">
       <c r="A278" s="23" t="s">
         <v>915</v>
       </c>
@@ -22669,7 +22655,7 @@
       <c r="X278" s="23"/>
       <c r="Y278" s="23"/>
     </row>
-    <row r="279" spans="1:25" hidden="1">
+    <row r="279" spans="1:25">
       <c r="A279" s="23" t="s">
         <v>915</v>
       </c>
@@ -22945,7 +22931,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="283" spans="1:25" hidden="1">
+    <row r="283" spans="1:25">
       <c r="A283" s="24" t="s">
         <v>893</v>
       </c>
@@ -23010,7 +22996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:25" hidden="1">
+    <row r="284" spans="1:25">
       <c r="A284" s="24" t="s">
         <v>893</v>
       </c>
@@ -23075,7 +23061,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="285" spans="1:25" hidden="1">
+    <row r="285" spans="1:25">
       <c r="A285" s="24" t="s">
         <v>893</v>
       </c>
@@ -23140,7 +23126,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="286" spans="1:25" hidden="1">
+    <row r="286" spans="1:25">
       <c r="A286" s="24" t="s">
         <v>893</v>
       </c>
@@ -23205,7 +23191,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="287" spans="1:25" hidden="1">
+    <row r="287" spans="1:25">
       <c r="A287" s="24" t="s">
         <v>893</v>
       </c>
@@ -23270,7 +23256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:25" hidden="1">
+    <row r="288" spans="1:25">
       <c r="A288" s="24" t="s">
         <v>919</v>
       </c>
@@ -23338,7 +23324,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="289" spans="1:25" hidden="1">
+    <row r="289" spans="1:25">
       <c r="A289" s="24" t="s">
         <v>919</v>
       </c>
@@ -23406,7 +23392,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25" hidden="1">
+    <row r="290" spans="1:25">
       <c r="A290" s="24" t="s">
         <v>919</v>
       </c>
@@ -23474,7 +23460,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="291" spans="1:25" hidden="1">
+    <row r="291" spans="1:25">
       <c r="A291" s="24" t="s">
         <v>919</v>
       </c>
@@ -23542,7 +23528,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="292" spans="1:25" hidden="1">
+    <row r="292" spans="1:25">
       <c r="A292" s="24" t="s">
         <v>919</v>
       </c>
@@ -23610,7 +23596,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="293" spans="1:25" hidden="1">
+    <row r="293" spans="1:25">
       <c r="A293" s="24" t="s">
         <v>919</v>
       </c>
@@ -23678,7 +23664,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="294" spans="1:25" hidden="1">
+    <row r="294" spans="1:25">
       <c r="A294" s="24" t="s">
         <v>919</v>
       </c>
@@ -23746,7 +23732,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="295" spans="1:25" hidden="1">
+    <row r="295" spans="1:25">
       <c r="A295" s="24" t="s">
         <v>919</v>
       </c>
@@ -23814,7 +23800,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:25" hidden="1">
+    <row r="296" spans="1:25">
       <c r="A296" s="24" t="s">
         <v>919</v>
       </c>
@@ -23882,7 +23868,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="297" spans="1:25" hidden="1">
+    <row r="297" spans="1:25">
       <c r="A297" s="24" t="s">
         <v>919</v>
       </c>
@@ -23950,7 +23936,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="298" spans="1:25" hidden="1">
+    <row r="298" spans="1:25">
       <c r="A298" s="24" t="s">
         <v>919</v>
       </c>
@@ -24018,7 +24004,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="299" spans="1:25" hidden="1">
+    <row r="299" spans="1:25">
       <c r="A299" s="24" t="s">
         <v>919</v>
       </c>
@@ -24086,7 +24072,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="300" spans="1:25" hidden="1">
+    <row r="300" spans="1:25">
       <c r="A300" s="24" t="s">
         <v>919</v>
       </c>
@@ -24154,7 +24140,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="301" spans="1:25" hidden="1">
+    <row r="301" spans="1:25">
       <c r="A301" s="24" t="s">
         <v>919</v>
       </c>
@@ -24222,7 +24208,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="302" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="302" spans="1:25" s="29" customFormat="1">
       <c r="A302" s="24" t="s">
         <v>919</v>
       </c>
@@ -24293,7 +24279,7 @@
       <c r="X302" s="24"/>
       <c r="Y302" s="24"/>
     </row>
-    <row r="303" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="303" spans="1:25" s="29" customFormat="1">
       <c r="A303" s="24" t="s">
         <v>919</v>
       </c>
@@ -24364,7 +24350,7 @@
       <c r="X303" s="24"/>
       <c r="Y303" s="24"/>
     </row>
-    <row r="304" spans="1:25" s="29" customFormat="1" hidden="1">
+    <row r="304" spans="1:25" s="29" customFormat="1">
       <c r="A304" s="24" t="s">
         <v>919</v>
       </c>
@@ -24435,7 +24421,7 @@
       <c r="X304" s="24"/>
       <c r="Y304" s="24"/>
     </row>
-    <row r="305" spans="1:25" hidden="1">
+    <row r="305" spans="1:25">
       <c r="A305" s="24" t="s">
         <v>919</v>
       </c>
@@ -24503,7 +24489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:25" hidden="1">
+    <row r="306" spans="1:25">
       <c r="A306" s="24" t="s">
         <v>919</v>
       </c>
@@ -24571,7 +24557,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="307" spans="1:25" hidden="1">
+    <row r="307" spans="1:25">
       <c r="A307" s="24" t="s">
         <v>919</v>
       </c>
@@ -24639,7 +24625,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="308" spans="1:25" hidden="1">
+    <row r="308" spans="1:25">
       <c r="A308" s="24" t="s">
         <v>919</v>
       </c>
@@ -24707,7 +24693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:25" hidden="1">
+    <row r="309" spans="1:25">
       <c r="A309" s="24" t="s">
         <v>919</v>
       </c>
@@ -24775,7 +24761,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="310" spans="1:25" hidden="1">
+    <row r="310" spans="1:25">
       <c r="A310" s="24" t="s">
         <v>919</v>
       </c>
@@ -24843,7 +24829,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="311" spans="1:25" hidden="1">
+    <row r="311" spans="1:25">
       <c r="A311" s="24" t="s">
         <v>919</v>
       </c>
@@ -24911,7 +24897,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="312" spans="1:25" hidden="1">
+    <row r="312" spans="1:25">
       <c r="A312" s="24" t="s">
         <v>903</v>
       </c>
@@ -24976,7 +24962,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="313" spans="1:25" hidden="1">
+    <row r="313" spans="1:25">
       <c r="A313" s="24" t="s">
         <v>903</v>
       </c>
@@ -25041,7 +25027,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="314" spans="1:25" hidden="1">
+    <row r="314" spans="1:25">
       <c r="A314" s="24" t="s">
         <v>903</v>
       </c>
@@ -25106,7 +25092,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="315" spans="1:25" hidden="1">
+    <row r="315" spans="1:25">
       <c r="A315" s="24" t="s">
         <v>903</v>
       </c>
@@ -25171,7 +25157,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="316" spans="1:25" hidden="1">
+    <row r="316" spans="1:25">
       <c r="A316" s="23" t="s">
         <v>982</v>
       </c>
@@ -25238,7 +25224,7 @@
       <c r="X316" s="23"/>
       <c r="Y316" s="23"/>
     </row>
-    <row r="317" spans="1:25" hidden="1">
+    <row r="317" spans="1:25">
       <c r="A317" s="24" t="s">
         <v>890</v>
       </c>
@@ -25306,7 +25292,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="318" spans="1:25" hidden="1">
+    <row r="318" spans="1:25">
       <c r="A318" s="24" t="s">
         <v>890</v>
       </c>
@@ -25374,7 +25360,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="319" spans="1:25" hidden="1">
+    <row r="319" spans="1:25">
       <c r="A319" s="24" t="s">
         <v>890</v>
       </c>
@@ -25442,7 +25428,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="320" spans="1:25" hidden="1">
+    <row r="320" spans="1:25">
       <c r="A320" s="23" t="s">
         <v>954</v>
       </c>
@@ -25511,7 +25497,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="321" spans="1:25" hidden="1">
+    <row r="321" spans="1:25">
       <c r="A321" s="23" t="s">
         <v>954</v>
       </c>
@@ -25580,7 +25566,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="322" spans="1:25" hidden="1">
+    <row r="322" spans="1:25">
       <c r="A322" s="24" t="s">
         <v>918</v>
       </c>
@@ -25645,7 +25631,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:25" hidden="1">
+    <row r="323" spans="1:25">
       <c r="A323" s="24" t="s">
         <v>918</v>
       </c>
@@ -25710,7 +25696,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:25" hidden="1">
+    <row r="324" spans="1:25">
       <c r="A324" s="23" t="s">
         <v>910</v>
       </c>
@@ -25784,7 +25770,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="325" spans="1:25" hidden="1">
+    <row r="325" spans="1:25">
       <c r="A325" s="23" t="s">
         <v>910</v>
       </c>
@@ -25858,7 +25844,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="326" spans="1:25" hidden="1">
+    <row r="326" spans="1:25">
       <c r="A326" s="23" t="s">
         <v>910</v>
       </c>
@@ -25932,7 +25918,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="327" spans="1:25" hidden="1">
+    <row r="327" spans="1:25">
       <c r="A327" s="23" t="s">
         <v>910</v>
       </c>
@@ -26006,7 +25992,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="328" spans="1:25" hidden="1">
+    <row r="328" spans="1:25">
       <c r="A328" s="23" t="s">
         <v>910</v>
       </c>
@@ -26080,7 +26066,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="329" spans="1:25" hidden="1">
+    <row r="329" spans="1:25">
       <c r="A329" s="23" t="s">
         <v>910</v>
       </c>
@@ -26154,7 +26140,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="330" spans="1:25" hidden="1">
+    <row r="330" spans="1:25">
       <c r="A330" s="23" t="s">
         <v>910</v>
       </c>
@@ -26228,7 +26214,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="331" spans="1:25" hidden="1">
+    <row r="331" spans="1:25">
       <c r="A331" s="23" t="s">
         <v>910</v>
       </c>
@@ -26302,7 +26288,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="332" spans="1:25" hidden="1">
+    <row r="332" spans="1:25">
       <c r="A332" s="23" t="s">
         <v>910</v>
       </c>
@@ -26376,7 +26362,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="333" spans="1:25" hidden="1">
+    <row r="333" spans="1:25">
       <c r="A333" s="23" t="s">
         <v>910</v>
       </c>
@@ -26450,7 +26436,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="334" spans="1:25" hidden="1">
+    <row r="334" spans="1:25">
       <c r="A334" s="23" t="s">
         <v>910</v>
       </c>
@@ -26524,7 +26510,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="335" spans="1:25" hidden="1">
+    <row r="335" spans="1:25">
       <c r="A335" s="23" t="s">
         <v>910</v>
       </c>
@@ -26598,7 +26584,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="336" spans="1:25" hidden="1">
+    <row r="336" spans="1:25">
       <c r="A336" s="23" t="s">
         <v>910</v>
       </c>
@@ -26672,7 +26658,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="337" spans="1:25" hidden="1">
+    <row r="337" spans="1:25">
       <c r="A337" s="23" t="s">
         <v>910</v>
       </c>
@@ -26746,7 +26732,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="338" spans="1:25" hidden="1">
+    <row r="338" spans="1:25">
       <c r="A338" s="23" t="s">
         <v>910</v>
       </c>
@@ -26820,7 +26806,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="339" spans="1:25" hidden="1">
+    <row r="339" spans="1:25">
       <c r="A339" s="23" t="s">
         <v>910</v>
       </c>
@@ -26894,7 +26880,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="340" spans="1:25" hidden="1">
+    <row r="340" spans="1:25">
       <c r="A340" s="23" t="s">
         <v>910</v>
       </c>
@@ -26968,7 +26954,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="341" spans="1:25" hidden="1">
+    <row r="341" spans="1:25">
       <c r="A341" s="23" t="s">
         <v>910</v>
       </c>
@@ -27042,7 +27028,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="342" spans="1:25" hidden="1">
+    <row r="342" spans="1:25">
       <c r="A342" s="24" t="s">
         <v>910</v>
       </c>
@@ -27110,7 +27096,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="343" spans="1:25" hidden="1">
+    <row r="343" spans="1:25">
       <c r="A343" s="24" t="s">
         <v>910</v>
       </c>
@@ -27178,7 +27164,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="344" spans="1:25" hidden="1">
+    <row r="344" spans="1:25">
       <c r="A344" s="24" t="s">
         <v>910</v>
       </c>
@@ -27246,7 +27232,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="345" spans="1:25" hidden="1">
+    <row r="345" spans="1:25">
       <c r="A345" s="24" t="s">
         <v>910</v>
       </c>
@@ -27314,7 +27300,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="346" spans="1:25" hidden="1">
+    <row r="346" spans="1:25">
       <c r="A346" s="24" t="s">
         <v>910</v>
       </c>
@@ -27382,7 +27368,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="347" spans="1:25" hidden="1">
+    <row r="347" spans="1:25">
       <c r="A347" s="24" t="s">
         <v>910</v>
       </c>
@@ -27450,7 +27436,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="348" spans="1:25" hidden="1">
+    <row r="348" spans="1:25">
       <c r="A348" s="24" t="s">
         <v>916</v>
       </c>
@@ -27521,7 +27507,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="349" spans="1:25" hidden="1">
+    <row r="349" spans="1:25">
       <c r="A349" s="24" t="s">
         <v>916</v>
       </c>
@@ -27592,7 +27578,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="350" spans="1:25" hidden="1">
+    <row r="350" spans="1:25">
       <c r="A350" s="24" t="s">
         <v>916</v>
       </c>
@@ -27663,7 +27649,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="351" spans="1:25" hidden="1">
+    <row r="351" spans="1:25">
       <c r="A351" s="24" t="s">
         <v>973</v>
       </c>
@@ -27728,7 +27714,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="352" spans="1:25" hidden="1">
+    <row r="352" spans="1:25">
       <c r="A352" s="24" t="s">
         <v>973</v>
       </c>
@@ -27793,7 +27779,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="353" spans="1:25" hidden="1">
+    <row r="353" spans="1:25">
       <c r="A353" s="23" t="s">
         <v>946</v>
       </c>
@@ -27860,7 +27846,7 @@
       <c r="X353" s="23"/>
       <c r="Y353" s="23"/>
     </row>
-    <row r="354" spans="1:25" hidden="1">
+    <row r="354" spans="1:25">
       <c r="A354" s="23" t="s">
         <v>946</v>
       </c>
@@ -27927,7 +27913,7 @@
       <c r="X354" s="23"/>
       <c r="Y354" s="23"/>
     </row>
-    <row r="355" spans="1:25" hidden="1">
+    <row r="355" spans="1:25">
       <c r="A355" s="23" t="s">
         <v>946</v>
       </c>
@@ -27994,7 +27980,7 @@
       <c r="X355" s="23"/>
       <c r="Y355" s="23"/>
     </row>
-    <row r="356" spans="1:25" hidden="1">
+    <row r="356" spans="1:25">
       <c r="A356" s="24" t="s">
         <v>971</v>
       </c>
@@ -28050,7 +28036,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="357" spans="1:25" hidden="1">
+    <row r="357" spans="1:25">
       <c r="A357" s="24" t="s">
         <v>971</v>
       </c>
@@ -28106,7 +28092,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="358" spans="1:25" hidden="1">
+    <row r="358" spans="1:25">
       <c r="A358" s="24" t="s">
         <v>962</v>
       </c>
@@ -28162,7 +28148,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="359" spans="1:25" hidden="1">
+    <row r="359" spans="1:25">
       <c r="A359" s="24" t="s">
         <v>962</v>
       </c>
@@ -28218,7 +28204,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="360" spans="1:25" hidden="1">
+    <row r="360" spans="1:25">
       <c r="A360" s="24" t="s">
         <v>962</v>
       </c>
@@ -28274,7 +28260,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="361" spans="1:25" hidden="1">
+    <row r="361" spans="1:25">
       <c r="A361" s="23" t="s">
         <v>964</v>
       </c>
@@ -28341,7 +28327,7 @@
       <c r="X361" s="23"/>
       <c r="Y361" s="23"/>
     </row>
-    <row r="362" spans="1:25" hidden="1">
+    <row r="362" spans="1:25">
       <c r="A362" s="23" t="s">
         <v>964</v>
       </c>
@@ -28408,7 +28394,7 @@
       <c r="X362" s="23"/>
       <c r="Y362" s="23"/>
     </row>
-    <row r="363" spans="1:25" hidden="1">
+    <row r="363" spans="1:25">
       <c r="A363" s="23" t="s">
         <v>964</v>
       </c>
@@ -28475,7 +28461,7 @@
       <c r="X363" s="23"/>
       <c r="Y363" s="23"/>
     </row>
-    <row r="364" spans="1:25" hidden="1">
+    <row r="364" spans="1:25">
       <c r="A364" s="23" t="s">
         <v>964</v>
       </c>
@@ -28542,7 +28528,7 @@
       <c r="X364" s="23"/>
       <c r="Y364" s="23"/>
     </row>
-    <row r="365" spans="1:25" hidden="1">
+    <row r="365" spans="1:25">
       <c r="A365" s="24" t="s">
         <v>908</v>
       </c>
@@ -28607,7 +28593,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:25" hidden="1">
+    <row r="366" spans="1:25">
       <c r="A366" s="24" t="s">
         <v>908</v>
       </c>
@@ -28672,7 +28658,7 @@
         <v>-1.4E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:25" hidden="1">
+    <row r="367" spans="1:25">
       <c r="A367" s="24" t="s">
         <v>908</v>
       </c>
@@ -28737,7 +28723,7 @@
         <v>-1.8E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:25" hidden="1">
+    <row r="368" spans="1:25">
       <c r="A368" s="24" t="s">
         <v>908</v>
       </c>
@@ -28802,7 +28788,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:25" hidden="1">
+    <row r="369" spans="1:25">
       <c r="A369" s="24" t="s">
         <v>908</v>
       </c>
@@ -28867,7 +28853,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:25" hidden="1">
+    <row r="370" spans="1:25">
       <c r="A370" s="24" t="s">
         <v>908</v>
       </c>
@@ -28932,7 +28918,7 @@
         <v>-4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:25" hidden="1">
+    <row r="371" spans="1:25">
       <c r="A371" s="24" t="s">
         <v>908</v>
       </c>
@@ -28997,7 +28983,7 @@
         <v>-5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:25" hidden="1">
+    <row r="372" spans="1:25">
       <c r="A372" s="24" t="s">
         <v>908</v>
       </c>
@@ -29062,7 +29048,7 @@
         <v>-5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:25" hidden="1">
+    <row r="373" spans="1:25">
       <c r="A373" s="24" t="s">
         <v>908</v>
       </c>
@@ -29127,7 +29113,7 @@
         <v>-6.3E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:25" hidden="1">
+    <row r="374" spans="1:25">
       <c r="A374" s="24" t="s">
         <v>908</v>
       </c>
@@ -29192,7 +29178,7 @@
         <v>-6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:25" hidden="1">
+    <row r="375" spans="1:25">
       <c r="A375" s="24" t="s">
         <v>908</v>
       </c>
@@ -29257,7 +29243,7 @@
         <v>-8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:25" hidden="1">
+    <row r="376" spans="1:25">
       <c r="A376" s="24" t="s">
         <v>908</v>
       </c>
@@ -29322,7 +29308,7 @@
         <v>-1.44E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:25" hidden="1">
+    <row r="377" spans="1:25">
       <c r="A377" s="24" t="s">
         <v>935</v>
       </c>
@@ -29390,7 +29376,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="378" spans="1:25" hidden="1">
+    <row r="378" spans="1:25">
       <c r="A378" s="24" t="s">
         <v>935</v>
       </c>
@@ -29458,7 +29444,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="379" spans="1:25" hidden="1">
+    <row r="379" spans="1:25">
       <c r="A379" s="23" t="s">
         <v>959</v>
       </c>
@@ -29525,7 +29511,7 @@
       <c r="X379" s="23"/>
       <c r="Y379" s="23"/>
     </row>
-    <row r="380" spans="1:25" hidden="1">
+    <row r="380" spans="1:25">
       <c r="A380" s="23" t="s">
         <v>959</v>
       </c>
@@ -29592,7 +29578,7 @@
       <c r="X380" s="23"/>
       <c r="Y380" s="23"/>
     </row>
-    <row r="381" spans="1:25" hidden="1">
+    <row r="381" spans="1:25">
       <c r="A381" s="23" t="s">
         <v>959</v>
       </c>
@@ -29659,7 +29645,7 @@
       <c r="X381" s="23"/>
       <c r="Y381" s="23"/>
     </row>
-    <row r="382" spans="1:25" hidden="1">
+    <row r="382" spans="1:25">
       <c r="A382" s="23" t="s">
         <v>959</v>
       </c>
@@ -29726,7 +29712,7 @@
       <c r="X382" s="23"/>
       <c r="Y382" s="23"/>
     </row>
-    <row r="383" spans="1:25" hidden="1">
+    <row r="383" spans="1:25">
       <c r="A383" s="23" t="s">
         <v>959</v>
       </c>
@@ -29793,7 +29779,7 @@
       <c r="X383" s="23"/>
       <c r="Y383" s="23"/>
     </row>
-    <row r="384" spans="1:25" hidden="1">
+    <row r="384" spans="1:25">
       <c r="A384" s="23" t="s">
         <v>959</v>
       </c>
@@ -29860,7 +29846,7 @@
       <c r="X384" s="23"/>
       <c r="Y384" s="23"/>
     </row>
-    <row r="385" spans="1:25" hidden="1">
+    <row r="385" spans="1:25">
       <c r="A385" s="23" t="s">
         <v>959</v>
       </c>
@@ -29927,7 +29913,7 @@
       <c r="X385" s="23"/>
       <c r="Y385" s="23"/>
     </row>
-    <row r="386" spans="1:25" hidden="1">
+    <row r="386" spans="1:25">
       <c r="A386" s="23" t="s">
         <v>959</v>
       </c>
@@ -29994,7 +29980,7 @@
       <c r="X386" s="23"/>
       <c r="Y386" s="23"/>
     </row>
-    <row r="387" spans="1:25" hidden="1">
+    <row r="387" spans="1:25">
       <c r="A387" s="23" t="s">
         <v>959</v>
       </c>
@@ -30061,7 +30047,7 @@
       <c r="X387" s="23"/>
       <c r="Y387" s="23"/>
     </row>
-    <row r="388" spans="1:25" hidden="1">
+    <row r="388" spans="1:25">
       <c r="A388" s="23" t="s">
         <v>959</v>
       </c>
@@ -30128,7 +30114,7 @@
       <c r="X388" s="23"/>
       <c r="Y388" s="23"/>
     </row>
-    <row r="389" spans="1:25" hidden="1">
+    <row r="389" spans="1:25">
       <c r="A389" s="23" t="s">
         <v>959</v>
       </c>
@@ -30195,7 +30181,7 @@
       <c r="X389" s="23"/>
       <c r="Y389" s="23"/>
     </row>
-    <row r="390" spans="1:25" hidden="1">
+    <row r="390" spans="1:25">
       <c r="A390" s="23" t="s">
         <v>959</v>
       </c>
@@ -30262,7 +30248,7 @@
       <c r="X390" s="23"/>
       <c r="Y390" s="23"/>
     </row>
-    <row r="391" spans="1:25" hidden="1">
+    <row r="391" spans="1:25">
       <c r="A391" s="24" t="s">
         <v>907</v>
       </c>
@@ -30327,7 +30313,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:25" hidden="1">
+    <row r="392" spans="1:25">
       <c r="A392" s="24" t="s">
         <v>907</v>
       </c>
@@ -30392,7 +30378,7 @@
         <v>-4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:25" hidden="1">
+    <row r="393" spans="1:25">
       <c r="A393" s="24" t="s">
         <v>994</v>
       </c>
@@ -30454,7 +30440,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="394" spans="1:25" hidden="1">
+    <row r="394" spans="1:25">
       <c r="A394" s="24" t="s">
         <v>994</v>
       </c>
@@ -30516,7 +30502,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="395" spans="1:25" hidden="1">
+    <row r="395" spans="1:25">
       <c r="A395" s="24" t="s">
         <v>994</v>
       </c>
@@ -30578,7 +30564,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="396" spans="1:25" hidden="1">
+    <row r="396" spans="1:25">
       <c r="A396" s="24" t="s">
         <v>994</v>
       </c>
@@ -30640,7 +30626,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="397" spans="1:25" hidden="1">
+    <row r="397" spans="1:25">
       <c r="A397" s="24" t="s">
         <v>994</v>
       </c>
@@ -30702,7 +30688,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="398" spans="1:25" hidden="1">
+    <row r="398" spans="1:25">
       <c r="A398" s="24" t="s">
         <v>994</v>
       </c>
@@ -30764,7 +30750,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="399" spans="1:25" hidden="1">
+    <row r="399" spans="1:25">
       <c r="A399" s="24" t="s">
         <v>944</v>
       </c>
@@ -30832,7 +30818,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="400" spans="1:25" hidden="1">
+    <row r="400" spans="1:25">
       <c r="A400" s="24" t="s">
         <v>944</v>
       </c>
@@ -30900,7 +30886,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="401" spans="1:25" hidden="1">
+    <row r="401" spans="1:25">
       <c r="A401" s="24" t="s">
         <v>944</v>
       </c>
@@ -30968,7 +30954,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="402" spans="1:25" hidden="1">
+    <row r="402" spans="1:25">
       <c r="A402" s="24" t="s">
         <v>988</v>
       </c>
@@ -31036,7 +31022,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="403" spans="1:25" hidden="1">
+    <row r="403" spans="1:25">
       <c r="A403" s="24" t="s">
         <v>988</v>
       </c>
@@ -31104,7 +31090,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="404" spans="1:25" hidden="1">
+    <row r="404" spans="1:25">
       <c r="A404" s="24" t="s">
         <v>914</v>
       </c>
@@ -31175,7 +31161,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="405" spans="1:25" hidden="1">
+    <row r="405" spans="1:25">
       <c r="A405" s="24" t="s">
         <v>914</v>
       </c>
@@ -31246,7 +31232,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="406" spans="1:25" hidden="1">
+    <row r="406" spans="1:25">
       <c r="A406" s="24" t="s">
         <v>914</v>
       </c>
@@ -31317,7 +31303,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="407" spans="1:25" hidden="1">
+    <row r="407" spans="1:25">
       <c r="A407" s="24" t="s">
         <v>909</v>
       </c>
@@ -31382,7 +31368,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:25" hidden="1">
+    <row r="408" spans="1:25">
       <c r="A408" s="24" t="s">
         <v>909</v>
       </c>
@@ -31447,7 +31433,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:25" hidden="1">
+    <row r="409" spans="1:25">
       <c r="A409" s="24" t="s">
         <v>909</v>
       </c>
@@ -31512,7 +31498,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:25" hidden="1">
+    <row r="410" spans="1:25">
       <c r="A410" s="24" t="s">
         <v>909</v>
       </c>
@@ -31577,7 +31563,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:25" hidden="1">
+    <row r="411" spans="1:25">
       <c r="A411" s="24" t="s">
         <v>909</v>
       </c>
@@ -31642,7 +31628,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:25" hidden="1">
+    <row r="412" spans="1:25">
       <c r="A412" s="24" t="s">
         <v>909</v>
       </c>
@@ -31707,7 +31693,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:25" hidden="1">
+    <row r="413" spans="1:25">
       <c r="A413" s="24" t="s">
         <v>909</v>
       </c>
@@ -31772,7 +31758,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:25" hidden="1">
+    <row r="414" spans="1:25">
       <c r="A414" s="24" t="s">
         <v>909</v>
       </c>
@@ -31837,7 +31823,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:25" hidden="1">
+    <row r="415" spans="1:25">
       <c r="A415" s="24" t="s">
         <v>909</v>
       </c>
@@ -31902,7 +31888,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:25" hidden="1">
+    <row r="416" spans="1:25">
       <c r="A416" s="24" t="s">
         <v>909</v>
       </c>
@@ -31967,7 +31953,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:25" hidden="1">
+    <row r="417" spans="1:25">
       <c r="A417" s="29" t="s">
         <v>969</v>
       </c>
@@ -32034,7 +32020,7 @@
       <c r="X417" s="29"/>
       <c r="Y417" s="29"/>
     </row>
-    <row r="418" spans="1:25" hidden="1">
+    <row r="418" spans="1:25">
       <c r="A418" s="29" t="s">
         <v>969</v>
       </c>
@@ -32101,7 +32087,7 @@
       <c r="X418" s="29"/>
       <c r="Y418" s="29"/>
     </row>
-    <row r="419" spans="1:25" hidden="1">
+    <row r="419" spans="1:25">
       <c r="A419" s="29" t="s">
         <v>969</v>
       </c>
@@ -32168,7 +32154,7 @@
       <c r="X419" s="29"/>
       <c r="Y419" s="29"/>
     </row>
-    <row r="420" spans="1:25" hidden="1">
+    <row r="420" spans="1:25">
       <c r="A420" s="24" t="s">
         <v>956</v>
       </c>
@@ -32228,7 +32214,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="421" spans="1:25" hidden="1">
+    <row r="421" spans="1:25">
       <c r="A421" s="24" t="s">
         <v>980</v>
       </c>
@@ -32288,7 +32274,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="422" spans="1:25" hidden="1">
+    <row r="422" spans="1:25">
       <c r="A422" s="24" t="s">
         <v>989</v>
       </c>
@@ -32359,7 +32345,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="423" spans="1:25" hidden="1">
+    <row r="423" spans="1:25">
       <c r="A423" s="24" t="s">
         <v>989</v>
       </c>
@@ -32430,7 +32416,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="424" spans="1:25" hidden="1">
+    <row r="424" spans="1:25">
       <c r="A424" s="24" t="s">
         <v>989</v>
       </c>
@@ -32501,7 +32487,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="425" spans="1:25" hidden="1">
+    <row r="425" spans="1:25">
       <c r="A425" s="24" t="s">
         <v>981</v>
       </c>
@@ -32558,7 +32544,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="426" spans="1:25" hidden="1">
+    <row r="426" spans="1:25">
       <c r="A426" s="23" t="s">
         <v>951</v>
       </c>
@@ -32625,7 +32611,7 @@
       <c r="X426" s="23"/>
       <c r="Y426" s="23"/>
     </row>
-    <row r="427" spans="1:25" hidden="1">
+    <row r="427" spans="1:25">
       <c r="A427" s="23" t="s">
         <v>951</v>
       </c>
@@ -32692,7 +32678,7 @@
       <c r="X427" s="23"/>
       <c r="Y427" s="23"/>
     </row>
-    <row r="428" spans="1:25" hidden="1">
+    <row r="428" spans="1:25">
       <c r="A428" s="23" t="s">
         <v>951</v>
       </c>
@@ -32759,7 +32745,7 @@
       <c r="X428" s="23"/>
       <c r="Y428" s="23"/>
     </row>
-    <row r="429" spans="1:25" hidden="1">
+    <row r="429" spans="1:25">
       <c r="A429" s="23" t="s">
         <v>951</v>
       </c>
@@ -32826,7 +32812,7 @@
       <c r="X429" s="23"/>
       <c r="Y429" s="23"/>
     </row>
-    <row r="430" spans="1:25" hidden="1">
+    <row r="430" spans="1:25">
       <c r="A430" s="23" t="s">
         <v>951</v>
       </c>
@@ -32893,7 +32879,7 @@
       <c r="X430" s="23"/>
       <c r="Y430" s="23"/>
     </row>
-    <row r="431" spans="1:25" hidden="1">
+    <row r="431" spans="1:25">
       <c r="A431" s="23" t="s">
         <v>951</v>
       </c>
@@ -32960,7 +32946,7 @@
       <c r="X431" s="23"/>
       <c r="Y431" s="23"/>
     </row>
-    <row r="432" spans="1:25" hidden="1">
+    <row r="432" spans="1:25">
       <c r="A432" s="23" t="s">
         <v>951</v>
       </c>
@@ -33027,7 +33013,7 @@
       <c r="X432" s="23"/>
       <c r="Y432" s="23"/>
     </row>
-    <row r="433" spans="1:25" hidden="1">
+    <row r="433" spans="1:25">
       <c r="A433" s="23" t="s">
         <v>957</v>
       </c>
@@ -33090,7 +33076,7 @@
       <c r="X433" s="23"/>
       <c r="Y433" s="23"/>
     </row>
-    <row r="434" spans="1:25" hidden="1">
+    <row r="434" spans="1:25">
       <c r="A434" s="23" t="s">
         <v>957</v>
       </c>
@@ -33153,7 +33139,7 @@
       <c r="X434" s="23"/>
       <c r="Y434" s="23"/>
     </row>
-    <row r="435" spans="1:25" hidden="1">
+    <row r="435" spans="1:25">
       <c r="A435" s="23" t="s">
         <v>957</v>
       </c>
@@ -33216,7 +33202,7 @@
       <c r="X435" s="23"/>
       <c r="Y435" s="23"/>
     </row>
-    <row r="436" spans="1:25" hidden="1">
+    <row r="436" spans="1:25">
       <c r="A436" s="23" t="s">
         <v>957</v>
       </c>
@@ -33279,7 +33265,7 @@
       <c r="X436" s="23"/>
       <c r="Y436" s="23"/>
     </row>
-    <row r="437" spans="1:25" hidden="1">
+    <row r="437" spans="1:25">
       <c r="A437" s="23" t="s">
         <v>933</v>
       </c>
@@ -33342,7 +33328,7 @@
       <c r="X437" s="23"/>
       <c r="Y437" s="23"/>
     </row>
-    <row r="438" spans="1:25" hidden="1">
+    <row r="438" spans="1:25">
       <c r="A438" s="23" t="s">
         <v>933</v>
       </c>
@@ -33405,7 +33391,7 @@
       <c r="X438" s="23"/>
       <c r="Y438" s="23"/>
     </row>
-    <row r="439" spans="1:25" hidden="1">
+    <row r="439" spans="1:25">
       <c r="A439" s="23" t="s">
         <v>933</v>
       </c>
@@ -33468,7 +33454,7 @@
       <c r="X439" s="23"/>
       <c r="Y439" s="23"/>
     </row>
-    <row r="440" spans="1:25" hidden="1">
+    <row r="440" spans="1:25">
       <c r="A440" s="23" t="s">
         <v>933</v>
       </c>
@@ -33531,7 +33517,7 @@
       <c r="X440" s="23"/>
       <c r="Y440" s="23"/>
     </row>
-    <row r="441" spans="1:25" hidden="1">
+    <row r="441" spans="1:25">
       <c r="A441" s="23" t="s">
         <v>933</v>
       </c>
@@ -33594,7 +33580,7 @@
       <c r="X441" s="23"/>
       <c r="Y441" s="23"/>
     </row>
-    <row r="442" spans="1:25" hidden="1">
+    <row r="442" spans="1:25">
       <c r="A442" s="23" t="s">
         <v>933</v>
       </c>
@@ -33657,7 +33643,7 @@
       <c r="X442" s="23"/>
       <c r="Y442" s="23"/>
     </row>
-    <row r="443" spans="1:25" hidden="1">
+    <row r="443" spans="1:25">
       <c r="A443" s="24" t="s">
         <v>991</v>
       </c>
@@ -33719,7 +33705,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="444" spans="1:25" hidden="1">
+    <row r="444" spans="1:25">
       <c r="A444" s="24" t="s">
         <v>991</v>
       </c>
@@ -33781,7 +33767,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="445" spans="1:25" hidden="1">
+    <row r="445" spans="1:25">
       <c r="A445" s="24" t="s">
         <v>991</v>
       </c>
@@ -33843,7 +33829,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="446" spans="1:25" hidden="1">
+    <row r="446" spans="1:25">
       <c r="A446" s="24" t="s">
         <v>991</v>
       </c>
@@ -33905,7 +33891,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="447" spans="1:25" hidden="1">
+    <row r="447" spans="1:25">
       <c r="A447" s="24" t="s">
         <v>991</v>
       </c>
@@ -33967,7 +33953,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="448" spans="1:25" hidden="1">
+    <row r="448" spans="1:25">
       <c r="A448" s="24" t="s">
         <v>991</v>
       </c>
@@ -34029,7 +34015,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="449" spans="1:20" hidden="1">
+    <row r="449" spans="1:20">
       <c r="A449" s="24" t="s">
         <v>991</v>
       </c>
@@ -34091,7 +34077,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="450" spans="1:20" hidden="1">
+    <row r="450" spans="1:20">
       <c r="A450" s="24" t="s">
         <v>991</v>
       </c>
@@ -34153,7 +34139,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="451" spans="1:20" hidden="1">
+    <row r="451" spans="1:20">
       <c r="A451" s="24" t="s">
         <v>991</v>
       </c>
@@ -34215,7 +34201,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="452" spans="1:20" hidden="1">
+    <row r="452" spans="1:20">
       <c r="A452" s="24" t="s">
         <v>991</v>
       </c>
@@ -34277,7 +34263,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="453" spans="1:20" hidden="1">
+    <row r="453" spans="1:20">
       <c r="A453" s="24" t="s">
         <v>991</v>
       </c>
@@ -34339,7 +34325,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="454" spans="1:20" hidden="1">
+    <row r="454" spans="1:20">
       <c r="A454" s="24" t="s">
         <v>991</v>
       </c>
@@ -34401,7 +34387,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="455" spans="1:20" hidden="1">
+    <row r="455" spans="1:20">
       <c r="A455" s="24" t="s">
         <v>991</v>
       </c>
@@ -34463,7 +34449,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="456" spans="1:20" hidden="1">
+    <row r="456" spans="1:20">
       <c r="A456" s="24" t="s">
         <v>991</v>
       </c>
@@ -34525,7 +34511,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="457" spans="1:20" hidden="1">
+    <row r="457" spans="1:20">
       <c r="A457" s="24" t="s">
         <v>930</v>
       </c>
@@ -34581,7 +34567,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="458" spans="1:20" hidden="1">
+    <row r="458" spans="1:20">
       <c r="A458" s="24" t="s">
         <v>930</v>
       </c>
@@ -34637,7 +34623,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="459" spans="1:20" hidden="1">
+    <row r="459" spans="1:20">
       <c r="A459" s="24" t="s">
         <v>930</v>
       </c>
@@ -34693,7 +34679,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="460" spans="1:20" hidden="1">
+    <row r="460" spans="1:20">
       <c r="A460" s="24" t="s">
         <v>930</v>
       </c>
@@ -34749,7 +34735,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="461" spans="1:20" hidden="1">
+    <row r="461" spans="1:20">
       <c r="A461" s="24" t="s">
         <v>930</v>
       </c>
@@ -34805,7 +34791,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="462" spans="1:20" hidden="1">
+    <row r="462" spans="1:20">
       <c r="A462" s="24" t="s">
         <v>930</v>
       </c>
@@ -34861,7 +34847,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="463" spans="1:20" hidden="1">
+    <row r="463" spans="1:20">
       <c r="A463" s="24" t="s">
         <v>930</v>
       </c>
@@ -34917,7 +34903,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="464" spans="1:20" hidden="1">
+    <row r="464" spans="1:20">
       <c r="A464" s="24" t="s">
         <v>930</v>
       </c>
@@ -34973,7 +34959,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="465" spans="1:25" hidden="1">
+    <row r="465" spans="1:25">
       <c r="A465" s="23" t="s">
         <v>941</v>
       </c>
@@ -35176,7 +35162,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="468" spans="1:25" hidden="1">
+    <row r="468" spans="1:25">
       <c r="A468" s="24" t="s">
         <v>925</v>
       </c>
@@ -35238,7 +35224,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="469" spans="1:25" hidden="1">
+    <row r="469" spans="1:25">
       <c r="A469" s="24" t="s">
         <v>925</v>
       </c>
@@ -35300,7 +35286,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="470" spans="1:25" hidden="1">
+    <row r="470" spans="1:25">
       <c r="A470" s="24" t="s">
         <v>925</v>
       </c>
@@ -35362,7 +35348,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="471" spans="1:25" hidden="1">
+    <row r="471" spans="1:25">
       <c r="A471" s="29" t="s">
         <v>953</v>
       </c>
@@ -35429,7 +35415,7 @@
       <c r="X471" s="29"/>
       <c r="Y471" s="29"/>
     </row>
-    <row r="472" spans="1:25" hidden="1">
+    <row r="472" spans="1:25">
       <c r="A472" s="29" t="s">
         <v>953</v>
       </c>
@@ -35496,7 +35482,7 @@
       <c r="X472" s="29"/>
       <c r="Y472" s="29"/>
     </row>
-    <row r="473" spans="1:25" hidden="1">
+    <row r="473" spans="1:25">
       <c r="A473" s="29" t="s">
         <v>953</v>
       </c>
@@ -35563,7 +35549,7 @@
       <c r="X473" s="29"/>
       <c r="Y473" s="29"/>
     </row>
-    <row r="474" spans="1:25" hidden="1">
+    <row r="474" spans="1:25">
       <c r="A474" s="24" t="s">
         <v>898</v>
       </c>
@@ -35628,7 +35614,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:25" hidden="1">
+    <row r="475" spans="1:25">
       <c r="A475" s="24" t="s">
         <v>898</v>
       </c>
@@ -35693,7 +35679,7 @@
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:25" hidden="1">
+    <row r="476" spans="1:25">
       <c r="A476" s="24" t="s">
         <v>898</v>
       </c>
@@ -35758,7 +35744,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:25" hidden="1">
+    <row r="477" spans="1:25">
       <c r="A477" s="24" t="s">
         <v>898</v>
       </c>
@@ -35823,7 +35809,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:25" hidden="1">
+    <row r="478" spans="1:25">
       <c r="A478" s="23" t="s">
         <v>928</v>
       </c>
@@ -35890,7 +35876,7 @@
       <c r="X478" s="23"/>
       <c r="Y478" s="23"/>
     </row>
-    <row r="479" spans="1:25" hidden="1">
+    <row r="479" spans="1:25">
       <c r="A479" s="23" t="s">
         <v>928</v>
       </c>
@@ -35957,7 +35943,7 @@
       <c r="X479" s="23"/>
       <c r="Y479" s="23"/>
     </row>
-    <row r="480" spans="1:25" hidden="1">
+    <row r="480" spans="1:25">
       <c r="A480" s="23" t="s">
         <v>928</v>
       </c>
@@ -36024,7 +36010,7 @@
       <c r="X480" s="23"/>
       <c r="Y480" s="23"/>
     </row>
-    <row r="481" spans="1:25" hidden="1">
+    <row r="481" spans="1:25">
       <c r="A481" s="23" t="s">
         <v>986</v>
       </c>
@@ -36091,7 +36077,7 @@
       <c r="X481" s="23"/>
       <c r="Y481" s="23"/>
     </row>
-    <row r="482" spans="1:25" hidden="1">
+    <row r="482" spans="1:25">
       <c r="A482" s="23" t="s">
         <v>986</v>
       </c>
@@ -36158,7 +36144,7 @@
       <c r="X482" s="23"/>
       <c r="Y482" s="23"/>
     </row>
-    <row r="483" spans="1:25" hidden="1">
+    <row r="483" spans="1:25">
       <c r="A483" s="23" t="s">
         <v>932</v>
       </c>
@@ -36221,7 +36207,7 @@
       <c r="X483" s="23"/>
       <c r="Y483" s="23"/>
     </row>
-    <row r="484" spans="1:25" hidden="1">
+    <row r="484" spans="1:25">
       <c r="A484" s="24" t="s">
         <v>958</v>
       </c>
@@ -36286,7 +36272,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:25" hidden="1">
+    <row r="485" spans="1:25">
       <c r="A485" s="24" t="s">
         <v>958</v>
       </c>
@@ -36351,7 +36337,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:25" hidden="1">
+    <row r="486" spans="1:25">
       <c r="A486" s="24" t="s">
         <v>958</v>
       </c>
@@ -36416,7 +36402,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:25" hidden="1">
+    <row r="487" spans="1:25">
       <c r="A487" s="24" t="s">
         <v>958</v>
       </c>
@@ -36481,7 +36467,7 @@
         <v>-0.14199999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:25" hidden="1">
+    <row r="488" spans="1:25">
       <c r="A488" s="24" t="s">
         <v>958</v>
       </c>
@@ -36546,7 +36532,7 @@
         <v>-0.20599999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:25" hidden="1">
+    <row r="489" spans="1:25">
       <c r="A489" s="24" t="s">
         <v>958</v>
       </c>
@@ -36611,7 +36597,7 @@
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:25" hidden="1">
+    <row r="490" spans="1:25">
       <c r="A490" s="24" t="s">
         <v>958</v>
       </c>
@@ -36676,7 +36662,7 @@
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:25" hidden="1">
+    <row r="491" spans="1:25">
       <c r="A491" s="24" t="s">
         <v>958</v>
       </c>
@@ -36741,7 +36727,7 @@
         <v>-0.52600000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:25" hidden="1">
+    <row r="492" spans="1:25">
       <c r="A492" s="24" t="s">
         <v>958</v>
       </c>
@@ -36806,7 +36792,7 @@
         <v>-0.16300000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:25" hidden="1">
+    <row r="493" spans="1:25">
       <c r="A493" s="24" t="s">
         <v>958</v>
       </c>
@@ -36871,7 +36857,7 @@
         <v>-0.16700000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:25" hidden="1">
+    <row r="494" spans="1:25">
       <c r="A494" s="24" t="s">
         <v>958</v>
       </c>
@@ -36936,7 +36922,7 @@
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:25" hidden="1">
+    <row r="495" spans="1:25">
       <c r="A495" s="24" t="s">
         <v>958</v>
       </c>
@@ -37001,7 +36987,7 @@
         <v>-0.432</v>
       </c>
     </row>
-    <row r="496" spans="1:25" hidden="1">
+    <row r="496" spans="1:25">
       <c r="A496" s="24" t="s">
         <v>958</v>
       </c>
@@ -37066,7 +37052,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="497" spans="1:24" hidden="1">
+    <row r="497" spans="1:24">
       <c r="A497" s="24" t="s">
         <v>958</v>
       </c>
@@ -37131,7 +37117,7 @@
         <v>-6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:24" hidden="1">
+    <row r="498" spans="1:24">
       <c r="A498" s="24" t="s">
         <v>958</v>
       </c>
@@ -37196,7 +37182,7 @@
         <v>-0.32200000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:24" hidden="1">
+    <row r="499" spans="1:24">
       <c r="A499" s="24" t="s">
         <v>958</v>
       </c>
@@ -37261,7 +37247,7 @@
         <v>-0.35099999999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:24" hidden="1">
+    <row r="500" spans="1:24">
       <c r="A500" s="24" t="s">
         <v>891</v>
       </c>
@@ -37326,7 +37312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:24" hidden="1">
+    <row r="501" spans="1:24">
       <c r="A501" s="24" t="s">
         <v>891</v>
       </c>
@@ -37391,7 +37377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:24" hidden="1">
+    <row r="502" spans="1:24">
       <c r="A502" s="24" t="s">
         <v>891</v>
       </c>
@@ -37456,7 +37442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:24" hidden="1">
+    <row r="503" spans="1:24">
       <c r="A503" s="24" t="s">
         <v>891</v>
       </c>
@@ -37521,7 +37507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:24" hidden="1">
+    <row r="504" spans="1:24">
       <c r="A504" s="24" t="s">
         <v>891</v>
       </c>
@@ -37586,7 +37572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:24" hidden="1">
+    <row r="505" spans="1:24">
       <c r="A505" s="24" t="s">
         <v>892</v>
       </c>
@@ -37651,7 +37637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:24" hidden="1">
+    <row r="506" spans="1:24">
       <c r="A506" s="24" t="s">
         <v>892</v>
       </c>
@@ -37716,7 +37702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:24" hidden="1">
+    <row r="507" spans="1:24">
       <c r="A507" s="24" t="s">
         <v>892</v>
       </c>
@@ -37781,7 +37767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="508" spans="1:24" hidden="1">
+    <row r="508" spans="1:24">
       <c r="A508" s="24" t="s">
         <v>892</v>
       </c>
@@ -37846,7 +37832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:24" hidden="1">
+    <row r="509" spans="1:24">
       <c r="A509" s="24" t="s">
         <v>892</v>
       </c>
@@ -37911,7 +37897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:24" hidden="1">
+    <row r="510" spans="1:24">
       <c r="A510" s="24" t="s">
         <v>892</v>
       </c>
@@ -37976,7 +37962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:24" hidden="1">
+    <row r="511" spans="1:24">
       <c r="A511" s="24" t="s">
         <v>892</v>
       </c>
@@ -38041,7 +38027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:24" hidden="1">
+    <row r="512" spans="1:24">
       <c r="A512" s="24" t="s">
         <v>892</v>
       </c>
@@ -38106,7 +38092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:25" hidden="1">
+    <row r="513" spans="1:25">
       <c r="A513" s="24" t="s">
         <v>899</v>
       </c>
@@ -38171,7 +38157,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:25" hidden="1">
+    <row r="514" spans="1:25">
       <c r="A514" s="24" t="s">
         <v>899</v>
       </c>
@@ -38236,7 +38222,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:25" hidden="1">
+    <row r="515" spans="1:25">
       <c r="A515" s="24" t="s">
         <v>899</v>
       </c>
@@ -38301,7 +38287,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:25" hidden="1">
+    <row r="516" spans="1:25">
       <c r="A516" s="24" t="s">
         <v>899</v>
       </c>
@@ -38366,7 +38352,7 @@
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:25" hidden="1">
+    <row r="517" spans="1:25">
       <c r="A517" s="24" t="s">
         <v>899</v>
       </c>
@@ -38431,7 +38417,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:25" hidden="1">
+    <row r="518" spans="1:25">
       <c r="A518" s="24" t="s">
         <v>899</v>
       </c>
@@ -38496,7 +38482,7 @@
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:25" hidden="1">
+    <row r="519" spans="1:25">
       <c r="A519" s="24" t="s">
         <v>899</v>
       </c>
@@ -38561,7 +38547,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:25" hidden="1">
+    <row r="520" spans="1:25">
       <c r="A520" s="24" t="s">
         <v>905</v>
       </c>
@@ -38626,7 +38612,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:25" hidden="1">
+    <row r="521" spans="1:25">
       <c r="A521" s="24" t="s">
         <v>905</v>
       </c>
@@ -38691,7 +38677,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:25" hidden="1">
+    <row r="522" spans="1:25">
       <c r="A522" s="24" t="s">
         <v>905</v>
       </c>
@@ -38756,7 +38742,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:25" hidden="1">
+    <row r="523" spans="1:25">
       <c r="A523" s="24" t="s">
         <v>905</v>
       </c>
@@ -38821,7 +38807,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:25" hidden="1">
+    <row r="524" spans="1:25">
       <c r="A524" s="24" t="s">
         <v>905</v>
       </c>
@@ -38886,7 +38872,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:25" hidden="1">
+    <row r="525" spans="1:25">
       <c r="A525" s="24" t="s">
         <v>905</v>
       </c>
@@ -38951,7 +38937,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:25" hidden="1">
+    <row r="526" spans="1:25">
       <c r="A526" s="23" t="s">
         <v>948</v>
       </c>
@@ -39018,7 +39004,7 @@
       <c r="X526" s="23"/>
       <c r="Y526" s="23"/>
     </row>
-    <row r="527" spans="1:25" hidden="1">
+    <row r="527" spans="1:25">
       <c r="A527" s="24" t="s">
         <v>929</v>
       </c>
@@ -39080,7 +39066,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="528" spans="1:25" hidden="1">
+    <row r="528" spans="1:25">
       <c r="A528" s="24" t="s">
         <v>943</v>
       </c>
@@ -39136,7 +39122,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:25" hidden="1">
+    <row r="529" spans="1:25">
       <c r="A529" s="24" t="s">
         <v>943</v>
       </c>
@@ -39192,7 +39178,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="530" spans="1:25" hidden="1">
+    <row r="530" spans="1:25">
       <c r="A530" s="24" t="s">
         <v>943</v>
       </c>
@@ -39248,7 +39234,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="531" spans="1:25" hidden="1">
+    <row r="531" spans="1:25">
       <c r="A531" s="24" t="s">
         <v>912</v>
       </c>
@@ -39313,7 +39299,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="532" spans="1:25" hidden="1">
+    <row r="532" spans="1:25">
       <c r="A532" s="24" t="s">
         <v>912</v>
       </c>
@@ -39378,7 +39364,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="533" spans="1:25" hidden="1">
+    <row r="533" spans="1:25">
       <c r="A533" s="24" t="s">
         <v>912</v>
       </c>
@@ -39443,7 +39429,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="534" spans="1:25" hidden="1">
+    <row r="534" spans="1:25">
       <c r="A534" s="24" t="s">
         <v>912</v>
       </c>
@@ -39508,7 +39494,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="535" spans="1:25" hidden="1">
+    <row r="535" spans="1:25">
       <c r="A535" s="24" t="s">
         <v>912</v>
       </c>
@@ -39573,7 +39559,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="536" spans="1:25" hidden="1">
+    <row r="536" spans="1:25">
       <c r="A536" s="24" t="s">
         <v>912</v>
       </c>
@@ -39638,7 +39624,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="537" spans="1:25" hidden="1">
+    <row r="537" spans="1:25">
       <c r="A537" s="23" t="s">
         <v>977</v>
       </c>
@@ -39707,7 +39693,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="538" spans="1:25" hidden="1">
+    <row r="538" spans="1:25">
       <c r="A538" s="23" t="s">
         <v>977</v>
       </c>
@@ -39776,7 +39762,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="539" spans="1:25" hidden="1">
+    <row r="539" spans="1:25">
       <c r="A539" s="23" t="s">
         <v>977</v>
       </c>
@@ -39845,7 +39831,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="540" spans="1:25" hidden="1">
+    <row r="540" spans="1:25">
       <c r="A540" s="23" t="s">
         <v>977</v>
       </c>
@@ -39914,7 +39900,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="541" spans="1:25" hidden="1">
+    <row r="541" spans="1:25">
       <c r="A541" s="23" t="s">
         <v>926</v>
       </c>
@@ -39981,7 +39967,7 @@
       <c r="X541" s="23"/>
       <c r="Y541" s="23"/>
     </row>
-    <row r="542" spans="1:25" hidden="1">
+    <row r="542" spans="1:25">
       <c r="A542" s="23" t="s">
         <v>926</v>
       </c>
@@ -40048,7 +40034,7 @@
       <c r="X542" s="23"/>
       <c r="Y542" s="23"/>
     </row>
-    <row r="543" spans="1:25" hidden="1">
+    <row r="543" spans="1:25">
       <c r="A543" s="23" t="s">
         <v>926</v>
       </c>
@@ -40115,7 +40101,7 @@
       <c r="X543" s="23"/>
       <c r="Y543" s="23"/>
     </row>
-    <row r="544" spans="1:25" hidden="1">
+    <row r="544" spans="1:25">
       <c r="A544" s="23" t="s">
         <v>942</v>
       </c>
@@ -40181,7 +40167,7 @@
       <c r="X544" s="23"/>
       <c r="Y544" s="23"/>
     </row>
-    <row r="545" spans="1:25" hidden="1">
+    <row r="545" spans="1:25">
       <c r="A545" s="23" t="s">
         <v>942</v>
       </c>
@@ -40247,7 +40233,7 @@
       <c r="X545" s="23"/>
       <c r="Y545" s="23"/>
     </row>
-    <row r="546" spans="1:25" hidden="1">
+    <row r="546" spans="1:25">
       <c r="A546" s="23" t="s">
         <v>942</v>
       </c>
@@ -40313,7 +40299,7 @@
       <c r="X546" s="23"/>
       <c r="Y546" s="23"/>
     </row>
-    <row r="547" spans="1:25" hidden="1">
+    <row r="547" spans="1:25">
       <c r="A547" s="23" t="s">
         <v>942</v>
       </c>
@@ -40379,7 +40365,7 @@
       <c r="X547" s="23"/>
       <c r="Y547" s="23"/>
     </row>
-    <row r="548" spans="1:25" hidden="1">
+    <row r="548" spans="1:25">
       <c r="A548" s="23" t="s">
         <v>942</v>
       </c>
@@ -40445,7 +40431,7 @@
       <c r="X548" s="23"/>
       <c r="Y548" s="23"/>
     </row>
-    <row r="549" spans="1:25" hidden="1">
+    <row r="549" spans="1:25">
       <c r="A549" s="23" t="s">
         <v>942</v>
       </c>
@@ -40511,7 +40497,7 @@
       <c r="X549" s="23"/>
       <c r="Y549" s="23"/>
     </row>
-    <row r="550" spans="1:25" hidden="1">
+    <row r="550" spans="1:25">
       <c r="A550" s="23" t="s">
         <v>942</v>
       </c>
@@ -40577,7 +40563,7 @@
       <c r="X550" s="23"/>
       <c r="Y550" s="23"/>
     </row>
-    <row r="551" spans="1:25" hidden="1">
+    <row r="551" spans="1:25">
       <c r="A551" s="23" t="s">
         <v>942</v>
       </c>
@@ -40643,7 +40629,7 @@
       <c r="X551" s="23"/>
       <c r="Y551" s="23"/>
     </row>
-    <row r="552" spans="1:25" hidden="1">
+    <row r="552" spans="1:25">
       <c r="A552" s="23" t="s">
         <v>942</v>
       </c>
@@ -40709,7 +40695,7 @@
       <c r="X552" s="23"/>
       <c r="Y552" s="23"/>
     </row>
-    <row r="553" spans="1:25" hidden="1">
+    <row r="553" spans="1:25">
       <c r="A553" s="24" t="s">
         <v>934</v>
       </c>
@@ -40774,7 +40760,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="554" spans="1:25" hidden="1">
+    <row r="554" spans="1:25">
       <c r="A554" s="24" t="s">
         <v>934</v>
       </c>
@@ -40839,7 +40825,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="555" spans="1:25" hidden="1">
+    <row r="555" spans="1:25">
       <c r="A555" s="24" t="s">
         <v>985</v>
       </c>
@@ -40902,17 +40888,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y555" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="exposure"/>
-        <filter val="exposure_diet"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y555">
-      <sortCondition ref="A1:A555"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Y555" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA27BE-C585-9547-BEFC-9443A1E12504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6056B494-4175-134F-9E31-2B5EE0EA0033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="47620" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Done!$A$1:$Y$555</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Working!$A$1:$Q$144</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4218,9 +4231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4258,7 +4271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4364,7 +4377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4506,7 +4519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4514,11 +4527,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4826,7 +4840,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" hidden="1">
       <c r="A5" s="24" t="s">
         <v>911</v>
       </c>
@@ -5098,7 +5112,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" s="24" t="s">
         <v>911</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" hidden="1">
       <c r="A11" s="24" t="s">
         <v>911</v>
       </c>
@@ -5370,7 +5384,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" hidden="1">
       <c r="A13" s="24" t="s">
         <v>911</v>
       </c>
@@ -5438,7 +5452,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" hidden="1">
       <c r="A14" s="24" t="s">
         <v>911</v>
       </c>
@@ -5506,7 +5520,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" hidden="1">
       <c r="A15" s="24" t="s">
         <v>911</v>
       </c>
@@ -5574,7 +5588,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" hidden="1">
       <c r="A16" s="23" t="s">
         <v>904</v>
       </c>
@@ -5645,7 +5659,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" hidden="1">
       <c r="A17" s="23" t="s">
         <v>904</v>
       </c>
@@ -5716,7 +5730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" hidden="1">
       <c r="A18" s="23" t="s">
         <v>904</v>
       </c>
@@ -5787,7 +5801,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" hidden="1">
       <c r="A19" s="23" t="s">
         <v>904</v>
       </c>
@@ -5858,7 +5872,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" hidden="1">
       <c r="A20" s="23" t="s">
         <v>904</v>
       </c>
@@ -5929,7 +5943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" hidden="1">
       <c r="A21" s="23" t="s">
         <v>904</v>
       </c>
@@ -6000,7 +6014,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" hidden="1">
       <c r="A22" s="23" t="s">
         <v>904</v>
       </c>
@@ -6071,7 +6085,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" hidden="1">
       <c r="A23" s="23" t="s">
         <v>904</v>
       </c>
@@ -6142,7 +6156,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" hidden="1">
       <c r="A24" s="23" t="s">
         <v>904</v>
       </c>
@@ -6213,7 +6227,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" hidden="1">
       <c r="A25" s="23" t="s">
         <v>904</v>
       </c>
@@ -6281,7 +6295,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" hidden="1">
       <c r="A26" s="23" t="s">
         <v>904</v>
       </c>
@@ -6349,7 +6363,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" hidden="1">
       <c r="A27" s="23" t="s">
         <v>904</v>
       </c>
@@ -6417,7 +6431,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" hidden="1">
       <c r="A28" s="24" t="s">
         <v>921</v>
       </c>
@@ -6479,7 +6493,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" hidden="1">
       <c r="A29" s="24" t="s">
         <v>921</v>
       </c>
@@ -6541,7 +6555,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" hidden="1">
       <c r="A30" s="24" t="s">
         <v>921</v>
       </c>
@@ -6603,7 +6617,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" hidden="1">
       <c r="A31" s="24" t="s">
         <v>896</v>
       </c>
@@ -6672,7 +6686,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" hidden="1">
       <c r="A32" s="24" t="s">
         <v>896</v>
       </c>
@@ -6741,7 +6755,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" s="24" t="s">
         <v>896</v>
       </c>
@@ -6812,7 +6826,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" s="24" t="s">
         <v>896</v>
       </c>
@@ -6880,7 +6894,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" s="24" t="s">
         <v>931</v>
       </c>
@@ -6942,7 +6956,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" s="24" t="s">
         <v>931</v>
       </c>
@@ -7004,7 +7018,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" s="24" t="s">
         <v>931</v>
       </c>
@@ -7066,7 +7080,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" s="24" t="s">
         <v>931</v>
       </c>
@@ -7128,7 +7142,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" s="24" t="s">
         <v>931</v>
       </c>
@@ -7190,7 +7204,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" s="24" t="s">
         <v>937</v>
       </c>
@@ -7252,7 +7266,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" s="24" t="s">
         <v>937</v>
       </c>
@@ -7314,7 +7328,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" s="24" t="s">
         <v>937</v>
       </c>
@@ -7376,7 +7390,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" s="24" t="s">
         <v>937</v>
       </c>
@@ -7438,7 +7452,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" s="24" t="s">
         <v>937</v>
       </c>
@@ -7500,7 +7514,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" s="24" t="s">
         <v>937</v>
       </c>
@@ -7562,7 +7576,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" s="24" t="s">
         <v>937</v>
       </c>
@@ -7624,7 +7638,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" s="24" t="s">
         <v>937</v>
       </c>
@@ -7751,7 +7765,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" s="24" t="s">
         <v>978</v>
       </c>
@@ -7816,7 +7830,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" s="24" t="s">
         <v>978</v>
       </c>
@@ -7881,7 +7895,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" hidden="1">
       <c r="A51" s="24" t="s">
         <v>978</v>
       </c>
@@ -7946,7 +7960,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" s="24" t="s">
         <v>978</v>
       </c>
@@ -8011,7 +8025,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" s="24" t="s">
         <v>972</v>
       </c>
@@ -8077,7 +8091,7 @@
       </c>
       <c r="Z53"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" s="24" t="s">
         <v>972</v>
       </c>
@@ -8143,7 +8157,7 @@
       </c>
       <c r="Z54"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" hidden="1">
       <c r="A55" s="24" t="s">
         <v>972</v>
       </c>
@@ -8209,7 +8223,7 @@
       </c>
       <c r="Z55"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" s="24" t="s">
         <v>972</v>
       </c>
@@ -8275,7 +8289,7 @@
       </c>
       <c r="Z56"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" s="24" t="s">
         <v>972</v>
       </c>
@@ -8341,7 +8355,7 @@
       </c>
       <c r="Z57"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" hidden="1">
       <c r="A58" s="24" t="s">
         <v>972</v>
       </c>
@@ -8407,7 +8421,7 @@
       </c>
       <c r="Z58"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" s="24" t="s">
         <v>972</v>
       </c>
@@ -8473,7 +8487,7 @@
       </c>
       <c r="Z59"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" s="24" t="s">
         <v>972</v>
       </c>
@@ -8539,7 +8553,7 @@
       </c>
       <c r="Z60"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" s="24" t="s">
         <v>889</v>
       </c>
@@ -8604,7 +8618,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" s="24" t="s">
         <v>889</v>
       </c>
@@ -8669,7 +8683,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" hidden="1">
       <c r="A63" s="24" t="s">
         <v>889</v>
       </c>
@@ -8734,7 +8748,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" s="24" t="s">
         <v>889</v>
       </c>
@@ -8799,7 +8813,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" s="24" t="s">
         <v>906</v>
       </c>
@@ -8867,7 +8881,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" s="24" t="s">
         <v>906</v>
       </c>
@@ -8935,7 +8949,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" s="24" t="s">
         <v>906</v>
       </c>
@@ -9003,7 +9017,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" s="24" t="s">
         <v>906</v>
       </c>
@@ -9071,7 +9085,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" s="24" t="s">
         <v>906</v>
       </c>
@@ -9139,7 +9153,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" s="24" t="s">
         <v>906</v>
       </c>
@@ -9207,7 +9221,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" s="24" t="s">
         <v>950</v>
       </c>
@@ -9272,7 +9286,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" s="24" t="s">
         <v>950</v>
       </c>
@@ -9337,7 +9351,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" s="24" t="s">
         <v>950</v>
       </c>
@@ -9402,7 +9416,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" s="24" t="s">
         <v>950</v>
       </c>
@@ -9467,7 +9481,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" s="24" t="s">
         <v>950</v>
       </c>
@@ -9532,7 +9546,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" s="24" t="s">
         <v>950</v>
       </c>
@@ -9597,7 +9611,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" s="24" t="s">
         <v>950</v>
       </c>
@@ -9662,7 +9676,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" s="24" t="s">
         <v>950</v>
       </c>
@@ -9727,7 +9741,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" s="24" t="s">
         <v>950</v>
       </c>
@@ -9792,7 +9806,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" s="24" t="s">
         <v>950</v>
       </c>
@@ -9857,7 +9871,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" s="24" t="s">
         <v>950</v>
       </c>
@@ -9922,7 +9936,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="24" t="s">
         <v>950</v>
       </c>
@@ -9987,7 +10001,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="24" t="s">
         <v>950</v>
       </c>
@@ -10052,7 +10066,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="24" t="s">
         <v>950</v>
       </c>
@@ -10117,7 +10131,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="24" t="s">
         <v>950</v>
       </c>
@@ -10182,7 +10196,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="24" t="s">
         <v>950</v>
       </c>
@@ -10247,7 +10261,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="24" t="s">
         <v>950</v>
       </c>
@@ -10312,7 +10326,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="24" t="s">
         <v>950</v>
       </c>
@@ -10377,7 +10391,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="24" t="s">
         <v>950</v>
       </c>
@@ -10442,7 +10456,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="24" t="s">
         <v>950</v>
       </c>
@@ -10507,7 +10521,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="24" t="s">
         <v>950</v>
       </c>
@@ -10572,7 +10586,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="24" t="s">
         <v>950</v>
       </c>
@@ -10637,7 +10651,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" hidden="1">
       <c r="A93" s="24" t="s">
         <v>950</v>
       </c>
@@ -10702,7 +10716,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="24" t="s">
         <v>950</v>
       </c>
@@ -10903,7 +10917,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="24" t="s">
         <v>966</v>
       </c>
@@ -10965,7 +10979,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="24" t="s">
         <v>966</v>
       </c>
@@ -11027,7 +11041,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="24" t="s">
         <v>966</v>
       </c>
@@ -11089,7 +11103,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="24" t="s">
         <v>966</v>
       </c>
@@ -11151,7 +11165,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="24" t="s">
         <v>966</v>
       </c>
@@ -11213,7 +11227,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="24" t="s">
         <v>966</v>
       </c>
@@ -11275,7 +11289,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="24" t="s">
         <v>966</v>
       </c>
@@ -11337,7 +11351,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="24" t="s">
         <v>966</v>
       </c>
@@ -11399,7 +11413,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="24" t="s">
         <v>966</v>
       </c>
@@ -11461,7 +11475,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="24" t="s">
         <v>966</v>
       </c>
@@ -11523,7 +11537,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="24" t="s">
         <v>900</v>
       </c>
@@ -11591,7 +11605,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="24" t="s">
         <v>900</v>
       </c>
@@ -11659,7 +11673,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="24" t="s">
         <v>900</v>
       </c>
@@ -11727,7 +11741,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="24" t="s">
         <v>992</v>
       </c>
@@ -11789,7 +11803,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="24" t="s">
         <v>992</v>
       </c>
@@ -11848,7 +11862,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="24" t="s">
         <v>992</v>
       </c>
@@ -11910,7 +11924,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="24" t="s">
         <v>992</v>
       </c>
@@ -11972,7 +11986,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="24" t="s">
         <v>992</v>
       </c>
@@ -12031,7 +12045,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="24" t="s">
         <v>992</v>
       </c>
@@ -12090,7 +12104,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="24" t="s">
         <v>992</v>
       </c>
@@ -12152,7 +12166,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="24" t="s">
         <v>992</v>
       </c>
@@ -12211,7 +12225,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="24" t="s">
         <v>992</v>
       </c>
@@ -12273,7 +12287,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="24" t="s">
         <v>992</v>
       </c>
@@ -12335,7 +12349,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="24" t="s">
         <v>992</v>
       </c>
@@ -12397,7 +12411,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="24" t="s">
         <v>992</v>
       </c>
@@ -12459,7 +12473,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="24" t="s">
         <v>992</v>
       </c>
@@ -12521,7 +12535,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="24" t="s">
         <v>992</v>
       </c>
@@ -12580,7 +12594,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="24" t="s">
         <v>992</v>
       </c>
@@ -12642,7 +12656,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="24" t="s">
         <v>992</v>
       </c>
@@ -12704,7 +12718,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="24" t="s">
         <v>922</v>
       </c>
@@ -12769,7 +12783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="24" t="s">
         <v>922</v>
       </c>
@@ -12834,7 +12848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" s="23" t="s">
         <v>960</v>
       </c>
@@ -12901,7 +12915,7 @@
       <c r="X128" s="23"/>
       <c r="Y128" s="23"/>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" s="24" t="s">
         <v>960</v>
       </c>
@@ -12963,7 +12977,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" s="24" t="s">
         <v>897</v>
       </c>
@@ -13031,7 +13045,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" s="24" t="s">
         <v>897</v>
       </c>
@@ -13944,7 +13958,7 @@
         <v>-0.24099999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" hidden="1">
       <c r="A145" s="24" t="s">
         <v>895</v>
       </c>
@@ -14009,7 +14023,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" hidden="1">
       <c r="A146" s="24" t="s">
         <v>895</v>
       </c>
@@ -14074,7 +14088,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="27" customFormat="1">
+    <row r="147" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A147" s="27" t="s">
         <v>963</v>
       </c>
@@ -14130,7 +14144,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="27" customFormat="1">
+    <row r="148" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A148" s="27" t="s">
         <v>963</v>
       </c>
@@ -14186,7 +14200,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:25" s="27" customFormat="1">
+    <row r="149" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A149" s="27" t="s">
         <v>963</v>
       </c>
@@ -14242,7 +14256,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:25" s="27" customFormat="1">
+    <row r="150" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A150" s="27" t="s">
         <v>963</v>
       </c>
@@ -14298,7 +14312,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" hidden="1">
       <c r="A151" s="24" t="s">
         <v>983</v>
       </c>
@@ -14360,7 +14374,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" hidden="1">
       <c r="A152" s="24" t="s">
         <v>983</v>
       </c>
@@ -14422,7 +14436,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" hidden="1">
       <c r="A153" s="24" t="s">
         <v>983</v>
       </c>
@@ -14484,7 +14498,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" hidden="1">
       <c r="A154" s="24" t="s">
         <v>983</v>
       </c>
@@ -14546,7 +14560,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" hidden="1">
       <c r="A155" s="24" t="s">
         <v>983</v>
       </c>
@@ -14608,7 +14622,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" hidden="1">
       <c r="A156" s="24" t="s">
         <v>983</v>
       </c>
@@ -14670,7 +14684,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" hidden="1">
       <c r="A157" s="24" t="s">
         <v>983</v>
       </c>
@@ -14732,7 +14746,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" hidden="1">
       <c r="A158" s="24" t="s">
         <v>967</v>
       </c>
@@ -14794,7 +14808,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" hidden="1">
       <c r="A159" s="23" t="s">
         <v>984</v>
       </c>
@@ -14863,7 +14877,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" hidden="1">
       <c r="A160" s="23" t="s">
         <v>984</v>
       </c>
@@ -14932,7 +14946,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" hidden="1">
       <c r="A161" s="24" t="s">
         <v>894</v>
       </c>
@@ -14997,7 +15011,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" hidden="1">
       <c r="A162" s="24" t="s">
         <v>894</v>
       </c>
@@ -15062,7 +15076,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" hidden="1">
       <c r="A163" s="24" t="s">
         <v>894</v>
       </c>
@@ -15127,7 +15141,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" hidden="1">
       <c r="A164" s="24" t="s">
         <v>894</v>
       </c>
@@ -15192,7 +15206,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" hidden="1">
       <c r="A165" s="23" t="s">
         <v>927</v>
       </c>
@@ -15261,7 +15275,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" hidden="1">
       <c r="A166" s="23" t="s">
         <v>927</v>
       </c>
@@ -15330,7 +15344,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" hidden="1">
       <c r="A167" s="23" t="s">
         <v>927</v>
       </c>
@@ -15399,7 +15413,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" hidden="1">
       <c r="A168" s="23" t="s">
         <v>927</v>
       </c>
@@ -15468,7 +15482,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" hidden="1">
       <c r="A169" s="23" t="s">
         <v>927</v>
       </c>
@@ -15537,7 +15551,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" hidden="1">
       <c r="A170" s="23" t="s">
         <v>927</v>
       </c>
@@ -15606,7 +15620,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" hidden="1">
       <c r="A171" s="23" t="s">
         <v>927</v>
       </c>
@@ -15675,7 +15689,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" hidden="1">
       <c r="A172" s="23" t="s">
         <v>927</v>
       </c>
@@ -15744,7 +15758,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" hidden="1">
       <c r="A173" s="23" t="s">
         <v>927</v>
       </c>
@@ -15813,7 +15827,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" hidden="1">
       <c r="A174" s="23" t="s">
         <v>927</v>
       </c>
@@ -15882,7 +15896,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" hidden="1">
       <c r="A175" s="23" t="s">
         <v>927</v>
       </c>
@@ -15951,7 +15965,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" hidden="1">
       <c r="A176" s="23" t="s">
         <v>927</v>
       </c>
@@ -16020,7 +16034,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" hidden="1">
       <c r="A177" s="23" t="s">
         <v>927</v>
       </c>
@@ -16089,7 +16103,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" hidden="1">
       <c r="A178" s="23" t="s">
         <v>927</v>
       </c>
@@ -16158,7 +16172,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" hidden="1">
       <c r="A179" s="23" t="s">
         <v>927</v>
       </c>
@@ -16227,7 +16241,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" hidden="1">
       <c r="A180" s="23" t="s">
         <v>927</v>
       </c>
@@ -16296,7 +16310,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" hidden="1">
       <c r="A181" s="23" t="s">
         <v>927</v>
       </c>
@@ -16365,7 +16379,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" hidden="1">
       <c r="A182" s="23" t="s">
         <v>927</v>
       </c>
@@ -16434,7 +16448,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" hidden="1">
       <c r="A183" s="24" t="s">
         <v>947</v>
       </c>
@@ -16499,7 +16513,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" hidden="1">
       <c r="A184" s="24" t="s">
         <v>987</v>
       </c>
@@ -16564,7 +16578,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" hidden="1">
       <c r="A185" s="24" t="s">
         <v>938</v>
       </c>
@@ -16626,7 +16640,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" hidden="1">
       <c r="A186" s="24" t="s">
         <v>938</v>
       </c>
@@ -16688,7 +16702,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" hidden="1">
       <c r="A187" s="24" t="s">
         <v>938</v>
       </c>
@@ -16750,7 +16764,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" hidden="1">
       <c r="A188" s="24" t="s">
         <v>938</v>
       </c>
@@ -16812,7 +16826,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" hidden="1">
       <c r="A189" s="24" t="s">
         <v>961</v>
       </c>
@@ -16874,7 +16888,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" hidden="1">
       <c r="A190" s="24" t="s">
         <v>961</v>
       </c>
@@ -16936,7 +16950,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" hidden="1">
       <c r="A191" s="23" t="s">
         <v>990</v>
       </c>
@@ -17003,7 +17017,7 @@
       <c r="X191" s="23"/>
       <c r="Y191" s="23"/>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" hidden="1">
       <c r="A192" s="23" t="s">
         <v>990</v>
       </c>
@@ -17070,7 +17084,7 @@
       <c r="X192" s="23"/>
       <c r="Y192" s="23"/>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" hidden="1">
       <c r="A193" s="24" t="s">
         <v>990</v>
       </c>
@@ -17135,7 +17149,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" hidden="1">
       <c r="A194" s="24" t="s">
         <v>990</v>
       </c>
@@ -17200,7 +17214,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" hidden="1">
       <c r="A195" s="24" t="s">
         <v>940</v>
       </c>
@@ -17262,7 +17276,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" hidden="1">
       <c r="A196" s="24" t="s">
         <v>940</v>
       </c>
@@ -17324,7 +17338,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" hidden="1">
       <c r="A197" s="24" t="s">
         <v>940</v>
       </c>
@@ -17386,7 +17400,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" hidden="1">
       <c r="A198" s="24" t="s">
         <v>940</v>
       </c>
@@ -17448,7 +17462,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" hidden="1">
       <c r="A199" s="24" t="s">
         <v>940</v>
       </c>
@@ -17510,7 +17524,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" hidden="1">
       <c r="A200" s="24" t="s">
         <v>940</v>
       </c>
@@ -17572,7 +17586,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" hidden="1">
       <c r="A201" s="24" t="s">
         <v>940</v>
       </c>
@@ -17634,7 +17648,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" hidden="1">
       <c r="A202" s="24" t="s">
         <v>940</v>
       </c>
@@ -17696,7 +17710,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" hidden="1">
       <c r="A203" s="24" t="s">
         <v>940</v>
       </c>
@@ -17758,7 +17772,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" hidden="1">
       <c r="A204" s="24" t="s">
         <v>940</v>
       </c>
@@ -17820,7 +17834,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" hidden="1">
       <c r="A205" s="24" t="s">
         <v>940</v>
       </c>
@@ -17882,7 +17896,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" hidden="1">
       <c r="A206" s="24" t="s">
         <v>940</v>
       </c>
@@ -17944,7 +17958,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" hidden="1">
       <c r="A207" s="24" t="s">
         <v>975</v>
       </c>
@@ -18006,7 +18020,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" hidden="1">
       <c r="A208" s="24" t="s">
         <v>975</v>
       </c>
@@ -18068,7 +18082,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" hidden="1">
       <c r="A209" s="24" t="s">
         <v>975</v>
       </c>
@@ -18130,7 +18144,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" hidden="1">
       <c r="A210" s="24" t="s">
         <v>975</v>
       </c>
@@ -18192,7 +18206,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="211" spans="1:25" s="29" customFormat="1">
+    <row r="211" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A211" s="24" t="s">
         <v>975</v>
       </c>
@@ -18259,7 +18273,7 @@
       <c r="X211" s="24"/>
       <c r="Y211" s="24"/>
     </row>
-    <row r="212" spans="1:25" s="29" customFormat="1">
+    <row r="212" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A212" s="24" t="s">
         <v>975</v>
       </c>
@@ -18328,7 +18342,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:25" s="29" customFormat="1">
+    <row r="213" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A213" s="24" t="s">
         <v>975</v>
       </c>
@@ -18395,7 +18409,7 @@
       <c r="X213" s="24"/>
       <c r="Y213" s="24"/>
     </row>
-    <row r="214" spans="1:25" s="29" customFormat="1">
+    <row r="214" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A214" s="24" t="s">
         <v>975</v>
       </c>
@@ -18462,7 +18476,7 @@
       <c r="X214" s="24"/>
       <c r="Y214" s="24"/>
     </row>
-    <row r="215" spans="1:25" s="29" customFormat="1">
+    <row r="215" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A215" s="24" t="s">
         <v>975</v>
       </c>
@@ -18529,7 +18543,7 @@
       <c r="X215" s="24"/>
       <c r="Y215" s="24"/>
     </row>
-    <row r="216" spans="1:25" s="29" customFormat="1">
+    <row r="216" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A216" s="24" t="s">
         <v>924</v>
       </c>
@@ -18596,7 +18610,7 @@
       <c r="X216" s="24"/>
       <c r="Y216" s="24"/>
     </row>
-    <row r="217" spans="1:25" s="29" customFormat="1">
+    <row r="217" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A217" s="24" t="s">
         <v>924</v>
       </c>
@@ -18663,7 +18677,7 @@
       <c r="X217" s="24"/>
       <c r="Y217" s="24"/>
     </row>
-    <row r="218" spans="1:25" s="29" customFormat="1">
+    <row r="218" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A218" s="24" t="s">
         <v>924</v>
       </c>
@@ -18730,7 +18744,7 @@
       <c r="X218" s="24"/>
       <c r="Y218" s="24"/>
     </row>
-    <row r="219" spans="1:25" s="29" customFormat="1">
+    <row r="219" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A219" s="24" t="s">
         <v>924</v>
       </c>
@@ -18797,7 +18811,7 @@
       <c r="X219" s="24"/>
       <c r="Y219" s="24"/>
     </row>
-    <row r="220" spans="1:25" s="29" customFormat="1">
+    <row r="220" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A220" s="23" t="s">
         <v>924</v>
       </c>
@@ -18864,7 +18878,7 @@
       <c r="X220" s="23"/>
       <c r="Y220" s="23"/>
     </row>
-    <row r="221" spans="1:25" s="29" customFormat="1">
+    <row r="221" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A221" s="23" t="s">
         <v>924</v>
       </c>
@@ -18931,7 +18945,7 @@
       <c r="X221" s="23"/>
       <c r="Y221" s="23"/>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" hidden="1">
       <c r="A222" s="23" t="s">
         <v>924</v>
       </c>
@@ -19000,7 +19014,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" hidden="1">
       <c r="A223" s="23" t="s">
         <v>924</v>
       </c>
@@ -19068,7 +19082,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" hidden="1">
       <c r="A224" s="23" t="s">
         <v>924</v>
       </c>
@@ -19136,7 +19150,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="225" spans="1:25">
+    <row r="225" spans="1:25" hidden="1">
       <c r="A225" s="24" t="s">
         <v>945</v>
       </c>
@@ -19207,7 +19221,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="226" spans="1:25">
+    <row r="226" spans="1:25" hidden="1">
       <c r="A226" s="24" t="s">
         <v>945</v>
       </c>
@@ -19278,7 +19292,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="227" spans="1:25">
+    <row r="227" spans="1:25" hidden="1">
       <c r="A227" s="24" t="s">
         <v>945</v>
       </c>
@@ -19349,7 +19363,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="228" spans="1:25">
+    <row r="228" spans="1:25" hidden="1">
       <c r="A228" s="23" t="s">
         <v>976</v>
       </c>
@@ -19414,7 +19428,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="229" spans="1:25">
+    <row r="229" spans="1:25" hidden="1">
       <c r="A229" s="23" t="s">
         <v>979</v>
       </c>
@@ -19481,7 +19495,7 @@
       <c r="X229" s="23"/>
       <c r="Y229" s="23"/>
     </row>
-    <row r="230" spans="1:25">
+    <row r="230" spans="1:25" hidden="1">
       <c r="A230" s="23" t="s">
         <v>979</v>
       </c>
@@ -19616,7 +19630,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="232" spans="1:25">
+    <row r="232" spans="1:25" hidden="1">
       <c r="A232" s="24" t="s">
         <v>993</v>
       </c>
@@ -19678,7 +19692,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="233" spans="1:25">
+    <row r="233" spans="1:25" hidden="1">
       <c r="A233" s="24" t="s">
         <v>993</v>
       </c>
@@ -19740,7 +19754,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="234" spans="1:25">
+    <row r="234" spans="1:25" hidden="1">
       <c r="A234" s="24" t="s">
         <v>993</v>
       </c>
@@ -19802,7 +19816,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="235" spans="1:25">
+    <row r="235" spans="1:25" hidden="1">
       <c r="A235" s="24" t="s">
         <v>993</v>
       </c>
@@ -19864,7 +19878,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="236" spans="1:25">
+    <row r="236" spans="1:25" hidden="1">
       <c r="A236" s="24" t="s">
         <v>901</v>
       </c>
@@ -19929,7 +19943,7 @@
         <v>-0.93054999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:25">
+    <row r="237" spans="1:25" hidden="1">
       <c r="A237" s="24" t="s">
         <v>901</v>
       </c>
@@ -19994,7 +20008,7 @@
         <v>-4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:25">
+    <row r="238" spans="1:25" hidden="1">
       <c r="A238" s="24" t="s">
         <v>965</v>
       </c>
@@ -20056,7 +20070,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="239" spans="1:25">
+    <row r="239" spans="1:25" hidden="1">
       <c r="A239" s="24" t="s">
         <v>965</v>
       </c>
@@ -20118,7 +20132,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="240" spans="1:25">
+    <row r="240" spans="1:25" hidden="1">
       <c r="A240" s="24" t="s">
         <v>965</v>
       </c>
@@ -20180,7 +20194,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="241" spans="1:25">
+    <row r="241" spans="1:25" hidden="1">
       <c r="A241" s="24" t="s">
         <v>965</v>
       </c>
@@ -20242,7 +20256,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="242" spans="1:25">
+    <row r="242" spans="1:25" hidden="1">
       <c r="A242" s="24" t="s">
         <v>965</v>
       </c>
@@ -20304,7 +20318,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="243" spans="1:25">
+    <row r="243" spans="1:25" hidden="1">
       <c r="A243" s="24" t="s">
         <v>965</v>
       </c>
@@ -20366,7 +20380,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="244" spans="1:25">
+    <row r="244" spans="1:25" hidden="1">
       <c r="A244" s="24" t="s">
         <v>965</v>
       </c>
@@ -20428,7 +20442,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="245" spans="1:25">
+    <row r="245" spans="1:25" hidden="1">
       <c r="A245" s="24" t="s">
         <v>965</v>
       </c>
@@ -20490,7 +20504,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="246" spans="1:25">
+    <row r="246" spans="1:25" hidden="1">
       <c r="A246" s="24" t="s">
         <v>970</v>
       </c>
@@ -20552,7 +20566,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="247" spans="1:25">
+    <row r="247" spans="1:25" hidden="1">
       <c r="A247" s="24" t="s">
         <v>970</v>
       </c>
@@ -20614,7 +20628,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="248" spans="1:25" s="29" customFormat="1">
+    <row r="248" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A248" s="24" t="s">
         <v>970</v>
       </c>
@@ -20681,7 +20695,7 @@
       <c r="X248" s="24"/>
       <c r="Y248" s="24"/>
     </row>
-    <row r="249" spans="1:25" s="29" customFormat="1">
+    <row r="249" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A249" s="24" t="s">
         <v>970</v>
       </c>
@@ -20748,7 +20762,7 @@
       <c r="X249" s="24"/>
       <c r="Y249" s="24"/>
     </row>
-    <row r="250" spans="1:25" s="29" customFormat="1">
+    <row r="250" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A250" s="24" t="s">
         <v>970</v>
       </c>
@@ -20815,7 +20829,7 @@
       <c r="X250" s="24"/>
       <c r="Y250" s="24"/>
     </row>
-    <row r="251" spans="1:25" s="29" customFormat="1">
+    <row r="251" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A251" s="24" t="s">
         <v>970</v>
       </c>
@@ -20882,7 +20896,7 @@
       <c r="X251" s="24"/>
       <c r="Y251" s="24"/>
     </row>
-    <row r="252" spans="1:25">
+    <row r="252" spans="1:25" hidden="1">
       <c r="A252" s="24" t="s">
         <v>970</v>
       </c>
@@ -20944,7 +20958,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="253" spans="1:25">
+    <row r="253" spans="1:25" hidden="1">
       <c r="A253" s="24" t="s">
         <v>970</v>
       </c>
@@ -21006,7 +21020,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:25">
+    <row r="254" spans="1:25" hidden="1">
       <c r="A254" s="23" t="s">
         <v>952</v>
       </c>
@@ -21072,7 +21086,7 @@
       <c r="X254" s="23"/>
       <c r="Y254" s="23"/>
     </row>
-    <row r="255" spans="1:25">
+    <row r="255" spans="1:25" hidden="1">
       <c r="A255" s="23" t="s">
         <v>952</v>
       </c>
@@ -21138,7 +21152,7 @@
       <c r="X255" s="23"/>
       <c r="Y255" s="23"/>
     </row>
-    <row r="256" spans="1:25">
+    <row r="256" spans="1:25" hidden="1">
       <c r="A256" s="23" t="s">
         <v>952</v>
       </c>
@@ -21204,7 +21218,7 @@
       <c r="X256" s="23"/>
       <c r="Y256" s="23"/>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:25" hidden="1">
       <c r="A257" s="23" t="s">
         <v>952</v>
       </c>
@@ -21270,7 +21284,7 @@
       <c r="X257" s="23"/>
       <c r="Y257" s="23"/>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:25" hidden="1">
       <c r="A258" s="23" t="s">
         <v>952</v>
       </c>
@@ -21333,7 +21347,7 @@
       <c r="X258" s="23"/>
       <c r="Y258" s="23"/>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:25" hidden="1">
       <c r="A259" s="23" t="s">
         <v>952</v>
       </c>
@@ -21399,7 +21413,7 @@
       <c r="X259" s="23"/>
       <c r="Y259" s="23"/>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:25" hidden="1">
       <c r="A260" s="23" t="s">
         <v>952</v>
       </c>
@@ -21466,7 +21480,7 @@
       <c r="X260" s="23"/>
       <c r="Y260" s="23"/>
     </row>
-    <row r="261" spans="1:25">
+    <row r="261" spans="1:25" hidden="1">
       <c r="A261" s="23" t="s">
         <v>968</v>
       </c>
@@ -21533,7 +21547,7 @@
       <c r="X261" s="23"/>
       <c r="Y261" s="23"/>
     </row>
-    <row r="262" spans="1:25" s="27" customFormat="1">
+    <row r="262" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A262" s="27" t="s">
         <v>936</v>
       </c>
@@ -21589,7 +21603,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:25" s="27" customFormat="1">
+    <row r="263" spans="1:25" s="27" customFormat="1" hidden="1">
       <c r="A263" s="27" t="s">
         <v>936</v>
       </c>
@@ -21645,7 +21659,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:25">
+    <row r="264" spans="1:25" hidden="1">
       <c r="A264" s="24" t="s">
         <v>888</v>
       </c>
@@ -21713,7 +21727,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:25" hidden="1">
       <c r="A265" s="24" t="s">
         <v>888</v>
       </c>
@@ -21781,7 +21795,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:25" hidden="1">
       <c r="A266" s="24" t="s">
         <v>888</v>
       </c>
@@ -21849,7 +21863,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:25" hidden="1">
       <c r="A267" s="24" t="s">
         <v>888</v>
       </c>
@@ -21917,7 +21931,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:25" hidden="1">
       <c r="A268" s="23" t="s">
         <v>949</v>
       </c>
@@ -21984,7 +21998,7 @@
       <c r="X268" s="23"/>
       <c r="Y268" s="23"/>
     </row>
-    <row r="269" spans="1:25">
+    <row r="269" spans="1:25" hidden="1">
       <c r="A269" s="23" t="s">
         <v>949</v>
       </c>
@@ -22051,7 +22065,7 @@
       <c r="X269" s="23"/>
       <c r="Y269" s="23"/>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:25" hidden="1">
       <c r="A270" s="23" t="s">
         <v>949</v>
       </c>
@@ -22118,7 +22132,7 @@
       <c r="X270" s="23"/>
       <c r="Y270" s="23"/>
     </row>
-    <row r="271" spans="1:25">
+    <row r="271" spans="1:25" hidden="1">
       <c r="A271" s="23" t="s">
         <v>949</v>
       </c>
@@ -22185,7 +22199,7 @@
       <c r="X271" s="23"/>
       <c r="Y271" s="23"/>
     </row>
-    <row r="272" spans="1:25">
+    <row r="272" spans="1:25" hidden="1">
       <c r="A272" s="23" t="s">
         <v>949</v>
       </c>
@@ -22252,7 +22266,7 @@
       <c r="X272" s="23"/>
       <c r="Y272" s="23"/>
     </row>
-    <row r="273" spans="1:25">
+    <row r="273" spans="1:25" hidden="1">
       <c r="A273" s="23" t="s">
         <v>949</v>
       </c>
@@ -22319,7 +22333,7 @@
       <c r="X273" s="23"/>
       <c r="Y273" s="23"/>
     </row>
-    <row r="274" spans="1:25">
+    <row r="274" spans="1:25" hidden="1">
       <c r="A274" s="23" t="s">
         <v>949</v>
       </c>
@@ -22386,7 +22400,7 @@
       <c r="X274" s="23"/>
       <c r="Y274" s="23"/>
     </row>
-    <row r="275" spans="1:25">
+    <row r="275" spans="1:25" hidden="1">
       <c r="A275" s="24" t="s">
         <v>939</v>
       </c>
@@ -22448,7 +22462,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:25" hidden="1">
       <c r="A276" s="23" t="s">
         <v>915</v>
       </c>
@@ -22517,7 +22531,7 @@
       <c r="X276" s="23"/>
       <c r="Y276" s="23"/>
     </row>
-    <row r="277" spans="1:25">
+    <row r="277" spans="1:25" hidden="1">
       <c r="A277" s="23" t="s">
         <v>915</v>
       </c>
@@ -22586,7 +22600,7 @@
       <c r="X277" s="23"/>
       <c r="Y277" s="23"/>
     </row>
-    <row r="278" spans="1:25">
+    <row r="278" spans="1:25" hidden="1">
       <c r="A278" s="23" t="s">
         <v>915</v>
       </c>
@@ -22655,7 +22669,7 @@
       <c r="X278" s="23"/>
       <c r="Y278" s="23"/>
     </row>
-    <row r="279" spans="1:25">
+    <row r="279" spans="1:25" hidden="1">
       <c r="A279" s="23" t="s">
         <v>915</v>
       </c>
@@ -22724,7 +22738,7 @@
       <c r="X279" s="23"/>
       <c r="Y279" s="23"/>
     </row>
-    <row r="280" spans="1:25">
+    <row r="280" spans="1:25" hidden="1">
       <c r="A280" s="23" t="s">
         <v>955</v>
       </c>
@@ -22793,7 +22807,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:25">
+    <row r="281" spans="1:25" hidden="1">
       <c r="A281" s="23" t="s">
         <v>955</v>
       </c>
@@ -22862,7 +22876,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:25">
+    <row r="282" spans="1:25" hidden="1">
       <c r="A282" s="23" t="s">
         <v>955</v>
       </c>
@@ -22931,7 +22945,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="283" spans="1:25">
+    <row r="283" spans="1:25" hidden="1">
       <c r="A283" s="24" t="s">
         <v>893</v>
       </c>
@@ -22996,7 +23010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:25">
+    <row r="284" spans="1:25" hidden="1">
       <c r="A284" s="24" t="s">
         <v>893</v>
       </c>
@@ -23061,7 +23075,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="285" spans="1:25">
+    <row r="285" spans="1:25" hidden="1">
       <c r="A285" s="24" t="s">
         <v>893</v>
       </c>
@@ -23126,7 +23140,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="286" spans="1:25">
+    <row r="286" spans="1:25" hidden="1">
       <c r="A286" s="24" t="s">
         <v>893</v>
       </c>
@@ -23191,7 +23205,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="287" spans="1:25">
+    <row r="287" spans="1:25" hidden="1">
       <c r="A287" s="24" t="s">
         <v>893</v>
       </c>
@@ -23256,7 +23270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:25">
+    <row r="288" spans="1:25" hidden="1">
       <c r="A288" s="24" t="s">
         <v>919</v>
       </c>
@@ -23324,7 +23338,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="289" spans="1:25">
+    <row r="289" spans="1:25" hidden="1">
       <c r="A289" s="24" t="s">
         <v>919</v>
       </c>
@@ -23392,7 +23406,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25">
+    <row r="290" spans="1:25" hidden="1">
       <c r="A290" s="24" t="s">
         <v>919</v>
       </c>
@@ -23460,7 +23474,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="291" spans="1:25">
+    <row r="291" spans="1:25" hidden="1">
       <c r="A291" s="24" t="s">
         <v>919</v>
       </c>
@@ -23528,7 +23542,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="292" spans="1:25">
+    <row r="292" spans="1:25" hidden="1">
       <c r="A292" s="24" t="s">
         <v>919</v>
       </c>
@@ -23596,7 +23610,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="293" spans="1:25">
+    <row r="293" spans="1:25" hidden="1">
       <c r="A293" s="24" t="s">
         <v>919</v>
       </c>
@@ -23664,7 +23678,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="294" spans="1:25">
+    <row r="294" spans="1:25" hidden="1">
       <c r="A294" s="24" t="s">
         <v>919</v>
       </c>
@@ -23732,7 +23746,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="295" spans="1:25">
+    <row r="295" spans="1:25" hidden="1">
       <c r="A295" s="24" t="s">
         <v>919</v>
       </c>
@@ -23800,7 +23814,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:25">
+    <row r="296" spans="1:25" hidden="1">
       <c r="A296" s="24" t="s">
         <v>919</v>
       </c>
@@ -23868,7 +23882,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="297" spans="1:25">
+    <row r="297" spans="1:25" hidden="1">
       <c r="A297" s="24" t="s">
         <v>919</v>
       </c>
@@ -23936,7 +23950,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="298" spans="1:25">
+    <row r="298" spans="1:25" hidden="1">
       <c r="A298" s="24" t="s">
         <v>919</v>
       </c>
@@ -24004,7 +24018,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="299" spans="1:25">
+    <row r="299" spans="1:25" hidden="1">
       <c r="A299" s="24" t="s">
         <v>919</v>
       </c>
@@ -24072,7 +24086,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="300" spans="1:25">
+    <row r="300" spans="1:25" hidden="1">
       <c r="A300" s="24" t="s">
         <v>919</v>
       </c>
@@ -24140,7 +24154,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="301" spans="1:25">
+    <row r="301" spans="1:25" hidden="1">
       <c r="A301" s="24" t="s">
         <v>919</v>
       </c>
@@ -24208,7 +24222,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="302" spans="1:25" s="29" customFormat="1">
+    <row r="302" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A302" s="24" t="s">
         <v>919</v>
       </c>
@@ -24279,7 +24293,7 @@
       <c r="X302" s="24"/>
       <c r="Y302" s="24"/>
     </row>
-    <row r="303" spans="1:25" s="29" customFormat="1">
+    <row r="303" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A303" s="24" t="s">
         <v>919</v>
       </c>
@@ -24350,7 +24364,7 @@
       <c r="X303" s="24"/>
       <c r="Y303" s="24"/>
     </row>
-    <row r="304" spans="1:25" s="29" customFormat="1">
+    <row r="304" spans="1:25" s="29" customFormat="1" hidden="1">
       <c r="A304" s="24" t="s">
         <v>919</v>
       </c>
@@ -24421,7 +24435,7 @@
       <c r="X304" s="24"/>
       <c r="Y304" s="24"/>
     </row>
-    <row r="305" spans="1:25">
+    <row r="305" spans="1:25" hidden="1">
       <c r="A305" s="24" t="s">
         <v>919</v>
       </c>
@@ -24489,7 +24503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:25">
+    <row r="306" spans="1:25" hidden="1">
       <c r="A306" s="24" t="s">
         <v>919</v>
       </c>
@@ -24557,7 +24571,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="307" spans="1:25">
+    <row r="307" spans="1:25" hidden="1">
       <c r="A307" s="24" t="s">
         <v>919</v>
       </c>
@@ -24625,7 +24639,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="308" spans="1:25">
+    <row r="308" spans="1:25" hidden="1">
       <c r="A308" s="24" t="s">
         <v>919</v>
       </c>
@@ -24693,7 +24707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:25">
+    <row r="309" spans="1:25" hidden="1">
       <c r="A309" s="24" t="s">
         <v>919</v>
       </c>
@@ -24761,7 +24775,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="310" spans="1:25">
+    <row r="310" spans="1:25" hidden="1">
       <c r="A310" s="24" t="s">
         <v>919</v>
       </c>
@@ -24829,7 +24843,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="311" spans="1:25">
+    <row r="311" spans="1:25" hidden="1">
       <c r="A311" s="24" t="s">
         <v>919</v>
       </c>
@@ -24897,7 +24911,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="312" spans="1:25">
+    <row r="312" spans="1:25" hidden="1">
       <c r="A312" s="24" t="s">
         <v>903</v>
       </c>
@@ -24962,7 +24976,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="313" spans="1:25">
+    <row r="313" spans="1:25" hidden="1">
       <c r="A313" s="24" t="s">
         <v>903</v>
       </c>
@@ -25027,7 +25041,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="314" spans="1:25">
+    <row r="314" spans="1:25" hidden="1">
       <c r="A314" s="24" t="s">
         <v>903</v>
       </c>
@@ -25092,7 +25106,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="315" spans="1:25">
+    <row r="315" spans="1:25" hidden="1">
       <c r="A315" s="24" t="s">
         <v>903</v>
       </c>
@@ -25157,7 +25171,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="316" spans="1:25">
+    <row r="316" spans="1:25" hidden="1">
       <c r="A316" s="23" t="s">
         <v>982</v>
       </c>
@@ -25224,7 +25238,7 @@
       <c r="X316" s="23"/>
       <c r="Y316" s="23"/>
     </row>
-    <row r="317" spans="1:25">
+    <row r="317" spans="1:25" hidden="1">
       <c r="A317" s="24" t="s">
         <v>890</v>
       </c>
@@ -25292,7 +25306,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="318" spans="1:25">
+    <row r="318" spans="1:25" hidden="1">
       <c r="A318" s="24" t="s">
         <v>890</v>
       </c>
@@ -25360,7 +25374,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="319" spans="1:25">
+    <row r="319" spans="1:25" hidden="1">
       <c r="A319" s="24" t="s">
         <v>890</v>
       </c>
@@ -25428,7 +25442,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="320" spans="1:25">
+    <row r="320" spans="1:25" hidden="1">
       <c r="A320" s="23" t="s">
         <v>954</v>
       </c>
@@ -25497,7 +25511,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="321" spans="1:25">
+    <row r="321" spans="1:25" hidden="1">
       <c r="A321" s="23" t="s">
         <v>954</v>
       </c>
@@ -25696,7 +25710,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:25">
+    <row r="324" spans="1:25" hidden="1">
       <c r="A324" s="23" t="s">
         <v>910</v>
       </c>
@@ -25770,7 +25784,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="325" spans="1:25">
+    <row r="325" spans="1:25" hidden="1">
       <c r="A325" s="23" t="s">
         <v>910</v>
       </c>
@@ -25844,7 +25858,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="326" spans="1:25">
+    <row r="326" spans="1:25" hidden="1">
       <c r="A326" s="23" t="s">
         <v>910</v>
       </c>
@@ -25918,7 +25932,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="327" spans="1:25">
+    <row r="327" spans="1:25" hidden="1">
       <c r="A327" s="23" t="s">
         <v>910</v>
       </c>
@@ -25992,7 +26006,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="328" spans="1:25">
+    <row r="328" spans="1:25" hidden="1">
       <c r="A328" s="23" t="s">
         <v>910</v>
       </c>
@@ -26066,7 +26080,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="329" spans="1:25">
+    <row r="329" spans="1:25" hidden="1">
       <c r="A329" s="23" t="s">
         <v>910</v>
       </c>
@@ -26140,7 +26154,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="330" spans="1:25">
+    <row r="330" spans="1:25" hidden="1">
       <c r="A330" s="23" t="s">
         <v>910</v>
       </c>
@@ -26214,7 +26228,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="331" spans="1:25">
+    <row r="331" spans="1:25" hidden="1">
       <c r="A331" s="23" t="s">
         <v>910</v>
       </c>
@@ -26288,7 +26302,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="332" spans="1:25">
+    <row r="332" spans="1:25" hidden="1">
       <c r="A332" s="23" t="s">
         <v>910</v>
       </c>
@@ -26362,7 +26376,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="333" spans="1:25">
+    <row r="333" spans="1:25" hidden="1">
       <c r="A333" s="23" t="s">
         <v>910</v>
       </c>
@@ -26436,7 +26450,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="334" spans="1:25">
+    <row r="334" spans="1:25" hidden="1">
       <c r="A334" s="23" t="s">
         <v>910</v>
       </c>
@@ -26510,7 +26524,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="335" spans="1:25">
+    <row r="335" spans="1:25" hidden="1">
       <c r="A335" s="23" t="s">
         <v>910</v>
       </c>
@@ -26584,7 +26598,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="336" spans="1:25">
+    <row r="336" spans="1:25" hidden="1">
       <c r="A336" s="23" t="s">
         <v>910</v>
       </c>
@@ -26658,7 +26672,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="337" spans="1:25">
+    <row r="337" spans="1:25" hidden="1">
       <c r="A337" s="23" t="s">
         <v>910</v>
       </c>
@@ -26732,7 +26746,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="338" spans="1:25">
+    <row r="338" spans="1:25" hidden="1">
       <c r="A338" s="23" t="s">
         <v>910</v>
       </c>
@@ -26806,7 +26820,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="339" spans="1:25">
+    <row r="339" spans="1:25" hidden="1">
       <c r="A339" s="23" t="s">
         <v>910</v>
       </c>
@@ -26880,7 +26894,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="340" spans="1:25">
+    <row r="340" spans="1:25" hidden="1">
       <c r="A340" s="23" t="s">
         <v>910</v>
       </c>
@@ -26954,7 +26968,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="341" spans="1:25">
+    <row r="341" spans="1:25" hidden="1">
       <c r="A341" s="23" t="s">
         <v>910</v>
       </c>
@@ -27028,7 +27042,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="342" spans="1:25">
+    <row r="342" spans="1:25" hidden="1">
       <c r="A342" s="24" t="s">
         <v>910</v>
       </c>
@@ -27096,7 +27110,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="343" spans="1:25">
+    <row r="343" spans="1:25" hidden="1">
       <c r="A343" s="24" t="s">
         <v>910</v>
       </c>
@@ -27164,7 +27178,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="344" spans="1:25">
+    <row r="344" spans="1:25" hidden="1">
       <c r="A344" s="24" t="s">
         <v>910</v>
       </c>
@@ -27232,7 +27246,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="345" spans="1:25">
+    <row r="345" spans="1:25" hidden="1">
       <c r="A345" s="24" t="s">
         <v>910</v>
       </c>
@@ -27300,7 +27314,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="346" spans="1:25">
+    <row r="346" spans="1:25" hidden="1">
       <c r="A346" s="24" t="s">
         <v>910</v>
       </c>
@@ -27368,7 +27382,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="347" spans="1:25">
+    <row r="347" spans="1:25" hidden="1">
       <c r="A347" s="24" t="s">
         <v>910</v>
       </c>
@@ -27436,7 +27450,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="348" spans="1:25">
+    <row r="348" spans="1:25" hidden="1">
       <c r="A348" s="24" t="s">
         <v>916</v>
       </c>
@@ -27507,7 +27521,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="349" spans="1:25">
+    <row r="349" spans="1:25" hidden="1">
       <c r="A349" s="24" t="s">
         <v>916</v>
       </c>
@@ -27578,7 +27592,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="350" spans="1:25">
+    <row r="350" spans="1:25" hidden="1">
       <c r="A350" s="24" t="s">
         <v>916</v>
       </c>
@@ -27649,7 +27663,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="351" spans="1:25">
+    <row r="351" spans="1:25" hidden="1">
       <c r="A351" s="24" t="s">
         <v>973</v>
       </c>
@@ -27714,7 +27728,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="352" spans="1:25">
+    <row r="352" spans="1:25" hidden="1">
       <c r="A352" s="24" t="s">
         <v>973</v>
       </c>
@@ -27779,7 +27793,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="353" spans="1:25">
+    <row r="353" spans="1:25" hidden="1">
       <c r="A353" s="23" t="s">
         <v>946</v>
       </c>
@@ -27846,7 +27860,7 @@
       <c r="X353" s="23"/>
       <c r="Y353" s="23"/>
     </row>
-    <row r="354" spans="1:25">
+    <row r="354" spans="1:25" hidden="1">
       <c r="A354" s="23" t="s">
         <v>946</v>
       </c>
@@ -27913,7 +27927,7 @@
       <c r="X354" s="23"/>
       <c r="Y354" s="23"/>
     </row>
-    <row r="355" spans="1:25">
+    <row r="355" spans="1:25" hidden="1">
       <c r="A355" s="23" t="s">
         <v>946</v>
       </c>
@@ -27980,7 +27994,7 @@
       <c r="X355" s="23"/>
       <c r="Y355" s="23"/>
     </row>
-    <row r="356" spans="1:25">
+    <row r="356" spans="1:25" hidden="1">
       <c r="A356" s="24" t="s">
         <v>971</v>
       </c>
@@ -28036,7 +28050,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="357" spans="1:25">
+    <row r="357" spans="1:25" hidden="1">
       <c r="A357" s="24" t="s">
         <v>971</v>
       </c>
@@ -28092,7 +28106,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="358" spans="1:25">
+    <row r="358" spans="1:25" hidden="1">
       <c r="A358" s="24" t="s">
         <v>962</v>
       </c>
@@ -28148,7 +28162,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="359" spans="1:25">
+    <row r="359" spans="1:25" hidden="1">
       <c r="A359" s="24" t="s">
         <v>962</v>
       </c>
@@ -28204,7 +28218,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="360" spans="1:25">
+    <row r="360" spans="1:25" hidden="1">
       <c r="A360" s="24" t="s">
         <v>962</v>
       </c>
@@ -28260,7 +28274,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="361" spans="1:25">
+    <row r="361" spans="1:25" hidden="1">
       <c r="A361" s="23" t="s">
         <v>964</v>
       </c>
@@ -28327,7 +28341,7 @@
       <c r="X361" s="23"/>
       <c r="Y361" s="23"/>
     </row>
-    <row r="362" spans="1:25">
+    <row r="362" spans="1:25" hidden="1">
       <c r="A362" s="23" t="s">
         <v>964</v>
       </c>
@@ -28394,7 +28408,7 @@
       <c r="X362" s="23"/>
       <c r="Y362" s="23"/>
     </row>
-    <row r="363" spans="1:25">
+    <row r="363" spans="1:25" hidden="1">
       <c r="A363" s="23" t="s">
         <v>964</v>
       </c>
@@ -28461,7 +28475,7 @@
       <c r="X363" s="23"/>
       <c r="Y363" s="23"/>
     </row>
-    <row r="364" spans="1:25">
+    <row r="364" spans="1:25" hidden="1">
       <c r="A364" s="23" t="s">
         <v>964</v>
       </c>
@@ -29308,7 +29322,7 @@
         <v>-1.44E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:25">
+    <row r="377" spans="1:25" hidden="1">
       <c r="A377" s="24" t="s">
         <v>935</v>
       </c>
@@ -29376,7 +29390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="378" spans="1:25">
+    <row r="378" spans="1:25" hidden="1">
       <c r="A378" s="24" t="s">
         <v>935</v>
       </c>
@@ -29444,7 +29458,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="379" spans="1:25">
+    <row r="379" spans="1:25" hidden="1">
       <c r="A379" s="23" t="s">
         <v>959</v>
       </c>
@@ -29511,7 +29525,7 @@
       <c r="X379" s="23"/>
       <c r="Y379" s="23"/>
     </row>
-    <row r="380" spans="1:25">
+    <row r="380" spans="1:25" hidden="1">
       <c r="A380" s="23" t="s">
         <v>959</v>
       </c>
@@ -29578,7 +29592,7 @@
       <c r="X380" s="23"/>
       <c r="Y380" s="23"/>
     </row>
-    <row r="381" spans="1:25">
+    <row r="381" spans="1:25" hidden="1">
       <c r="A381" s="23" t="s">
         <v>959</v>
       </c>
@@ -29645,7 +29659,7 @@
       <c r="X381" s="23"/>
       <c r="Y381" s="23"/>
     </row>
-    <row r="382" spans="1:25">
+    <row r="382" spans="1:25" hidden="1">
       <c r="A382" s="23" t="s">
         <v>959</v>
       </c>
@@ -29712,7 +29726,7 @@
       <c r="X382" s="23"/>
       <c r="Y382" s="23"/>
     </row>
-    <row r="383" spans="1:25">
+    <row r="383" spans="1:25" hidden="1">
       <c r="A383" s="23" t="s">
         <v>959</v>
       </c>
@@ -29779,7 +29793,7 @@
       <c r="X383" s="23"/>
       <c r="Y383" s="23"/>
     </row>
-    <row r="384" spans="1:25">
+    <row r="384" spans="1:25" hidden="1">
       <c r="A384" s="23" t="s">
         <v>959</v>
       </c>
@@ -29846,7 +29860,7 @@
       <c r="X384" s="23"/>
       <c r="Y384" s="23"/>
     </row>
-    <row r="385" spans="1:25">
+    <row r="385" spans="1:25" hidden="1">
       <c r="A385" s="23" t="s">
         <v>959</v>
       </c>
@@ -29913,7 +29927,7 @@
       <c r="X385" s="23"/>
       <c r="Y385" s="23"/>
     </row>
-    <row r="386" spans="1:25">
+    <row r="386" spans="1:25" hidden="1">
       <c r="A386" s="23" t="s">
         <v>959</v>
       </c>
@@ -29980,7 +29994,7 @@
       <c r="X386" s="23"/>
       <c r="Y386" s="23"/>
     </row>
-    <row r="387" spans="1:25">
+    <row r="387" spans="1:25" hidden="1">
       <c r="A387" s="23" t="s">
         <v>959</v>
       </c>
@@ -30047,7 +30061,7 @@
       <c r="X387" s="23"/>
       <c r="Y387" s="23"/>
     </row>
-    <row r="388" spans="1:25">
+    <row r="388" spans="1:25" hidden="1">
       <c r="A388" s="23" t="s">
         <v>959</v>
       </c>
@@ -30114,7 +30128,7 @@
       <c r="X388" s="23"/>
       <c r="Y388" s="23"/>
     </row>
-    <row r="389" spans="1:25">
+    <row r="389" spans="1:25" hidden="1">
       <c r="A389" s="23" t="s">
         <v>959</v>
       </c>
@@ -30181,7 +30195,7 @@
       <c r="X389" s="23"/>
       <c r="Y389" s="23"/>
     </row>
-    <row r="390" spans="1:25">
+    <row r="390" spans="1:25" hidden="1">
       <c r="A390" s="23" t="s">
         <v>959</v>
       </c>
@@ -30378,7 +30392,7 @@
         <v>-4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:25">
+    <row r="393" spans="1:25" hidden="1">
       <c r="A393" s="24" t="s">
         <v>994</v>
       </c>
@@ -30440,7 +30454,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="394" spans="1:25">
+    <row r="394" spans="1:25" hidden="1">
       <c r="A394" s="24" t="s">
         <v>994</v>
       </c>
@@ -30502,7 +30516,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="395" spans="1:25">
+    <row r="395" spans="1:25" hidden="1">
       <c r="A395" s="24" t="s">
         <v>994</v>
       </c>
@@ -30564,7 +30578,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="396" spans="1:25">
+    <row r="396" spans="1:25" hidden="1">
       <c r="A396" s="24" t="s">
         <v>994</v>
       </c>
@@ -30626,7 +30640,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="397" spans="1:25">
+    <row r="397" spans="1:25" hidden="1">
       <c r="A397" s="24" t="s">
         <v>994</v>
       </c>
@@ -30688,7 +30702,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="398" spans="1:25">
+    <row r="398" spans="1:25" hidden="1">
       <c r="A398" s="24" t="s">
         <v>994</v>
       </c>
@@ -31090,7 +31104,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="404" spans="1:25">
+    <row r="404" spans="1:25" hidden="1">
       <c r="A404" s="24" t="s">
         <v>914</v>
       </c>
@@ -31161,7 +31175,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="405" spans="1:25">
+    <row r="405" spans="1:25" hidden="1">
       <c r="A405" s="24" t="s">
         <v>914</v>
       </c>
@@ -31232,7 +31246,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="406" spans="1:25">
+    <row r="406" spans="1:25" hidden="1">
       <c r="A406" s="24" t="s">
         <v>914</v>
       </c>
@@ -31303,7 +31317,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="407" spans="1:25">
+    <row r="407" spans="1:25" hidden="1">
       <c r="A407" s="24" t="s">
         <v>909</v>
       </c>
@@ -31368,7 +31382,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:25">
+    <row r="408" spans="1:25" hidden="1">
       <c r="A408" s="24" t="s">
         <v>909</v>
       </c>
@@ -31433,7 +31447,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:25">
+    <row r="409" spans="1:25" hidden="1">
       <c r="A409" s="24" t="s">
         <v>909</v>
       </c>
@@ -31498,7 +31512,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:25">
+    <row r="410" spans="1:25" hidden="1">
       <c r="A410" s="24" t="s">
         <v>909</v>
       </c>
@@ -31563,7 +31577,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:25">
+    <row r="411" spans="1:25" hidden="1">
       <c r="A411" s="24" t="s">
         <v>909</v>
       </c>
@@ -31628,7 +31642,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:25">
+    <row r="412" spans="1:25" hidden="1">
       <c r="A412" s="24" t="s">
         <v>909</v>
       </c>
@@ -31693,7 +31707,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:25">
+    <row r="413" spans="1:25" hidden="1">
       <c r="A413" s="24" t="s">
         <v>909</v>
       </c>
@@ -31758,7 +31772,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:25">
+    <row r="414" spans="1:25" hidden="1">
       <c r="A414" s="24" t="s">
         <v>909</v>
       </c>
@@ -31823,7 +31837,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:25">
+    <row r="415" spans="1:25" hidden="1">
       <c r="A415" s="24" t="s">
         <v>909</v>
       </c>
@@ -31888,7 +31902,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:25">
+    <row r="416" spans="1:25" hidden="1">
       <c r="A416" s="24" t="s">
         <v>909</v>
       </c>
@@ -31953,7 +31967,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:25">
+    <row r="417" spans="1:25" hidden="1">
       <c r="A417" s="29" t="s">
         <v>969</v>
       </c>
@@ -32020,7 +32034,7 @@
       <c r="X417" s="29"/>
       <c r="Y417" s="29"/>
     </row>
-    <row r="418" spans="1:25">
+    <row r="418" spans="1:25" hidden="1">
       <c r="A418" s="29" t="s">
         <v>969</v>
       </c>
@@ -32087,7 +32101,7 @@
       <c r="X418" s="29"/>
       <c r="Y418" s="29"/>
     </row>
-    <row r="419" spans="1:25">
+    <row r="419" spans="1:25" hidden="1">
       <c r="A419" s="29" t="s">
         <v>969</v>
       </c>
@@ -32154,7 +32168,7 @@
       <c r="X419" s="29"/>
       <c r="Y419" s="29"/>
     </row>
-    <row r="420" spans="1:25">
+    <row r="420" spans="1:25" hidden="1">
       <c r="A420" s="24" t="s">
         <v>956</v>
       </c>
@@ -32214,7 +32228,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="421" spans="1:25">
+    <row r="421" spans="1:25" hidden="1">
       <c r="A421" s="24" t="s">
         <v>980</v>
       </c>
@@ -32274,7 +32288,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="422" spans="1:25">
+    <row r="422" spans="1:25" hidden="1">
       <c r="A422" s="24" t="s">
         <v>989</v>
       </c>
@@ -32345,7 +32359,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="423" spans="1:25">
+    <row r="423" spans="1:25" hidden="1">
       <c r="A423" s="24" t="s">
         <v>989</v>
       </c>
@@ -32416,7 +32430,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="424" spans="1:25">
+    <row r="424" spans="1:25" hidden="1">
       <c r="A424" s="24" t="s">
         <v>989</v>
       </c>
@@ -32487,7 +32501,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="425" spans="1:25">
+    <row r="425" spans="1:25" hidden="1">
       <c r="A425" s="24" t="s">
         <v>981</v>
       </c>
@@ -32544,7 +32558,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="426" spans="1:25">
+    <row r="426" spans="1:25" hidden="1">
       <c r="A426" s="23" t="s">
         <v>951</v>
       </c>
@@ -32611,7 +32625,7 @@
       <c r="X426" s="23"/>
       <c r="Y426" s="23"/>
     </row>
-    <row r="427" spans="1:25">
+    <row r="427" spans="1:25" hidden="1">
       <c r="A427" s="23" t="s">
         <v>951</v>
       </c>
@@ -32678,7 +32692,7 @@
       <c r="X427" s="23"/>
       <c r="Y427" s="23"/>
     </row>
-    <row r="428" spans="1:25">
+    <row r="428" spans="1:25" hidden="1">
       <c r="A428" s="23" t="s">
         <v>951</v>
       </c>
@@ -32745,7 +32759,7 @@
       <c r="X428" s="23"/>
       <c r="Y428" s="23"/>
     </row>
-    <row r="429" spans="1:25">
+    <row r="429" spans="1:25" hidden="1">
       <c r="A429" s="23" t="s">
         <v>951</v>
       </c>
@@ -32812,7 +32826,7 @@
       <c r="X429" s="23"/>
       <c r="Y429" s="23"/>
     </row>
-    <row r="430" spans="1:25">
+    <row r="430" spans="1:25" hidden="1">
       <c r="A430" s="23" t="s">
         <v>951</v>
       </c>
@@ -32879,7 +32893,7 @@
       <c r="X430" s="23"/>
       <c r="Y430" s="23"/>
     </row>
-    <row r="431" spans="1:25">
+    <row r="431" spans="1:25" hidden="1">
       <c r="A431" s="23" t="s">
         <v>951</v>
       </c>
@@ -32946,7 +32960,7 @@
       <c r="X431" s="23"/>
       <c r="Y431" s="23"/>
     </row>
-    <row r="432" spans="1:25">
+    <row r="432" spans="1:25" hidden="1">
       <c r="A432" s="23" t="s">
         <v>951</v>
       </c>
@@ -33013,7 +33027,7 @@
       <c r="X432" s="23"/>
       <c r="Y432" s="23"/>
     </row>
-    <row r="433" spans="1:25">
+    <row r="433" spans="1:25" hidden="1">
       <c r="A433" s="23" t="s">
         <v>957</v>
       </c>
@@ -33076,7 +33090,7 @@
       <c r="X433" s="23"/>
       <c r="Y433" s="23"/>
     </row>
-    <row r="434" spans="1:25">
+    <row r="434" spans="1:25" hidden="1">
       <c r="A434" s="23" t="s">
         <v>957</v>
       </c>
@@ -33139,7 +33153,7 @@
       <c r="X434" s="23"/>
       <c r="Y434" s="23"/>
     </row>
-    <row r="435" spans="1:25">
+    <row r="435" spans="1:25" hidden="1">
       <c r="A435" s="23" t="s">
         <v>957</v>
       </c>
@@ -33202,7 +33216,7 @@
       <c r="X435" s="23"/>
       <c r="Y435" s="23"/>
     </row>
-    <row r="436" spans="1:25">
+    <row r="436" spans="1:25" hidden="1">
       <c r="A436" s="23" t="s">
         <v>957</v>
       </c>
@@ -33265,7 +33279,7 @@
       <c r="X436" s="23"/>
       <c r="Y436" s="23"/>
     </row>
-    <row r="437" spans="1:25">
+    <row r="437" spans="1:25" hidden="1">
       <c r="A437" s="23" t="s">
         <v>933</v>
       </c>
@@ -33328,7 +33342,7 @@
       <c r="X437" s="23"/>
       <c r="Y437" s="23"/>
     </row>
-    <row r="438" spans="1:25">
+    <row r="438" spans="1:25" hidden="1">
       <c r="A438" s="23" t="s">
         <v>933</v>
       </c>
@@ -33391,7 +33405,7 @@
       <c r="X438" s="23"/>
       <c r="Y438" s="23"/>
     </row>
-    <row r="439" spans="1:25">
+    <row r="439" spans="1:25" hidden="1">
       <c r="A439" s="23" t="s">
         <v>933</v>
       </c>
@@ -33454,7 +33468,7 @@
       <c r="X439" s="23"/>
       <c r="Y439" s="23"/>
     </row>
-    <row r="440" spans="1:25">
+    <row r="440" spans="1:25" hidden="1">
       <c r="A440" s="23" t="s">
         <v>933</v>
       </c>
@@ -33517,7 +33531,7 @@
       <c r="X440" s="23"/>
       <c r="Y440" s="23"/>
     </row>
-    <row r="441" spans="1:25">
+    <row r="441" spans="1:25" hidden="1">
       <c r="A441" s="23" t="s">
         <v>933</v>
       </c>
@@ -33580,7 +33594,7 @@
       <c r="X441" s="23"/>
       <c r="Y441" s="23"/>
     </row>
-    <row r="442" spans="1:25">
+    <row r="442" spans="1:25" hidden="1">
       <c r="A442" s="23" t="s">
         <v>933</v>
       </c>
@@ -33643,7 +33657,7 @@
       <c r="X442" s="23"/>
       <c r="Y442" s="23"/>
     </row>
-    <row r="443" spans="1:25">
+    <row r="443" spans="1:25" hidden="1">
       <c r="A443" s="24" t="s">
         <v>991</v>
       </c>
@@ -33705,7 +33719,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="444" spans="1:25">
+    <row r="444" spans="1:25" hidden="1">
       <c r="A444" s="24" t="s">
         <v>991</v>
       </c>
@@ -33767,7 +33781,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="445" spans="1:25">
+    <row r="445" spans="1:25" hidden="1">
       <c r="A445" s="24" t="s">
         <v>991</v>
       </c>
@@ -33829,7 +33843,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="446" spans="1:25">
+    <row r="446" spans="1:25" hidden="1">
       <c r="A446" s="24" t="s">
         <v>991</v>
       </c>
@@ -33891,7 +33905,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="447" spans="1:25">
+    <row r="447" spans="1:25" hidden="1">
       <c r="A447" s="24" t="s">
         <v>991</v>
       </c>
@@ -33953,7 +33967,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="448" spans="1:25">
+    <row r="448" spans="1:25" hidden="1">
       <c r="A448" s="24" t="s">
         <v>991</v>
       </c>
@@ -34015,7 +34029,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="449" spans="1:20">
+    <row r="449" spans="1:20" hidden="1">
       <c r="A449" s="24" t="s">
         <v>991</v>
       </c>
@@ -34077,7 +34091,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="450" spans="1:20">
+    <row r="450" spans="1:20" hidden="1">
       <c r="A450" s="24" t="s">
         <v>991</v>
       </c>
@@ -34139,7 +34153,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="451" spans="1:20">
+    <row r="451" spans="1:20" hidden="1">
       <c r="A451" s="24" t="s">
         <v>991</v>
       </c>
@@ -34201,7 +34215,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="452" spans="1:20">
+    <row r="452" spans="1:20" hidden="1">
       <c r="A452" s="24" t="s">
         <v>991</v>
       </c>
@@ -34263,7 +34277,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="453" spans="1:20">
+    <row r="453" spans="1:20" hidden="1">
       <c r="A453" s="24" t="s">
         <v>991</v>
       </c>
@@ -34325,7 +34339,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="454" spans="1:20">
+    <row r="454" spans="1:20" hidden="1">
       <c r="A454" s="24" t="s">
         <v>991</v>
       </c>
@@ -34387,7 +34401,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="455" spans="1:20">
+    <row r="455" spans="1:20" hidden="1">
       <c r="A455" s="24" t="s">
         <v>991</v>
       </c>
@@ -34449,7 +34463,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="456" spans="1:20">
+    <row r="456" spans="1:20" hidden="1">
       <c r="A456" s="24" t="s">
         <v>991</v>
       </c>
@@ -34511,7 +34525,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="457" spans="1:20">
+    <row r="457" spans="1:20" hidden="1">
       <c r="A457" s="24" t="s">
         <v>930</v>
       </c>
@@ -34567,7 +34581,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="458" spans="1:20">
+    <row r="458" spans="1:20" hidden="1">
       <c r="A458" s="24" t="s">
         <v>930</v>
       </c>
@@ -34623,7 +34637,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="459" spans="1:20">
+    <row r="459" spans="1:20" hidden="1">
       <c r="A459" s="24" t="s">
         <v>930</v>
       </c>
@@ -34679,7 +34693,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="460" spans="1:20">
+    <row r="460" spans="1:20" hidden="1">
       <c r="A460" s="24" t="s">
         <v>930</v>
       </c>
@@ -34735,7 +34749,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="461" spans="1:20">
+    <row r="461" spans="1:20" hidden="1">
       <c r="A461" s="24" t="s">
         <v>930</v>
       </c>
@@ -34791,7 +34805,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="462" spans="1:20">
+    <row r="462" spans="1:20" hidden="1">
       <c r="A462" s="24" t="s">
         <v>930</v>
       </c>
@@ -34847,7 +34861,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="463" spans="1:20">
+    <row r="463" spans="1:20" hidden="1">
       <c r="A463" s="24" t="s">
         <v>930</v>
       </c>
@@ -34903,7 +34917,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="464" spans="1:20">
+    <row r="464" spans="1:20" hidden="1">
       <c r="A464" s="24" t="s">
         <v>930</v>
       </c>
@@ -34959,7 +34973,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="465" spans="1:25">
+    <row r="465" spans="1:25" hidden="1">
       <c r="A465" s="23" t="s">
         <v>941</v>
       </c>
@@ -35026,7 +35040,7 @@
       <c r="X465" s="23"/>
       <c r="Y465" s="23"/>
     </row>
-    <row r="466" spans="1:25">
+    <row r="466" spans="1:25" hidden="1">
       <c r="A466" s="24" t="s">
         <v>920</v>
       </c>
@@ -35094,7 +35108,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="467" spans="1:25">
+    <row r="467" spans="1:25" hidden="1">
       <c r="A467" s="24" t="s">
         <v>920</v>
       </c>
@@ -35162,7 +35176,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="468" spans="1:25">
+    <row r="468" spans="1:25" hidden="1">
       <c r="A468" s="24" t="s">
         <v>925</v>
       </c>
@@ -35224,7 +35238,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="469" spans="1:25">
+    <row r="469" spans="1:25" hidden="1">
       <c r="A469" s="24" t="s">
         <v>925</v>
       </c>
@@ -35286,7 +35300,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="470" spans="1:25">
+    <row r="470" spans="1:25" hidden="1">
       <c r="A470" s="24" t="s">
         <v>925</v>
       </c>
@@ -35348,7 +35362,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="471" spans="1:25">
+    <row r="471" spans="1:25" hidden="1">
       <c r="A471" s="29" t="s">
         <v>953</v>
       </c>
@@ -35415,7 +35429,7 @@
       <c r="X471" s="29"/>
       <c r="Y471" s="29"/>
     </row>
-    <row r="472" spans="1:25">
+    <row r="472" spans="1:25" hidden="1">
       <c r="A472" s="29" t="s">
         <v>953</v>
       </c>
@@ -35482,7 +35496,7 @@
       <c r="X472" s="29"/>
       <c r="Y472" s="29"/>
     </row>
-    <row r="473" spans="1:25">
+    <row r="473" spans="1:25" hidden="1">
       <c r="A473" s="29" t="s">
         <v>953</v>
       </c>
@@ -35549,7 +35563,7 @@
       <c r="X473" s="29"/>
       <c r="Y473" s="29"/>
     </row>
-    <row r="474" spans="1:25">
+    <row r="474" spans="1:25" hidden="1">
       <c r="A474" s="24" t="s">
         <v>898</v>
       </c>
@@ -35614,7 +35628,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:25">
+    <row r="475" spans="1:25" hidden="1">
       <c r="A475" s="24" t="s">
         <v>898</v>
       </c>
@@ -35679,7 +35693,7 @@
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:25">
+    <row r="476" spans="1:25" hidden="1">
       <c r="A476" s="24" t="s">
         <v>898</v>
       </c>
@@ -35744,7 +35758,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:25">
+    <row r="477" spans="1:25" hidden="1">
       <c r="A477" s="24" t="s">
         <v>898</v>
       </c>
@@ -35809,7 +35823,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:25">
+    <row r="478" spans="1:25" hidden="1">
       <c r="A478" s="23" t="s">
         <v>928</v>
       </c>
@@ -35876,7 +35890,7 @@
       <c r="X478" s="23"/>
       <c r="Y478" s="23"/>
     </row>
-    <row r="479" spans="1:25">
+    <row r="479" spans="1:25" hidden="1">
       <c r="A479" s="23" t="s">
         <v>928</v>
       </c>
@@ -35943,7 +35957,7 @@
       <c r="X479" s="23"/>
       <c r="Y479" s="23"/>
     </row>
-    <row r="480" spans="1:25">
+    <row r="480" spans="1:25" hidden="1">
       <c r="A480" s="23" t="s">
         <v>928</v>
       </c>
@@ -36010,7 +36024,7 @@
       <c r="X480" s="23"/>
       <c r="Y480" s="23"/>
     </row>
-    <row r="481" spans="1:25">
+    <row r="481" spans="1:25" hidden="1">
       <c r="A481" s="23" t="s">
         <v>986</v>
       </c>
@@ -36077,7 +36091,7 @@
       <c r="X481" s="23"/>
       <c r="Y481" s="23"/>
     </row>
-    <row r="482" spans="1:25">
+    <row r="482" spans="1:25" hidden="1">
       <c r="A482" s="23" t="s">
         <v>986</v>
       </c>
@@ -36144,7 +36158,7 @@
       <c r="X482" s="23"/>
       <c r="Y482" s="23"/>
     </row>
-    <row r="483" spans="1:25">
+    <row r="483" spans="1:25" hidden="1">
       <c r="A483" s="23" t="s">
         <v>932</v>
       </c>
@@ -36207,7 +36221,7 @@
       <c r="X483" s="23"/>
       <c r="Y483" s="23"/>
     </row>
-    <row r="484" spans="1:25">
+    <row r="484" spans="1:25" hidden="1">
       <c r="A484" s="24" t="s">
         <v>958</v>
       </c>
@@ -36272,7 +36286,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:25">
+    <row r="485" spans="1:25" hidden="1">
       <c r="A485" s="24" t="s">
         <v>958</v>
       </c>
@@ -36337,7 +36351,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:25">
+    <row r="486" spans="1:25" hidden="1">
       <c r="A486" s="24" t="s">
         <v>958</v>
       </c>
@@ -36402,7 +36416,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:25">
+    <row r="487" spans="1:25" hidden="1">
       <c r="A487" s="24" t="s">
         <v>958</v>
       </c>
@@ -36467,7 +36481,7 @@
         <v>-0.14199999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:25">
+    <row r="488" spans="1:25" hidden="1">
       <c r="A488" s="24" t="s">
         <v>958</v>
       </c>
@@ -36532,7 +36546,7 @@
         <v>-0.20599999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:25">
+    <row r="489" spans="1:25" hidden="1">
       <c r="A489" s="24" t="s">
         <v>958</v>
       </c>
@@ -36597,7 +36611,7 @@
         <v>-0.23200000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:25">
+    <row r="490" spans="1:25" hidden="1">
       <c r="A490" s="24" t="s">
         <v>958</v>
       </c>
@@ -36662,7 +36676,7 @@
         <v>-0.51800000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:25">
+    <row r="491" spans="1:25" hidden="1">
       <c r="A491" s="24" t="s">
         <v>958</v>
       </c>
@@ -36727,7 +36741,7 @@
         <v>-0.52600000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:25">
+    <row r="492" spans="1:25" hidden="1">
       <c r="A492" s="24" t="s">
         <v>958</v>
       </c>
@@ -36792,7 +36806,7 @@
         <v>-0.16300000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:25">
+    <row r="493" spans="1:25" hidden="1">
       <c r="A493" s="24" t="s">
         <v>958</v>
       </c>
@@ -36857,7 +36871,7 @@
         <v>-0.16700000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:25">
+    <row r="494" spans="1:25" hidden="1">
       <c r="A494" s="24" t="s">
         <v>958</v>
       </c>
@@ -36922,7 +36936,7 @@
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:25">
+    <row r="495" spans="1:25" hidden="1">
       <c r="A495" s="24" t="s">
         <v>958</v>
       </c>
@@ -36987,7 +37001,7 @@
         <v>-0.432</v>
       </c>
     </row>
-    <row r="496" spans="1:25">
+    <row r="496" spans="1:25" hidden="1">
       <c r="A496" s="24" t="s">
         <v>958</v>
       </c>
@@ -37052,7 +37066,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="497" spans="1:24">
+    <row r="497" spans="1:24" hidden="1">
       <c r="A497" s="24" t="s">
         <v>958</v>
       </c>
@@ -37117,7 +37131,7 @@
         <v>-6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:24">
+    <row r="498" spans="1:24" hidden="1">
       <c r="A498" s="24" t="s">
         <v>958</v>
       </c>
@@ -37182,7 +37196,7 @@
         <v>-0.32200000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:24">
+    <row r="499" spans="1:24" hidden="1">
       <c r="A499" s="24" t="s">
         <v>958</v>
       </c>
@@ -37247,7 +37261,7 @@
         <v>-0.35099999999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:24">
+    <row r="500" spans="1:24" hidden="1">
       <c r="A500" s="24" t="s">
         <v>891</v>
       </c>
@@ -37312,7 +37326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:24">
+    <row r="501" spans="1:24" hidden="1">
       <c r="A501" s="24" t="s">
         <v>891</v>
       </c>
@@ -37377,7 +37391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:24">
+    <row r="502" spans="1:24" hidden="1">
       <c r="A502" s="24" t="s">
         <v>891</v>
       </c>
@@ -37442,7 +37456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:24">
+    <row r="503" spans="1:24" hidden="1">
       <c r="A503" s="24" t="s">
         <v>891</v>
       </c>
@@ -37507,7 +37521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:24">
+    <row r="504" spans="1:24" hidden="1">
       <c r="A504" s="24" t="s">
         <v>891</v>
       </c>
@@ -38092,7 +38106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:25">
+    <row r="513" spans="1:25" hidden="1">
       <c r="A513" s="24" t="s">
         <v>899</v>
       </c>
@@ -38157,7 +38171,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:25">
+    <row r="514" spans="1:25" hidden="1">
       <c r="A514" s="24" t="s">
         <v>899</v>
       </c>
@@ -38222,7 +38236,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:25">
+    <row r="515" spans="1:25" hidden="1">
       <c r="A515" s="24" t="s">
         <v>899</v>
       </c>
@@ -38287,7 +38301,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:25">
+    <row r="516" spans="1:25" hidden="1">
       <c r="A516" s="24" t="s">
         <v>899</v>
       </c>
@@ -38352,7 +38366,7 @@
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:25">
+    <row r="517" spans="1:25" hidden="1">
       <c r="A517" s="24" t="s">
         <v>899</v>
       </c>
@@ -38417,7 +38431,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:25">
+    <row r="518" spans="1:25" hidden="1">
       <c r="A518" s="24" t="s">
         <v>899</v>
       </c>
@@ -38482,7 +38496,7 @@
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:25">
+    <row r="519" spans="1:25" hidden="1">
       <c r="A519" s="24" t="s">
         <v>899</v>
       </c>
@@ -38937,7 +38951,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:25">
+    <row r="526" spans="1:25" hidden="1">
       <c r="A526" s="23" t="s">
         <v>948</v>
       </c>
@@ -39004,7 +39018,7 @@
       <c r="X526" s="23"/>
       <c r="Y526" s="23"/>
     </row>
-    <row r="527" spans="1:25">
+    <row r="527" spans="1:25" hidden="1">
       <c r="A527" s="24" t="s">
         <v>929</v>
       </c>
@@ -39066,7 +39080,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="528" spans="1:25">
+    <row r="528" spans="1:25" hidden="1">
       <c r="A528" s="24" t="s">
         <v>943</v>
       </c>
@@ -39122,7 +39136,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="529" spans="1:25">
+    <row r="529" spans="1:25" hidden="1">
       <c r="A529" s="24" t="s">
         <v>943</v>
       </c>
@@ -39178,7 +39192,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="530" spans="1:25">
+    <row r="530" spans="1:25" hidden="1">
       <c r="A530" s="24" t="s">
         <v>943</v>
       </c>
@@ -39234,7 +39248,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="531" spans="1:25">
+    <row r="531" spans="1:25" hidden="1">
       <c r="A531" s="24" t="s">
         <v>912</v>
       </c>
@@ -39299,7 +39313,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="532" spans="1:25">
+    <row r="532" spans="1:25" hidden="1">
       <c r="A532" s="24" t="s">
         <v>912</v>
       </c>
@@ -39364,7 +39378,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="533" spans="1:25">
+    <row r="533" spans="1:25" hidden="1">
       <c r="A533" s="24" t="s">
         <v>912</v>
       </c>
@@ -39429,7 +39443,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="534" spans="1:25">
+    <row r="534" spans="1:25" hidden="1">
       <c r="A534" s="24" t="s">
         <v>912</v>
       </c>
@@ -39494,7 +39508,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="535" spans="1:25">
+    <row r="535" spans="1:25" hidden="1">
       <c r="A535" s="24" t="s">
         <v>912</v>
       </c>
@@ -39559,7 +39573,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="536" spans="1:25">
+    <row r="536" spans="1:25" hidden="1">
       <c r="A536" s="24" t="s">
         <v>912</v>
       </c>
@@ -39624,7 +39638,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="537" spans="1:25">
+    <row r="537" spans="1:25" hidden="1">
       <c r="A537" s="23" t="s">
         <v>977</v>
       </c>
@@ -39693,7 +39707,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="538" spans="1:25">
+    <row r="538" spans="1:25" hidden="1">
       <c r="A538" s="23" t="s">
         <v>977</v>
       </c>
@@ -39762,7 +39776,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="539" spans="1:25">
+    <row r="539" spans="1:25" hidden="1">
       <c r="A539" s="23" t="s">
         <v>977</v>
       </c>
@@ -39831,7 +39845,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="540" spans="1:25">
+    <row r="540" spans="1:25" hidden="1">
       <c r="A540" s="23" t="s">
         <v>977</v>
       </c>
@@ -39900,7 +39914,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="541" spans="1:25">
+    <row r="541" spans="1:25" hidden="1">
       <c r="A541" s="23" t="s">
         <v>926</v>
       </c>
@@ -39967,7 +39981,7 @@
       <c r="X541" s="23"/>
       <c r="Y541" s="23"/>
     </row>
-    <row r="542" spans="1:25">
+    <row r="542" spans="1:25" hidden="1">
       <c r="A542" s="23" t="s">
         <v>926</v>
       </c>
@@ -40034,7 +40048,7 @@
       <c r="X542" s="23"/>
       <c r="Y542" s="23"/>
     </row>
-    <row r="543" spans="1:25">
+    <row r="543" spans="1:25" hidden="1">
       <c r="A543" s="23" t="s">
         <v>926</v>
       </c>
@@ -40101,7 +40115,7 @@
       <c r="X543" s="23"/>
       <c r="Y543" s="23"/>
     </row>
-    <row r="544" spans="1:25">
+    <row r="544" spans="1:25" hidden="1">
       <c r="A544" s="23" t="s">
         <v>942</v>
       </c>
@@ -40167,7 +40181,7 @@
       <c r="X544" s="23"/>
       <c r="Y544" s="23"/>
     </row>
-    <row r="545" spans="1:25">
+    <row r="545" spans="1:25" hidden="1">
       <c r="A545" s="23" t="s">
         <v>942</v>
       </c>
@@ -40233,7 +40247,7 @@
       <c r="X545" s="23"/>
       <c r="Y545" s="23"/>
     </row>
-    <row r="546" spans="1:25">
+    <row r="546" spans="1:25" hidden="1">
       <c r="A546" s="23" t="s">
         <v>942</v>
       </c>
@@ -40299,7 +40313,7 @@
       <c r="X546" s="23"/>
       <c r="Y546" s="23"/>
     </row>
-    <row r="547" spans="1:25">
+    <row r="547" spans="1:25" hidden="1">
       <c r="A547" s="23" t="s">
         <v>942</v>
       </c>
@@ -40365,7 +40379,7 @@
       <c r="X547" s="23"/>
       <c r="Y547" s="23"/>
     </row>
-    <row r="548" spans="1:25">
+    <row r="548" spans="1:25" hidden="1">
       <c r="A548" s="23" t="s">
         <v>942</v>
       </c>
@@ -40431,7 +40445,7 @@
       <c r="X548" s="23"/>
       <c r="Y548" s="23"/>
     </row>
-    <row r="549" spans="1:25">
+    <row r="549" spans="1:25" hidden="1">
       <c r="A549" s="23" t="s">
         <v>942</v>
       </c>
@@ -40497,7 +40511,7 @@
       <c r="X549" s="23"/>
       <c r="Y549" s="23"/>
     </row>
-    <row r="550" spans="1:25">
+    <row r="550" spans="1:25" hidden="1">
       <c r="A550" s="23" t="s">
         <v>942</v>
       </c>
@@ -40563,7 +40577,7 @@
       <c r="X550" s="23"/>
       <c r="Y550" s="23"/>
     </row>
-    <row r="551" spans="1:25">
+    <row r="551" spans="1:25" hidden="1">
       <c r="A551" s="23" t="s">
         <v>942</v>
       </c>
@@ -40629,7 +40643,7 @@
       <c r="X551" s="23"/>
       <c r="Y551" s="23"/>
     </row>
-    <row r="552" spans="1:25">
+    <row r="552" spans="1:25" hidden="1">
       <c r="A552" s="23" t="s">
         <v>942</v>
       </c>
@@ -40695,7 +40709,7 @@
       <c r="X552" s="23"/>
       <c r="Y552" s="23"/>
     </row>
-    <row r="553" spans="1:25">
+    <row r="553" spans="1:25" hidden="1">
       <c r="A553" s="24" t="s">
         <v>934</v>
       </c>
@@ -40760,7 +40774,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="554" spans="1:25">
+    <row r="554" spans="1:25" hidden="1">
       <c r="A554" s="24" t="s">
         <v>934</v>
       </c>
@@ -40825,7 +40839,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="555" spans="1:25">
+    <row r="555" spans="1:25" hidden="1">
       <c r="A555" s="24" t="s">
         <v>985</v>
       </c>
@@ -40888,7 +40902,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y555" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}"/>
+  <autoFilter ref="A1:Y555" xr:uid="{35377F1F-C099-F44D-BF2D-0AACCA0EDD67}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="field"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="provided"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7169546-3E41-E442-831E-9944769B16BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00545DE-8A67-6142-BC28-3A4F24891D0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="1240" windowWidth="28020" windowHeight="21320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19660" yWindow="940" windowWidth="28020" windowHeight="21320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -4722,8 +4722,8 @@
   <dimension ref="A1:Z573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S535" sqref="S535"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/round1/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6643BB-562D-2B44-8C16-913E6FB1227E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792724C8-2762-9E49-A8B1-D5E9B3FA8D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37360" yWindow="500" windowWidth="27460" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="620" windowWidth="28400" windowHeight="22320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -24,20 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Done!$A$1:$Y$602</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Working!$A$1:$Q$144</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -4477,9 +4464,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4517,7 +4504,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4623,7 +4610,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4765,7 +4752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4775,9 +4762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
   <dimension ref="A1:Z602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M330" sqref="M330"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4799,9 +4786,9 @@
     <col min="15" max="15" width="33.6640625" style="24" customWidth="1"/>
     <col min="16" max="16" width="24.5" style="24" customWidth="1"/>
     <col min="17" max="17" width="8.83203125" style="24" customWidth="1"/>
-    <col min="18" max="18" width="45.33203125" style="24" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="61.33203125" style="24" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" style="24" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="45.33203125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="61.33203125" style="24" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="24" customWidth="1"/>
     <col min="21" max="21" width="9.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="24" bestFit="1" customWidth="1"/>
@@ -30886,17 +30873,17 @@
       <c r="F397" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G397" s="23" t="s">
-        <v>268</v>
+      <c r="G397" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="H397" s="23" t="s">
         <v>318</v>
       </c>
       <c r="I397" s="23" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J397" s="23" t="s">
         <v>590</v>
+      </c>
+      <c r="J397" s="24" t="s">
+        <v>1030</v>
       </c>
       <c r="K397" s="23" t="s">
         <v>394</v>
@@ -30990,7 +30977,7 @@
         <v>982</v>
       </c>
       <c r="S398" s="23" t="s">
-        <v>1030</v>
+        <v>1349</v>
       </c>
       <c r="T398" s="23" t="s">
         <v>853</v>
@@ -34061,16 +34048,16 @@
         <v>206</v>
       </c>
       <c r="G445" s="24" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="H445" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="I445" s="23" t="s">
-        <v>1273</v>
+      <c r="I445" s="24" t="s">
+        <v>568</v>
       </c>
       <c r="J445" s="24" t="s">
-        <v>568</v>
+        <v>1030</v>
       </c>
       <c r="K445" s="24" t="s">
         <v>394</v>
@@ -40921,8 +40908,8 @@
       <c r="F551" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="G551" s="24" t="s">
-        <v>268</v>
+      <c r="G551" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="H551" s="24" t="s">
         <v>638</v>
@@ -40986,8 +40973,8 @@
       <c r="F552" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G552" s="24" t="s">
-        <v>268</v>
+      <c r="G552" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="H552" s="24" t="s">
         <v>638</v>
